--- a/SharePoint/Docs/MS-WEBSS/MS-WEBSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-WEBSS/MS-WEBSS_RequirementSpecification.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source Depot\Repos\Interop-TestSuites-1\SharePoint\Docs\MS-WEBSS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="360" windowWidth="15405" windowHeight="6600" tabRatio="570"/>
   </bookViews>
@@ -7675,7 +7680,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -7958,20 +7963,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7997,444 +7990,189 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="41">
     <dxf>
       <font>
-        <strike/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-      </font>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -8611,168 +8349,121 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
+        <strike/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
+        <strike/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
+        <strike/>
       </font>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <strike/>
+      </font>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
       </font>
     </dxf>
   </dxfs>
@@ -8904,34 +8595,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I954" tableType="xml" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I954" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I954"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="92">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="91">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="90">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="89">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="88">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="87">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="86">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="85">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="84">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8940,12 +8631,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="102" dataDxfId="100" headerRowBorderDxfId="101" tableBorderDxfId="99" totalsRowBorderDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="97"/>
-    <tableColumn id="2" name="Test" dataDxfId="96"/>
-    <tableColumn id="3" name="Description" dataDxfId="95"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8994,7 +8685,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9027,9 +8718,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9062,6 +8770,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9245,15 +8970,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="22.25" style="9" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
     <col min="3" max="3" width="85" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="23" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.75" style="2" customWidth="1"/>
     <col min="10" max="11" width="9" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
@@ -9295,127 +9020,127 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
@@ -9428,12 +9153,12 @@
       <c r="C12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
@@ -9446,12 +9171,12 @@
       <c r="C13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
@@ -9464,12 +9189,12 @@
       <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
@@ -9482,60 +9207,60 @@
       <c r="C15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="30">
+    <row r="16" spans="1:10">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="43" t="s">
         <v>1957</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="30">
+    <row r="18" spans="1:12">
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="4"/>
       <c r="L18" s="3"/>
     </row>
@@ -9621,7 +9346,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="22" spans="1:12" s="21" customFormat="1">
       <c r="A22" s="20" t="s">
         <v>46</v>
       </c>
@@ -9721,7 +9446,7 @@
       </c>
       <c r="I25" s="22"/>
     </row>
-    <row r="26" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="26" spans="1:12" s="21" customFormat="1">
       <c r="A26" s="20" t="s">
         <v>50</v>
       </c>
@@ -9846,7 +9571,7 @@
       </c>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="31" spans="1:12" s="21" customFormat="1">
       <c r="A31" s="20" t="s">
         <v>55</v>
       </c>
@@ -10021,7 +9746,7 @@
       </c>
       <c r="I37" s="30"/>
     </row>
-    <row r="38" spans="1:9" ht="30">
+    <row r="38" spans="1:9">
       <c r="A38" s="28" t="s">
         <v>62</v>
       </c>
@@ -10071,7 +9796,7 @@
       </c>
       <c r="I39" s="30"/>
     </row>
-    <row r="40" spans="1:9" ht="30">
+    <row r="40" spans="1:9">
       <c r="A40" s="28" t="s">
         <v>64</v>
       </c>
@@ -10171,7 +9896,7 @@
       </c>
       <c r="I43" s="30"/>
     </row>
-    <row r="44" spans="1:9" ht="30">
+    <row r="44" spans="1:9">
       <c r="A44" s="28" t="s">
         <v>68</v>
       </c>
@@ -10221,7 +9946,7 @@
       </c>
       <c r="I45" s="30"/>
     </row>
-    <row r="46" spans="1:9" ht="30">
+    <row r="46" spans="1:9">
       <c r="A46" s="28" t="s">
         <v>70</v>
       </c>
@@ -10246,7 +9971,7 @@
       </c>
       <c r="I46" s="30"/>
     </row>
-    <row r="47" spans="1:9" ht="45">
+    <row r="47" spans="1:9" ht="30">
       <c r="A47" s="28" t="s">
         <v>71</v>
       </c>
@@ -10298,7 +10023,7 @@
       </c>
       <c r="I48" s="30"/>
     </row>
-    <row r="49" spans="1:9" ht="30">
+    <row r="49" spans="1:9">
       <c r="A49" s="28" t="s">
         <v>73</v>
       </c>
@@ -10423,7 +10148,7 @@
       </c>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="1:9" ht="30">
+    <row r="54" spans="1:9">
       <c r="A54" s="28" t="s">
         <v>78</v>
       </c>
@@ -10473,7 +10198,7 @@
       </c>
       <c r="I55" s="18"/>
     </row>
-    <row r="56" spans="1:9" ht="45">
+    <row r="56" spans="1:9" ht="30">
       <c r="A56" s="28" t="s">
         <v>80</v>
       </c>
@@ -10500,7 +10225,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="45">
+    <row r="57" spans="1:9" ht="30">
       <c r="A57" s="28" t="s">
         <v>81</v>
       </c>
@@ -10527,7 +10252,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="45">
+    <row r="58" spans="1:9" ht="30">
       <c r="A58" s="28" t="s">
         <v>82</v>
       </c>
@@ -10554,7 +10279,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="45">
+    <row r="59" spans="1:9" ht="30">
       <c r="A59" s="28" t="s">
         <v>83</v>
       </c>
@@ -10581,7 +10306,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="45">
+    <row r="60" spans="1:9" ht="30">
       <c r="A60" s="28" t="s">
         <v>84</v>
       </c>
@@ -10658,7 +10383,7 @@
       </c>
       <c r="I62" s="30"/>
     </row>
-    <row r="63" spans="1:9" ht="30">
+    <row r="63" spans="1:9">
       <c r="A63" s="28" t="s">
         <v>87</v>
       </c>
@@ -10683,7 +10408,7 @@
       </c>
       <c r="I63" s="30"/>
     </row>
-    <row r="64" spans="1:9" ht="30">
+    <row r="64" spans="1:9">
       <c r="A64" s="28" t="s">
         <v>88</v>
       </c>
@@ -10708,7 +10433,7 @@
       </c>
       <c r="I64" s="30"/>
     </row>
-    <row r="65" spans="1:9" ht="30">
+    <row r="65" spans="1:9">
       <c r="A65" s="28" t="s">
         <v>89</v>
       </c>
@@ -10733,7 +10458,7 @@
       </c>
       <c r="I65" s="30"/>
     </row>
-    <row r="66" spans="1:9" ht="30">
+    <row r="66" spans="1:9">
       <c r="A66" s="28" t="s">
         <v>90</v>
       </c>
@@ -10833,7 +10558,7 @@
       </c>
       <c r="I69" s="18"/>
     </row>
-    <row r="70" spans="1:9" ht="30">
+    <row r="70" spans="1:9">
       <c r="A70" s="28" t="s">
         <v>94</v>
       </c>
@@ -10858,7 +10583,7 @@
       </c>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="1:9" ht="90">
+    <row r="71" spans="1:9" ht="75">
       <c r="A71" s="28" t="s">
         <v>95</v>
       </c>
@@ -10883,7 +10608,7 @@
       </c>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="1:9" ht="30">
+    <row r="72" spans="1:9">
       <c r="A72" s="28" t="s">
         <v>96</v>
       </c>
@@ -11108,7 +10833,7 @@
       </c>
       <c r="I80" s="30"/>
     </row>
-    <row r="81" spans="1:9" ht="45">
+    <row r="81" spans="1:9" ht="30">
       <c r="A81" s="20" t="s">
         <v>105</v>
       </c>
@@ -11133,7 +10858,7 @@
       </c>
       <c r="I81" s="30"/>
     </row>
-    <row r="82" spans="1:9" ht="60">
+    <row r="82" spans="1:9" ht="45">
       <c r="A82" s="20" t="s">
         <v>106</v>
       </c>
@@ -11258,7 +10983,7 @@
       </c>
       <c r="I86" s="30"/>
     </row>
-    <row r="87" spans="1:9" ht="45">
+    <row r="87" spans="1:9" ht="30">
       <c r="A87" s="28" t="s">
         <v>111</v>
       </c>
@@ -11283,7 +11008,7 @@
       </c>
       <c r="I87" s="30"/>
     </row>
-    <row r="88" spans="1:9" ht="45">
+    <row r="88" spans="1:9" ht="30">
       <c r="A88" s="28" t="s">
         <v>112</v>
       </c>
@@ -11308,7 +11033,7 @@
       </c>
       <c r="I88" s="30"/>
     </row>
-    <row r="89" spans="1:9" ht="45">
+    <row r="89" spans="1:9" ht="30">
       <c r="A89" s="28" t="s">
         <v>113</v>
       </c>
@@ -11608,7 +11333,7 @@
       </c>
       <c r="I100" s="30"/>
     </row>
-    <row r="101" spans="1:9" ht="45">
+    <row r="101" spans="1:9" ht="30">
       <c r="A101" s="28" t="s">
         <v>125</v>
       </c>
@@ -12233,7 +11958,7 @@
       </c>
       <c r="I125" s="30"/>
     </row>
-    <row r="126" spans="1:9" ht="45">
+    <row r="126" spans="1:9" ht="30">
       <c r="A126" s="28" t="s">
         <v>150</v>
       </c>
@@ -12258,7 +11983,7 @@
       </c>
       <c r="I126" s="30"/>
     </row>
-    <row r="127" spans="1:9" ht="45">
+    <row r="127" spans="1:9" ht="30">
       <c r="A127" s="28" t="s">
         <v>151</v>
       </c>
@@ -12333,7 +12058,7 @@
       </c>
       <c r="I129" s="30"/>
     </row>
-    <row r="130" spans="1:9" ht="30">
+    <row r="130" spans="1:9">
       <c r="A130" s="28" t="s">
         <v>154</v>
       </c>
@@ -12383,7 +12108,7 @@
       </c>
       <c r="I131" s="30"/>
     </row>
-    <row r="132" spans="1:9" ht="45">
+    <row r="132" spans="1:9" ht="30">
       <c r="A132" s="28" t="s">
         <v>156</v>
       </c>
@@ -12435,7 +12160,7 @@
       </c>
       <c r="I133" s="30"/>
     </row>
-    <row r="134" spans="1:9" ht="45">
+    <row r="134" spans="1:9" ht="30">
       <c r="A134" s="28" t="s">
         <v>158</v>
       </c>
@@ -12535,7 +12260,7 @@
       </c>
       <c r="I137" s="30"/>
     </row>
-    <row r="138" spans="1:9" ht="45">
+    <row r="138" spans="1:9" ht="30">
       <c r="A138" s="28" t="s">
         <v>162</v>
       </c>
@@ -12560,7 +12285,7 @@
       </c>
       <c r="I138" s="18"/>
     </row>
-    <row r="139" spans="1:9" ht="45">
+    <row r="139" spans="1:9" ht="30">
       <c r="A139" s="28" t="s">
         <v>163</v>
       </c>
@@ -12610,7 +12335,7 @@
       </c>
       <c r="I140" s="30"/>
     </row>
-    <row r="141" spans="1:9" ht="45">
+    <row r="141" spans="1:9" ht="30">
       <c r="A141" s="28" t="s">
         <v>165</v>
       </c>
@@ -12635,7 +12360,7 @@
       </c>
       <c r="I141" s="18"/>
     </row>
-    <row r="142" spans="1:9" ht="45">
+    <row r="142" spans="1:9" ht="30">
       <c r="A142" s="28" t="s">
         <v>166</v>
       </c>
@@ -12860,7 +12585,7 @@
       </c>
       <c r="I150" s="30"/>
     </row>
-    <row r="151" spans="1:9" ht="30">
+    <row r="151" spans="1:9">
       <c r="A151" s="28" t="s">
         <v>175</v>
       </c>
@@ -12935,7 +12660,7 @@
       </c>
       <c r="I153" s="30"/>
     </row>
-    <row r="154" spans="1:9" ht="45">
+    <row r="154" spans="1:9" ht="30">
       <c r="A154" s="28" t="s">
         <v>178</v>
       </c>
@@ -12985,7 +12710,7 @@
       </c>
       <c r="I155" s="30"/>
     </row>
-    <row r="156" spans="1:9" ht="270">
+    <row r="156" spans="1:9" ht="255">
       <c r="A156" s="28" t="s">
         <v>180</v>
       </c>
@@ -13010,7 +12735,7 @@
       </c>
       <c r="I156" s="30"/>
     </row>
-    <row r="157" spans="1:9" ht="30">
+    <row r="157" spans="1:9">
       <c r="A157" s="28" t="s">
         <v>181</v>
       </c>
@@ -13035,7 +12760,7 @@
       </c>
       <c r="I157" s="30"/>
     </row>
-    <row r="158" spans="1:9" ht="60">
+    <row r="158" spans="1:9" ht="45">
       <c r="A158" s="28" t="s">
         <v>182</v>
       </c>
@@ -13060,7 +12785,7 @@
       </c>
       <c r="I158" s="30"/>
     </row>
-    <row r="159" spans="1:9" ht="45">
+    <row r="159" spans="1:9" ht="30">
       <c r="A159" s="28" t="s">
         <v>183</v>
       </c>
@@ -13085,7 +12810,7 @@
       </c>
       <c r="I159" s="30"/>
     </row>
-    <row r="160" spans="1:9" ht="45">
+    <row r="160" spans="1:9" ht="30">
       <c r="A160" s="28" t="s">
         <v>184</v>
       </c>
@@ -13110,7 +12835,7 @@
       </c>
       <c r="I160" s="30"/>
     </row>
-    <row r="161" spans="1:9" ht="45">
+    <row r="161" spans="1:9" ht="30">
       <c r="A161" s="28" t="s">
         <v>185</v>
       </c>
@@ -13135,7 +12860,7 @@
       </c>
       <c r="I161" s="30"/>
     </row>
-    <row r="162" spans="1:9" ht="45">
+    <row r="162" spans="1:9" ht="30">
       <c r="A162" s="28" t="s">
         <v>186</v>
       </c>
@@ -13160,7 +12885,7 @@
       </c>
       <c r="I162" s="30"/>
     </row>
-    <row r="163" spans="1:9" ht="270">
+    <row r="163" spans="1:9" ht="180">
       <c r="A163" s="28" t="s">
         <v>187</v>
       </c>
@@ -13187,7 +12912,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="30">
+    <row r="164" spans="1:9">
       <c r="A164" s="28" t="s">
         <v>188</v>
       </c>
@@ -13214,7 +12939,7 @@
       </c>
       <c r="I164" s="30"/>
     </row>
-    <row r="165" spans="1:9" ht="30">
+    <row r="165" spans="1:9">
       <c r="A165" s="28" t="s">
         <v>189</v>
       </c>
@@ -13241,7 +12966,7 @@
       </c>
       <c r="I165" s="30"/>
     </row>
-    <row r="166" spans="1:9" ht="30">
+    <row r="166" spans="1:9">
       <c r="A166" s="28" t="s">
         <v>190</v>
       </c>
@@ -13268,7 +12993,7 @@
       </c>
       <c r="I166" s="30"/>
     </row>
-    <row r="167" spans="1:9" ht="30">
+    <row r="167" spans="1:9">
       <c r="A167" s="28" t="s">
         <v>191</v>
       </c>
@@ -13295,7 +13020,7 @@
       </c>
       <c r="I167" s="30"/>
     </row>
-    <row r="168" spans="1:9" ht="30">
+    <row r="168" spans="1:9">
       <c r="A168" s="28" t="s">
         <v>192</v>
       </c>
@@ -13322,7 +13047,7 @@
       </c>
       <c r="I168" s="30"/>
     </row>
-    <row r="169" spans="1:9" ht="30">
+    <row r="169" spans="1:9">
       <c r="A169" s="28" t="s">
         <v>193</v>
       </c>
@@ -13349,7 +13074,7 @@
       </c>
       <c r="I169" s="30"/>
     </row>
-    <row r="170" spans="1:9" ht="30">
+    <row r="170" spans="1:9">
       <c r="A170" s="28" t="s">
         <v>194</v>
       </c>
@@ -13376,7 +13101,7 @@
       </c>
       <c r="I170" s="30"/>
     </row>
-    <row r="171" spans="1:9" ht="30">
+    <row r="171" spans="1:9">
       <c r="A171" s="28" t="s">
         <v>195</v>
       </c>
@@ -13403,7 +13128,7 @@
       </c>
       <c r="I171" s="30"/>
     </row>
-    <row r="172" spans="1:9" ht="30">
+    <row r="172" spans="1:9">
       <c r="A172" s="28" t="s">
         <v>196</v>
       </c>
@@ -13430,7 +13155,7 @@
       </c>
       <c r="I172" s="30"/>
     </row>
-    <row r="173" spans="1:9" ht="30">
+    <row r="173" spans="1:9">
       <c r="A173" s="28" t="s">
         <v>197</v>
       </c>
@@ -13457,7 +13182,7 @@
       </c>
       <c r="I173" s="30"/>
     </row>
-    <row r="174" spans="1:9" ht="30">
+    <row r="174" spans="1:9">
       <c r="A174" s="28" t="s">
         <v>198</v>
       </c>
@@ -13484,7 +13209,7 @@
       </c>
       <c r="I174" s="30"/>
     </row>
-    <row r="175" spans="1:9" ht="30">
+    <row r="175" spans="1:9">
       <c r="A175" s="28" t="s">
         <v>199</v>
       </c>
@@ -13511,7 +13236,7 @@
       </c>
       <c r="I175" s="30"/>
     </row>
-    <row r="176" spans="1:9" ht="30">
+    <row r="176" spans="1:9">
       <c r="A176" s="28" t="s">
         <v>200</v>
       </c>
@@ -13538,7 +13263,7 @@
       </c>
       <c r="I176" s="30"/>
     </row>
-    <row r="177" spans="1:9" ht="30">
+    <row r="177" spans="1:9">
       <c r="A177" s="28" t="s">
         <v>201</v>
       </c>
@@ -13669,7 +13394,7 @@
       </c>
       <c r="I181" s="33"/>
     </row>
-    <row r="182" spans="1:9" ht="30">
+    <row r="182" spans="1:9">
       <c r="A182" s="28" t="s">
         <v>205</v>
       </c>
@@ -13694,7 +13419,7 @@
       </c>
       <c r="I182" s="30"/>
     </row>
-    <row r="183" spans="1:9" ht="30">
+    <row r="183" spans="1:9">
       <c r="A183" s="28" t="s">
         <v>206</v>
       </c>
@@ -13719,7 +13444,7 @@
       </c>
       <c r="I183" s="30"/>
     </row>
-    <row r="184" spans="1:9" ht="30">
+    <row r="184" spans="1:9">
       <c r="A184" s="28" t="s">
         <v>207</v>
       </c>
@@ -13819,7 +13544,7 @@
       </c>
       <c r="I187" s="30"/>
     </row>
-    <row r="188" spans="1:9" ht="135">
+    <row r="188" spans="1:9" ht="120">
       <c r="A188" s="28" t="s">
         <v>211</v>
       </c>
@@ -13844,7 +13569,7 @@
       </c>
       <c r="I188" s="30"/>
     </row>
-    <row r="189" spans="1:9" ht="60">
+    <row r="189" spans="1:9" ht="45">
       <c r="A189" s="28" t="s">
         <v>212</v>
       </c>
@@ -14044,7 +13769,7 @@
       </c>
       <c r="I196" s="30"/>
     </row>
-    <row r="197" spans="1:9" ht="45">
+    <row r="197" spans="1:9" ht="30">
       <c r="A197" s="28" t="s">
         <v>219</v>
       </c>
@@ -14069,7 +13794,7 @@
       </c>
       <c r="I197" s="30"/>
     </row>
-    <row r="198" spans="1:9" ht="30">
+    <row r="198" spans="1:9">
       <c r="A198" s="28" t="s">
         <v>220</v>
       </c>
@@ -14469,7 +14194,7 @@
       </c>
       <c r="I213" s="30"/>
     </row>
-    <row r="214" spans="1:9" ht="60">
+    <row r="214" spans="1:9" ht="45">
       <c r="A214" s="28" t="s">
         <v>236</v>
       </c>
@@ -14496,7 +14221,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="45">
+    <row r="215" spans="1:9" ht="30">
       <c r="A215" s="28" t="s">
         <v>242</v>
       </c>
@@ -14548,7 +14273,7 @@
       </c>
       <c r="I216" s="30"/>
     </row>
-    <row r="217" spans="1:9" ht="45">
+    <row r="217" spans="1:9" ht="30">
       <c r="A217" s="28" t="s">
         <v>244</v>
       </c>
@@ -14598,7 +14323,7 @@
       </c>
       <c r="I218" s="30"/>
     </row>
-    <row r="219" spans="1:9" ht="30">
+    <row r="219" spans="1:9">
       <c r="A219" s="28" t="s">
         <v>246</v>
       </c>
@@ -14648,7 +14373,7 @@
       </c>
       <c r="I220" s="30"/>
     </row>
-    <row r="221" spans="1:9" ht="45">
+    <row r="221" spans="1:9" ht="30">
       <c r="A221" s="28" t="s">
         <v>248</v>
       </c>
@@ -14723,7 +14448,7 @@
       </c>
       <c r="I223" s="30"/>
     </row>
-    <row r="224" spans="1:9" ht="45">
+    <row r="224" spans="1:9" ht="30">
       <c r="A224" s="28" t="s">
         <v>251</v>
       </c>
@@ -14798,7 +14523,7 @@
       </c>
       <c r="I226" s="30"/>
     </row>
-    <row r="227" spans="1:9" ht="30">
+    <row r="227" spans="1:9">
       <c r="A227" s="28" t="s">
         <v>254</v>
       </c>
@@ -15073,7 +14798,7 @@
       </c>
       <c r="I237" s="30"/>
     </row>
-    <row r="238" spans="1:9" ht="30">
+    <row r="238" spans="1:9">
       <c r="A238" s="28" t="s">
         <v>264</v>
       </c>
@@ -15098,7 +14823,7 @@
       </c>
       <c r="I238" s="30"/>
     </row>
-    <row r="239" spans="1:9" ht="45">
+    <row r="239" spans="1:9" ht="30">
       <c r="A239" s="28" t="s">
         <v>265</v>
       </c>
@@ -15150,7 +14875,7 @@
       </c>
       <c r="I240" s="30"/>
     </row>
-    <row r="241" spans="1:9" ht="45">
+    <row r="241" spans="1:9" ht="30">
       <c r="A241" s="28" t="s">
         <v>267</v>
       </c>
@@ -15200,7 +14925,7 @@
       </c>
       <c r="I242" s="30"/>
     </row>
-    <row r="243" spans="1:9" ht="45">
+    <row r="243" spans="1:9" ht="30">
       <c r="A243" s="28" t="s">
         <v>269</v>
       </c>
@@ -15225,7 +14950,7 @@
       </c>
       <c r="I243" s="30"/>
     </row>
-    <row r="244" spans="1:9" ht="45">
+    <row r="244" spans="1:9" ht="30">
       <c r="A244" s="20" t="s">
         <v>1898</v>
       </c>
@@ -15325,7 +15050,7 @@
       </c>
       <c r="I247" s="30"/>
     </row>
-    <row r="248" spans="1:9" ht="60">
+    <row r="248" spans="1:9" ht="45">
       <c r="A248" s="28" t="s">
         <v>273</v>
       </c>
@@ -15350,7 +15075,7 @@
       </c>
       <c r="I248" s="30"/>
     </row>
-    <row r="249" spans="1:9" ht="75">
+    <row r="249" spans="1:9" ht="60">
       <c r="A249" s="28" t="s">
         <v>274</v>
       </c>
@@ -15400,7 +15125,7 @@
       </c>
       <c r="I250" s="30"/>
     </row>
-    <row r="251" spans="1:9" ht="45">
+    <row r="251" spans="1:9" ht="30">
       <c r="A251" s="28" t="s">
         <v>276</v>
       </c>
@@ -15500,7 +15225,7 @@
       </c>
       <c r="I254" s="30"/>
     </row>
-    <row r="255" spans="1:9" ht="30">
+    <row r="255" spans="1:9">
       <c r="A255" s="28" t="s">
         <v>280</v>
       </c>
@@ -15550,7 +15275,7 @@
       </c>
       <c r="I256" s="30"/>
     </row>
-    <row r="257" spans="1:9" ht="60">
+    <row r="257" spans="1:9" ht="45">
       <c r="A257" s="28" t="s">
         <v>282</v>
       </c>
@@ -15625,7 +15350,7 @@
       </c>
       <c r="I259" s="30"/>
     </row>
-    <row r="260" spans="1:9" ht="150">
+    <row r="260" spans="1:9" ht="135">
       <c r="A260" s="28" t="s">
         <v>285</v>
       </c>
@@ -15650,7 +15375,7 @@
       </c>
       <c r="I260" s="30"/>
     </row>
-    <row r="261" spans="1:9" ht="45">
+    <row r="261" spans="1:9" ht="30">
       <c r="A261" s="28" t="s">
         <v>286</v>
       </c>
@@ -15675,7 +15400,7 @@
       </c>
       <c r="I261" s="30"/>
     </row>
-    <row r="262" spans="1:9" ht="45">
+    <row r="262" spans="1:9" ht="30">
       <c r="A262" s="28" t="s">
         <v>287</v>
       </c>
@@ -15800,7 +15525,7 @@
       </c>
       <c r="I266" s="30"/>
     </row>
-    <row r="267" spans="1:9" ht="45">
+    <row r="267" spans="1:9" ht="30">
       <c r="A267" s="28" t="s">
         <v>292</v>
       </c>
@@ -15825,7 +15550,7 @@
       </c>
       <c r="I267" s="30"/>
     </row>
-    <row r="268" spans="1:9" ht="30">
+    <row r="268" spans="1:9">
       <c r="A268" s="28" t="s">
         <v>293</v>
       </c>
@@ -15925,7 +15650,7 @@
       </c>
       <c r="I271" s="30"/>
     </row>
-    <row r="272" spans="1:9" ht="45">
+    <row r="272" spans="1:9" ht="30">
       <c r="A272" s="28" t="s">
         <v>297</v>
       </c>
@@ -15975,7 +15700,7 @@
       </c>
       <c r="I273" s="30"/>
     </row>
-    <row r="274" spans="1:9" ht="45">
+    <row r="274" spans="1:9" ht="30">
       <c r="A274" s="28" t="s">
         <v>299</v>
       </c>
@@ -16000,7 +15725,7 @@
       </c>
       <c r="I274" s="30"/>
     </row>
-    <row r="275" spans="1:9" ht="30">
+    <row r="275" spans="1:9">
       <c r="A275" s="28" t="s">
         <v>300</v>
       </c>
@@ -16050,7 +15775,7 @@
       </c>
       <c r="I276" s="30"/>
     </row>
-    <row r="277" spans="1:9" ht="30">
+    <row r="277" spans="1:9">
       <c r="A277" s="28" t="s">
         <v>302</v>
       </c>
@@ -16125,7 +15850,7 @@
       </c>
       <c r="I279" s="30"/>
     </row>
-    <row r="280" spans="1:9" ht="60">
+    <row r="280" spans="1:9" ht="45">
       <c r="A280" s="28" t="s">
         <v>305</v>
       </c>
@@ -16175,7 +15900,7 @@
       </c>
       <c r="I281" s="30"/>
     </row>
-    <row r="282" spans="1:9" ht="330">
+    <row r="282" spans="1:9" ht="315">
       <c r="A282" s="28" t="s">
         <v>307</v>
       </c>
@@ -16200,7 +15925,7 @@
       </c>
       <c r="I282" s="30"/>
     </row>
-    <row r="283" spans="1:9" ht="30">
+    <row r="283" spans="1:9">
       <c r="A283" s="28" t="s">
         <v>308</v>
       </c>
@@ -16225,7 +15950,7 @@
       </c>
       <c r="I283" s="30"/>
     </row>
-    <row r="284" spans="1:9" ht="30">
+    <row r="284" spans="1:9">
       <c r="A284" s="28" t="s">
         <v>309</v>
       </c>
@@ -16275,7 +16000,7 @@
       </c>
       <c r="I285" s="30"/>
     </row>
-    <row r="286" spans="1:9" ht="30">
+    <row r="286" spans="1:9">
       <c r="A286" s="28" t="s">
         <v>311</v>
       </c>
@@ -16350,7 +16075,7 @@
       </c>
       <c r="I288" s="30"/>
     </row>
-    <row r="289" spans="1:9" ht="30">
+    <row r="289" spans="1:9">
       <c r="A289" s="28" t="s">
         <v>314</v>
       </c>
@@ -16375,7 +16100,7 @@
       </c>
       <c r="I289" s="30"/>
     </row>
-    <row r="290" spans="1:9" ht="30">
+    <row r="290" spans="1:9">
       <c r="A290" s="28" t="s">
         <v>315</v>
       </c>
@@ -16875,7 +16600,7 @@
       </c>
       <c r="I309" s="30"/>
     </row>
-    <row r="310" spans="1:9" ht="75">
+    <row r="310" spans="1:9" ht="60">
       <c r="A310" s="28" t="s">
         <v>335</v>
       </c>
@@ -16900,7 +16625,7 @@
       </c>
       <c r="I310" s="30"/>
     </row>
-    <row r="311" spans="1:9" ht="345">
+    <row r="311" spans="1:9" ht="330">
       <c r="A311" s="28" t="s">
         <v>336</v>
       </c>
@@ -16925,7 +16650,7 @@
       </c>
       <c r="I311" s="30"/>
     </row>
-    <row r="312" spans="1:9" ht="30">
+    <row r="312" spans="1:9">
       <c r="A312" s="28" t="s">
         <v>337</v>
       </c>
@@ -16950,7 +16675,7 @@
       </c>
       <c r="I312" s="30"/>
     </row>
-    <row r="313" spans="1:9" ht="30">
+    <row r="313" spans="1:9">
       <c r="A313" s="28" t="s">
         <v>338</v>
       </c>
@@ -17125,7 +16850,7 @@
       </c>
       <c r="I319" s="30"/>
     </row>
-    <row r="320" spans="1:9" ht="30">
+    <row r="320" spans="1:9">
       <c r="A320" s="28" t="s">
         <v>345</v>
       </c>
@@ -17150,7 +16875,7 @@
       </c>
       <c r="I320" s="30"/>
     </row>
-    <row r="321" spans="1:9" ht="30">
+    <row r="321" spans="1:9">
       <c r="A321" s="28" t="s">
         <v>346</v>
       </c>
@@ -17275,7 +17000,7 @@
       </c>
       <c r="I325" s="30"/>
     </row>
-    <row r="326" spans="1:9" ht="30">
+    <row r="326" spans="1:9">
       <c r="A326" s="28" t="s">
         <v>351</v>
       </c>
@@ -17350,7 +17075,7 @@
       </c>
       <c r="I328" s="30"/>
     </row>
-    <row r="329" spans="1:9" ht="30">
+    <row r="329" spans="1:9">
       <c r="A329" s="28" t="s">
         <v>354</v>
       </c>
@@ -17500,7 +17225,7 @@
       </c>
       <c r="I334" s="30"/>
     </row>
-    <row r="335" spans="1:9" ht="30">
+    <row r="335" spans="1:9">
       <c r="A335" s="28" t="s">
         <v>360</v>
       </c>
@@ -17625,7 +17350,7 @@
       </c>
       <c r="I339" s="30"/>
     </row>
-    <row r="340" spans="1:9" ht="30">
+    <row r="340" spans="1:9">
       <c r="A340" s="28" t="s">
         <v>364</v>
       </c>
@@ -17650,7 +17375,7 @@
       </c>
       <c r="I340" s="30"/>
     </row>
-    <row r="341" spans="1:9" ht="30">
+    <row r="341" spans="1:9">
       <c r="A341" s="28" t="s">
         <v>365</v>
       </c>
@@ -17700,7 +17425,7 @@
       </c>
       <c r="I342" s="30"/>
     </row>
-    <row r="343" spans="1:9" ht="45">
+    <row r="343" spans="1:9" ht="30">
       <c r="A343" s="28" t="s">
         <v>367</v>
       </c>
@@ -17775,7 +17500,7 @@
       </c>
       <c r="I345" s="30"/>
     </row>
-    <row r="346" spans="1:9" ht="45">
+    <row r="346" spans="1:9" ht="30">
       <c r="A346" s="28" t="s">
         <v>370</v>
       </c>
@@ -17825,7 +17550,7 @@
       </c>
       <c r="I347" s="30"/>
     </row>
-    <row r="348" spans="1:9" ht="45">
+    <row r="348" spans="1:9" ht="30">
       <c r="A348" s="28" t="s">
         <v>372</v>
       </c>
@@ -17875,7 +17600,7 @@
       </c>
       <c r="I349" s="30"/>
     </row>
-    <row r="350" spans="1:9" ht="45">
+    <row r="350" spans="1:9" ht="30">
       <c r="A350" s="28" t="s">
         <v>374</v>
       </c>
@@ -17900,7 +17625,7 @@
       </c>
       <c r="I350" s="30"/>
     </row>
-    <row r="351" spans="1:9" ht="45">
+    <row r="351" spans="1:9" ht="30">
       <c r="A351" s="28" t="s">
         <v>375</v>
       </c>
@@ -17950,7 +17675,7 @@
       </c>
       <c r="I352" s="30"/>
     </row>
-    <row r="353" spans="1:9" ht="75">
+    <row r="353" spans="1:9" ht="45">
       <c r="A353" s="28" t="s">
         <v>377</v>
       </c>
@@ -18000,7 +17725,7 @@
       </c>
       <c r="I354" s="30"/>
     </row>
-    <row r="355" spans="1:9" ht="30">
+    <row r="355" spans="1:9">
       <c r="A355" s="28" t="s">
         <v>379</v>
       </c>
@@ -18025,7 +17750,7 @@
       </c>
       <c r="I355" s="30"/>
     </row>
-    <row r="356" spans="1:9" ht="45">
+    <row r="356" spans="1:9" ht="30">
       <c r="A356" s="28" t="s">
         <v>380</v>
       </c>
@@ -18150,7 +17875,7 @@
       </c>
       <c r="I360" s="30"/>
     </row>
-    <row r="361" spans="1:9" ht="45">
+    <row r="361" spans="1:9" ht="30">
       <c r="A361" s="28" t="s">
         <v>385</v>
       </c>
@@ -18250,7 +17975,7 @@
       </c>
       <c r="I364" s="30"/>
     </row>
-    <row r="365" spans="1:9" ht="30">
+    <row r="365" spans="1:9">
       <c r="A365" s="28" t="s">
         <v>389</v>
       </c>
@@ -18275,7 +18000,7 @@
       </c>
       <c r="I365" s="30"/>
     </row>
-    <row r="366" spans="1:9" ht="45">
+    <row r="366" spans="1:9" ht="30">
       <c r="A366" s="28" t="s">
         <v>390</v>
       </c>
@@ -18325,7 +18050,7 @@
       </c>
       <c r="I367" s="30"/>
     </row>
-    <row r="368" spans="1:9" ht="30">
+    <row r="368" spans="1:9">
       <c r="A368" s="28" t="s">
         <v>392</v>
       </c>
@@ -18450,7 +18175,7 @@
       </c>
       <c r="I372" s="30"/>
     </row>
-    <row r="373" spans="1:9" ht="45">
+    <row r="373" spans="1:9" ht="30">
       <c r="A373" s="28" t="s">
         <v>397</v>
       </c>
@@ -18702,7 +18427,7 @@
       </c>
       <c r="I382" s="30"/>
     </row>
-    <row r="383" spans="1:9" ht="30">
+    <row r="383" spans="1:9">
       <c r="A383" s="28" t="s">
         <v>407</v>
       </c>
@@ -18752,7 +18477,7 @@
       </c>
       <c r="I384" s="30"/>
     </row>
-    <row r="385" spans="1:9" ht="30">
+    <row r="385" spans="1:9">
       <c r="A385" s="28" t="s">
         <v>409</v>
       </c>
@@ -18802,7 +18527,7 @@
       </c>
       <c r="I386" s="30"/>
     </row>
-    <row r="387" spans="1:9" ht="30">
+    <row r="387" spans="1:9">
       <c r="A387" s="28" t="s">
         <v>411</v>
       </c>
@@ -18902,7 +18627,7 @@
       </c>
       <c r="I390" s="30"/>
     </row>
-    <row r="391" spans="1:9" ht="30">
+    <row r="391" spans="1:9">
       <c r="A391" s="28" t="s">
         <v>415</v>
       </c>
@@ -19002,7 +18727,7 @@
       </c>
       <c r="I394" s="30"/>
     </row>
-    <row r="395" spans="1:9" ht="45">
+    <row r="395" spans="1:9" ht="30">
       <c r="A395" s="28" t="s">
         <v>419</v>
       </c>
@@ -19027,7 +18752,7 @@
       </c>
       <c r="I395" s="30"/>
     </row>
-    <row r="396" spans="1:9" ht="45">
+    <row r="396" spans="1:9" ht="30">
       <c r="A396" s="28" t="s">
         <v>420</v>
       </c>
@@ -19077,7 +18802,7 @@
       </c>
       <c r="I397" s="30"/>
     </row>
-    <row r="398" spans="1:9" ht="45">
+    <row r="398" spans="1:9" ht="30">
       <c r="A398" s="28" t="s">
         <v>422</v>
       </c>
@@ -19152,7 +18877,7 @@
       </c>
       <c r="I400" s="30"/>
     </row>
-    <row r="401" spans="1:9" ht="45">
+    <row r="401" spans="1:9" ht="30">
       <c r="A401" s="28" t="s">
         <v>425</v>
       </c>
@@ -19252,7 +18977,7 @@
       </c>
       <c r="I404" s="18"/>
     </row>
-    <row r="405" spans="1:9" ht="45">
+    <row r="405" spans="1:9" ht="30">
       <c r="A405" s="28" t="s">
         <v>429</v>
       </c>
@@ -19279,7 +19004,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="90">
+    <row r="406" spans="1:9" ht="75">
       <c r="A406" s="28" t="s">
         <v>430</v>
       </c>
@@ -19354,7 +19079,7 @@
       </c>
       <c r="I408" s="30"/>
     </row>
-    <row r="409" spans="1:9" ht="45">
+    <row r="409" spans="1:9" ht="30">
       <c r="A409" s="28" t="s">
         <v>433</v>
       </c>
@@ -19579,7 +19304,7 @@
       </c>
       <c r="I417" s="30"/>
     </row>
-    <row r="418" spans="1:9" ht="45">
+    <row r="418" spans="1:9" ht="30">
       <c r="A418" s="28" t="s">
         <v>442</v>
       </c>
@@ -19679,7 +19404,7 @@
       </c>
       <c r="I421" s="30"/>
     </row>
-    <row r="422" spans="1:9" ht="45">
+    <row r="422" spans="1:9" ht="30">
       <c r="A422" s="28" t="s">
         <v>446</v>
       </c>
@@ -19729,7 +19454,7 @@
       </c>
       <c r="I423" s="30"/>
     </row>
-    <row r="424" spans="1:9" ht="45">
+    <row r="424" spans="1:9" ht="30">
       <c r="A424" s="28" t="s">
         <v>448</v>
       </c>
@@ -19754,7 +19479,7 @@
       </c>
       <c r="I424" s="30"/>
     </row>
-    <row r="425" spans="1:9" ht="30">
+    <row r="425" spans="1:9">
       <c r="A425" s="28" t="s">
         <v>449</v>
       </c>
@@ -19879,7 +19604,7 @@
       </c>
       <c r="I429" s="30"/>
     </row>
-    <row r="430" spans="1:9" ht="60">
+    <row r="430" spans="1:9" ht="45">
       <c r="A430" s="28" t="s">
         <v>454</v>
       </c>
@@ -19904,7 +19629,7 @@
       </c>
       <c r="I430" s="30"/>
     </row>
-    <row r="431" spans="1:9" ht="135">
+    <row r="431" spans="1:9" ht="120">
       <c r="A431" s="28" t="s">
         <v>455</v>
       </c>
@@ -19954,7 +19679,7 @@
       </c>
       <c r="I432" s="30"/>
     </row>
-    <row r="433" spans="1:9" ht="150">
+    <row r="433" spans="1:9" ht="135">
       <c r="A433" s="28" t="s">
         <v>457</v>
       </c>
@@ -20004,7 +19729,7 @@
       </c>
       <c r="I434" s="30"/>
     </row>
-    <row r="435" spans="1:9" ht="75">
+    <row r="435" spans="1:9" ht="60">
       <c r="A435" s="28" t="s">
         <v>459</v>
       </c>
@@ -20081,7 +19806,7 @@
       </c>
       <c r="I437" s="30"/>
     </row>
-    <row r="438" spans="1:9" ht="60">
+    <row r="438" spans="1:9" ht="45">
       <c r="A438" s="28" t="s">
         <v>463</v>
       </c>
@@ -20106,7 +19831,7 @@
       </c>
       <c r="I438" s="30"/>
     </row>
-    <row r="439" spans="1:9" ht="45">
+    <row r="439" spans="1:9" ht="30">
       <c r="A439" s="28" t="s">
         <v>464</v>
       </c>
@@ -20206,7 +19931,7 @@
       </c>
       <c r="I442" s="30"/>
     </row>
-    <row r="443" spans="1:9" ht="30">
+    <row r="443" spans="1:9">
       <c r="A443" s="28" t="s">
         <v>468</v>
       </c>
@@ -20252,7 +19977,7 @@
         <v>15</v>
       </c>
       <c r="H444" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I444" s="30"/>
     </row>
@@ -20277,7 +20002,7 @@
         <v>15</v>
       </c>
       <c r="H445" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I445" s="30"/>
     </row>
@@ -20331,7 +20056,7 @@
       </c>
       <c r="I447" s="30"/>
     </row>
-    <row r="448" spans="1:9" ht="45">
+    <row r="448" spans="1:9" ht="30">
       <c r="A448" s="28" t="s">
         <v>473</v>
       </c>
@@ -20356,7 +20081,7 @@
       </c>
       <c r="I448" s="30"/>
     </row>
-    <row r="449" spans="1:9" ht="60">
+    <row r="449" spans="1:9" ht="45">
       <c r="A449" s="28" t="s">
         <v>474</v>
       </c>
@@ -20456,7 +20181,7 @@
       </c>
       <c r="I452" s="30"/>
     </row>
-    <row r="453" spans="1:9" ht="45">
+    <row r="453" spans="1:9" ht="30">
       <c r="A453" s="28" t="s">
         <v>478</v>
       </c>
@@ -20881,7 +20606,7 @@
       </c>
       <c r="I469" s="30"/>
     </row>
-    <row r="470" spans="1:9" ht="255">
+    <row r="470" spans="1:9" ht="240">
       <c r="A470" s="28" t="s">
         <v>495</v>
       </c>
@@ -20931,7 +20656,7 @@
       </c>
       <c r="I471" s="30"/>
     </row>
-    <row r="472" spans="1:9" ht="120">
+    <row r="472" spans="1:9" ht="105">
       <c r="A472" s="28" t="s">
         <v>497</v>
       </c>
@@ -20956,7 +20681,7 @@
       </c>
       <c r="I472" s="30"/>
     </row>
-    <row r="473" spans="1:9" ht="45">
+    <row r="473" spans="1:9" ht="30">
       <c r="A473" s="28" t="s">
         <v>498</v>
       </c>
@@ -21008,7 +20733,7 @@
       </c>
       <c r="I474" s="30"/>
     </row>
-    <row r="475" spans="1:9" ht="45">
+    <row r="475" spans="1:9" ht="30">
       <c r="A475" s="28" t="s">
         <v>500</v>
       </c>
@@ -21033,7 +20758,7 @@
       </c>
       <c r="I475" s="30"/>
     </row>
-    <row r="476" spans="1:9" ht="30">
+    <row r="476" spans="1:9">
       <c r="A476" s="28" t="s">
         <v>501</v>
       </c>
@@ -21058,7 +20783,7 @@
       </c>
       <c r="I476" s="30"/>
     </row>
-    <row r="477" spans="1:9" ht="30">
+    <row r="477" spans="1:9">
       <c r="A477" s="28" t="s">
         <v>502</v>
       </c>
@@ -21158,7 +20883,7 @@
       </c>
       <c r="I480" s="30"/>
     </row>
-    <row r="481" spans="1:9" ht="60">
+    <row r="481" spans="1:9" ht="45">
       <c r="A481" s="28" t="s">
         <v>506</v>
       </c>
@@ -21283,7 +21008,7 @@
       </c>
       <c r="I485" s="30"/>
     </row>
-    <row r="486" spans="1:9" ht="30">
+    <row r="486" spans="1:9">
       <c r="A486" s="28" t="s">
         <v>511</v>
       </c>
@@ -21333,7 +21058,7 @@
       </c>
       <c r="I487" s="30"/>
     </row>
-    <row r="488" spans="1:9" ht="45">
+    <row r="488" spans="1:9" ht="30">
       <c r="A488" s="28" t="s">
         <v>513</v>
       </c>
@@ -21433,7 +21158,7 @@
       </c>
       <c r="I491" s="30"/>
     </row>
-    <row r="492" spans="1:9" ht="30">
+    <row r="492" spans="1:9">
       <c r="A492" s="28" t="s">
         <v>517</v>
       </c>
@@ -21508,7 +21233,7 @@
       </c>
       <c r="I494" s="30"/>
     </row>
-    <row r="495" spans="1:9" ht="45">
+    <row r="495" spans="1:9" ht="30">
       <c r="A495" s="28" t="s">
         <v>520</v>
       </c>
@@ -21533,7 +21258,7 @@
       </c>
       <c r="I495" s="30"/>
     </row>
-    <row r="496" spans="1:9" ht="30">
+    <row r="496" spans="1:9">
       <c r="A496" s="28" t="s">
         <v>521</v>
       </c>
@@ -21608,7 +21333,7 @@
       </c>
       <c r="I498" s="33"/>
     </row>
-    <row r="499" spans="1:9" ht="45">
+    <row r="499" spans="1:9" ht="30">
       <c r="A499" s="20" t="s">
         <v>523</v>
       </c>
@@ -21820,7 +21545,7 @@
       </c>
       <c r="I506" s="30"/>
     </row>
-    <row r="507" spans="1:9" ht="60">
+    <row r="507" spans="1:9" ht="45">
       <c r="A507" s="28" t="s">
         <v>528</v>
       </c>
@@ -22007,7 +21732,7 @@
       </c>
       <c r="I513" s="30"/>
     </row>
-    <row r="514" spans="1:9" ht="30">
+    <row r="514" spans="1:9">
       <c r="A514" s="28" t="s">
         <v>532</v>
       </c>
@@ -22182,7 +21907,7 @@
       </c>
       <c r="I520" s="30"/>
     </row>
-    <row r="521" spans="1:9" ht="30">
+    <row r="521" spans="1:9">
       <c r="A521" s="28" t="s">
         <v>540</v>
       </c>
@@ -22357,7 +22082,7 @@
       </c>
       <c r="I527" s="30"/>
     </row>
-    <row r="528" spans="1:9" ht="30">
+    <row r="528" spans="1:9">
       <c r="A528" s="28" t="s">
         <v>547</v>
       </c>
@@ -22432,7 +22157,7 @@
       </c>
       <c r="I530" s="30"/>
     </row>
-    <row r="531" spans="1:9" ht="45">
+    <row r="531" spans="1:9" ht="30">
       <c r="A531" s="28" t="s">
         <v>550</v>
       </c>
@@ -22582,7 +22307,7 @@
       </c>
       <c r="I536" s="30"/>
     </row>
-    <row r="537" spans="1:9" ht="60">
+    <row r="537" spans="1:9" ht="45">
       <c r="A537" s="28" t="s">
         <v>556</v>
       </c>
@@ -22632,7 +22357,7 @@
       </c>
       <c r="I538" s="30"/>
     </row>
-    <row r="539" spans="1:9" ht="135">
+    <row r="539" spans="1:9" ht="120">
       <c r="A539" s="28" t="s">
         <v>558</v>
       </c>
@@ -22782,7 +22507,7 @@
       </c>
       <c r="I544" s="30"/>
     </row>
-    <row r="545" spans="1:9" ht="30">
+    <row r="545" spans="1:9">
       <c r="A545" s="28" t="s">
         <v>564</v>
       </c>
@@ -22807,7 +22532,7 @@
       </c>
       <c r="I545" s="30"/>
     </row>
-    <row r="546" spans="1:9" ht="60">
+    <row r="546" spans="1:9" ht="45">
       <c r="A546" s="28" t="s">
         <v>565</v>
       </c>
@@ -22911,7 +22636,7 @@
       </c>
       <c r="I549" s="30"/>
     </row>
-    <row r="550" spans="1:9" ht="45">
+    <row r="550" spans="1:9" ht="30">
       <c r="A550" s="28" t="s">
         <v>571</v>
       </c>
@@ -22936,7 +22661,7 @@
       </c>
       <c r="I550" s="30"/>
     </row>
-    <row r="551" spans="1:9" ht="30">
+    <row r="551" spans="1:9">
       <c r="A551" s="28" t="s">
         <v>572</v>
       </c>
@@ -23036,7 +22761,7 @@
       </c>
       <c r="I554" s="30"/>
     </row>
-    <row r="555" spans="1:9" ht="45">
+    <row r="555" spans="1:9" ht="30">
       <c r="A555" s="28" t="s">
         <v>576</v>
       </c>
@@ -23061,7 +22786,7 @@
       </c>
       <c r="I555" s="30"/>
     </row>
-    <row r="556" spans="1:9" ht="45">
+    <row r="556" spans="1:9" ht="30">
       <c r="A556" s="28" t="s">
         <v>577</v>
       </c>
@@ -23186,7 +22911,7 @@
       </c>
       <c r="I560" s="30"/>
     </row>
-    <row r="561" spans="1:9" ht="30">
+    <row r="561" spans="1:9">
       <c r="A561" s="28" t="s">
         <v>582</v>
       </c>
@@ -23236,7 +22961,7 @@
       </c>
       <c r="I562" s="30"/>
     </row>
-    <row r="563" spans="1:9" ht="45">
+    <row r="563" spans="1:9" ht="30">
       <c r="A563" s="28" t="s">
         <v>584</v>
       </c>
@@ -23311,7 +23036,7 @@
       </c>
       <c r="I565" s="30"/>
     </row>
-    <row r="566" spans="1:9" ht="345">
+    <row r="566" spans="1:9" ht="330">
       <c r="A566" s="28" t="s">
         <v>587</v>
       </c>
@@ -23336,7 +23061,7 @@
       </c>
       <c r="I566" s="30"/>
     </row>
-    <row r="567" spans="1:9" ht="30">
+    <row r="567" spans="1:9">
       <c r="A567" s="28" t="s">
         <v>588</v>
       </c>
@@ -23411,7 +23136,7 @@
       </c>
       <c r="I569" s="30"/>
     </row>
-    <row r="570" spans="1:9" ht="30">
+    <row r="570" spans="1:9">
       <c r="A570" s="28" t="s">
         <v>591</v>
       </c>
@@ -23461,7 +23186,7 @@
       </c>
       <c r="I571" s="30"/>
     </row>
-    <row r="572" spans="1:9" ht="45">
+    <row r="572" spans="1:9" ht="30">
       <c r="A572" s="28" t="s">
         <v>593</v>
       </c>
@@ -23588,7 +23313,7 @@
       </c>
       <c r="I576" s="30"/>
     </row>
-    <row r="577" spans="1:9" ht="45">
+    <row r="577" spans="1:9" ht="30">
       <c r="A577" s="28" t="s">
         <v>598</v>
       </c>
@@ -23663,7 +23388,7 @@
       </c>
       <c r="I579" s="30"/>
     </row>
-    <row r="580" spans="1:9" ht="60">
+    <row r="580" spans="1:9" ht="45">
       <c r="A580" s="28" t="s">
         <v>601</v>
       </c>
@@ -23713,7 +23438,7 @@
       </c>
       <c r="I581" s="30"/>
     </row>
-    <row r="582" spans="1:9" ht="45">
+    <row r="582" spans="1:9" ht="30">
       <c r="A582" s="28" t="s">
         <v>603</v>
       </c>
@@ -23813,7 +23538,7 @@
       </c>
       <c r="I585" s="30"/>
     </row>
-    <row r="586" spans="1:9" ht="45">
+    <row r="586" spans="1:9" ht="30">
       <c r="A586" s="28" t="s">
         <v>607</v>
       </c>
@@ -23988,7 +23713,7 @@
       </c>
       <c r="I592" s="30"/>
     </row>
-    <row r="593" spans="1:9" ht="45">
+    <row r="593" spans="1:9" ht="30">
       <c r="A593" s="28" t="s">
         <v>613</v>
       </c>
@@ -24063,7 +23788,7 @@
       </c>
       <c r="I595" s="30"/>
     </row>
-    <row r="596" spans="1:9" ht="30">
+    <row r="596" spans="1:9">
       <c r="A596" s="28" t="s">
         <v>616</v>
       </c>
@@ -24088,7 +23813,7 @@
       </c>
       <c r="I596" s="30"/>
     </row>
-    <row r="597" spans="1:9" ht="45">
+    <row r="597" spans="1:9" ht="30">
       <c r="A597" s="28" t="s">
         <v>617</v>
       </c>
@@ -24115,7 +23840,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="598" spans="1:9" ht="90">
+    <row r="598" spans="1:9" ht="75">
       <c r="A598" s="28" t="s">
         <v>618</v>
       </c>
@@ -24140,7 +23865,7 @@
       </c>
       <c r="I598" s="30"/>
     </row>
-    <row r="599" spans="1:9" ht="45">
+    <row r="599" spans="1:9" ht="30">
       <c r="A599" s="28" t="s">
         <v>619</v>
       </c>
@@ -24290,7 +24015,7 @@
       </c>
       <c r="I604" s="30"/>
     </row>
-    <row r="605" spans="1:9" ht="45">
+    <row r="605" spans="1:9" ht="30">
       <c r="A605" s="28" t="s">
         <v>625</v>
       </c>
@@ -24340,7 +24065,7 @@
       </c>
       <c r="I606" s="30"/>
     </row>
-    <row r="607" spans="1:9" ht="45">
+    <row r="607" spans="1:9" ht="30">
       <c r="A607" s="28" t="s">
         <v>627</v>
       </c>
@@ -24390,7 +24115,7 @@
       </c>
       <c r="I608" s="30"/>
     </row>
-    <row r="609" spans="1:9" ht="45">
+    <row r="609" spans="1:9" ht="30">
       <c r="A609" s="28" t="s">
         <v>629</v>
       </c>
@@ -24490,7 +24215,7 @@
       </c>
       <c r="I612" s="30"/>
     </row>
-    <row r="613" spans="1:9" ht="45">
+    <row r="613" spans="1:9" ht="30">
       <c r="A613" s="28" t="s">
         <v>633</v>
       </c>
@@ -24565,7 +24290,7 @@
       </c>
       <c r="I615" s="30"/>
     </row>
-    <row r="616" spans="1:9" ht="45">
+    <row r="616" spans="1:9" ht="30">
       <c r="A616" s="28" t="s">
         <v>636</v>
       </c>
@@ -24692,7 +24417,7 @@
       </c>
       <c r="I620" s="30"/>
     </row>
-    <row r="621" spans="1:9" ht="45">
+    <row r="621" spans="1:9" ht="30">
       <c r="A621" s="28" t="s">
         <v>641</v>
       </c>
@@ -24717,7 +24442,7 @@
       </c>
       <c r="I621" s="30"/>
     </row>
-    <row r="622" spans="1:9" ht="45">
+    <row r="622" spans="1:9" ht="30">
       <c r="A622" s="28" t="s">
         <v>642</v>
       </c>
@@ -24892,7 +24617,7 @@
       </c>
       <c r="I628" s="30"/>
     </row>
-    <row r="629" spans="1:9" ht="60">
+    <row r="629" spans="1:9" ht="45">
       <c r="A629" s="28" t="s">
         <v>649</v>
       </c>
@@ -25017,7 +24742,7 @@
       </c>
       <c r="I633" s="30"/>
     </row>
-    <row r="634" spans="1:9" ht="45">
+    <row r="634" spans="1:9" ht="30">
       <c r="A634" s="28" t="s">
         <v>654</v>
       </c>
@@ -25042,7 +24767,7 @@
       </c>
       <c r="I634" s="30"/>
     </row>
-    <row r="635" spans="1:9" ht="45">
+    <row r="635" spans="1:9" ht="30">
       <c r="A635" s="28" t="s">
         <v>655</v>
       </c>
@@ -25142,7 +24867,7 @@
       </c>
       <c r="I638" s="30"/>
     </row>
-    <row r="639" spans="1:9" ht="75">
+    <row r="639" spans="1:9" ht="60">
       <c r="A639" s="28" t="s">
         <v>659</v>
       </c>
@@ -25169,7 +24894,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="640" spans="1:9" ht="45">
+    <row r="640" spans="1:9" ht="30">
       <c r="A640" s="28" t="s">
         <v>661</v>
       </c>
@@ -25196,7 +24921,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="641" spans="1:9" ht="90">
+    <row r="641" spans="1:9" ht="75">
       <c r="A641" s="28" t="s">
         <v>662</v>
       </c>
@@ -25221,7 +24946,7 @@
       </c>
       <c r="I641" s="30"/>
     </row>
-    <row r="642" spans="1:9" ht="45">
+    <row r="642" spans="1:9" ht="30">
       <c r="A642" s="28" t="s">
         <v>663</v>
       </c>
@@ -25246,7 +24971,7 @@
       </c>
       <c r="I642" s="30"/>
     </row>
-    <row r="643" spans="1:9" ht="30">
+    <row r="643" spans="1:9">
       <c r="A643" s="28" t="s">
         <v>664</v>
       </c>
@@ -25346,7 +25071,7 @@
       </c>
       <c r="I646" s="30"/>
     </row>
-    <row r="647" spans="1:9" ht="45">
+    <row r="647" spans="1:9" ht="30">
       <c r="A647" s="28" t="s">
         <v>668</v>
       </c>
@@ -25471,7 +25196,7 @@
       </c>
       <c r="I651" s="30"/>
     </row>
-    <row r="652" spans="1:9" ht="45">
+    <row r="652" spans="1:9" ht="30">
       <c r="A652" s="28" t="s">
         <v>673</v>
       </c>
@@ -25496,7 +25221,7 @@
       </c>
       <c r="I652" s="30"/>
     </row>
-    <row r="653" spans="1:9" ht="30">
+    <row r="653" spans="1:9">
       <c r="A653" s="28" t="s">
         <v>674</v>
       </c>
@@ -25521,7 +25246,7 @@
       </c>
       <c r="I653" s="30"/>
     </row>
-    <row r="654" spans="1:9" ht="45">
+    <row r="654" spans="1:9" ht="30">
       <c r="A654" s="28" t="s">
         <v>675</v>
       </c>
@@ -25746,7 +25471,7 @@
       </c>
       <c r="I662" s="30"/>
     </row>
-    <row r="663" spans="1:9" ht="60">
+    <row r="663" spans="1:9" ht="45">
       <c r="A663" s="28" t="s">
         <v>684</v>
       </c>
@@ -25796,7 +25521,7 @@
       </c>
       <c r="I664" s="30"/>
     </row>
-    <row r="665" spans="1:9" ht="60">
+    <row r="665" spans="1:9" ht="45">
       <c r="A665" s="28" t="s">
         <v>686</v>
       </c>
@@ -25821,7 +25546,7 @@
       </c>
       <c r="I665" s="30"/>
     </row>
-    <row r="666" spans="1:9" ht="105">
+    <row r="666" spans="1:9" ht="90">
       <c r="A666" s="28" t="s">
         <v>687</v>
       </c>
@@ -25875,7 +25600,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="668" spans="1:9" ht="45">
+    <row r="668" spans="1:9" ht="30">
       <c r="A668" s="28" t="s">
         <v>693</v>
       </c>
@@ -25900,7 +25625,7 @@
       </c>
       <c r="I668" s="30"/>
     </row>
-    <row r="669" spans="1:9" ht="45">
+    <row r="669" spans="1:9" ht="30">
       <c r="A669" s="28" t="s">
         <v>694</v>
       </c>
@@ -26000,7 +25725,7 @@
       </c>
       <c r="I672" s="30"/>
     </row>
-    <row r="673" spans="1:9" ht="30">
+    <row r="673" spans="1:9">
       <c r="A673" s="28" t="s">
         <v>698</v>
       </c>
@@ -26025,7 +25750,7 @@
       </c>
       <c r="I673" s="30"/>
     </row>
-    <row r="674" spans="1:9" ht="30">
+    <row r="674" spans="1:9">
       <c r="A674" s="28" t="s">
         <v>699</v>
       </c>
@@ -26125,7 +25850,7 @@
       </c>
       <c r="I677" s="30"/>
     </row>
-    <row r="678" spans="1:9" ht="45">
+    <row r="678" spans="1:9" ht="30">
       <c r="A678" s="28" t="s">
         <v>703</v>
       </c>
@@ -26350,7 +26075,7 @@
       </c>
       <c r="I686" s="30"/>
     </row>
-    <row r="687" spans="1:9" ht="60">
+    <row r="687" spans="1:9" ht="45">
       <c r="A687" s="28" t="s">
         <v>712</v>
       </c>
@@ -26475,7 +26200,7 @@
       </c>
       <c r="I691" s="30"/>
     </row>
-    <row r="692" spans="1:9" ht="45">
+    <row r="692" spans="1:9" ht="30">
       <c r="A692" s="28" t="s">
         <v>717</v>
       </c>
@@ -26500,7 +26225,7 @@
       </c>
       <c r="I692" s="30"/>
     </row>
-    <row r="693" spans="1:9" ht="45">
+    <row r="693" spans="1:9" ht="30">
       <c r="A693" s="28" t="s">
         <v>718</v>
       </c>
@@ -26525,7 +26250,7 @@
       </c>
       <c r="I693" s="30"/>
     </row>
-    <row r="694" spans="1:9" ht="45">
+    <row r="694" spans="1:9" ht="30">
       <c r="A694" s="28" t="s">
         <v>719</v>
       </c>
@@ -27000,7 +26725,7 @@
       </c>
       <c r="I712" s="30"/>
     </row>
-    <row r="713" spans="1:9" ht="45">
+    <row r="713" spans="1:9" ht="30">
       <c r="A713" s="28" t="s">
         <v>737</v>
       </c>
@@ -27225,7 +26950,7 @@
       </c>
       <c r="I721" s="30"/>
     </row>
-    <row r="722" spans="1:9" ht="30">
+    <row r="722" spans="1:9">
       <c r="A722" s="28" t="s">
         <v>741</v>
       </c>
@@ -27750,7 +27475,7 @@
       </c>
       <c r="I742" s="30"/>
     </row>
-    <row r="743" spans="1:9" ht="105">
+    <row r="743" spans="1:9" ht="75">
       <c r="A743" s="28" t="s">
         <v>761</v>
       </c>
@@ -27802,7 +27527,7 @@
       </c>
       <c r="I744" s="30"/>
     </row>
-    <row r="745" spans="1:9" ht="75">
+    <row r="745" spans="1:9" ht="60">
       <c r="A745" s="28" t="s">
         <v>763</v>
       </c>
@@ -27827,7 +27552,7 @@
       </c>
       <c r="I745" s="30"/>
     </row>
-    <row r="746" spans="1:9" ht="75">
+    <row r="746" spans="1:9" ht="60">
       <c r="A746" s="28" t="s">
         <v>764</v>
       </c>
@@ -27877,7 +27602,7 @@
       </c>
       <c r="I747" s="30"/>
     </row>
-    <row r="748" spans="1:9" ht="45">
+    <row r="748" spans="1:9" ht="30">
       <c r="A748" s="28" t="s">
         <v>771</v>
       </c>
@@ -27929,7 +27654,7 @@
       </c>
       <c r="I749" s="30"/>
     </row>
-    <row r="750" spans="1:9" ht="45">
+    <row r="750" spans="1:9" ht="30">
       <c r="A750" s="28" t="s">
         <v>773</v>
       </c>
@@ -27954,7 +27679,7 @@
       </c>
       <c r="I750" s="30"/>
     </row>
-    <row r="751" spans="1:9" ht="30">
+    <row r="751" spans="1:9">
       <c r="A751" s="28" t="s">
         <v>774</v>
       </c>
@@ -28079,7 +27804,7 @@
       </c>
       <c r="I755" s="18"/>
     </row>
-    <row r="756" spans="1:9" ht="30">
+    <row r="756" spans="1:9">
       <c r="A756" s="28" t="s">
         <v>779</v>
       </c>
@@ -28104,7 +27829,7 @@
       </c>
       <c r="I756" s="30"/>
     </row>
-    <row r="757" spans="1:9" ht="30">
+    <row r="757" spans="1:9">
       <c r="A757" s="28" t="s">
         <v>780</v>
       </c>
@@ -28129,7 +27854,7 @@
       </c>
       <c r="I757" s="30"/>
     </row>
-    <row r="758" spans="1:9" ht="30">
+    <row r="758" spans="1:9">
       <c r="A758" s="28" t="s">
         <v>781</v>
       </c>
@@ -28154,7 +27879,7 @@
       </c>
       <c r="I758" s="30"/>
     </row>
-    <row r="759" spans="1:9" ht="30">
+    <row r="759" spans="1:9">
       <c r="A759" s="28" t="s">
         <v>782</v>
       </c>
@@ -28204,7 +27929,7 @@
       </c>
       <c r="I760" s="30"/>
     </row>
-    <row r="761" spans="1:9" ht="45">
+    <row r="761" spans="1:9" ht="30">
       <c r="A761" s="28" t="s">
         <v>784</v>
       </c>
@@ -28379,7 +28104,7 @@
       </c>
       <c r="I767" s="30"/>
     </row>
-    <row r="768" spans="1:9" ht="30">
+    <row r="768" spans="1:9">
       <c r="A768" s="28" t="s">
         <v>791</v>
       </c>
@@ -28404,7 +28129,7 @@
       </c>
       <c r="I768" s="30"/>
     </row>
-    <row r="769" spans="1:9" ht="30">
+    <row r="769" spans="1:9">
       <c r="A769" s="28" t="s">
         <v>792</v>
       </c>
@@ -28479,7 +28204,7 @@
       </c>
       <c r="I771" s="30"/>
     </row>
-    <row r="772" spans="1:9" ht="45">
+    <row r="772" spans="1:9" ht="30">
       <c r="A772" s="28" t="s">
         <v>795</v>
       </c>
@@ -28529,7 +28254,7 @@
       </c>
       <c r="I773" s="30"/>
     </row>
-    <row r="774" spans="1:9" ht="285">
+    <row r="774" spans="1:9" ht="270">
       <c r="A774" s="28" t="s">
         <v>797</v>
       </c>
@@ -28604,7 +28329,7 @@
       </c>
       <c r="I776" s="33"/>
     </row>
-    <row r="777" spans="1:9" ht="30">
+    <row r="777" spans="1:9">
       <c r="A777" s="28" t="s">
         <v>799</v>
       </c>
@@ -28679,7 +28404,7 @@
       </c>
       <c r="I779" s="30"/>
     </row>
-    <row r="780" spans="1:9" ht="30">
+    <row r="780" spans="1:9">
       <c r="A780" s="28" t="s">
         <v>802</v>
       </c>
@@ -28704,7 +28429,7 @@
       </c>
       <c r="I780" s="30"/>
     </row>
-    <row r="781" spans="1:9" ht="30">
+    <row r="781" spans="1:9">
       <c r="A781" s="28" t="s">
         <v>803</v>
       </c>
@@ -28729,7 +28454,7 @@
       </c>
       <c r="I781" s="30"/>
     </row>
-    <row r="782" spans="1:9" ht="30">
+    <row r="782" spans="1:9">
       <c r="A782" s="28" t="s">
         <v>804</v>
       </c>
@@ -28754,7 +28479,7 @@
       </c>
       <c r="I782" s="30"/>
     </row>
-    <row r="783" spans="1:9" ht="30">
+    <row r="783" spans="1:9">
       <c r="A783" s="28" t="s">
         <v>805</v>
       </c>
@@ -28779,7 +28504,7 @@
       </c>
       <c r="I783" s="30"/>
     </row>
-    <row r="784" spans="1:9" ht="30">
+    <row r="784" spans="1:9">
       <c r="A784" s="28" t="s">
         <v>806</v>
       </c>
@@ -28804,7 +28529,7 @@
       </c>
       <c r="I784" s="30"/>
     </row>
-    <row r="785" spans="1:9" ht="30">
+    <row r="785" spans="1:9">
       <c r="A785" s="28" t="s">
         <v>807</v>
       </c>
@@ -28879,7 +28604,7 @@
       </c>
       <c r="I787" s="30"/>
     </row>
-    <row r="788" spans="1:9" ht="45">
+    <row r="788" spans="1:9" ht="30">
       <c r="A788" s="28" t="s">
         <v>810</v>
       </c>
@@ -28904,7 +28629,7 @@
       </c>
       <c r="I788" s="30"/>
     </row>
-    <row r="789" spans="1:9" ht="30">
+    <row r="789" spans="1:9">
       <c r="A789" s="28" t="s">
         <v>811</v>
       </c>
@@ -28929,7 +28654,7 @@
       </c>
       <c r="I789" s="30"/>
     </row>
-    <row r="790" spans="1:9" ht="30">
+    <row r="790" spans="1:9">
       <c r="A790" s="28" t="s">
         <v>812</v>
       </c>
@@ -28954,7 +28679,7 @@
       </c>
       <c r="I790" s="30"/>
     </row>
-    <row r="791" spans="1:9" ht="30">
+    <row r="791" spans="1:9">
       <c r="A791" s="28" t="s">
         <v>813</v>
       </c>
@@ -29129,7 +28854,7 @@
       </c>
       <c r="I797" s="30"/>
     </row>
-    <row r="798" spans="1:9" ht="30">
+    <row r="798" spans="1:9">
       <c r="A798" s="28" t="s">
         <v>820</v>
       </c>
@@ -29154,7 +28879,7 @@
       </c>
       <c r="I798" s="30"/>
     </row>
-    <row r="799" spans="1:9" ht="30">
+    <row r="799" spans="1:9">
       <c r="A799" s="28" t="s">
         <v>821</v>
       </c>
@@ -29179,7 +28904,7 @@
       </c>
       <c r="I799" s="30"/>
     </row>
-    <row r="800" spans="1:9" ht="30">
+    <row r="800" spans="1:9">
       <c r="A800" s="28" t="s">
         <v>822</v>
       </c>
@@ -29304,7 +29029,7 @@
       </c>
       <c r="I804" s="30"/>
     </row>
-    <row r="805" spans="1:9" ht="30">
+    <row r="805" spans="1:9">
       <c r="A805" s="28" t="s">
         <v>827</v>
       </c>
@@ -29404,7 +29129,7 @@
       </c>
       <c r="I808" s="30"/>
     </row>
-    <row r="809" spans="1:9" ht="30">
+    <row r="809" spans="1:9">
       <c r="A809" s="28" t="s">
         <v>831</v>
       </c>
@@ -29529,7 +29254,7 @@
       </c>
       <c r="I813" s="30"/>
     </row>
-    <row r="814" spans="1:9" ht="30">
+    <row r="814" spans="1:9">
       <c r="A814" s="28" t="s">
         <v>835</v>
       </c>
@@ -29579,7 +29304,7 @@
       </c>
       <c r="I815" s="18"/>
     </row>
-    <row r="816" spans="1:9" ht="30">
+    <row r="816" spans="1:9">
       <c r="A816" s="28" t="s">
         <v>837</v>
       </c>
@@ -29604,7 +29329,7 @@
       </c>
       <c r="I816" s="30"/>
     </row>
-    <row r="817" spans="1:9" ht="45">
+    <row r="817" spans="1:9" ht="30">
       <c r="A817" s="28" t="s">
         <v>838</v>
       </c>
@@ -29752,7 +29477,7 @@
         <v>15</v>
       </c>
       <c r="H822" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I822" s="30"/>
     </row>
@@ -29906,7 +29631,7 @@
       </c>
       <c r="I828" s="30"/>
     </row>
-    <row r="829" spans="1:9" ht="45">
+    <row r="829" spans="1:9" ht="30">
       <c r="A829" s="28" t="s">
         <v>850</v>
       </c>
@@ -30031,7 +29756,7 @@
       </c>
       <c r="I833" s="30"/>
     </row>
-    <row r="834" spans="1:9" ht="45">
+    <row r="834" spans="1:9" ht="30">
       <c r="A834" s="28" t="s">
         <v>855</v>
       </c>
@@ -30056,7 +29781,7 @@
       </c>
       <c r="I834" s="30"/>
     </row>
-    <row r="835" spans="1:9" ht="45">
+    <row r="835" spans="1:9" ht="30">
       <c r="A835" s="28" t="s">
         <v>856</v>
       </c>
@@ -30181,7 +29906,7 @@
       </c>
       <c r="I839" s="30"/>
     </row>
-    <row r="840" spans="1:9" ht="30">
+    <row r="840" spans="1:9">
       <c r="A840" s="28" t="s">
         <v>860</v>
       </c>
@@ -30231,7 +29956,7 @@
       </c>
       <c r="I841" s="30"/>
     </row>
-    <row r="842" spans="1:9" ht="45">
+    <row r="842" spans="1:9" ht="30">
       <c r="A842" s="28" t="s">
         <v>862</v>
       </c>
@@ -30306,7 +30031,7 @@
       </c>
       <c r="I844" s="30"/>
     </row>
-    <row r="845" spans="1:9" ht="45">
+    <row r="845" spans="1:9" ht="30">
       <c r="A845" s="28" t="s">
         <v>865</v>
       </c>
@@ -30356,7 +30081,7 @@
       </c>
       <c r="I846" s="30"/>
     </row>
-    <row r="847" spans="1:9" ht="45">
+    <row r="847" spans="1:9" ht="30">
       <c r="A847" s="28" t="s">
         <v>867</v>
       </c>
@@ -30406,7 +30131,7 @@
       </c>
       <c r="I848" s="30"/>
     </row>
-    <row r="849" spans="1:9" ht="255">
+    <row r="849" spans="1:9" ht="240">
       <c r="A849" s="28" t="s">
         <v>869</v>
       </c>
@@ -30431,7 +30156,7 @@
       </c>
       <c r="I849" s="30"/>
     </row>
-    <row r="850" spans="1:9" ht="45">
+    <row r="850" spans="1:9" ht="30">
       <c r="A850" s="28" t="s">
         <v>870</v>
       </c>
@@ -30456,7 +30181,7 @@
       </c>
       <c r="I850" s="30"/>
     </row>
-    <row r="851" spans="1:9" ht="30">
+    <row r="851" spans="1:9">
       <c r="A851" s="28" t="s">
         <v>871</v>
       </c>
@@ -30531,7 +30256,7 @@
       </c>
       <c r="I853" s="30"/>
     </row>
-    <row r="854" spans="1:9" ht="45">
+    <row r="854" spans="1:9" ht="30">
       <c r="A854" s="28" t="s">
         <v>874</v>
       </c>
@@ -30781,7 +30506,7 @@
       </c>
       <c r="I863" s="30"/>
     </row>
-    <row r="864" spans="1:9" ht="30">
+    <row r="864" spans="1:9">
       <c r="A864" s="28" t="s">
         <v>884</v>
       </c>
@@ -30981,7 +30706,7 @@
       </c>
       <c r="I871" s="30"/>
     </row>
-    <row r="872" spans="1:9" ht="135">
+    <row r="872" spans="1:9" ht="120">
       <c r="A872" s="28" t="s">
         <v>892</v>
       </c>
@@ -31006,7 +30731,7 @@
       </c>
       <c r="I872" s="30"/>
     </row>
-    <row r="873" spans="1:9" ht="30">
+    <row r="873" spans="1:9">
       <c r="A873" s="28" t="s">
         <v>893</v>
       </c>
@@ -31110,7 +30835,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="877" spans="1:9" ht="60">
+    <row r="877" spans="1:9" ht="45">
       <c r="A877" s="28" t="s">
         <v>896</v>
       </c>
@@ -31502,7 +31227,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="891" spans="1:9" ht="45">
+    <row r="891" spans="1:9" ht="30">
       <c r="A891" s="20" t="s">
         <v>910</v>
       </c>
@@ -31529,7 +31254,7 @@
       </c>
       <c r="I891" s="30"/>
     </row>
-    <row r="892" spans="1:9" ht="45">
+    <row r="892" spans="1:9" ht="30">
       <c r="A892" s="20" t="s">
         <v>911</v>
       </c>
@@ -31829,7 +31554,7 @@
       </c>
       <c r="I903" s="30"/>
     </row>
-    <row r="904" spans="1:9" ht="45">
+    <row r="904" spans="1:9" ht="30">
       <c r="A904" s="28" t="s">
         <v>923</v>
       </c>
@@ -31854,11 +31579,11 @@
       </c>
       <c r="I904" s="30"/>
     </row>
-    <row r="905" spans="1:9" ht="75">
+    <row r="905" spans="1:9" ht="60">
       <c r="A905" s="20" t="s">
         <v>2140</v>
       </c>
-      <c r="B905" s="49" t="s">
+      <c r="B905" s="36" t="s">
         <v>2139</v>
       </c>
       <c r="C905" s="33" t="s">
@@ -31879,11 +31604,11 @@
       </c>
       <c r="I905" s="33"/>
     </row>
-    <row r="906" spans="1:9" ht="75">
+    <row r="906" spans="1:9" ht="60">
       <c r="A906" s="20" t="s">
         <v>2141</v>
       </c>
-      <c r="B906" s="49" t="s">
+      <c r="B906" s="36" t="s">
         <v>2139</v>
       </c>
       <c r="C906" s="33" t="s">
@@ -31904,7 +31629,7 @@
       </c>
       <c r="I906" s="33"/>
     </row>
-    <row r="907" spans="1:9" ht="45">
+    <row r="907" spans="1:9" ht="30">
       <c r="A907" s="20" t="s">
         <v>924</v>
       </c>
@@ -32155,7 +31880,7 @@
       </c>
       <c r="I915" s="18"/>
     </row>
-    <row r="916" spans="1:9" ht="45">
+    <row r="916" spans="1:9" ht="30">
       <c r="A916" s="20" t="s">
         <v>933</v>
       </c>
@@ -32211,7 +31936,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="918" spans="1:9" ht="45">
+    <row r="918" spans="1:9" ht="30">
       <c r="A918" s="20" t="s">
         <v>935</v>
       </c>
@@ -32265,7 +31990,7 @@
       </c>
       <c r="I919" s="18"/>
     </row>
-    <row r="920" spans="1:9" ht="45">
+    <row r="920" spans="1:9" ht="30">
       <c r="A920" s="28" t="s">
         <v>937</v>
       </c>
@@ -32319,7 +32044,7 @@
       </c>
       <c r="I921" s="30"/>
     </row>
-    <row r="922" spans="1:9" ht="45">
+    <row r="922" spans="1:9" ht="30">
       <c r="A922" s="28" t="s">
         <v>939</v>
       </c>
@@ -32431,7 +32156,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="926" spans="1:9" ht="45">
+    <row r="926" spans="1:9" ht="30">
       <c r="A926" s="28" t="s">
         <v>943</v>
       </c>
@@ -32487,7 +32212,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="928" spans="1:9" ht="45">
+    <row r="928" spans="1:9" ht="30">
       <c r="A928" s="20" t="s">
         <v>945</v>
       </c>
@@ -32543,7 +32268,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="930" spans="1:9" ht="45">
+    <row r="930" spans="1:9" ht="30">
       <c r="A930" s="28" t="s">
         <v>947</v>
       </c>
@@ -32599,7 +32324,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="932" spans="1:9" ht="45">
+    <row r="932" spans="1:9" ht="30">
       <c r="A932" s="20" t="s">
         <v>949</v>
       </c>
@@ -32655,7 +32380,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="934" spans="1:9" ht="45">
+    <row r="934" spans="1:9" ht="30">
       <c r="A934" s="20" t="s">
         <v>951</v>
       </c>
@@ -32711,7 +32436,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="936" spans="1:9" ht="60">
+    <row r="936" spans="1:9" ht="45">
       <c r="A936" s="32" t="s">
         <v>237</v>
       </c>
@@ -32767,7 +32492,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="938" spans="1:9" ht="75">
+    <row r="938" spans="1:9" ht="60">
       <c r="A938" s="20" t="s">
         <v>239</v>
       </c>
@@ -32825,7 +32550,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="940" spans="1:9" ht="90">
+    <row r="940" spans="1:9" ht="75">
       <c r="A940" s="20" t="s">
         <v>241</v>
       </c>
@@ -32997,7 +32722,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="946" spans="1:9" ht="105">
+    <row r="946" spans="1:9" ht="90">
       <c r="A946" s="32" t="s">
         <v>688</v>
       </c>
@@ -33024,7 +32749,7 @@
       </c>
       <c r="I946" s="33"/>
     </row>
-    <row r="947" spans="1:9" ht="75">
+    <row r="947" spans="1:9" ht="60">
       <c r="A947" s="32" t="s">
         <v>689</v>
       </c>
@@ -33111,7 +32836,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="950" spans="1:9" ht="165">
+    <row r="950" spans="1:9" ht="150">
       <c r="A950" s="32" t="s">
         <v>766</v>
       </c>
@@ -33140,7 +32865,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="951" spans="1:9" ht="165">
+    <row r="951" spans="1:9" ht="150">
       <c r="A951" s="32" t="s">
         <v>767</v>
       </c>
@@ -33169,7 +32894,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="952" spans="1:9" ht="165">
+    <row r="952" spans="1:9" ht="150">
       <c r="A952" s="32" t="s">
         <v>768</v>
       </c>
@@ -33227,7 +32952,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="954" spans="1:9" ht="165">
+    <row r="954" spans="1:9" ht="150">
       <c r="A954" s="32" t="s">
         <v>770</v>
       </c>
@@ -33258,6 +32983,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -33265,92 +32995,87 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A687:B687 E937:E940 D687:I687 A876:H876 A941:I954 A20:I686 I667:I876 A688:I875 A877:I936">
-    <cfRule type="expression" dxfId="45" priority="85">
+    <cfRule type="expression" dxfId="40" priority="85">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="86">
+    <cfRule type="expression" dxfId="39" priority="86">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="93">
+    <cfRule type="expression" dxfId="38" priority="93">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A687:B687 E937:E940 D687:I687 A876:H876 A941:I954 A20:I686 I667:I876 A688:I875 A877:I936">
-    <cfRule type="expression" dxfId="42" priority="39">
+    <cfRule type="expression" dxfId="37" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="40">
+    <cfRule type="expression" dxfId="36" priority="40">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="35" priority="41">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F941:F954 F20:F936">
-    <cfRule type="expression" dxfId="39" priority="45">
+    <cfRule type="expression" dxfId="34" priority="45">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="46">
+    <cfRule type="expression" dxfId="33" priority="46">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C687">
-    <cfRule type="expression" dxfId="37" priority="24">
+    <cfRule type="expression" dxfId="32" priority="24">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="25">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="26">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C687">
-    <cfRule type="expression" dxfId="34" priority="21">
+    <cfRule type="expression" dxfId="29" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="22">
+    <cfRule type="expression" dxfId="28" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="23">
+    <cfRule type="expression" dxfId="27" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A937:D940 F937:I940">
-    <cfRule type="expression" dxfId="31" priority="18">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="19">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="20">
+    <cfRule type="expression" dxfId="24" priority="20">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A937:D940 F937:I940">
-    <cfRule type="expression" dxfId="28" priority="13">
+    <cfRule type="expression" dxfId="23" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="14">
+    <cfRule type="expression" dxfId="22" priority="14">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F937:F940">
-    <cfRule type="expression" dxfId="25" priority="16">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>NOT(VLOOKUP(F937,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>(VLOOKUP(F937,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33388,12 +33113,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33446,15 +33168,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33475,15 +33206,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-WEBSS/MS-WEBSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-WEBSS/MS-WEBSS_RequirementSpecification.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$954</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$953</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6653" uniqueCount="2142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6646" uniqueCount="2140">
   <si>
     <t>Req ID</t>
   </si>
@@ -7475,9 +7475,6 @@
 &lt;/s:element&gt;</t>
   </si>
   <si>
-    <t>[In UpdateColumns] Method: If the Method element does not contain an ID attribute, the server does not add[, update, or delete columns and does not return an ErrorCode].</t>
-  </si>
-  <si>
     <t>[In UpdateColumns] Method: If the Method element does not contain an ID attribute, the server does not [add, update, or ]delete columns [and does not return an ErrorCode].</t>
   </si>
   <si>
@@ -7487,9 +7484,6 @@
     <t>[In UpdateColumns] Method: If the Method element does not contain an ID attribute, the server does not [add, ]update[, or delete] columns [and does not return an ErrorCode].</t>
   </si>
   <si>
-    <t>[In UpdateColumns] Method: If the Method element does not contain an ID attribute, the server [does not add, update, or delete columns and ]does not return an ErrorCode.</t>
-  </si>
-  <si>
     <t>MS-WEBSS_R500001</t>
   </si>
   <si>
@@ -7500,9 +7494,6 @@
   </si>
   <si>
     <t>MS-WEBSS_R500004</t>
-  </si>
-  <si>
-    <t>MS-WEBSS_R500005</t>
   </si>
   <si>
     <t>[In UpdateColumnsResponse] When an invalid XML element is the child element of the newFields[, updateFields, or deleteFields elements] , a SOAP fault MUST be returned.</t>
@@ -7670,6 +7661,9 @@
   </si>
   <si>
     <t>MS-WEBSS_R764002</t>
+  </si>
+  <si>
+    <t>[In UpdateColumns] Method: If the Method element does not contain an ID attribute, the server [does not add, update, or delete columns and] does not return an ErrorCode.</t>
   </si>
 </sst>
 </file>
@@ -7958,20 +7952,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7997,134 +7979,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="103">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <fill>
         <patternFill>
@@ -8245,196 +8119,167 @@
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-      </font>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -8610,171 +8455,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8904,34 +8584,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I954" tableType="xml" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" connectionId="1">
-  <autoFilter ref="A19:I954"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I953" tableType="xml" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" connectionId="1">
+  <autoFilter ref="A19:I953"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="92">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="38">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="91">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="37">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="90">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="36">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="89">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="35">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="88">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="34">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="87">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="33">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="86">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="32">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="85">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="31">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="84">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="30">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8940,12 +8620,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="102" dataDxfId="100" headerRowBorderDxfId="101" tableBorderDxfId="99" totalsRowBorderDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="97"/>
-    <tableColumn id="2" name="Test" dataDxfId="96"/>
-    <tableColumn id="3" name="Description" dataDxfId="95"/>
+    <tableColumn id="1" name="Scope" dataDxfId="24"/>
+    <tableColumn id="2" name="Test" dataDxfId="23"/>
+    <tableColumn id="3" name="Description" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9239,7 +8919,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L954"/>
+  <dimension ref="A1:L953"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -9295,127 +8975,127 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
@@ -9428,12 +9108,12 @@
       <c r="C12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
@@ -9446,12 +9126,12 @@
       <c r="C13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
@@ -9464,12 +9144,12 @@
       <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
@@ -9482,60 +9162,60 @@
       <c r="C15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="43" t="s">
         <v>1957</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="30">
+    <row r="18" spans="1:12">
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="4"/>
       <c r="L18" s="3"/>
     </row>
@@ -14504,7 +14184,7 @@
         <v>978</v>
       </c>
       <c r="C215" s="18" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="D215" s="28"/>
       <c r="E215" s="28" t="s">
@@ -27077,13 +26757,13 @@
     </row>
     <row r="716" spans="1:9" ht="30">
       <c r="A716" s="20" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="B716" s="22" t="s">
         <v>1090</v>
       </c>
       <c r="C716" s="33" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D716" s="32"/>
       <c r="E716" s="28" t="s">
@@ -27096,19 +26776,19 @@
         <v>15</v>
       </c>
       <c r="H716" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I716" s="33"/>
     </row>
     <row r="717" spans="1:9" ht="30">
       <c r="A717" s="20" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="B717" s="22" t="s">
         <v>1090</v>
       </c>
       <c r="C717" s="33" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D717" s="32"/>
       <c r="E717" s="28" t="s">
@@ -27121,19 +26801,19 @@
         <v>15</v>
       </c>
       <c r="H717" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I717" s="33"/>
     </row>
     <row r="718" spans="1:9" ht="30">
       <c r="A718" s="20" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="B718" s="22" t="s">
         <v>1090</v>
       </c>
       <c r="C718" s="33" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D718" s="32"/>
       <c r="E718" s="28" t="s">
@@ -27146,19 +26826,19 @@
         <v>15</v>
       </c>
       <c r="H718" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I718" s="33"/>
     </row>
     <row r="719" spans="1:9" ht="30">
       <c r="A719" s="20" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="B719" s="22" t="s">
         <v>1090</v>
       </c>
       <c r="C719" s="33" t="s">
-        <v>2106</v>
+        <v>2139</v>
       </c>
       <c r="D719" s="32"/>
       <c r="E719" s="28" t="s">
@@ -27171,21 +26851,21 @@
         <v>15</v>
       </c>
       <c r="H719" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I719" s="33"/>
     </row>
-    <row r="720" spans="1:9" ht="30">
-      <c r="A720" s="20" t="s">
-        <v>2111</v>
-      </c>
-      <c r="B720" s="22" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C720" s="33" t="s">
-        <v>2102</v>
-      </c>
-      <c r="D720" s="32"/>
+    <row r="720" spans="1:9" ht="409.5">
+      <c r="A720" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="B720" s="29" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C720" s="18" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D720" s="28"/>
       <c r="E720" s="28" t="s">
         <v>19</v>
       </c>
@@ -27195,20 +26875,20 @@
       <c r="G720" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H720" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I720" s="33"/>
-    </row>
-    <row r="721" spans="1:9" ht="409.5">
+      <c r="H720" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I720" s="30"/>
+    </row>
+    <row r="721" spans="1:9" ht="30">
       <c r="A721" s="28" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B721" s="29" t="s">
         <v>1091</v>
       </c>
-      <c r="C721" s="18" t="s">
-        <v>2101</v>
+      <c r="C721" s="30" t="s">
+        <v>1718</v>
       </c>
       <c r="D721" s="28"/>
       <c r="E721" s="28" t="s">
@@ -27227,13 +26907,13 @@
     </row>
     <row r="722" spans="1:9" ht="30">
       <c r="A722" s="28" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B722" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C722" s="30" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="D722" s="28"/>
       <c r="E722" s="28" t="s">
@@ -27252,13 +26932,13 @@
     </row>
     <row r="723" spans="1:9" ht="30">
       <c r="A723" s="28" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B723" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C723" s="30" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="D723" s="28"/>
       <c r="E723" s="28" t="s">
@@ -27271,19 +26951,19 @@
         <v>15</v>
       </c>
       <c r="H723" s="28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I723" s="30"/>
     </row>
     <row r="724" spans="1:9" ht="30">
       <c r="A724" s="28" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B724" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C724" s="30" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="D724" s="28"/>
       <c r="E724" s="28" t="s">
@@ -27302,13 +26982,13 @@
     </row>
     <row r="725" spans="1:9" ht="30">
       <c r="A725" s="28" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B725" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C725" s="30" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D725" s="28"/>
       <c r="E725" s="28" t="s">
@@ -27327,13 +27007,13 @@
     </row>
     <row r="726" spans="1:9" ht="30">
       <c r="A726" s="28" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B726" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C726" s="30" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="D726" s="28"/>
       <c r="E726" s="28" t="s">
@@ -27346,19 +27026,19 @@
         <v>15</v>
       </c>
       <c r="H726" s="28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I726" s="30"/>
     </row>
-    <row r="727" spans="1:9" ht="30">
+    <row r="727" spans="1:9" ht="45">
       <c r="A727" s="28" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B727" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C727" s="30" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="D727" s="28"/>
       <c r="E727" s="28" t="s">
@@ -27371,19 +27051,19 @@
         <v>15</v>
       </c>
       <c r="H727" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I727" s="30"/>
     </row>
     <row r="728" spans="1:9" ht="45">
       <c r="A728" s="28" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B728" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C728" s="30" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D728" s="28"/>
       <c r="E728" s="28" t="s">
@@ -27402,13 +27082,13 @@
     </row>
     <row r="729" spans="1:9" ht="45">
       <c r="A729" s="28" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B729" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C729" s="30" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="D729" s="28"/>
       <c r="E729" s="28" t="s">
@@ -27425,15 +27105,15 @@
       </c>
       <c r="I729" s="30"/>
     </row>
-    <row r="730" spans="1:9" ht="45">
+    <row r="730" spans="1:9" ht="30">
       <c r="A730" s="28" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B730" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C730" s="30" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="D730" s="28"/>
       <c r="E730" s="28" t="s">
@@ -27446,19 +27126,19 @@
         <v>15</v>
       </c>
       <c r="H730" s="28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I730" s="30"/>
     </row>
     <row r="731" spans="1:9" ht="30">
       <c r="A731" s="28" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B731" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C731" s="30" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="D731" s="28"/>
       <c r="E731" s="28" t="s">
@@ -27475,15 +27155,15 @@
       </c>
       <c r="I731" s="30"/>
     </row>
-    <row r="732" spans="1:9" ht="30">
+    <row r="732" spans="1:9">
       <c r="A732" s="28" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B732" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C732" s="30" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="D732" s="28"/>
       <c r="E732" s="28" t="s">
@@ -27502,13 +27182,13 @@
     </row>
     <row r="733" spans="1:9">
       <c r="A733" s="28" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B733" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C733" s="30" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="D733" s="28"/>
       <c r="E733" s="28" t="s">
@@ -27518,22 +27198,22 @@
         <v>6</v>
       </c>
       <c r="G733" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H733" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I733" s="30"/>
     </row>
-    <row r="734" spans="1:9">
-      <c r="A734" s="28" t="s">
-        <v>753</v>
+    <row r="734" spans="1:9" ht="30">
+      <c r="A734" s="20" t="s">
+        <v>754</v>
       </c>
       <c r="B734" s="29" t="s">
         <v>1091</v>
       </c>
-      <c r="C734" s="30" t="s">
-        <v>1730</v>
+      <c r="C734" s="18" t="s">
+        <v>2109</v>
       </c>
       <c r="D734" s="28"/>
       <c r="E734" s="28" t="s">
@@ -27543,22 +27223,22 @@
         <v>6</v>
       </c>
       <c r="G734" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H734" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I734" s="30"/>
     </row>
     <row r="735" spans="1:9" ht="30">
-      <c r="A735" s="20" t="s">
-        <v>754</v>
+      <c r="A735" s="28" t="s">
+        <v>755</v>
       </c>
       <c r="B735" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C735" s="18" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="D735" s="28"/>
       <c r="E735" s="28" t="s">
@@ -27576,64 +27256,64 @@
       <c r="I735" s="30"/>
     </row>
     <row r="736" spans="1:9" ht="30">
-      <c r="A736" s="28" t="s">
-        <v>755</v>
+      <c r="A736" s="20" t="s">
+        <v>2112</v>
       </c>
       <c r="B736" s="29" t="s">
         <v>1091</v>
       </c>
-      <c r="C736" s="18" t="s">
-        <v>2113</v>
-      </c>
-      <c r="D736" s="28"/>
-      <c r="E736" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F736" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G736" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H736" s="28" t="s">
+      <c r="C736" s="33" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D736" s="32"/>
+      <c r="E736" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F736" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G736" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H736" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I736" s="30"/>
-    </row>
-    <row r="737" spans="1:9" ht="30">
-      <c r="A737" s="20" t="s">
-        <v>2115</v>
+      <c r="I736" s="33"/>
+    </row>
+    <row r="737" spans="1:9" ht="60">
+      <c r="A737" s="28" t="s">
+        <v>756</v>
       </c>
       <c r="B737" s="29" t="s">
         <v>1091</v>
       </c>
-      <c r="C737" s="33" t="s">
-        <v>2114</v>
-      </c>
-      <c r="D737" s="32"/>
-      <c r="E737" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F737" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G737" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H737" s="32" t="s">
+      <c r="C737" s="30" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D737" s="28"/>
+      <c r="E737" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F737" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G737" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H737" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I737" s="33"/>
+      <c r="I737" s="30"/>
     </row>
     <row r="738" spans="1:9" ht="60">
       <c r="A738" s="28" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B738" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C738" s="30" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="D738" s="28"/>
       <c r="E738" s="28" t="s">
@@ -27652,13 +27332,13 @@
     </row>
     <row r="739" spans="1:9" ht="60">
       <c r="A739" s="28" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B739" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C739" s="30" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="D739" s="28"/>
       <c r="E739" s="28" t="s">
@@ -27677,13 +27357,13 @@
     </row>
     <row r="740" spans="1:9" ht="60">
       <c r="A740" s="28" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B740" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C740" s="30" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="D740" s="28"/>
       <c r="E740" s="28" t="s">
@@ -27702,13 +27382,13 @@
     </row>
     <row r="741" spans="1:9" ht="60">
       <c r="A741" s="28" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B741" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C741" s="30" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="D741" s="28"/>
       <c r="E741" s="28" t="s">
@@ -27725,15 +27405,15 @@
       </c>
       <c r="I741" s="30"/>
     </row>
-    <row r="742" spans="1:9" ht="60">
+    <row r="742" spans="1:9" ht="105">
       <c r="A742" s="28" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B742" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C742" s="30" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="D742" s="28"/>
       <c r="E742" s="28" t="s">
@@ -27746,19 +27426,21 @@
         <v>15</v>
       </c>
       <c r="H742" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I742" s="30"/>
-    </row>
-    <row r="743" spans="1:9" ht="105">
+        <v>17</v>
+      </c>
+      <c r="I742" s="18" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="743" spans="1:9" ht="60">
       <c r="A743" s="28" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B743" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C743" s="30" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="D743" s="28"/>
       <c r="E743" s="28" t="s">
@@ -27771,21 +27453,19 @@
         <v>15</v>
       </c>
       <c r="H743" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I743" s="18" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="744" spans="1:9" ht="60">
+        <v>20</v>
+      </c>
+      <c r="I743" s="30"/>
+    </row>
+    <row r="744" spans="1:9" ht="75">
       <c r="A744" s="28" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B744" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C744" s="30" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="D744" s="28"/>
       <c r="E744" s="28" t="s">
@@ -27804,13 +27484,13 @@
     </row>
     <row r="745" spans="1:9" ht="75">
       <c r="A745" s="28" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B745" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C745" s="30" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="D745" s="28"/>
       <c r="E745" s="28" t="s">
@@ -27827,15 +27507,15 @@
       </c>
       <c r="I745" s="30"/>
     </row>
-    <row r="746" spans="1:9" ht="75">
+    <row r="746" spans="1:9" ht="60">
       <c r="A746" s="28" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B746" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C746" s="30" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="D746" s="28"/>
       <c r="E746" s="28" t="s">
@@ -27852,15 +27532,15 @@
       </c>
       <c r="I746" s="30"/>
     </row>
-    <row r="747" spans="1:9" ht="60">
+    <row r="747" spans="1:9" ht="45">
       <c r="A747" s="28" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="B747" s="29" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C747" s="30" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="D747" s="28"/>
       <c r="E747" s="28" t="s">
@@ -27873,19 +27553,21 @@
         <v>15</v>
       </c>
       <c r="H747" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I747" s="30"/>
-    </row>
-    <row r="748" spans="1:9" ht="45">
+        <v>17</v>
+      </c>
+      <c r="I747" s="18" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="748" spans="1:9" ht="75">
       <c r="A748" s="28" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B748" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C748" s="30" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="D748" s="28"/>
       <c r="E748" s="28" t="s">
@@ -27898,28 +27580,26 @@
         <v>15</v>
       </c>
       <c r="H748" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I748" s="18" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="749" spans="1:9" ht="75">
+        <v>21</v>
+      </c>
+      <c r="I748" s="30"/>
+    </row>
+    <row r="749" spans="1:9" ht="45">
       <c r="A749" s="28" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B749" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C749" s="30" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="D749" s="28"/>
       <c r="E749" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F749" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G749" s="28" t="s">
         <v>15</v>
@@ -27929,65 +27609,65 @@
       </c>
       <c r="I749" s="30"/>
     </row>
-    <row r="750" spans="1:9" ht="45">
+    <row r="750" spans="1:9" ht="30">
       <c r="A750" s="28" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B750" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C750" s="30" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="D750" s="28"/>
       <c r="E750" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F750" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G750" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H750" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I750" s="30"/>
     </row>
     <row r="751" spans="1:9" ht="30">
       <c r="A751" s="28" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B751" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C751" s="30" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="D751" s="28"/>
       <c r="E751" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F751" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G751" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H751" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I751" s="30"/>
     </row>
     <row r="752" spans="1:9" ht="30">
       <c r="A752" s="28" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B752" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C752" s="30" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="D752" s="28"/>
       <c r="E752" s="28" t="s">
@@ -28006,13 +27686,13 @@
     </row>
     <row r="753" spans="1:9" ht="30">
       <c r="A753" s="28" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B753" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C753" s="30" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="D753" s="28"/>
       <c r="E753" s="28" t="s">
@@ -28025,19 +27705,19 @@
         <v>15</v>
       </c>
       <c r="H753" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I753" s="30"/>
-    </row>
-    <row r="754" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I753" s="18"/>
+    </row>
+    <row r="754" spans="1:9">
       <c r="A754" s="28" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B754" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C754" s="30" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="D754" s="28"/>
       <c r="E754" s="28" t="s">
@@ -28054,15 +27734,15 @@
       </c>
       <c r="I754" s="18"/>
     </row>
-    <row r="755" spans="1:9">
+    <row r="755" spans="1:9" ht="30">
       <c r="A755" s="28" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B755" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C755" s="30" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="D755" s="28"/>
       <c r="E755" s="28" t="s">
@@ -28075,19 +27755,19 @@
         <v>15</v>
       </c>
       <c r="H755" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I755" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="I755" s="30"/>
     </row>
     <row r="756" spans="1:9" ht="30">
       <c r="A756" s="28" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B756" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C756" s="30" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="D756" s="28"/>
       <c r="E756" s="28" t="s">
@@ -28106,13 +27786,13 @@
     </row>
     <row r="757" spans="1:9" ht="30">
       <c r="A757" s="28" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B757" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C757" s="30" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="D757" s="28"/>
       <c r="E757" s="28" t="s">
@@ -28131,13 +27811,13 @@
     </row>
     <row r="758" spans="1:9" ht="30">
       <c r="A758" s="28" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B758" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C758" s="30" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="D758" s="28"/>
       <c r="E758" s="28" t="s">
@@ -28154,15 +27834,15 @@
       </c>
       <c r="I758" s="30"/>
     </row>
-    <row r="759" spans="1:9" ht="30">
+    <row r="759" spans="1:9" ht="45">
       <c r="A759" s="28" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B759" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C759" s="30" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="D759" s="28"/>
       <c r="E759" s="28" t="s">
@@ -28175,19 +27855,19 @@
         <v>15</v>
       </c>
       <c r="H759" s="28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I759" s="30"/>
     </row>
     <row r="760" spans="1:9" ht="45">
       <c r="A760" s="28" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B760" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C760" s="30" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="D760" s="28"/>
       <c r="E760" s="28" t="s">
@@ -28204,15 +27884,15 @@
       </c>
       <c r="I760" s="30"/>
     </row>
-    <row r="761" spans="1:9" ht="45">
+    <row r="761" spans="1:9" ht="30">
       <c r="A761" s="28" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B761" s="29" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C761" s="30" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="D761" s="28"/>
       <c r="E761" s="28" t="s">
@@ -28222,32 +27902,32 @@
         <v>6</v>
       </c>
       <c r="G761" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H761" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I761" s="30"/>
     </row>
     <row r="762" spans="1:9" ht="30">
       <c r="A762" s="28" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B762" s="29" t="s">
         <v>1093</v>
       </c>
       <c r="C762" s="30" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="D762" s="28"/>
       <c r="E762" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F762" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G762" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H762" s="28" t="s">
         <v>18</v>
@@ -28256,63 +27936,63 @@
     </row>
     <row r="763" spans="1:9" ht="30">
       <c r="A763" s="28" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B763" s="29" t="s">
         <v>1093</v>
       </c>
       <c r="C763" s="30" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="D763" s="28"/>
       <c r="E763" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F763" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G763" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H763" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I763" s="30"/>
     </row>
     <row r="764" spans="1:9" ht="30">
       <c r="A764" s="28" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B764" s="29" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C764" s="30" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="D764" s="28"/>
       <c r="E764" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F764" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G764" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H764" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I764" s="30"/>
     </row>
     <row r="765" spans="1:9" ht="30">
       <c r="A765" s="28" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B765" s="29" t="s">
         <v>1094</v>
       </c>
       <c r="C765" s="30" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="D765" s="28"/>
       <c r="E765" s="28" t="s">
@@ -28329,15 +28009,15 @@
       </c>
       <c r="I765" s="30"/>
     </row>
-    <row r="766" spans="1:9" ht="30">
+    <row r="766" spans="1:9">
       <c r="A766" s="28" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B766" s="29" t="s">
         <v>1094</v>
       </c>
       <c r="C766" s="30" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="D766" s="28"/>
       <c r="E766" s="28" t="s">
@@ -28354,40 +28034,40 @@
       </c>
       <c r="I766" s="30"/>
     </row>
-    <row r="767" spans="1:9">
+    <row r="767" spans="1:9" ht="30">
       <c r="A767" s="28" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B767" s="29" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C767" s="30" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="D767" s="28"/>
       <c r="E767" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F767" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G767" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H767" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I767" s="30"/>
     </row>
     <row r="768" spans="1:9" ht="30">
       <c r="A768" s="28" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B768" s="29" t="s">
         <v>1095</v>
       </c>
       <c r="C768" s="30" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="D768" s="28"/>
       <c r="E768" s="28" t="s">
@@ -28400,19 +28080,19 @@
         <v>15</v>
       </c>
       <c r="H768" s="28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I768" s="30"/>
     </row>
     <row r="769" spans="1:9" ht="30">
       <c r="A769" s="28" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B769" s="29" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C769" s="30" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="D769" s="28"/>
       <c r="E769" s="28" t="s">
@@ -28422,97 +28102,97 @@
         <v>6</v>
       </c>
       <c r="G769" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H769" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I769" s="30"/>
     </row>
     <row r="770" spans="1:9" ht="30">
       <c r="A770" s="28" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B770" s="29" t="s">
         <v>1096</v>
       </c>
       <c r="C770" s="30" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="D770" s="28"/>
       <c r="E770" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F770" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G770" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H770" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I770" s="30"/>
     </row>
-    <row r="771" spans="1:9" ht="30">
+    <row r="771" spans="1:9" ht="45">
       <c r="A771" s="28" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B771" s="29" t="s">
         <v>1096</v>
       </c>
       <c r="C771" s="30" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="D771" s="28"/>
       <c r="E771" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F771" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G771" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H771" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I771" s="30"/>
     </row>
-    <row r="772" spans="1:9" ht="45">
+    <row r="772" spans="1:9" ht="30">
       <c r="A772" s="28" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B772" s="29" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C772" s="30" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="D772" s="28"/>
       <c r="E772" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F772" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G772" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H772" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I772" s="30"/>
     </row>
-    <row r="773" spans="1:9" ht="30">
+    <row r="773" spans="1:9" ht="285">
       <c r="A773" s="28" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B773" s="29" t="s">
         <v>1097</v>
       </c>
-      <c r="C773" s="30" t="s">
-        <v>1769</v>
+      <c r="C773" s="18" t="s">
+        <v>2113</v>
       </c>
       <c r="D773" s="28"/>
       <c r="E773" s="28" t="s">
@@ -28529,15 +28209,15 @@
       </c>
       <c r="I773" s="30"/>
     </row>
-    <row r="774" spans="1:9" ht="285">
+    <row r="774" spans="1:9">
       <c r="A774" s="28" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B774" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="C774" s="18" t="s">
-        <v>2116</v>
+        <v>1770</v>
       </c>
       <c r="D774" s="28"/>
       <c r="E774" s="28" t="s">
@@ -28554,65 +28234,65 @@
       </c>
       <c r="I774" s="30"/>
     </row>
-    <row r="775" spans="1:9">
-      <c r="A775" s="28" t="s">
-        <v>798</v>
+    <row r="775" spans="1:9" ht="30">
+      <c r="A775" s="20" t="s">
+        <v>2115</v>
       </c>
       <c r="B775" s="29" t="s">
         <v>1097</v>
       </c>
-      <c r="C775" s="18" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D775" s="28"/>
-      <c r="E775" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F775" s="28" t="s">
+      <c r="C775" s="33" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D775" s="32"/>
+      <c r="E775" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F775" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G775" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H775" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I775" s="30"/>
+      <c r="G775" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H775" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I775" s="33"/>
     </row>
     <row r="776" spans="1:9" ht="30">
-      <c r="A776" s="20" t="s">
-        <v>2118</v>
+      <c r="A776" s="28" t="s">
+        <v>799</v>
       </c>
       <c r="B776" s="29" t="s">
         <v>1097</v>
       </c>
-      <c r="C776" s="33" t="s">
-        <v>2117</v>
-      </c>
-      <c r="D776" s="32"/>
-      <c r="E776" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F776" s="32" t="s">
+      <c r="C776" s="30" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D776" s="28"/>
+      <c r="E776" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F776" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G776" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H776" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I776" s="33"/>
+      <c r="G776" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H776" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I776" s="30"/>
     </row>
     <row r="777" spans="1:9" ht="30">
       <c r="A777" s="28" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B777" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="C777" s="30" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="D777" s="28"/>
       <c r="E777" s="28" t="s">
@@ -28631,13 +28311,13 @@
     </row>
     <row r="778" spans="1:9" ht="30">
       <c r="A778" s="28" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B778" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="C778" s="30" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="D778" s="28"/>
       <c r="E778" s="28" t="s">
@@ -28656,13 +28336,13 @@
     </row>
     <row r="779" spans="1:9" ht="30">
       <c r="A779" s="28" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B779" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="C779" s="30" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="D779" s="28"/>
       <c r="E779" s="28" t="s">
@@ -28681,13 +28361,13 @@
     </row>
     <row r="780" spans="1:9" ht="30">
       <c r="A780" s="28" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B780" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="C780" s="30" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="D780" s="28"/>
       <c r="E780" s="28" t="s">
@@ -28706,13 +28386,13 @@
     </row>
     <row r="781" spans="1:9" ht="30">
       <c r="A781" s="28" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B781" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="C781" s="30" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="D781" s="28"/>
       <c r="E781" s="28" t="s">
@@ -28731,13 +28411,13 @@
     </row>
     <row r="782" spans="1:9" ht="30">
       <c r="A782" s="28" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B782" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="C782" s="30" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D782" s="28"/>
       <c r="E782" s="28" t="s">
@@ -28756,13 +28436,13 @@
     </row>
     <row r="783" spans="1:9" ht="30">
       <c r="A783" s="28" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B783" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="C783" s="30" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="D783" s="28"/>
       <c r="E783" s="28" t="s">
@@ -28781,13 +28461,13 @@
     </row>
     <row r="784" spans="1:9" ht="30">
       <c r="A784" s="28" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B784" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="C784" s="30" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="D784" s="28"/>
       <c r="E784" s="28" t="s">
@@ -28806,38 +28486,38 @@
     </row>
     <row r="785" spans="1:9" ht="30">
       <c r="A785" s="28" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B785" s="29" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C785" s="30" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="D785" s="28"/>
       <c r="E785" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F785" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G785" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H785" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I785" s="30"/>
     </row>
-    <row r="786" spans="1:9" ht="30">
+    <row r="786" spans="1:9" ht="409.5">
       <c r="A786" s="28" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B786" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C786" s="30" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="D786" s="28"/>
       <c r="E786" s="28" t="s">
@@ -28847,22 +28527,22 @@
         <v>6</v>
       </c>
       <c r="G786" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H786" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I786" s="30"/>
     </row>
-    <row r="787" spans="1:9" ht="409.5">
+    <row r="787" spans="1:9" ht="45">
       <c r="A787" s="28" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B787" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C787" s="30" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="D787" s="28"/>
       <c r="E787" s="28" t="s">
@@ -28875,19 +28555,19 @@
         <v>15</v>
       </c>
       <c r="H787" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I787" s="30"/>
     </row>
-    <row r="788" spans="1:9" ht="45">
+    <row r="788" spans="1:9" ht="30">
       <c r="A788" s="28" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B788" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C788" s="30" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="D788" s="28"/>
       <c r="E788" s="28" t="s">
@@ -28906,13 +28586,13 @@
     </row>
     <row r="789" spans="1:9" ht="30">
       <c r="A789" s="28" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B789" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C789" s="30" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="D789" s="28"/>
       <c r="E789" s="28" t="s">
@@ -28931,13 +28611,13 @@
     </row>
     <row r="790" spans="1:9" ht="30">
       <c r="A790" s="28" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B790" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C790" s="30" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="D790" s="28"/>
       <c r="E790" s="28" t="s">
@@ -28956,13 +28636,13 @@
     </row>
     <row r="791" spans="1:9" ht="30">
       <c r="A791" s="28" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B791" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C791" s="30" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="D791" s="28"/>
       <c r="E791" s="28" t="s">
@@ -28975,19 +28655,19 @@
         <v>15</v>
       </c>
       <c r="H791" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I791" s="30"/>
+        <v>18</v>
+      </c>
+      <c r="I791" s="18"/>
     </row>
     <row r="792" spans="1:9" ht="30">
       <c r="A792" s="28" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B792" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C792" s="30" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="D792" s="28"/>
       <c r="E792" s="28" t="s">
@@ -29006,13 +28686,13 @@
     </row>
     <row r="793" spans="1:9" ht="30">
       <c r="A793" s="28" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B793" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C793" s="30" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="D793" s="28"/>
       <c r="E793" s="28" t="s">
@@ -29031,13 +28711,13 @@
     </row>
     <row r="794" spans="1:9" ht="30">
       <c r="A794" s="28" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B794" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C794" s="30" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D794" s="28"/>
       <c r="E794" s="28" t="s">
@@ -29050,19 +28730,19 @@
         <v>15</v>
       </c>
       <c r="H794" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I794" s="18"/>
     </row>
     <row r="795" spans="1:9" ht="30">
       <c r="A795" s="28" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B795" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C795" s="30" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="D795" s="28"/>
       <c r="E795" s="28" t="s">
@@ -29075,19 +28755,19 @@
         <v>15</v>
       </c>
       <c r="H795" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I795" s="18"/>
     </row>
     <row r="796" spans="1:9" ht="30">
       <c r="A796" s="28" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B796" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C796" s="30" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="D796" s="28"/>
       <c r="E796" s="28" t="s">
@@ -29097,22 +28777,22 @@
         <v>6</v>
       </c>
       <c r="G796" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H796" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I796" s="18"/>
+      <c r="I796" s="30"/>
     </row>
     <row r="797" spans="1:9" ht="30">
       <c r="A797" s="28" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B797" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C797" s="30" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D797" s="28"/>
       <c r="E797" s="28" t="s">
@@ -29122,22 +28802,22 @@
         <v>6</v>
       </c>
       <c r="G797" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H797" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I797" s="30"/>
     </row>
     <row r="798" spans="1:9" ht="30">
       <c r="A798" s="28" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B798" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C798" s="30" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="D798" s="28"/>
       <c r="E798" s="28" t="s">
@@ -29156,13 +28836,13 @@
     </row>
     <row r="799" spans="1:9" ht="30">
       <c r="A799" s="28" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B799" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C799" s="30" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="D799" s="28"/>
       <c r="E799" s="28" t="s">
@@ -29181,13 +28861,13 @@
     </row>
     <row r="800" spans="1:9" ht="30">
       <c r="A800" s="28" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B800" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C800" s="30" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="D800" s="28"/>
       <c r="E800" s="28" t="s">
@@ -29206,13 +28886,13 @@
     </row>
     <row r="801" spans="1:9" ht="30">
       <c r="A801" s="28" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B801" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C801" s="30" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="D801" s="28"/>
       <c r="E801" s="28" t="s">
@@ -29231,13 +28911,13 @@
     </row>
     <row r="802" spans="1:9" ht="30">
       <c r="A802" s="28" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B802" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C802" s="30" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="D802" s="28"/>
       <c r="E802" s="28" t="s">
@@ -29250,19 +28930,19 @@
         <v>15</v>
       </c>
       <c r="H802" s="28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I802" s="30"/>
     </row>
     <row r="803" spans="1:9" ht="30">
       <c r="A803" s="28" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B803" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C803" s="30" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="D803" s="28"/>
       <c r="E803" s="28" t="s">
@@ -29275,19 +28955,19 @@
         <v>15</v>
       </c>
       <c r="H803" s="28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I803" s="30"/>
     </row>
     <row r="804" spans="1:9" ht="30">
       <c r="A804" s="28" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B804" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C804" s="30" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="D804" s="28"/>
       <c r="E804" s="28" t="s">
@@ -29306,13 +28986,13 @@
     </row>
     <row r="805" spans="1:9" ht="30">
       <c r="A805" s="28" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B805" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C805" s="30" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="D805" s="28"/>
       <c r="E805" s="28" t="s">
@@ -29329,15 +29009,15 @@
       </c>
       <c r="I805" s="30"/>
     </row>
-    <row r="806" spans="1:9" ht="30">
+    <row r="806" spans="1:9">
       <c r="A806" s="28" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B806" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C806" s="30" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="D806" s="28"/>
       <c r="E806" s="28" t="s">
@@ -29354,15 +29034,15 @@
       </c>
       <c r="I806" s="30"/>
     </row>
-    <row r="807" spans="1:9">
+    <row r="807" spans="1:9" ht="30">
       <c r="A807" s="28" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B807" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C807" s="30" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="D807" s="28"/>
       <c r="E807" s="28" t="s">
@@ -29375,19 +29055,19 @@
         <v>15</v>
       </c>
       <c r="H807" s="28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I807" s="30"/>
     </row>
     <row r="808" spans="1:9" ht="30">
       <c r="A808" s="28" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B808" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C808" s="30" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="D808" s="28"/>
       <c r="E808" s="28" t="s">
@@ -29402,17 +29082,17 @@
       <c r="H808" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I808" s="30"/>
+      <c r="I808" s="18"/>
     </row>
     <row r="809" spans="1:9" ht="30">
       <c r="A809" s="28" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B809" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C809" s="30" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="D809" s="28"/>
       <c r="E809" s="28" t="s">
@@ -29425,19 +29105,19 @@
         <v>15</v>
       </c>
       <c r="H809" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I809" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="I809" s="30"/>
     </row>
     <row r="810" spans="1:9" ht="30">
-      <c r="A810" s="28" t="s">
-        <v>832</v>
+      <c r="A810" s="20" t="s">
+        <v>1904</v>
       </c>
       <c r="B810" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C810" s="30" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="D810" s="28"/>
       <c r="E810" s="28" t="s">
@@ -29455,14 +29135,14 @@
       <c r="I810" s="30"/>
     </row>
     <row r="811" spans="1:9" ht="30">
-      <c r="A811" s="20" t="s">
-        <v>1904</v>
+      <c r="A811" s="28" t="s">
+        <v>833</v>
       </c>
       <c r="B811" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C811" s="30" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="D811" s="28"/>
       <c r="E811" s="28" t="s">
@@ -29481,13 +29161,13 @@
     </row>
     <row r="812" spans="1:9" ht="30">
       <c r="A812" s="28" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B812" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C812" s="30" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="D812" s="28"/>
       <c r="E812" s="28" t="s">
@@ -29506,13 +29186,13 @@
     </row>
     <row r="813" spans="1:9" ht="30">
       <c r="A813" s="28" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B813" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C813" s="30" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="D813" s="28"/>
       <c r="E813" s="28" t="s">
@@ -29531,13 +29211,13 @@
     </row>
     <row r="814" spans="1:9" ht="30">
       <c r="A814" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B814" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C814" s="30" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="D814" s="28"/>
       <c r="E814" s="28" t="s">
@@ -29550,69 +29230,71 @@
         <v>15</v>
       </c>
       <c r="H814" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I814" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="I814" s="18"/>
     </row>
     <row r="815" spans="1:9" ht="30">
       <c r="A815" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B815" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C815" s="30" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="D815" s="28"/>
       <c r="E815" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F815" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G815" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H815" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I815" s="18"/>
-    </row>
-    <row r="816" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I815" s="30"/>
+    </row>
+    <row r="816" spans="1:9" ht="45">
       <c r="A816" s="28" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B816" s="29" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C816" s="30" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="D816" s="28"/>
       <c r="E816" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F816" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G816" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H816" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I816" s="30"/>
-    </row>
-    <row r="817" spans="1:9" ht="45">
+        <v>17</v>
+      </c>
+      <c r="I816" s="18" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="817" spans="1:9" ht="90">
       <c r="A817" s="28" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B817" s="29" t="s">
         <v>1099</v>
       </c>
       <c r="C817" s="30" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="D817" s="28"/>
       <c r="E817" s="28" t="s">
@@ -29625,21 +29307,19 @@
         <v>15</v>
       </c>
       <c r="H817" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I817" s="18" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="818" spans="1:9" ht="90">
+        <v>21</v>
+      </c>
+      <c r="I817" s="30"/>
+    </row>
+    <row r="818" spans="1:9" ht="45">
       <c r="A818" s="28" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B818" s="29" t="s">
         <v>1099</v>
       </c>
       <c r="C818" s="30" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="D818" s="28"/>
       <c r="E818" s="28" t="s">
@@ -29656,65 +29336,65 @@
       </c>
       <c r="I818" s="30"/>
     </row>
-    <row r="819" spans="1:9" ht="45">
+    <row r="819" spans="1:9" ht="30">
       <c r="A819" s="28" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B819" s="29" t="s">
         <v>1099</v>
       </c>
       <c r="C819" s="30" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="D819" s="28"/>
       <c r="E819" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F819" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G819" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H819" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I819" s="30"/>
     </row>
     <row r="820" spans="1:9" ht="30">
       <c r="A820" s="28" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B820" s="29" t="s">
         <v>1099</v>
       </c>
       <c r="C820" s="30" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="D820" s="28"/>
       <c r="E820" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F820" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G820" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H820" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I820" s="30"/>
     </row>
     <row r="821" spans="1:9" ht="30">
-      <c r="A821" s="28" t="s">
-        <v>842</v>
+      <c r="A821" s="20" t="s">
+        <v>843</v>
       </c>
       <c r="B821" s="29" t="s">
         <v>1099</v>
       </c>
       <c r="C821" s="30" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="D821" s="28"/>
       <c r="E821" s="28" t="s">
@@ -29726,20 +29406,20 @@
       <c r="G821" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H821" s="28" t="s">
+      <c r="H821" s="20" t="s">
         <v>20</v>
       </c>
       <c r="I821" s="30"/>
     </row>
     <row r="822" spans="1:9" ht="30">
-      <c r="A822" s="20" t="s">
-        <v>843</v>
+      <c r="A822" s="28" t="s">
+        <v>844</v>
       </c>
       <c r="B822" s="29" t="s">
         <v>1099</v>
       </c>
       <c r="C822" s="30" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D822" s="28"/>
       <c r="E822" s="28" t="s">
@@ -29751,20 +29431,20 @@
       <c r="G822" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H822" s="20" t="s">
+      <c r="H822" s="28" t="s">
         <v>20</v>
       </c>
       <c r="I822" s="30"/>
     </row>
     <row r="823" spans="1:9" ht="30">
       <c r="A823" s="28" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B823" s="29" t="s">
         <v>1099</v>
       </c>
       <c r="C823" s="30" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="D823" s="28"/>
       <c r="E823" s="28" t="s">
@@ -29777,19 +29457,19 @@
         <v>15</v>
       </c>
       <c r="H823" s="28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I823" s="30"/>
     </row>
-    <row r="824" spans="1:9" ht="30">
+    <row r="824" spans="1:9" ht="45">
       <c r="A824" s="28" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B824" s="29" t="s">
         <v>1099</v>
       </c>
       <c r="C824" s="30" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D824" s="28"/>
       <c r="E824" s="28" t="s">
@@ -29806,15 +29486,15 @@
       </c>
       <c r="I824" s="30"/>
     </row>
-    <row r="825" spans="1:9" ht="45">
+    <row r="825" spans="1:9" ht="30">
       <c r="A825" s="28" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B825" s="29" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C825" s="30" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D825" s="28"/>
       <c r="E825" s="28" t="s">
@@ -29824,32 +29504,32 @@
         <v>6</v>
       </c>
       <c r="G825" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H825" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I825" s="30"/>
     </row>
-    <row r="826" spans="1:9" ht="30">
+    <row r="826" spans="1:9" ht="45">
       <c r="A826" s="28" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B826" s="29" t="s">
         <v>1100</v>
       </c>
       <c r="C826" s="30" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="D826" s="28"/>
       <c r="E826" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F826" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G826" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H826" s="28" t="s">
         <v>18</v>
@@ -29858,63 +29538,63 @@
     </row>
     <row r="827" spans="1:9" ht="45">
       <c r="A827" s="28" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B827" s="29" t="s">
         <v>1100</v>
       </c>
       <c r="C827" s="30" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="D827" s="28"/>
       <c r="E827" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F827" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G827" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H827" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I827" s="30"/>
     </row>
     <row r="828" spans="1:9" ht="45">
       <c r="A828" s="28" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B828" s="29" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C828" s="30" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="D828" s="28"/>
       <c r="E828" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F828" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G828" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H828" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I828" s="30"/>
     </row>
-    <row r="829" spans="1:9" ht="45">
+    <row r="829" spans="1:9" ht="30">
       <c r="A829" s="28" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B829" s="29" t="s">
         <v>1101</v>
       </c>
       <c r="C829" s="30" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="D829" s="28"/>
       <c r="E829" s="28" t="s">
@@ -29933,38 +29613,38 @@
     </row>
     <row r="830" spans="1:9" ht="30">
       <c r="A830" s="28" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B830" s="29" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C830" s="30" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="D830" s="28"/>
       <c r="E830" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F830" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G830" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H830" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I830" s="30"/>
     </row>
     <row r="831" spans="1:9" ht="30">
       <c r="A831" s="28" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B831" s="29" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C831" s="30" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="D831" s="28"/>
       <c r="E831" s="28" t="s">
@@ -29974,32 +29654,32 @@
         <v>6</v>
       </c>
       <c r="G831" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H831" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I831" s="30"/>
     </row>
-    <row r="832" spans="1:9" ht="30">
+    <row r="832" spans="1:9" ht="45">
       <c r="A832" s="28" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B832" s="29" t="s">
         <v>1103</v>
       </c>
       <c r="C832" s="30" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="D832" s="28"/>
       <c r="E832" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F832" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G832" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H832" s="28" t="s">
         <v>18</v>
@@ -30008,63 +29688,63 @@
     </row>
     <row r="833" spans="1:9" ht="45">
       <c r="A833" s="28" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B833" s="29" t="s">
         <v>1103</v>
       </c>
       <c r="C833" s="30" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="D833" s="28"/>
       <c r="E833" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F833" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G833" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H833" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I833" s="30"/>
     </row>
     <row r="834" spans="1:9" ht="45">
       <c r="A834" s="28" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B834" s="29" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C834" s="30" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="D834" s="28"/>
       <c r="E834" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F834" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G834" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H834" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I834" s="30"/>
     </row>
-    <row r="835" spans="1:9" ht="45">
+    <row r="835" spans="1:9" ht="225">
       <c r="A835" s="28" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B835" s="29" t="s">
         <v>1104</v>
       </c>
-      <c r="C835" s="30" t="s">
-        <v>1828</v>
+      <c r="C835" s="18" t="s">
+        <v>2116</v>
       </c>
       <c r="D835" s="28"/>
       <c r="E835" s="28" t="s">
@@ -30081,15 +29761,15 @@
       </c>
       <c r="I835" s="30"/>
     </row>
-    <row r="836" spans="1:9" ht="225">
+    <row r="836" spans="1:9" ht="30">
       <c r="A836" s="28" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B836" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="C836" s="18" t="s">
-        <v>2119</v>
+        <v>1829</v>
       </c>
       <c r="D836" s="28"/>
       <c r="E836" s="28" t="s">
@@ -30107,16 +29787,16 @@
       <c r="I836" s="30"/>
     </row>
     <row r="837" spans="1:9" ht="30">
-      <c r="A837" s="28" t="s">
-        <v>858</v>
+      <c r="A837" s="20" t="s">
+        <v>2118</v>
       </c>
       <c r="B837" s="29" t="s">
         <v>1104</v>
       </c>
-      <c r="C837" s="18" t="s">
-        <v>1829</v>
-      </c>
-      <c r="D837" s="28"/>
+      <c r="C837" s="33" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D837" s="32"/>
       <c r="E837" s="28" t="s">
         <v>19</v>
       </c>
@@ -30129,19 +29809,19 @@
       <c r="H837" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I837" s="30"/>
+      <c r="I837" s="33"/>
     </row>
     <row r="838" spans="1:9" ht="30">
-      <c r="A838" s="20" t="s">
-        <v>2121</v>
+      <c r="A838" s="28" t="s">
+        <v>859</v>
       </c>
       <c r="B838" s="29" t="s">
         <v>1104</v>
       </c>
-      <c r="C838" s="33" t="s">
-        <v>2120</v>
-      </c>
-      <c r="D838" s="32"/>
+      <c r="C838" s="30" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D838" s="28"/>
       <c r="E838" s="28" t="s">
         <v>19</v>
       </c>
@@ -30154,17 +29834,17 @@
       <c r="H838" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I838" s="33"/>
+      <c r="I838" s="30"/>
     </row>
     <row r="839" spans="1:9" ht="30">
       <c r="A839" s="28" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B839" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="C839" s="30" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="D839" s="28"/>
       <c r="E839" s="28" t="s">
@@ -30183,13 +29863,13 @@
     </row>
     <row r="840" spans="1:9" ht="30">
       <c r="A840" s="28" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B840" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="C840" s="30" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="D840" s="28"/>
       <c r="E840" s="28" t="s">
@@ -30206,15 +29886,15 @@
       </c>
       <c r="I840" s="30"/>
     </row>
-    <row r="841" spans="1:9" ht="30">
+    <row r="841" spans="1:9" ht="45">
       <c r="A841" s="28" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B841" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="C841" s="30" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="D841" s="28"/>
       <c r="E841" s="28" t="s">
@@ -30224,22 +29904,22 @@
         <v>7</v>
       </c>
       <c r="G841" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H841" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I841" s="30"/>
     </row>
-    <row r="842" spans="1:9" ht="45">
+    <row r="842" spans="1:9" ht="30">
       <c r="A842" s="28" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B842" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="C842" s="30" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="D842" s="28"/>
       <c r="E842" s="28" t="s">
@@ -30258,13 +29938,13 @@
     </row>
     <row r="843" spans="1:9" ht="30">
       <c r="A843" s="28" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B843" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="C843" s="30" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="D843" s="28"/>
       <c r="E843" s="28" t="s">
@@ -30281,15 +29961,15 @@
       </c>
       <c r="I843" s="30"/>
     </row>
-    <row r="844" spans="1:9" ht="30">
+    <row r="844" spans="1:9" ht="45">
       <c r="A844" s="28" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B844" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="C844" s="30" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="D844" s="28"/>
       <c r="E844" s="28" t="s">
@@ -30306,15 +29986,15 @@
       </c>
       <c r="I844" s="30"/>
     </row>
-    <row r="845" spans="1:9" ht="45">
+    <row r="845" spans="1:9" ht="30">
       <c r="A845" s="28" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B845" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="C845" s="30" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="D845" s="28"/>
       <c r="E845" s="28" t="s">
@@ -30331,15 +30011,15 @@
       </c>
       <c r="I845" s="30"/>
     </row>
-    <row r="846" spans="1:9" ht="30">
+    <row r="846" spans="1:9" ht="45">
       <c r="A846" s="28" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B846" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="C846" s="30" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="D846" s="28"/>
       <c r="E846" s="28" t="s">
@@ -30356,40 +30036,40 @@
       </c>
       <c r="I846" s="30"/>
     </row>
-    <row r="847" spans="1:9" ht="45">
+    <row r="847" spans="1:9" ht="30">
       <c r="A847" s="28" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B847" s="29" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C847" s="30" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="D847" s="28"/>
       <c r="E847" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F847" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G847" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H847" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I847" s="30"/>
     </row>
-    <row r="848" spans="1:9" ht="30">
+    <row r="848" spans="1:9" ht="255">
       <c r="A848" s="28" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B848" s="29" t="s">
         <v>1105</v>
       </c>
-      <c r="C848" s="30" t="s">
-        <v>1839</v>
+      <c r="C848" s="18" t="s">
+        <v>2119</v>
       </c>
       <c r="D848" s="28"/>
       <c r="E848" s="28" t="s">
@@ -30402,19 +30082,19 @@
         <v>15</v>
       </c>
       <c r="H848" s="28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I848" s="30"/>
     </row>
-    <row r="849" spans="1:9" ht="255">
+    <row r="849" spans="1:9" ht="45">
       <c r="A849" s="28" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B849" s="29" t="s">
         <v>1105</v>
       </c>
-      <c r="C849" s="18" t="s">
-        <v>2122</v>
+      <c r="C849" s="30" t="s">
+        <v>1840</v>
       </c>
       <c r="D849" s="28"/>
       <c r="E849" s="28" t="s">
@@ -30427,19 +30107,19 @@
         <v>15</v>
       </c>
       <c r="H849" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I849" s="30"/>
     </row>
-    <row r="850" spans="1:9" ht="45">
+    <row r="850" spans="1:9" ht="30">
       <c r="A850" s="28" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B850" s="29" t="s">
         <v>1105</v>
       </c>
       <c r="C850" s="30" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="D850" s="28"/>
       <c r="E850" s="28" t="s">
@@ -30458,13 +30138,13 @@
     </row>
     <row r="851" spans="1:9" ht="30">
       <c r="A851" s="28" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B851" s="29" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C851" s="30" t="s">
-        <v>1841</v>
+        <v>1106</v>
+      </c>
+      <c r="C851" s="18" t="s">
+        <v>2120</v>
       </c>
       <c r="D851" s="28"/>
       <c r="E851" s="28" t="s">
@@ -30477,19 +30157,19 @@
         <v>15</v>
       </c>
       <c r="H851" s="28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I851" s="30"/>
     </row>
-    <row r="852" spans="1:9" ht="30">
+    <row r="852" spans="1:9" ht="75">
       <c r="A852" s="28" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B852" s="29" t="s">
         <v>1106</v>
       </c>
-      <c r="C852" s="18" t="s">
-        <v>2123</v>
+      <c r="C852" s="30" t="s">
+        <v>1842</v>
       </c>
       <c r="D852" s="28"/>
       <c r="E852" s="28" t="s">
@@ -30502,26 +30182,26 @@
         <v>15</v>
       </c>
       <c r="H852" s="28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I852" s="30"/>
     </row>
-    <row r="853" spans="1:9" ht="75">
+    <row r="853" spans="1:9" ht="45">
       <c r="A853" s="28" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B853" s="29" t="s">
         <v>1106</v>
       </c>
       <c r="C853" s="30" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="D853" s="28"/>
       <c r="E853" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F853" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G853" s="28" t="s">
         <v>15</v>
@@ -30531,40 +30211,40 @@
       </c>
       <c r="I853" s="30"/>
     </row>
-    <row r="854" spans="1:9" ht="45">
+    <row r="854" spans="1:9">
       <c r="A854" s="28" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B854" s="29" t="s">
         <v>1106</v>
       </c>
       <c r="C854" s="30" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D854" s="28"/>
       <c r="E854" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F854" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G854" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H854" s="28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I854" s="30"/>
     </row>
-    <row r="855" spans="1:9">
+    <row r="855" spans="1:9" ht="30">
       <c r="A855" s="28" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B855" s="29" t="s">
         <v>1106</v>
       </c>
       <c r="C855" s="30" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="D855" s="28"/>
       <c r="E855" s="28" t="s">
@@ -30583,13 +30263,13 @@
     </row>
     <row r="856" spans="1:9" ht="30">
       <c r="A856" s="28" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B856" s="29" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C856" s="30" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="D856" s="28"/>
       <c r="E856" s="28" t="s">
@@ -30599,32 +30279,32 @@
         <v>6</v>
       </c>
       <c r="G856" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H856" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I856" s="30"/>
     </row>
     <row r="857" spans="1:9" ht="30">
       <c r="A857" s="28" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B857" s="29" t="s">
         <v>1107</v>
       </c>
-      <c r="C857" s="30" t="s">
-        <v>1846</v>
+      <c r="C857" s="18" t="s">
+        <v>2121</v>
       </c>
       <c r="D857" s="28"/>
       <c r="E857" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F857" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G857" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H857" s="28" t="s">
         <v>18</v>
@@ -30633,63 +30313,63 @@
     </row>
     <row r="858" spans="1:9" ht="30">
       <c r="A858" s="28" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B858" s="29" t="s">
         <v>1107</v>
       </c>
       <c r="C858" s="18" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="D858" s="28"/>
       <c r="E858" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F858" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G858" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H858" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I858" s="30"/>
     </row>
     <row r="859" spans="1:9" ht="30">
       <c r="A859" s="28" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B859" s="29" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C859" s="18" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="D859" s="28"/>
       <c r="E859" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F859" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G859" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H859" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I859" s="30"/>
     </row>
     <row r="860" spans="1:9" ht="30">
       <c r="A860" s="28" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B860" s="29" t="s">
         <v>1108</v>
       </c>
-      <c r="C860" s="18" t="s">
-        <v>2126</v>
+      <c r="C860" s="30" t="s">
+        <v>1847</v>
       </c>
       <c r="D860" s="28"/>
       <c r="E860" s="28" t="s">
@@ -30706,15 +30386,15 @@
       </c>
       <c r="I860" s="30"/>
     </row>
-    <row r="861" spans="1:9" ht="30">
+    <row r="861" spans="1:9">
       <c r="A861" s="28" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B861" s="29" t="s">
         <v>1108</v>
       </c>
       <c r="C861" s="30" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="D861" s="28"/>
       <c r="E861" s="28" t="s">
@@ -30731,25 +30411,25 @@
       </c>
       <c r="I861" s="30"/>
     </row>
-    <row r="862" spans="1:9">
+    <row r="862" spans="1:9" ht="30">
       <c r="A862" s="28" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B862" s="29" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C862" s="30" t="s">
-        <v>1848</v>
+        <v>1109</v>
+      </c>
+      <c r="C862" s="18" t="s">
+        <v>2124</v>
       </c>
       <c r="D862" s="28"/>
       <c r="E862" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F862" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G862" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H862" s="28" t="s">
         <v>18</v>
@@ -30758,13 +30438,13 @@
     </row>
     <row r="863" spans="1:9" ht="30">
       <c r="A863" s="28" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B863" s="29" t="s">
         <v>1109</v>
       </c>
-      <c r="C863" s="18" t="s">
-        <v>2127</v>
+      <c r="C863" s="30" t="s">
+        <v>1849</v>
       </c>
       <c r="D863" s="28"/>
       <c r="E863" s="28" t="s">
@@ -30774,22 +30454,22 @@
         <v>6</v>
       </c>
       <c r="G863" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H863" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I863" s="30"/>
     </row>
     <row r="864" spans="1:9" ht="30">
       <c r="A864" s="28" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B864" s="29" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C864" s="30" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="D864" s="28"/>
       <c r="E864" s="28" t="s">
@@ -30799,32 +30479,32 @@
         <v>6</v>
       </c>
       <c r="G864" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H864" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I864" s="30"/>
     </row>
     <row r="865" spans="1:9" ht="30">
       <c r="A865" s="28" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B865" s="29" t="s">
         <v>1110</v>
       </c>
       <c r="C865" s="30" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="D865" s="28"/>
       <c r="E865" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F865" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G865" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H865" s="28" t="s">
         <v>18</v>
@@ -30833,63 +30513,63 @@
     </row>
     <row r="866" spans="1:9" ht="30">
       <c r="A866" s="28" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B866" s="29" t="s">
         <v>1110</v>
       </c>
       <c r="C866" s="30" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="D866" s="28"/>
       <c r="E866" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F866" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G866" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H866" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I866" s="30"/>
     </row>
     <row r="867" spans="1:9" ht="30">
       <c r="A867" s="28" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B867" s="29" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C867" s="30" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="D867" s="28"/>
       <c r="E867" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F867" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G867" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H867" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I867" s="30"/>
     </row>
-    <row r="868" spans="1:9" ht="30">
+    <row r="868" spans="1:9" ht="120">
       <c r="A868" s="28" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B868" s="29" t="s">
         <v>1111</v>
       </c>
-      <c r="C868" s="30" t="s">
-        <v>1853</v>
+      <c r="C868" s="18" t="s">
+        <v>2125</v>
       </c>
       <c r="D868" s="28"/>
       <c r="E868" s="28" t="s">
@@ -30906,15 +30586,15 @@
       </c>
       <c r="I868" s="30"/>
     </row>
-    <row r="869" spans="1:9" ht="120">
+    <row r="869" spans="1:9">
       <c r="A869" s="28" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B869" s="29" t="s">
         <v>1111</v>
       </c>
       <c r="C869" s="18" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="D869" s="28"/>
       <c r="E869" s="28" t="s">
@@ -30931,40 +30611,40 @@
       </c>
       <c r="I869" s="30"/>
     </row>
-    <row r="870" spans="1:9">
+    <row r="870" spans="1:9" ht="30">
       <c r="A870" s="28" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B870" s="29" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C870" s="18" t="s">
-        <v>2129</v>
+        <v>1112</v>
+      </c>
+      <c r="C870" s="30" t="s">
+        <v>1854</v>
       </c>
       <c r="D870" s="28"/>
       <c r="E870" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F870" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G870" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H870" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I870" s="30"/>
     </row>
-    <row r="871" spans="1:9" ht="30">
+    <row r="871" spans="1:9" ht="135">
       <c r="A871" s="28" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B871" s="29" t="s">
         <v>1112</v>
       </c>
-      <c r="C871" s="30" t="s">
-        <v>1854</v>
+      <c r="C871" s="18" t="s">
+        <v>2127</v>
       </c>
       <c r="D871" s="28"/>
       <c r="E871" s="28" t="s">
@@ -30974,22 +30654,22 @@
         <v>6</v>
       </c>
       <c r="G871" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H871" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I871" s="30"/>
     </row>
-    <row r="872" spans="1:9" ht="135">
+    <row r="872" spans="1:9" ht="30">
       <c r="A872" s="28" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B872" s="29" t="s">
         <v>1112</v>
       </c>
       <c r="C872" s="18" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="D872" s="28"/>
       <c r="E872" s="28" t="s">
@@ -31002,44 +30682,44 @@
         <v>15</v>
       </c>
       <c r="H872" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I872" s="30"/>
     </row>
-    <row r="873" spans="1:9" ht="30">
-      <c r="A873" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="B873" s="29" t="s">
-        <v>1112</v>
+    <row r="873" spans="1:9" ht="45">
+      <c r="A873" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="B873" s="34">
+        <v>7</v>
       </c>
       <c r="C873" s="18" t="s">
-        <v>2131</v>
+        <v>1996</v>
       </c>
       <c r="D873" s="28"/>
       <c r="E873" s="28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F873" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G873" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H873" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I873" s="30"/>
     </row>
-    <row r="874" spans="1:9" ht="45">
-      <c r="A874" s="20" t="s">
-        <v>894</v>
+    <row r="874" spans="1:9" ht="30">
+      <c r="A874" s="28" t="s">
+        <v>895</v>
       </c>
       <c r="B874" s="34">
         <v>7</v>
       </c>
       <c r="C874" s="18" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D874" s="28"/>
       <c r="E874" s="28" t="s">
@@ -31056,69 +30736,71 @@
       </c>
       <c r="I874" s="30"/>
     </row>
-    <row r="875" spans="1:9" ht="30">
-      <c r="A875" s="28" t="s">
-        <v>895</v>
+    <row r="875" spans="1:9" ht="45">
+      <c r="A875" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="B875" s="34">
         <v>7</v>
       </c>
       <c r="C875" s="18" t="s">
-        <v>1997</v>
-      </c>
-      <c r="D875" s="28"/>
-      <c r="E875" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D875" s="20" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E875" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F875" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G875" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H875" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I875" s="30"/>
-    </row>
-    <row r="876" spans="1:9" ht="45">
-      <c r="A876" s="20" t="s">
-        <v>45</v>
+      <c r="F875" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G875" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H875" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I875" s="18" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="876" spans="1:9" ht="60">
+      <c r="A876" s="28" t="s">
+        <v>896</v>
       </c>
       <c r="B876" s="34">
         <v>7</v>
       </c>
       <c r="C876" s="18" t="s">
-        <v>1998</v>
+        <v>1855</v>
       </c>
       <c r="D876" s="20" t="s">
-        <v>1886</v>
-      </c>
-      <c r="E876" s="20" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E876" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F876" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G876" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H876" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I876" s="18" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="877" spans="1:9" ht="60">
-      <c r="A877" s="28" t="s">
-        <v>896</v>
+      <c r="F876" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G876" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H876" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I876" s="30"/>
+    </row>
+    <row r="877" spans="1:9" ht="45">
+      <c r="A877" s="20" t="s">
+        <v>897</v>
       </c>
       <c r="B877" s="34">
         <v>7</v>
       </c>
       <c r="C877" s="18" t="s">
-        <v>1855</v>
+        <v>1928</v>
       </c>
       <c r="D877" s="20" t="s">
         <v>1908</v>
@@ -31133,22 +30815,24 @@
         <v>15</v>
       </c>
       <c r="H877" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I877" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="I877" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="878" spans="1:9" ht="45">
       <c r="A878" s="20" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B878" s="34">
         <v>7</v>
       </c>
-      <c r="C878" s="18" t="s">
-        <v>1928</v>
+      <c r="C878" s="30" t="s">
+        <v>1856</v>
       </c>
       <c r="D878" s="20" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="E878" s="28" t="s">
         <v>22</v>
@@ -31160,21 +30844,19 @@
         <v>15</v>
       </c>
       <c r="H878" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I878" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I878" s="30"/>
     </row>
     <row r="879" spans="1:9" ht="45">
       <c r="A879" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B879" s="34">
         <v>7</v>
       </c>
-      <c r="C879" s="30" t="s">
-        <v>1856</v>
+      <c r="C879" s="18" t="s">
+        <v>1951</v>
       </c>
       <c r="D879" s="20" t="s">
         <v>1909</v>
@@ -31189,22 +30871,24 @@
         <v>15</v>
       </c>
       <c r="H879" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I879" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="I879" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="880" spans="1:9" ht="45">
       <c r="A880" s="20" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B880" s="34">
         <v>7</v>
       </c>
       <c r="C880" s="18" t="s">
-        <v>1951</v>
+        <v>1857</v>
       </c>
       <c r="D880" s="20" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="E880" s="28" t="s">
         <v>22</v>
@@ -31216,21 +30900,19 @@
         <v>15</v>
       </c>
       <c r="H880" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I880" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I880" s="30"/>
     </row>
     <row r="881" spans="1:9" ht="45">
       <c r="A881" s="20" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B881" s="34">
         <v>7</v>
       </c>
-      <c r="C881" s="18" t="s">
-        <v>1857</v>
+      <c r="C881" s="30" t="s">
+        <v>1929</v>
       </c>
       <c r="D881" s="20" t="s">
         <v>1910</v>
@@ -31245,22 +30927,24 @@
         <v>15</v>
       </c>
       <c r="H881" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I881" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="I881" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="882" spans="1:9" ht="45">
       <c r="A882" s="20" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B882" s="34">
         <v>7</v>
       </c>
       <c r="C882" s="30" t="s">
-        <v>1929</v>
+        <v>1858</v>
       </c>
       <c r="D882" s="20" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="E882" s="28" t="s">
         <v>22</v>
@@ -31272,21 +30956,19 @@
         <v>15</v>
       </c>
       <c r="H882" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I882" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I882" s="30"/>
     </row>
     <row r="883" spans="1:9" ht="45">
       <c r="A883" s="20" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B883" s="34">
         <v>7</v>
       </c>
-      <c r="C883" s="30" t="s">
-        <v>1858</v>
+      <c r="C883" s="18" t="s">
+        <v>1930</v>
       </c>
       <c r="D883" s="20" t="s">
         <v>1911</v>
@@ -31301,22 +30983,24 @@
         <v>15</v>
       </c>
       <c r="H883" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I883" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="I883" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="884" spans="1:9" ht="45">
       <c r="A884" s="20" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B884" s="34">
         <v>7</v>
       </c>
-      <c r="C884" s="18" t="s">
-        <v>1930</v>
+      <c r="C884" s="30" t="s">
+        <v>1859</v>
       </c>
       <c r="D884" s="20" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="E884" s="28" t="s">
         <v>22</v>
@@ -31328,21 +31012,19 @@
         <v>15</v>
       </c>
       <c r="H884" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I884" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I884" s="30"/>
     </row>
     <row r="885" spans="1:9" ht="45">
       <c r="A885" s="20" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B885" s="34">
         <v>7</v>
       </c>
-      <c r="C885" s="30" t="s">
-        <v>1859</v>
+      <c r="C885" s="18" t="s">
+        <v>1931</v>
       </c>
       <c r="D885" s="20" t="s">
         <v>1912</v>
@@ -31357,22 +31039,24 @@
         <v>15</v>
       </c>
       <c r="H885" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I885" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="I885" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="886" spans="1:9" ht="45">
       <c r="A886" s="20" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B886" s="34">
         <v>7</v>
       </c>
       <c r="C886" s="18" t="s">
-        <v>1931</v>
+        <v>1860</v>
       </c>
       <c r="D886" s="20" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="E886" s="28" t="s">
         <v>22</v>
@@ -31384,21 +31068,19 @@
         <v>15</v>
       </c>
       <c r="H886" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I886" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I886" s="30"/>
     </row>
     <row r="887" spans="1:9" ht="45">
       <c r="A887" s="20" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B887" s="34">
         <v>7</v>
       </c>
       <c r="C887" s="18" t="s">
-        <v>1860</v>
+        <v>1932</v>
       </c>
       <c r="D887" s="20" t="s">
         <v>1913</v>
@@ -31413,22 +31095,24 @@
         <v>15</v>
       </c>
       <c r="H887" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I887" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="I887" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="888" spans="1:9" ht="45">
       <c r="A888" s="20" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B888" s="34">
         <v>7</v>
       </c>
-      <c r="C888" s="18" t="s">
-        <v>1932</v>
+      <c r="C888" s="30" t="s">
+        <v>1861</v>
       </c>
       <c r="D888" s="20" t="s">
-        <v>1913</v>
+        <v>1906</v>
       </c>
       <c r="E888" s="28" t="s">
         <v>22</v>
@@ -31440,21 +31124,19 @@
         <v>15</v>
       </c>
       <c r="H888" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I888" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I888" s="30"/>
     </row>
     <row r="889" spans="1:9" ht="45">
       <c r="A889" s="20" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B889" s="34">
         <v>7</v>
       </c>
-      <c r="C889" s="30" t="s">
-        <v>1861</v>
+      <c r="C889" s="18" t="s">
+        <v>1933</v>
       </c>
       <c r="D889" s="20" t="s">
         <v>1906</v>
@@ -31469,22 +31151,24 @@
         <v>15</v>
       </c>
       <c r="H889" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I889" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="I889" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="890" spans="1:9" ht="45">
       <c r="A890" s="20" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B890" s="34">
         <v>7</v>
       </c>
-      <c r="C890" s="18" t="s">
-        <v>1933</v>
+      <c r="C890" s="30" t="s">
+        <v>1862</v>
       </c>
       <c r="D890" s="20" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="E890" s="28" t="s">
         <v>22</v>
@@ -31496,25 +31180,21 @@
         <v>15</v>
       </c>
       <c r="H890" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I890" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I890" s="30"/>
     </row>
     <row r="891" spans="1:9" ht="45">
       <c r="A891" s="20" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B891" s="34">
         <v>7</v>
       </c>
-      <c r="C891" s="30" t="s">
-        <v>1862</v>
-      </c>
-      <c r="D891" s="20" t="s">
-        <v>1907</v>
-      </c>
+      <c r="C891" s="18" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D891" s="28"/>
       <c r="E891" s="28" t="s">
         <v>22</v>
       </c>
@@ -31522,72 +31202,72 @@
         <v>6</v>
       </c>
       <c r="G891" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H891" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I891" s="30"/>
     </row>
-    <row r="892" spans="1:9" ht="45">
+    <row r="892" spans="1:9" ht="30">
       <c r="A892" s="20" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B892" s="34">
         <v>7</v>
       </c>
-      <c r="C892" s="18" t="s">
-        <v>2133</v>
+      <c r="C892" s="30" t="s">
+        <v>1863</v>
       </c>
       <c r="D892" s="28"/>
       <c r="E892" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F892" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G892" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H892" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I892" s="30"/>
     </row>
-    <row r="893" spans="1:9" ht="30">
+    <row r="893" spans="1:9" ht="60">
       <c r="A893" s="20" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B893" s="34">
         <v>7</v>
       </c>
       <c r="C893" s="30" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="D893" s="28"/>
       <c r="E893" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F893" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G893" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H893" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I893" s="30"/>
     </row>
-    <row r="894" spans="1:9" ht="60">
+    <row r="894" spans="1:9" ht="30">
       <c r="A894" s="20" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B894" s="34">
         <v>7</v>
       </c>
-      <c r="C894" s="30" t="s">
-        <v>1864</v>
+      <c r="C894" s="18" t="s">
+        <v>2131</v>
       </c>
       <c r="D894" s="28"/>
       <c r="E894" s="28" t="s">
@@ -31604,15 +31284,15 @@
       </c>
       <c r="I894" s="30"/>
     </row>
-    <row r="895" spans="1:9" ht="30">
+    <row r="895" spans="1:9" ht="45">
       <c r="A895" s="20" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B895" s="34">
         <v>7</v>
       </c>
-      <c r="C895" s="18" t="s">
-        <v>2134</v>
+      <c r="C895" s="30" t="s">
+        <v>1865</v>
       </c>
       <c r="D895" s="28"/>
       <c r="E895" s="28" t="s">
@@ -31629,15 +31309,15 @@
       </c>
       <c r="I895" s="30"/>
     </row>
-    <row r="896" spans="1:9" ht="45">
+    <row r="896" spans="1:9" ht="30">
       <c r="A896" s="20" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B896" s="34">
         <v>7</v>
       </c>
       <c r="C896" s="30" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="D896" s="28"/>
       <c r="E896" s="28" t="s">
@@ -31656,20 +31336,20 @@
     </row>
     <row r="897" spans="1:9" ht="30">
       <c r="A897" s="20" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B897" s="34">
         <v>7</v>
       </c>
       <c r="C897" s="30" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="D897" s="28"/>
       <c r="E897" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F897" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G897" s="28" t="s">
         <v>15</v>
@@ -31681,38 +31361,38 @@
     </row>
     <row r="898" spans="1:9" ht="30">
       <c r="A898" s="20" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B898" s="34">
         <v>7</v>
       </c>
       <c r="C898" s="30" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="D898" s="28"/>
       <c r="E898" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F898" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G898" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H898" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I898" s="30"/>
     </row>
     <row r="899" spans="1:9" ht="30">
       <c r="A899" s="20" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B899" s="34">
         <v>7</v>
       </c>
       <c r="C899" s="30" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="D899" s="28"/>
       <c r="E899" s="28" t="s">
@@ -31729,40 +31409,40 @@
       </c>
       <c r="I899" s="30"/>
     </row>
-    <row r="900" spans="1:9" ht="30">
+    <row r="900" spans="1:9" ht="225">
       <c r="A900" s="20" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B900" s="34">
         <v>7</v>
       </c>
-      <c r="C900" s="30" t="s">
-        <v>1869</v>
+      <c r="C900" s="18" t="s">
+        <v>2132</v>
       </c>
       <c r="D900" s="28"/>
       <c r="E900" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F900" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G900" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H900" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I900" s="30"/>
     </row>
-    <row r="901" spans="1:9" ht="225">
+    <row r="901" spans="1:9" ht="45">
       <c r="A901" s="20" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B901" s="34">
         <v>7</v>
       </c>
       <c r="C901" s="18" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="D901" s="28"/>
       <c r="E901" s="28" t="s">
@@ -31781,20 +31461,20 @@
     </row>
     <row r="902" spans="1:9" ht="45">
       <c r="A902" s="20" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B902" s="34">
         <v>7</v>
       </c>
-      <c r="C902" s="18" t="s">
-        <v>2136</v>
+      <c r="C902" s="30" t="s">
+        <v>1870</v>
       </c>
       <c r="D902" s="28"/>
       <c r="E902" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F902" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G902" s="28" t="s">
         <v>15</v>
@@ -31805,64 +31485,64 @@
       <c r="I902" s="30"/>
     </row>
     <row r="903" spans="1:9" ht="45">
-      <c r="A903" s="20" t="s">
-        <v>922</v>
+      <c r="A903" s="28" t="s">
+        <v>923</v>
       </c>
       <c r="B903" s="34">
         <v>7</v>
       </c>
-      <c r="C903" s="30" t="s">
-        <v>1870</v>
+      <c r="C903" s="18" t="s">
+        <v>1871</v>
       </c>
       <c r="D903" s="28"/>
       <c r="E903" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F903" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G903" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H903" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I903" s="30"/>
     </row>
-    <row r="904" spans="1:9" ht="45">
-      <c r="A904" s="28" t="s">
-        <v>923</v>
-      </c>
-      <c r="B904" s="34">
-        <v>7</v>
-      </c>
-      <c r="C904" s="18" t="s">
-        <v>1871</v>
-      </c>
-      <c r="D904" s="28"/>
+    <row r="904" spans="1:9" ht="75">
+      <c r="A904" s="20" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B904" s="36" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C904" s="33" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D904" s="32"/>
       <c r="E904" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F904" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G904" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H904" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I904" s="30"/>
+      <c r="F904" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G904" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H904" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I904" s="33"/>
     </row>
     <row r="905" spans="1:9" ht="75">
       <c r="A905" s="20" t="s">
-        <v>2140</v>
-      </c>
-      <c r="B905" s="49" t="s">
-        <v>2139</v>
+        <v>2138</v>
+      </c>
+      <c r="B905" s="36" t="s">
+        <v>2136</v>
       </c>
       <c r="C905" s="33" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="D905" s="32"/>
       <c r="E905" s="28" t="s">
@@ -31879,40 +31559,42 @@
       </c>
       <c r="I905" s="33"/>
     </row>
-    <row r="906" spans="1:9" ht="75">
+    <row r="906" spans="1:9" ht="45">
       <c r="A906" s="20" t="s">
-        <v>2141</v>
-      </c>
-      <c r="B906" s="49" t="s">
-        <v>2139</v>
-      </c>
-      <c r="C906" s="33" t="s">
-        <v>2138</v>
-      </c>
-      <c r="D906" s="32"/>
+        <v>924</v>
+      </c>
+      <c r="B906" s="34">
+        <v>7</v>
+      </c>
+      <c r="C906" s="30" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D906" s="20" t="s">
+        <v>1914</v>
+      </c>
       <c r="E906" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F906" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G906" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H906" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I906" s="33"/>
+      <c r="F906" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G906" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H906" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I906" s="30"/>
     </row>
     <row r="907" spans="1:9" ht="45">
       <c r="A907" s="20" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B907" s="34">
         <v>7</v>
       </c>
-      <c r="C907" s="30" t="s">
-        <v>1872</v>
+      <c r="C907" s="18" t="s">
+        <v>1950</v>
       </c>
       <c r="D907" s="20" t="s">
         <v>1914</v>
@@ -31927,22 +31609,24 @@
         <v>15</v>
       </c>
       <c r="H907" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I907" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="I907" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="908" spans="1:9" ht="45">
       <c r="A908" s="20" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B908" s="34">
         <v>7</v>
       </c>
-      <c r="C908" s="18" t="s">
-        <v>1950</v>
+      <c r="C908" s="30" t="s">
+        <v>1873</v>
       </c>
       <c r="D908" s="20" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E908" s="28" t="s">
         <v>22</v>
@@ -31954,24 +31638,22 @@
         <v>15</v>
       </c>
       <c r="H908" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I908" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I908" s="30"/>
     </row>
     <row r="909" spans="1:9" ht="45">
       <c r="A909" s="20" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B909" s="34">
         <v>7</v>
       </c>
       <c r="C909" s="30" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="D909" s="20" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="E909" s="28" t="s">
         <v>22</v>
@@ -31988,16 +31670,16 @@
       <c r="I909" s="30"/>
     </row>
     <row r="910" spans="1:9" ht="45">
-      <c r="A910" s="20" t="s">
-        <v>927</v>
+      <c r="A910" s="28" t="s">
+        <v>928</v>
       </c>
       <c r="B910" s="34">
         <v>7</v>
       </c>
-      <c r="C910" s="30" t="s">
-        <v>1874</v>
-      </c>
-      <c r="D910" s="20" t="s">
+      <c r="C910" s="18" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D910" s="28" t="s">
         <v>1916</v>
       </c>
       <c r="E910" s="28" t="s">
@@ -32010,22 +31692,24 @@
         <v>15</v>
       </c>
       <c r="H910" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I910" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="I910" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="911" spans="1:9" ht="45">
       <c r="A911" s="28" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B911" s="34">
         <v>7</v>
       </c>
       <c r="C911" s="18" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="D911" s="28" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E911" s="28" t="s">
         <v>22</v>
@@ -32044,17 +31728,17 @@
       </c>
     </row>
     <row r="912" spans="1:9" ht="45">
-      <c r="A912" s="28" t="s">
-        <v>929</v>
+      <c r="A912" s="20" t="s">
+        <v>930</v>
       </c>
       <c r="B912" s="34">
         <v>7</v>
       </c>
-      <c r="C912" s="18" t="s">
-        <v>1935</v>
+      <c r="C912" s="30" t="s">
+        <v>1875</v>
       </c>
       <c r="D912" s="28" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="E912" s="28" t="s">
         <v>22</v>
@@ -32066,21 +31750,19 @@
         <v>15</v>
       </c>
       <c r="H912" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I912" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I912" s="30"/>
     </row>
     <row r="913" spans="1:9" ht="45">
-      <c r="A913" s="20" t="s">
-        <v>930</v>
+      <c r="A913" s="28" t="s">
+        <v>931</v>
       </c>
       <c r="B913" s="34">
         <v>7</v>
       </c>
-      <c r="C913" s="30" t="s">
-        <v>1875</v>
+      <c r="C913" s="18" t="s">
+        <v>1936</v>
       </c>
       <c r="D913" s="28" t="s">
         <v>1917</v>
@@ -32095,22 +31777,24 @@
         <v>15</v>
       </c>
       <c r="H913" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I913" s="30"/>
-    </row>
-    <row r="914" spans="1:9" ht="45">
+        <v>20</v>
+      </c>
+      <c r="I913" s="18" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="914" spans="1:9" ht="30">
       <c r="A914" s="28" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B914" s="34">
         <v>7</v>
       </c>
       <c r="C914" s="18" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="D914" s="28" t="s">
-        <v>1917</v>
+        <v>1907</v>
       </c>
       <c r="E914" s="28" t="s">
         <v>22</v>
@@ -32122,24 +31806,22 @@
         <v>15</v>
       </c>
       <c r="H914" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I914" s="18" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="915" spans="1:9" ht="30">
-      <c r="A915" s="28" t="s">
-        <v>932</v>
+        <v>18</v>
+      </c>
+      <c r="I914" s="18"/>
+    </row>
+    <row r="915" spans="1:9" ht="45">
+      <c r="A915" s="20" t="s">
+        <v>933</v>
       </c>
       <c r="B915" s="34">
         <v>7</v>
       </c>
-      <c r="C915" s="18" t="s">
-        <v>1937</v>
+      <c r="C915" s="30" t="s">
+        <v>1876</v>
       </c>
       <c r="D915" s="28" t="s">
-        <v>1907</v>
+        <v>1918</v>
       </c>
       <c r="E915" s="28" t="s">
         <v>22</v>
@@ -32153,17 +31835,17 @@
       <c r="H915" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I915" s="18"/>
+      <c r="I915" s="30"/>
     </row>
     <row r="916" spans="1:9" ht="45">
       <c r="A916" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B916" s="34">
         <v>7</v>
       </c>
-      <c r="C916" s="30" t="s">
-        <v>1876</v>
+      <c r="C916" s="18" t="s">
+        <v>1938</v>
       </c>
       <c r="D916" s="28" t="s">
         <v>1918</v>
@@ -32178,22 +31860,24 @@
         <v>15</v>
       </c>
       <c r="H916" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I916" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="I916" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="917" spans="1:9" ht="45">
       <c r="A917" s="20" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B917" s="34">
         <v>7</v>
       </c>
-      <c r="C917" s="18" t="s">
-        <v>1938</v>
+      <c r="C917" s="30" t="s">
+        <v>1877</v>
       </c>
       <c r="D917" s="28" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="E917" s="28" t="s">
         <v>22</v>
@@ -32205,21 +31889,19 @@
         <v>15</v>
       </c>
       <c r="H917" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I917" s="18" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="918" spans="1:9" ht="45">
-      <c r="A918" s="20" t="s">
-        <v>935</v>
+        <v>18</v>
+      </c>
+      <c r="I917" s="30"/>
+    </row>
+    <row r="918" spans="1:9" ht="30">
+      <c r="A918" s="28" t="s">
+        <v>936</v>
       </c>
       <c r="B918" s="34">
         <v>7</v>
       </c>
       <c r="C918" s="30" t="s">
-        <v>1877</v>
+        <v>1939</v>
       </c>
       <c r="D918" s="28" t="s">
         <v>1919</v>
@@ -32236,20 +31918,20 @@
       <c r="H918" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I918" s="30"/>
-    </row>
-    <row r="919" spans="1:9" ht="30">
+      <c r="I918" s="18"/>
+    </row>
+    <row r="919" spans="1:9" ht="45">
       <c r="A919" s="28" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B919" s="34">
         <v>7</v>
       </c>
       <c r="C919" s="30" t="s">
-        <v>1939</v>
+        <v>1878</v>
       </c>
       <c r="D919" s="28" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="E919" s="28" t="s">
         <v>22</v>
@@ -32263,17 +31945,17 @@
       <c r="H919" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I919" s="18"/>
-    </row>
-    <row r="920" spans="1:9" ht="45">
+      <c r="I919" s="30"/>
+    </row>
+    <row r="920" spans="1:9" ht="30">
       <c r="A920" s="28" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B920" s="34">
         <v>7</v>
       </c>
       <c r="C920" s="30" t="s">
-        <v>1878</v>
+        <v>1940</v>
       </c>
       <c r="D920" s="28" t="s">
         <v>1920</v>
@@ -32292,18 +31974,18 @@
       </c>
       <c r="I920" s="30"/>
     </row>
-    <row r="921" spans="1:9" ht="30">
+    <row r="921" spans="1:9" ht="45">
       <c r="A921" s="28" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B921" s="34">
         <v>7</v>
       </c>
       <c r="C921" s="30" t="s">
-        <v>1940</v>
+        <v>1879</v>
       </c>
       <c r="D921" s="28" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="E921" s="28" t="s">
         <v>22</v>
@@ -32321,13 +32003,13 @@
     </row>
     <row r="922" spans="1:9" ht="45">
       <c r="A922" s="28" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B922" s="34">
         <v>7</v>
       </c>
-      <c r="C922" s="30" t="s">
-        <v>1879</v>
+      <c r="C922" s="18" t="s">
+        <v>1941</v>
       </c>
       <c r="D922" s="28" t="s">
         <v>1921</v>
@@ -32342,22 +32024,24 @@
         <v>15</v>
       </c>
       <c r="H922" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I922" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="I922" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="923" spans="1:9" ht="45">
       <c r="A923" s="28" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B923" s="34">
         <v>7</v>
       </c>
-      <c r="C923" s="18" t="s">
-        <v>1941</v>
+      <c r="C923" s="30" t="s">
+        <v>1880</v>
       </c>
       <c r="D923" s="28" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="E923" s="28" t="s">
         <v>22</v>
@@ -32369,21 +32053,19 @@
         <v>15</v>
       </c>
       <c r="H923" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I923" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I923" s="30"/>
     </row>
     <row r="924" spans="1:9" ht="45">
       <c r="A924" s="28" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B924" s="34">
         <v>7</v>
       </c>
-      <c r="C924" s="30" t="s">
-        <v>1880</v>
+      <c r="C924" s="18" t="s">
+        <v>1942</v>
       </c>
       <c r="D924" s="28" t="s">
         <v>1922</v>
@@ -32398,22 +32080,24 @@
         <v>15</v>
       </c>
       <c r="H924" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I924" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="I924" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="925" spans="1:9" ht="45">
       <c r="A925" s="28" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B925" s="34">
         <v>7</v>
       </c>
-      <c r="C925" s="18" t="s">
-        <v>1942</v>
+      <c r="C925" s="30" t="s">
+        <v>1881</v>
       </c>
       <c r="D925" s="28" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="E925" s="28" t="s">
         <v>22</v>
@@ -32425,21 +32109,19 @@
         <v>15</v>
       </c>
       <c r="H925" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I925" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I925" s="30"/>
     </row>
     <row r="926" spans="1:9" ht="45">
       <c r="A926" s="28" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B926" s="34">
         <v>7</v>
       </c>
-      <c r="C926" s="30" t="s">
-        <v>1881</v>
+      <c r="C926" s="18" t="s">
+        <v>1943</v>
       </c>
       <c r="D926" s="28" t="s">
         <v>1923</v>
@@ -32454,22 +32136,24 @@
         <v>15</v>
       </c>
       <c r="H926" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I926" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="I926" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="927" spans="1:9" ht="45">
-      <c r="A927" s="28" t="s">
-        <v>944</v>
+      <c r="A927" s="20" t="s">
+        <v>945</v>
       </c>
       <c r="B927" s="34">
         <v>7</v>
       </c>
-      <c r="C927" s="18" t="s">
-        <v>1943</v>
+      <c r="C927" s="30" t="s">
+        <v>1882</v>
       </c>
       <c r="D927" s="28" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="E927" s="28" t="s">
         <v>22</v>
@@ -32481,21 +32165,19 @@
         <v>15</v>
       </c>
       <c r="H927" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I927" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I927" s="30"/>
     </row>
     <row r="928" spans="1:9" ht="45">
       <c r="A928" s="20" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B928" s="34">
         <v>7</v>
       </c>
-      <c r="C928" s="30" t="s">
-        <v>1882</v>
+      <c r="C928" s="18" t="s">
+        <v>1944</v>
       </c>
       <c r="D928" s="28" t="s">
         <v>1924</v>
@@ -32510,22 +32192,24 @@
         <v>15</v>
       </c>
       <c r="H928" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I928" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="I928" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="929" spans="1:9" ht="45">
-      <c r="A929" s="20" t="s">
-        <v>946</v>
+      <c r="A929" s="28" t="s">
+        <v>947</v>
       </c>
       <c r="B929" s="34">
         <v>7</v>
       </c>
-      <c r="C929" s="18" t="s">
-        <v>1944</v>
+      <c r="C929" s="30" t="s">
+        <v>1883</v>
       </c>
       <c r="D929" s="28" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="E929" s="28" t="s">
         <v>22</v>
@@ -32537,21 +32221,19 @@
         <v>15</v>
       </c>
       <c r="H929" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I929" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I929" s="30"/>
     </row>
     <row r="930" spans="1:9" ht="45">
-      <c r="A930" s="28" t="s">
-        <v>947</v>
+      <c r="A930" s="20" t="s">
+        <v>948</v>
       </c>
       <c r="B930" s="34">
         <v>7</v>
       </c>
-      <c r="C930" s="30" t="s">
-        <v>1883</v>
+      <c r="C930" s="18" t="s">
+        <v>1945</v>
       </c>
       <c r="D930" s="28" t="s">
         <v>1925</v>
@@ -32566,22 +32248,24 @@
         <v>15</v>
       </c>
       <c r="H930" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I930" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="I930" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="931" spans="1:9" ht="45">
       <c r="A931" s="20" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B931" s="34">
         <v>7</v>
       </c>
-      <c r="C931" s="18" t="s">
-        <v>1945</v>
+      <c r="C931" s="30" t="s">
+        <v>1884</v>
       </c>
       <c r="D931" s="28" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="E931" s="28" t="s">
         <v>22</v>
@@ -32593,21 +32277,19 @@
         <v>15</v>
       </c>
       <c r="H931" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I931" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I931" s="30"/>
     </row>
     <row r="932" spans="1:9" ht="45">
-      <c r="A932" s="20" t="s">
-        <v>949</v>
+      <c r="A932" s="28" t="s">
+        <v>950</v>
       </c>
       <c r="B932" s="34">
         <v>7</v>
       </c>
-      <c r="C932" s="30" t="s">
-        <v>1884</v>
+      <c r="C932" s="18" t="s">
+        <v>1946</v>
       </c>
       <c r="D932" s="28" t="s">
         <v>1926</v>
@@ -32622,22 +32304,24 @@
         <v>15</v>
       </c>
       <c r="H932" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I932" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="I932" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="933" spans="1:9" ht="45">
-      <c r="A933" s="28" t="s">
-        <v>950</v>
+      <c r="A933" s="20" t="s">
+        <v>951</v>
       </c>
       <c r="B933" s="34">
         <v>7</v>
       </c>
-      <c r="C933" s="18" t="s">
-        <v>1946</v>
+      <c r="C933" s="30" t="s">
+        <v>1885</v>
       </c>
       <c r="D933" s="28" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="E933" s="28" t="s">
         <v>22</v>
@@ -32649,21 +32333,19 @@
         <v>15</v>
       </c>
       <c r="H933" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I933" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I933" s="30"/>
     </row>
     <row r="934" spans="1:9" ht="45">
       <c r="A934" s="20" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B934" s="34">
         <v>7</v>
       </c>
-      <c r="C934" s="30" t="s">
-        <v>1885</v>
+      <c r="C934" s="18" t="s">
+        <v>1947</v>
       </c>
       <c r="D934" s="28" t="s">
         <v>1927</v>
@@ -32678,75 +32360,77 @@
         <v>15</v>
       </c>
       <c r="H934" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I934" s="30"/>
-    </row>
-    <row r="935" spans="1:9" ht="45">
-      <c r="A935" s="20" t="s">
-        <v>952</v>
-      </c>
-      <c r="B935" s="34">
+        <v>20</v>
+      </c>
+      <c r="I934" s="18" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="935" spans="1:9" ht="60">
+      <c r="A935" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B935" s="35">
         <v>7</v>
       </c>
-      <c r="C935" s="18" t="s">
-        <v>1947</v>
-      </c>
-      <c r="D935" s="28" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E935" s="28" t="s">
+      <c r="C935" s="33" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D935" s="32" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E935" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F935" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G935" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H935" s="28" t="s">
+      <c r="F935" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G935" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H935" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I935" s="18" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="936" spans="1:9" ht="60">
-      <c r="A936" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="B936" s="35">
+      <c r="I935" s="33"/>
+    </row>
+    <row r="936" spans="1:9" ht="75">
+      <c r="A936" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B936" s="34">
         <v>7</v>
       </c>
-      <c r="C936" s="33" t="s">
-        <v>1987</v>
-      </c>
-      <c r="D936" s="32" t="s">
-        <v>1888</v>
+      <c r="C936" s="18" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D936" s="20" t="s">
+        <v>1988</v>
       </c>
       <c r="E936" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F936" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G936" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H936" s="32" t="s">
+      <c r="F936" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G936" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H936" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I936" s="33"/>
+      <c r="I936" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="937" spans="1:9" ht="75">
       <c r="A937" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B937" s="34">
         <v>7</v>
       </c>
       <c r="C937" s="18" t="s">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="D937" s="20" t="s">
         <v>1988</v>
@@ -32769,13 +32453,13 @@
     </row>
     <row r="938" spans="1:9" ht="75">
       <c r="A938" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B938" s="34">
         <v>7</v>
       </c>
       <c r="C938" s="18" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="D938" s="20" t="s">
         <v>1988</v>
@@ -32796,15 +32480,15 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="939" spans="1:9" ht="75">
+    <row r="939" spans="1:9" ht="90">
       <c r="A939" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B939" s="34">
         <v>7</v>
       </c>
       <c r="C939" s="18" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D939" s="20" t="s">
         <v>1988</v>
@@ -32825,47 +32509,47 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="940" spans="1:9" ht="90">
-      <c r="A940" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="B940" s="34">
+    <row r="940" spans="1:9" ht="150">
+      <c r="A940" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="B940" s="35">
         <v>7</v>
       </c>
-      <c r="C940" s="18" t="s">
-        <v>1995</v>
-      </c>
-      <c r="D940" s="20" t="s">
-        <v>1988</v>
+      <c r="C940" s="33" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D940" s="32" t="s">
+        <v>1889</v>
       </c>
       <c r="E940" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F940" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G940" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H940" s="20" t="s">
+      <c r="F940" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G940" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H940" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I940" s="18" t="s">
+      <c r="I940" s="33" t="s">
         <v>1986</v>
       </c>
     </row>
-    <row r="941" spans="1:9" ht="150">
+    <row r="941" spans="1:9" ht="120">
       <c r="A941" s="32" t="s">
-        <v>460</v>
+        <v>539</v>
       </c>
       <c r="B941" s="35">
         <v>7</v>
       </c>
       <c r="C941" s="33" t="s">
-        <v>1955</v>
+        <v>1534</v>
       </c>
       <c r="D941" s="32" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="E941" s="32" t="s">
         <v>22</v>
@@ -32877,24 +32561,22 @@
         <v>15</v>
       </c>
       <c r="H941" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I941" s="33" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="942" spans="1:9" ht="120">
+        <v>18</v>
+      </c>
+      <c r="I941" s="33"/>
+    </row>
+    <row r="942" spans="1:9" ht="135">
       <c r="A942" s="32" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="B942" s="35">
         <v>7</v>
       </c>
       <c r="C942" s="33" t="s">
-        <v>1534</v>
+        <v>1948</v>
       </c>
       <c r="D942" s="32" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="E942" s="32" t="s">
         <v>22</v>
@@ -32906,22 +32588,24 @@
         <v>15</v>
       </c>
       <c r="H942" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I942" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="I942" s="33" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="943" spans="1:9" ht="135">
       <c r="A943" s="32" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B943" s="35">
         <v>7</v>
       </c>
       <c r="C943" s="33" t="s">
-        <v>1948</v>
+        <v>1905</v>
       </c>
       <c r="D943" s="32" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="E943" s="32" t="s">
         <v>22</v>
@@ -32939,18 +32623,18 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="944" spans="1:9" ht="135">
+    <row r="944" spans="1:9" ht="150">
       <c r="A944" s="32" t="s">
-        <v>568</v>
+        <v>660</v>
       </c>
       <c r="B944" s="35">
         <v>7</v>
       </c>
       <c r="C944" s="33" t="s">
-        <v>1905</v>
+        <v>1644</v>
       </c>
       <c r="D944" s="32" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="E944" s="32" t="s">
         <v>22</v>
@@ -32968,18 +32652,18 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="945" spans="1:9" ht="150">
+    <row r="945" spans="1:9" ht="105">
       <c r="A945" s="32" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="B945" s="35">
         <v>7</v>
       </c>
       <c r="C945" s="33" t="s">
-        <v>1644</v>
+        <v>1669</v>
       </c>
       <c r="D945" s="32" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="E945" s="32" t="s">
         <v>22</v>
@@ -32993,22 +32677,20 @@
       <c r="H945" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I945" s="33" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="946" spans="1:9" ht="105">
+      <c r="I945" s="33"/>
+    </row>
+    <row r="946" spans="1:9" ht="75">
       <c r="A946" s="32" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B946" s="35">
         <v>7</v>
       </c>
       <c r="C946" s="33" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="D946" s="32" t="s">
-        <v>1896</v>
+        <v>1991</v>
       </c>
       <c r="E946" s="32" t="s">
         <v>22</v>
@@ -33022,17 +32704,19 @@
       <c r="H946" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I946" s="33"/>
-    </row>
-    <row r="947" spans="1:9" ht="75">
+      <c r="I946" s="33" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="947" spans="1:9" ht="60">
       <c r="A947" s="32" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B947" s="35">
         <v>7</v>
       </c>
       <c r="C947" s="33" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="D947" s="32" t="s">
         <v>1991</v>
@@ -33055,13 +32739,13 @@
     </row>
     <row r="948" spans="1:9" ht="60">
       <c r="A948" s="32" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B948" s="35">
         <v>7</v>
       </c>
       <c r="C948" s="33" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="D948" s="32" t="s">
         <v>1991</v>
@@ -33082,18 +32766,18 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="949" spans="1:9" ht="60">
+    <row r="949" spans="1:9" ht="165">
       <c r="A949" s="32" t="s">
-        <v>691</v>
+        <v>766</v>
       </c>
       <c r="B949" s="35">
         <v>7</v>
       </c>
       <c r="C949" s="33" t="s">
-        <v>1672</v>
+        <v>1956</v>
       </c>
       <c r="D949" s="32" t="s">
-        <v>1991</v>
+        <v>1897</v>
       </c>
       <c r="E949" s="32" t="s">
         <v>22</v>
@@ -33113,13 +32797,13 @@
     </row>
     <row r="950" spans="1:9" ht="165">
       <c r="A950" s="32" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B950" s="35">
         <v>7</v>
       </c>
       <c r="C950" s="33" t="s">
-        <v>1956</v>
+        <v>1741</v>
       </c>
       <c r="D950" s="32" t="s">
         <v>1897</v>
@@ -33142,13 +32826,13 @@
     </row>
     <row r="951" spans="1:9" ht="165">
       <c r="A951" s="32" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B951" s="35">
         <v>7</v>
       </c>
       <c r="C951" s="33" t="s">
-        <v>1741</v>
+        <v>1949</v>
       </c>
       <c r="D951" s="32" t="s">
         <v>1897</v>
@@ -33171,13 +32855,13 @@
     </row>
     <row r="952" spans="1:9" ht="165">
       <c r="A952" s="32" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B952" s="35">
         <v>7</v>
       </c>
       <c r="C952" s="33" t="s">
-        <v>1949</v>
+        <v>1742</v>
       </c>
       <c r="D952" s="32" t="s">
         <v>1897</v>
@@ -33200,13 +32884,13 @@
     </row>
     <row r="953" spans="1:9" ht="165">
       <c r="A953" s="32" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B953" s="35">
         <v>7</v>
       </c>
       <c r="C953" s="33" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="D953" s="32" t="s">
         <v>1897</v>
@@ -33227,37 +32911,13 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="954" spans="1:9" ht="165">
-      <c r="A954" s="32" t="s">
-        <v>770</v>
-      </c>
-      <c r="B954" s="35">
-        <v>7</v>
-      </c>
-      <c r="C954" s="33" t="s">
-        <v>1743</v>
-      </c>
-      <c r="D954" s="32" t="s">
-        <v>1897</v>
-      </c>
-      <c r="E954" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F954" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G954" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H954" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I954" s="33" t="s">
-        <v>1986</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -33265,110 +32925,105 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A687:B687 E937:E940 D687:I687 A876:H876 A941:I954 A20:I686 I667:I876 A688:I875 A877:I936">
-    <cfRule type="expression" dxfId="45" priority="85">
+  <conditionalFormatting sqref="A687:B687 E936:E939 D687:I687 A875:H875 A940:I953 A20:I686 A876:I935 I667:I875 A688:I874">
+    <cfRule type="expression" dxfId="21" priority="85">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="86">
+    <cfRule type="expression" dxfId="20" priority="86">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="93">
+    <cfRule type="expression" dxfId="19" priority="93">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A687:B687 E937:E940 D687:I687 A876:H876 A941:I954 A20:I686 I667:I876 A688:I875 A877:I936">
-    <cfRule type="expression" dxfId="42" priority="39">
+  <conditionalFormatting sqref="A687:B687 E936:E939 D687:I687 A875:H875 A940:I953 A20:I686 A876:I935 I667:I875 A688:I874">
+    <cfRule type="expression" dxfId="18" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="40">
+    <cfRule type="expression" dxfId="17" priority="40">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="16" priority="41">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F941:F954 F20:F936">
-    <cfRule type="expression" dxfId="39" priority="45">
+  <conditionalFormatting sqref="F940:F953 F20:F935">
+    <cfRule type="expression" dxfId="15" priority="45">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="46">
+    <cfRule type="expression" dxfId="14" priority="46">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C687">
-    <cfRule type="expression" dxfId="37" priority="24">
+    <cfRule type="expression" dxfId="13" priority="24">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="25">
+    <cfRule type="expression" dxfId="12" priority="25">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="26">
+    <cfRule type="expression" dxfId="11" priority="26">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C687">
-    <cfRule type="expression" dxfId="34" priority="21">
+    <cfRule type="expression" dxfId="10" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="22">
+    <cfRule type="expression" dxfId="9" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="23">
+    <cfRule type="expression" dxfId="8" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A937:D940 F937:I940">
-    <cfRule type="expression" dxfId="31" priority="18">
+  <conditionalFormatting sqref="A936:D939 F936:I939">
+    <cfRule type="expression" dxfId="7" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="19">
+    <cfRule type="expression" dxfId="6" priority="19">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="20">
+    <cfRule type="expression" dxfId="5" priority="20">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A937:D940 F937:I940">
-    <cfRule type="expression" dxfId="28" priority="13">
+  <conditionalFormatting sqref="A936:D939 F936:I939">
+    <cfRule type="expression" dxfId="4" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="14">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="15">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F937:F940">
-    <cfRule type="expression" dxfId="25" priority="16">
-      <formula>NOT(VLOOKUP(F937,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F936:F939">
+    <cfRule type="expression" dxfId="1" priority="16">
+      <formula>NOT(VLOOKUP(F936,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="17">
-      <formula>(VLOOKUP(F937,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>(VLOOKUP(F936,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F954">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F953">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E954">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E953">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G954">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G953">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H954">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H953">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
   </dataValidations>
@@ -33378,7 +33033,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 B18:B27 C3 B10:B16 B28:B180 B182:B189 B191:B233 B235:B336 B338:B497 B499:B502 B506:B509 B513:B590 B592:B715 B721:B736 B738:B775 B777:B837 B907:B954 B839:B904" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 B18:B27 C3 B10:B16 B28:B180 B182:B189 B191:B233 B235:B336 B338:B497 B499:B502 B506:B509 B513:B590 B592:B715 B720:B735 B737:B774 B776:B836 B906:B953 B838:B903" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -33388,12 +33043,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33446,15 +33098,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33475,15 +33136,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-WEBSS/MS-WEBSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-WEBSS/MS-WEBSS_RequirementSpecification.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$954</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$953</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6653" uniqueCount="2142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6646" uniqueCount="2140">
   <si>
     <t>Req ID</t>
   </si>
@@ -7480,9 +7480,6 @@
 &lt;/s:element&gt;</t>
   </si>
   <si>
-    <t>[In UpdateColumns] Method: If the Method element does not contain an ID attribute, the server does not add[, update, or delete columns and does not return an ErrorCode].</t>
-  </si>
-  <si>
     <t>[In UpdateColumns] Method: If the Method element does not contain an ID attribute, the server does not [add, update, or ]delete columns [and does not return an ErrorCode].</t>
   </si>
   <si>
@@ -7492,9 +7489,6 @@
     <t>[In UpdateColumns] Method: If the Method element does not contain an ID attribute, the server does not [add, ]update[, or delete] columns [and does not return an ErrorCode].</t>
   </si>
   <si>
-    <t>[In UpdateColumns] Method: If the Method element does not contain an ID attribute, the server [does not add, update, or delete columns and ]does not return an ErrorCode.</t>
-  </si>
-  <si>
     <t>MS-WEBSS_R500001</t>
   </si>
   <si>
@@ -7505,9 +7499,6 @@
   </si>
   <si>
     <t>MS-WEBSS_R500004</t>
-  </si>
-  <si>
-    <t>MS-WEBSS_R500005</t>
   </si>
   <si>
     <t>[In UpdateColumnsResponse] When an invalid XML element is the child element of the newFields[, updateFields, or deleteFields elements] , a SOAP fault MUST be returned.</t>
@@ -7675,6 +7666,9 @@
   </si>
   <si>
     <t>MS-WEBSS_R764002</t>
+  </si>
+  <si>
+    <t>[In UpdateColumns] Method: If the Method element does not contain an ID attribute, the server [does not add, update, or delete columns and]does not return an ErrorCode.</t>
   </si>
 </sst>
 </file>
@@ -7966,6 +7960,21 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7990,26 +7999,129 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8348,124 +8460,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8595,34 +8589,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I954" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I954"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I953" tableType="xml" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" connectionId="1">
+  <autoFilter ref="A19:I953"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="38">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="37">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="36">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="35">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="34">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="33">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="32">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="31">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="30">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8631,12 +8625,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="24"/>
+    <tableColumn id="2" name="Test" dataDxfId="23"/>
+    <tableColumn id="3" name="Description" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8964,7 +8958,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L954"/>
+  <dimension ref="A1:L953"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -9020,127 +9014,127 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
@@ -9153,12 +9147,12 @@
       <c r="C12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
@@ -9171,12 +9165,12 @@
       <c r="C13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
@@ -9189,12 +9183,12 @@
       <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
@@ -9207,60 +9201,60 @@
       <c r="C15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="48" t="s">
         <v>1957</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="4"/>
       <c r="L18" s="3"/>
     </row>
@@ -14229,7 +14223,7 @@
         <v>978</v>
       </c>
       <c r="C215" s="18" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="D215" s="28"/>
       <c r="E215" s="28" t="s">
@@ -26802,13 +26796,13 @@
     </row>
     <row r="716" spans="1:9" ht="30">
       <c r="A716" s="20" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="B716" s="22" t="s">
         <v>1090</v>
       </c>
       <c r="C716" s="33" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D716" s="32"/>
       <c r="E716" s="28" t="s">
@@ -26821,19 +26815,19 @@
         <v>15</v>
       </c>
       <c r="H716" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I716" s="33"/>
     </row>
     <row r="717" spans="1:9" ht="30">
       <c r="A717" s="20" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="B717" s="22" t="s">
         <v>1090</v>
       </c>
       <c r="C717" s="33" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D717" s="32"/>
       <c r="E717" s="28" t="s">
@@ -26846,19 +26840,19 @@
         <v>15</v>
       </c>
       <c r="H717" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I717" s="33"/>
     </row>
     <row r="718" spans="1:9" ht="30">
       <c r="A718" s="20" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="B718" s="22" t="s">
         <v>1090</v>
       </c>
       <c r="C718" s="33" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D718" s="32"/>
       <c r="E718" s="28" t="s">
@@ -26871,19 +26865,19 @@
         <v>15</v>
       </c>
       <c r="H718" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I718" s="33"/>
     </row>
     <row r="719" spans="1:9" ht="30">
       <c r="A719" s="20" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="B719" s="22" t="s">
         <v>1090</v>
       </c>
-      <c r="C719" s="33" t="s">
-        <v>2106</v>
+      <c r="C719" s="18" t="s">
+        <v>2139</v>
       </c>
       <c r="D719" s="32"/>
       <c r="E719" s="28" t="s">
@@ -26896,21 +26890,21 @@
         <v>15</v>
       </c>
       <c r="H719" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I719" s="33"/>
     </row>
-    <row r="720" spans="1:9" ht="30">
-      <c r="A720" s="20" t="s">
-        <v>2111</v>
-      </c>
-      <c r="B720" s="22" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C720" s="33" t="s">
-        <v>2102</v>
-      </c>
-      <c r="D720" s="32"/>
+    <row r="720" spans="1:9" ht="409.5">
+      <c r="A720" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="B720" s="29" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C720" s="18" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D720" s="28"/>
       <c r="E720" s="28" t="s">
         <v>19</v>
       </c>
@@ -26920,20 +26914,20 @@
       <c r="G720" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H720" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I720" s="33"/>
-    </row>
-    <row r="721" spans="1:9" ht="409.5">
+      <c r="H720" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I720" s="30"/>
+    </row>
+    <row r="721" spans="1:9">
       <c r="A721" s="28" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B721" s="29" t="s">
         <v>1091</v>
       </c>
-      <c r="C721" s="18" t="s">
-        <v>2101</v>
+      <c r="C721" s="30" t="s">
+        <v>1718</v>
       </c>
       <c r="D721" s="28"/>
       <c r="E721" s="28" t="s">
@@ -26950,15 +26944,15 @@
       </c>
       <c r="I721" s="30"/>
     </row>
-    <row r="722" spans="1:9">
+    <row r="722" spans="1:9" ht="30">
       <c r="A722" s="28" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B722" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C722" s="30" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="D722" s="28"/>
       <c r="E722" s="28" t="s">
@@ -26977,13 +26971,13 @@
     </row>
     <row r="723" spans="1:9" ht="30">
       <c r="A723" s="28" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B723" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C723" s="30" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="D723" s="28"/>
       <c r="E723" s="28" t="s">
@@ -26996,19 +26990,19 @@
         <v>15</v>
       </c>
       <c r="H723" s="28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I723" s="30"/>
     </row>
     <row r="724" spans="1:9" ht="30">
       <c r="A724" s="28" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B724" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C724" s="30" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="D724" s="28"/>
       <c r="E724" s="28" t="s">
@@ -27027,13 +27021,13 @@
     </row>
     <row r="725" spans="1:9" ht="30">
       <c r="A725" s="28" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B725" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C725" s="30" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D725" s="28"/>
       <c r="E725" s="28" t="s">
@@ -27052,13 +27046,13 @@
     </row>
     <row r="726" spans="1:9" ht="30">
       <c r="A726" s="28" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B726" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C726" s="30" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="D726" s="28"/>
       <c r="E726" s="28" t="s">
@@ -27071,19 +27065,19 @@
         <v>15</v>
       </c>
       <c r="H726" s="28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I726" s="30"/>
     </row>
-    <row r="727" spans="1:9" ht="30">
+    <row r="727" spans="1:9" ht="45">
       <c r="A727" s="28" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B727" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C727" s="30" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="D727" s="28"/>
       <c r="E727" s="28" t="s">
@@ -27096,19 +27090,19 @@
         <v>15</v>
       </c>
       <c r="H727" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I727" s="30"/>
     </row>
     <row r="728" spans="1:9" ht="45">
       <c r="A728" s="28" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B728" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C728" s="30" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D728" s="28"/>
       <c r="E728" s="28" t="s">
@@ -27127,13 +27121,13 @@
     </row>
     <row r="729" spans="1:9" ht="45">
       <c r="A729" s="28" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B729" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C729" s="30" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="D729" s="28"/>
       <c r="E729" s="28" t="s">
@@ -27150,15 +27144,15 @@
       </c>
       <c r="I729" s="30"/>
     </row>
-    <row r="730" spans="1:9" ht="45">
+    <row r="730" spans="1:9" ht="30">
       <c r="A730" s="28" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B730" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C730" s="30" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="D730" s="28"/>
       <c r="E730" s="28" t="s">
@@ -27171,19 +27165,19 @@
         <v>15</v>
       </c>
       <c r="H730" s="28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I730" s="30"/>
     </row>
     <row r="731" spans="1:9" ht="30">
       <c r="A731" s="28" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B731" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C731" s="30" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="D731" s="28"/>
       <c r="E731" s="28" t="s">
@@ -27200,15 +27194,15 @@
       </c>
       <c r="I731" s="30"/>
     </row>
-    <row r="732" spans="1:9" ht="30">
+    <row r="732" spans="1:9">
       <c r="A732" s="28" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B732" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C732" s="30" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="D732" s="28"/>
       <c r="E732" s="28" t="s">
@@ -27227,13 +27221,13 @@
     </row>
     <row r="733" spans="1:9">
       <c r="A733" s="28" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B733" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C733" s="30" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="D733" s="28"/>
       <c r="E733" s="28" t="s">
@@ -27243,22 +27237,22 @@
         <v>6</v>
       </c>
       <c r="G733" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H733" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I733" s="30"/>
     </row>
-    <row r="734" spans="1:9">
-      <c r="A734" s="28" t="s">
-        <v>753</v>
+    <row r="734" spans="1:9" ht="30">
+      <c r="A734" s="20" t="s">
+        <v>754</v>
       </c>
       <c r="B734" s="29" t="s">
         <v>1091</v>
       </c>
-      <c r="C734" s="30" t="s">
-        <v>1730</v>
+      <c r="C734" s="18" t="s">
+        <v>2109</v>
       </c>
       <c r="D734" s="28"/>
       <c r="E734" s="28" t="s">
@@ -27268,22 +27262,22 @@
         <v>6</v>
       </c>
       <c r="G734" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H734" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I734" s="30"/>
     </row>
     <row r="735" spans="1:9" ht="30">
-      <c r="A735" s="20" t="s">
-        <v>754</v>
+      <c r="A735" s="28" t="s">
+        <v>755</v>
       </c>
       <c r="B735" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C735" s="18" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="D735" s="28"/>
       <c r="E735" s="28" t="s">
@@ -27301,64 +27295,64 @@
       <c r="I735" s="30"/>
     </row>
     <row r="736" spans="1:9" ht="30">
-      <c r="A736" s="28" t="s">
-        <v>755</v>
+      <c r="A736" s="20" t="s">
+        <v>2112</v>
       </c>
       <c r="B736" s="29" t="s">
         <v>1091</v>
       </c>
-      <c r="C736" s="18" t="s">
-        <v>2113</v>
-      </c>
-      <c r="D736" s="28"/>
-      <c r="E736" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F736" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G736" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H736" s="28" t="s">
+      <c r="C736" s="33" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D736" s="32"/>
+      <c r="E736" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F736" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G736" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H736" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I736" s="30"/>
-    </row>
-    <row r="737" spans="1:9" ht="30">
-      <c r="A737" s="20" t="s">
-        <v>2115</v>
+      <c r="I736" s="33"/>
+    </row>
+    <row r="737" spans="1:9" ht="60">
+      <c r="A737" s="28" t="s">
+        <v>756</v>
       </c>
       <c r="B737" s="29" t="s">
         <v>1091</v>
       </c>
-      <c r="C737" s="33" t="s">
-        <v>2114</v>
-      </c>
-      <c r="D737" s="32"/>
-      <c r="E737" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F737" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G737" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H737" s="32" t="s">
+      <c r="C737" s="30" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D737" s="28"/>
+      <c r="E737" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F737" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G737" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H737" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I737" s="33"/>
+      <c r="I737" s="30"/>
     </row>
     <row r="738" spans="1:9" ht="60">
       <c r="A738" s="28" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B738" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C738" s="30" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="D738" s="28"/>
       <c r="E738" s="28" t="s">
@@ -27377,13 +27371,13 @@
     </row>
     <row r="739" spans="1:9" ht="60">
       <c r="A739" s="28" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B739" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C739" s="30" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="D739" s="28"/>
       <c r="E739" s="28" t="s">
@@ -27402,13 +27396,13 @@
     </row>
     <row r="740" spans="1:9" ht="60">
       <c r="A740" s="28" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B740" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C740" s="30" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="D740" s="28"/>
       <c r="E740" s="28" t="s">
@@ -27427,13 +27421,13 @@
     </row>
     <row r="741" spans="1:9" ht="60">
       <c r="A741" s="28" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B741" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C741" s="30" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="D741" s="28"/>
       <c r="E741" s="28" t="s">
@@ -27450,15 +27444,15 @@
       </c>
       <c r="I741" s="30"/>
     </row>
-    <row r="742" spans="1:9" ht="60">
+    <row r="742" spans="1:9" ht="75">
       <c r="A742" s="28" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B742" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C742" s="30" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="D742" s="28"/>
       <c r="E742" s="28" t="s">
@@ -27471,19 +27465,21 @@
         <v>15</v>
       </c>
       <c r="H742" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I742" s="30"/>
-    </row>
-    <row r="743" spans="1:9" ht="75">
+        <v>17</v>
+      </c>
+      <c r="I742" s="18" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="743" spans="1:9" ht="60">
       <c r="A743" s="28" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B743" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C743" s="30" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="D743" s="28"/>
       <c r="E743" s="28" t="s">
@@ -27496,21 +27492,19 @@
         <v>15</v>
       </c>
       <c r="H743" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I743" s="18" t="s">
-        <v>1983</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I743" s="30"/>
     </row>
     <row r="744" spans="1:9" ht="60">
       <c r="A744" s="28" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B744" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C744" s="30" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="D744" s="28"/>
       <c r="E744" s="28" t="s">
@@ -27529,13 +27523,13 @@
     </row>
     <row r="745" spans="1:9" ht="60">
       <c r="A745" s="28" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B745" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C745" s="30" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="D745" s="28"/>
       <c r="E745" s="28" t="s">
@@ -27554,13 +27548,13 @@
     </row>
     <row r="746" spans="1:9" ht="60">
       <c r="A746" s="28" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B746" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="C746" s="30" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="D746" s="28"/>
       <c r="E746" s="28" t="s">
@@ -27577,15 +27571,15 @@
       </c>
       <c r="I746" s="30"/>
     </row>
-    <row r="747" spans="1:9" ht="60">
+    <row r="747" spans="1:9" ht="30">
       <c r="A747" s="28" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="B747" s="29" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C747" s="30" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="D747" s="28"/>
       <c r="E747" s="28" t="s">
@@ -27598,19 +27592,21 @@
         <v>15</v>
       </c>
       <c r="H747" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I747" s="30"/>
-    </row>
-    <row r="748" spans="1:9" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I747" s="18" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="748" spans="1:9" ht="75">
       <c r="A748" s="28" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B748" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C748" s="30" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="D748" s="28"/>
       <c r="E748" s="28" t="s">
@@ -27623,28 +27619,26 @@
         <v>15</v>
       </c>
       <c r="H748" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I748" s="18" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="749" spans="1:9" ht="75">
+        <v>21</v>
+      </c>
+      <c r="I748" s="30"/>
+    </row>
+    <row r="749" spans="1:9" ht="30">
       <c r="A749" s="28" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B749" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C749" s="30" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="D749" s="28"/>
       <c r="E749" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F749" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G749" s="28" t="s">
         <v>15</v>
@@ -27654,65 +27648,65 @@
       </c>
       <c r="I749" s="30"/>
     </row>
-    <row r="750" spans="1:9" ht="30">
+    <row r="750" spans="1:9">
       <c r="A750" s="28" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B750" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C750" s="30" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="D750" s="28"/>
       <c r="E750" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F750" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G750" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H750" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I750" s="30"/>
     </row>
-    <row r="751" spans="1:9">
+    <row r="751" spans="1:9" ht="30">
       <c r="A751" s="28" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B751" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C751" s="30" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="D751" s="28"/>
       <c r="E751" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F751" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G751" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H751" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I751" s="30"/>
     </row>
     <row r="752" spans="1:9" ht="30">
       <c r="A752" s="28" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B752" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C752" s="30" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="D752" s="28"/>
       <c r="E752" s="28" t="s">
@@ -27731,13 +27725,13 @@
     </row>
     <row r="753" spans="1:9" ht="30">
       <c r="A753" s="28" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B753" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C753" s="30" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="D753" s="28"/>
       <c r="E753" s="28" t="s">
@@ -27750,19 +27744,19 @@
         <v>15</v>
       </c>
       <c r="H753" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I753" s="30"/>
-    </row>
-    <row r="754" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I753" s="18"/>
+    </row>
+    <row r="754" spans="1:9">
       <c r="A754" s="28" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B754" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C754" s="30" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="D754" s="28"/>
       <c r="E754" s="28" t="s">
@@ -27781,13 +27775,13 @@
     </row>
     <row r="755" spans="1:9">
       <c r="A755" s="28" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B755" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C755" s="30" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="D755" s="28"/>
       <c r="E755" s="28" t="s">
@@ -27800,19 +27794,19 @@
         <v>15</v>
       </c>
       <c r="H755" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I755" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="I755" s="30"/>
     </row>
     <row r="756" spans="1:9">
       <c r="A756" s="28" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B756" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C756" s="30" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="D756" s="28"/>
       <c r="E756" s="28" t="s">
@@ -27831,13 +27825,13 @@
     </row>
     <row r="757" spans="1:9">
       <c r="A757" s="28" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B757" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C757" s="30" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="D757" s="28"/>
       <c r="E757" s="28" t="s">
@@ -27856,13 +27850,13 @@
     </row>
     <row r="758" spans="1:9">
       <c r="A758" s="28" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B758" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C758" s="30" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="D758" s="28"/>
       <c r="E758" s="28" t="s">
@@ -27879,15 +27873,15 @@
       </c>
       <c r="I758" s="30"/>
     </row>
-    <row r="759" spans="1:9">
+    <row r="759" spans="1:9" ht="45">
       <c r="A759" s="28" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B759" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C759" s="30" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="D759" s="28"/>
       <c r="E759" s="28" t="s">
@@ -27900,19 +27894,19 @@
         <v>15</v>
       </c>
       <c r="H759" s="28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I759" s="30"/>
     </row>
-    <row r="760" spans="1:9" ht="45">
+    <row r="760" spans="1:9" ht="30">
       <c r="A760" s="28" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B760" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="C760" s="30" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="D760" s="28"/>
       <c r="E760" s="28" t="s">
@@ -27931,13 +27925,13 @@
     </row>
     <row r="761" spans="1:9" ht="30">
       <c r="A761" s="28" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B761" s="29" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C761" s="30" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="D761" s="28"/>
       <c r="E761" s="28" t="s">
@@ -27947,32 +27941,32 @@
         <v>6</v>
       </c>
       <c r="G761" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H761" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I761" s="30"/>
     </row>
     <row r="762" spans="1:9" ht="30">
       <c r="A762" s="28" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B762" s="29" t="s">
         <v>1093</v>
       </c>
       <c r="C762" s="30" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="D762" s="28"/>
       <c r="E762" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F762" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G762" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H762" s="28" t="s">
         <v>18</v>
@@ -27981,63 +27975,63 @@
     </row>
     <row r="763" spans="1:9" ht="30">
       <c r="A763" s="28" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B763" s="29" t="s">
         <v>1093</v>
       </c>
       <c r="C763" s="30" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="D763" s="28"/>
       <c r="E763" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F763" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G763" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H763" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I763" s="30"/>
     </row>
     <row r="764" spans="1:9" ht="30">
       <c r="A764" s="28" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B764" s="29" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C764" s="30" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="D764" s="28"/>
       <c r="E764" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F764" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G764" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H764" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I764" s="30"/>
     </row>
     <row r="765" spans="1:9" ht="30">
       <c r="A765" s="28" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B765" s="29" t="s">
         <v>1094</v>
       </c>
       <c r="C765" s="30" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="D765" s="28"/>
       <c r="E765" s="28" t="s">
@@ -28054,15 +28048,15 @@
       </c>
       <c r="I765" s="30"/>
     </row>
-    <row r="766" spans="1:9" ht="30">
+    <row r="766" spans="1:9">
       <c r="A766" s="28" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B766" s="29" t="s">
         <v>1094</v>
       </c>
       <c r="C766" s="30" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="D766" s="28"/>
       <c r="E766" s="28" t="s">
@@ -28081,38 +28075,38 @@
     </row>
     <row r="767" spans="1:9">
       <c r="A767" s="28" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B767" s="29" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C767" s="30" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="D767" s="28"/>
       <c r="E767" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F767" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G767" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H767" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I767" s="30"/>
     </row>
     <row r="768" spans="1:9">
       <c r="A768" s="28" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B768" s="29" t="s">
         <v>1095</v>
       </c>
       <c r="C768" s="30" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="D768" s="28"/>
       <c r="E768" s="28" t="s">
@@ -28125,19 +28119,19 @@
         <v>15</v>
       </c>
       <c r="H768" s="28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I768" s="30"/>
     </row>
-    <row r="769" spans="1:9">
+    <row r="769" spans="1:9" ht="30">
       <c r="A769" s="28" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B769" s="29" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C769" s="30" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="D769" s="28"/>
       <c r="E769" s="28" t="s">
@@ -28147,32 +28141,32 @@
         <v>6</v>
       </c>
       <c r="G769" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H769" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I769" s="30"/>
     </row>
     <row r="770" spans="1:9" ht="30">
       <c r="A770" s="28" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B770" s="29" t="s">
         <v>1096</v>
       </c>
       <c r="C770" s="30" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="D770" s="28"/>
       <c r="E770" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F770" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G770" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H770" s="28" t="s">
         <v>18</v>
@@ -28181,63 +28175,63 @@
     </row>
     <row r="771" spans="1:9" ht="30">
       <c r="A771" s="28" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B771" s="29" t="s">
         <v>1096</v>
       </c>
       <c r="C771" s="30" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="D771" s="28"/>
       <c r="E771" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F771" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G771" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H771" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I771" s="30"/>
     </row>
     <row r="772" spans="1:9" ht="30">
       <c r="A772" s="28" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B772" s="29" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C772" s="30" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="D772" s="28"/>
       <c r="E772" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F772" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G772" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H772" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I772" s="30"/>
     </row>
-    <row r="773" spans="1:9" ht="30">
+    <row r="773" spans="1:9" ht="270">
       <c r="A773" s="28" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B773" s="29" t="s">
         <v>1097</v>
       </c>
-      <c r="C773" s="30" t="s">
-        <v>1769</v>
+      <c r="C773" s="18" t="s">
+        <v>2113</v>
       </c>
       <c r="D773" s="28"/>
       <c r="E773" s="28" t="s">
@@ -28254,15 +28248,15 @@
       </c>
       <c r="I773" s="30"/>
     </row>
-    <row r="774" spans="1:9" ht="270">
+    <row r="774" spans="1:9">
       <c r="A774" s="28" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B774" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="C774" s="18" t="s">
-        <v>2116</v>
+        <v>1770</v>
       </c>
       <c r="D774" s="28"/>
       <c r="E774" s="28" t="s">
@@ -28279,65 +28273,65 @@
       </c>
       <c r="I774" s="30"/>
     </row>
-    <row r="775" spans="1:9">
-      <c r="A775" s="28" t="s">
-        <v>798</v>
+    <row r="775" spans="1:9" ht="30">
+      <c r="A775" s="20" t="s">
+        <v>2115</v>
       </c>
       <c r="B775" s="29" t="s">
         <v>1097</v>
       </c>
-      <c r="C775" s="18" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D775" s="28"/>
-      <c r="E775" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F775" s="28" t="s">
+      <c r="C775" s="33" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D775" s="32"/>
+      <c r="E775" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F775" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G775" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H775" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I775" s="30"/>
-    </row>
-    <row r="776" spans="1:9" ht="30">
-      <c r="A776" s="20" t="s">
-        <v>2118</v>
+      <c r="G775" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H775" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I775" s="33"/>
+    </row>
+    <row r="776" spans="1:9">
+      <c r="A776" s="28" t="s">
+        <v>799</v>
       </c>
       <c r="B776" s="29" t="s">
         <v>1097</v>
       </c>
-      <c r="C776" s="33" t="s">
-        <v>2117</v>
-      </c>
-      <c r="D776" s="32"/>
-      <c r="E776" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F776" s="32" t="s">
+      <c r="C776" s="30" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D776" s="28"/>
+      <c r="E776" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F776" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G776" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H776" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I776" s="33"/>
-    </row>
-    <row r="777" spans="1:9">
+      <c r="G776" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H776" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I776" s="30"/>
+    </row>
+    <row r="777" spans="1:9" ht="30">
       <c r="A777" s="28" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B777" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="C777" s="30" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="D777" s="28"/>
       <c r="E777" s="28" t="s">
@@ -28356,13 +28350,13 @@
     </row>
     <row r="778" spans="1:9" ht="30">
       <c r="A778" s="28" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B778" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="C778" s="30" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="D778" s="28"/>
       <c r="E778" s="28" t="s">
@@ -28379,15 +28373,15 @@
       </c>
       <c r="I778" s="30"/>
     </row>
-    <row r="779" spans="1:9" ht="30">
+    <row r="779" spans="1:9">
       <c r="A779" s="28" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B779" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="C779" s="30" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="D779" s="28"/>
       <c r="E779" s="28" t="s">
@@ -28406,13 +28400,13 @@
     </row>
     <row r="780" spans="1:9">
       <c r="A780" s="28" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B780" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="C780" s="30" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="D780" s="28"/>
       <c r="E780" s="28" t="s">
@@ -28431,13 +28425,13 @@
     </row>
     <row r="781" spans="1:9">
       <c r="A781" s="28" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B781" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="C781" s="30" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="D781" s="28"/>
       <c r="E781" s="28" t="s">
@@ -28456,13 +28450,13 @@
     </row>
     <row r="782" spans="1:9">
       <c r="A782" s="28" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B782" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="C782" s="30" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D782" s="28"/>
       <c r="E782" s="28" t="s">
@@ -28481,13 +28475,13 @@
     </row>
     <row r="783" spans="1:9">
       <c r="A783" s="28" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B783" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="C783" s="30" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="D783" s="28"/>
       <c r="E783" s="28" t="s">
@@ -28506,13 +28500,13 @@
     </row>
     <row r="784" spans="1:9">
       <c r="A784" s="28" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B784" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="C784" s="30" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="D784" s="28"/>
       <c r="E784" s="28" t="s">
@@ -28529,40 +28523,40 @@
       </c>
       <c r="I784" s="30"/>
     </row>
-    <row r="785" spans="1:9">
+    <row r="785" spans="1:9" ht="30">
       <c r="A785" s="28" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B785" s="29" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C785" s="30" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="D785" s="28"/>
       <c r="E785" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F785" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G785" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H785" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I785" s="30"/>
     </row>
-    <row r="786" spans="1:9" ht="30">
+    <row r="786" spans="1:9" ht="409.5">
       <c r="A786" s="28" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B786" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C786" s="30" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="D786" s="28"/>
       <c r="E786" s="28" t="s">
@@ -28572,22 +28566,22 @@
         <v>6</v>
       </c>
       <c r="G786" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H786" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I786" s="30"/>
     </row>
-    <row r="787" spans="1:9" ht="409.5">
+    <row r="787" spans="1:9" ht="30">
       <c r="A787" s="28" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B787" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C787" s="30" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="D787" s="28"/>
       <c r="E787" s="28" t="s">
@@ -28600,19 +28594,19 @@
         <v>15</v>
       </c>
       <c r="H787" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I787" s="30"/>
     </row>
-    <row r="788" spans="1:9" ht="30">
+    <row r="788" spans="1:9">
       <c r="A788" s="28" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B788" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C788" s="30" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="D788" s="28"/>
       <c r="E788" s="28" t="s">
@@ -28631,13 +28625,13 @@
     </row>
     <row r="789" spans="1:9">
       <c r="A789" s="28" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B789" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C789" s="30" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="D789" s="28"/>
       <c r="E789" s="28" t="s">
@@ -28656,13 +28650,13 @@
     </row>
     <row r="790" spans="1:9">
       <c r="A790" s="28" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B790" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C790" s="30" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="D790" s="28"/>
       <c r="E790" s="28" t="s">
@@ -28679,15 +28673,15 @@
       </c>
       <c r="I790" s="30"/>
     </row>
-    <row r="791" spans="1:9">
+    <row r="791" spans="1:9" ht="30">
       <c r="A791" s="28" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B791" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C791" s="30" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="D791" s="28"/>
       <c r="E791" s="28" t="s">
@@ -28700,19 +28694,19 @@
         <v>15</v>
       </c>
       <c r="H791" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I791" s="30"/>
+        <v>18</v>
+      </c>
+      <c r="I791" s="18"/>
     </row>
     <row r="792" spans="1:9" ht="30">
       <c r="A792" s="28" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B792" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C792" s="30" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="D792" s="28"/>
       <c r="E792" s="28" t="s">
@@ -28731,13 +28725,13 @@
     </row>
     <row r="793" spans="1:9" ht="30">
       <c r="A793" s="28" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B793" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C793" s="30" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="D793" s="28"/>
       <c r="E793" s="28" t="s">
@@ -28756,13 +28750,13 @@
     </row>
     <row r="794" spans="1:9" ht="30">
       <c r="A794" s="28" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B794" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C794" s="30" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D794" s="28"/>
       <c r="E794" s="28" t="s">
@@ -28775,19 +28769,19 @@
         <v>15</v>
       </c>
       <c r="H794" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I794" s="18"/>
     </row>
     <row r="795" spans="1:9" ht="30">
       <c r="A795" s="28" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B795" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C795" s="30" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="D795" s="28"/>
       <c r="E795" s="28" t="s">
@@ -28800,19 +28794,19 @@
         <v>15</v>
       </c>
       <c r="H795" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I795" s="18"/>
     </row>
     <row r="796" spans="1:9" ht="30">
       <c r="A796" s="28" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B796" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C796" s="30" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="D796" s="28"/>
       <c r="E796" s="28" t="s">
@@ -28822,22 +28816,22 @@
         <v>6</v>
       </c>
       <c r="G796" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H796" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I796" s="18"/>
-    </row>
-    <row r="797" spans="1:9" ht="30">
+      <c r="I796" s="30"/>
+    </row>
+    <row r="797" spans="1:9">
       <c r="A797" s="28" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B797" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C797" s="30" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D797" s="28"/>
       <c r="E797" s="28" t="s">
@@ -28847,22 +28841,22 @@
         <v>6</v>
       </c>
       <c r="G797" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H797" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I797" s="30"/>
     </row>
     <row r="798" spans="1:9">
       <c r="A798" s="28" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B798" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C798" s="30" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="D798" s="28"/>
       <c r="E798" s="28" t="s">
@@ -28881,13 +28875,13 @@
     </row>
     <row r="799" spans="1:9">
       <c r="A799" s="28" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B799" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C799" s="30" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="D799" s="28"/>
       <c r="E799" s="28" t="s">
@@ -28904,15 +28898,15 @@
       </c>
       <c r="I799" s="30"/>
     </row>
-    <row r="800" spans="1:9">
+    <row r="800" spans="1:9" ht="30">
       <c r="A800" s="28" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B800" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C800" s="30" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="D800" s="28"/>
       <c r="E800" s="28" t="s">
@@ -28931,13 +28925,13 @@
     </row>
     <row r="801" spans="1:9" ht="30">
       <c r="A801" s="28" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B801" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C801" s="30" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="D801" s="28"/>
       <c r="E801" s="28" t="s">
@@ -28956,13 +28950,13 @@
     </row>
     <row r="802" spans="1:9" ht="30">
       <c r="A802" s="28" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B802" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C802" s="30" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="D802" s="28"/>
       <c r="E802" s="28" t="s">
@@ -28975,19 +28969,19 @@
         <v>15</v>
       </c>
       <c r="H802" s="28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I802" s="30"/>
     </row>
     <row r="803" spans="1:9" ht="30">
       <c r="A803" s="28" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B803" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C803" s="30" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="D803" s="28"/>
       <c r="E803" s="28" t="s">
@@ -29000,19 +28994,19 @@
         <v>15</v>
       </c>
       <c r="H803" s="28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I803" s="30"/>
     </row>
-    <row r="804" spans="1:9" ht="30">
+    <row r="804" spans="1:9">
       <c r="A804" s="28" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B804" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C804" s="30" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="D804" s="28"/>
       <c r="E804" s="28" t="s">
@@ -29029,15 +29023,15 @@
       </c>
       <c r="I804" s="30"/>
     </row>
-    <row r="805" spans="1:9">
+    <row r="805" spans="1:9" ht="30">
       <c r="A805" s="28" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B805" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C805" s="30" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="D805" s="28"/>
       <c r="E805" s="28" t="s">
@@ -29054,15 +29048,15 @@
       </c>
       <c r="I805" s="30"/>
     </row>
-    <row r="806" spans="1:9" ht="30">
+    <row r="806" spans="1:9">
       <c r="A806" s="28" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B806" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C806" s="30" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="D806" s="28"/>
       <c r="E806" s="28" t="s">
@@ -29079,15 +29073,15 @@
       </c>
       <c r="I806" s="30"/>
     </row>
-    <row r="807" spans="1:9">
+    <row r="807" spans="1:9" ht="30">
       <c r="A807" s="28" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B807" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C807" s="30" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="D807" s="28"/>
       <c r="E807" s="28" t="s">
@@ -29100,19 +29094,19 @@
         <v>15</v>
       </c>
       <c r="H807" s="28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I807" s="30"/>
     </row>
-    <row r="808" spans="1:9" ht="30">
+    <row r="808" spans="1:9">
       <c r="A808" s="28" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B808" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C808" s="30" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="D808" s="28"/>
       <c r="E808" s="28" t="s">
@@ -29127,17 +29121,17 @@
       <c r="H808" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I808" s="30"/>
-    </row>
-    <row r="809" spans="1:9">
+      <c r="I808" s="18"/>
+    </row>
+    <row r="809" spans="1:9" ht="30">
       <c r="A809" s="28" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B809" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C809" s="30" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="D809" s="28"/>
       <c r="E809" s="28" t="s">
@@ -29150,19 +29144,19 @@
         <v>15</v>
       </c>
       <c r="H809" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I809" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="I809" s="30"/>
     </row>
     <row r="810" spans="1:9" ht="30">
-      <c r="A810" s="28" t="s">
-        <v>832</v>
+      <c r="A810" s="20" t="s">
+        <v>1904</v>
       </c>
       <c r="B810" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C810" s="30" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="D810" s="28"/>
       <c r="E810" s="28" t="s">
@@ -29180,14 +29174,14 @@
       <c r="I810" s="30"/>
     </row>
     <row r="811" spans="1:9" ht="30">
-      <c r="A811" s="20" t="s">
-        <v>1904</v>
+      <c r="A811" s="28" t="s">
+        <v>833</v>
       </c>
       <c r="B811" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C811" s="30" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="D811" s="28"/>
       <c r="E811" s="28" t="s">
@@ -29206,13 +29200,13 @@
     </row>
     <row r="812" spans="1:9" ht="30">
       <c r="A812" s="28" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B812" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C812" s="30" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="D812" s="28"/>
       <c r="E812" s="28" t="s">
@@ -29229,15 +29223,15 @@
       </c>
       <c r="I812" s="30"/>
     </row>
-    <row r="813" spans="1:9" ht="30">
+    <row r="813" spans="1:9">
       <c r="A813" s="28" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B813" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C813" s="30" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="D813" s="28"/>
       <c r="E813" s="28" t="s">
@@ -29254,15 +29248,15 @@
       </c>
       <c r="I813" s="30"/>
     </row>
-    <row r="814" spans="1:9">
+    <row r="814" spans="1:9" ht="30">
       <c r="A814" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B814" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C814" s="30" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="D814" s="28"/>
       <c r="E814" s="28" t="s">
@@ -29275,69 +29269,71 @@
         <v>15</v>
       </c>
       <c r="H814" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I814" s="30"/>
-    </row>
-    <row r="815" spans="1:9" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I814" s="18"/>
+    </row>
+    <row r="815" spans="1:9">
       <c r="A815" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B815" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="C815" s="30" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="D815" s="28"/>
       <c r="E815" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F815" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G815" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H815" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I815" s="18"/>
-    </row>
-    <row r="816" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="I815" s="30"/>
+    </row>
+    <row r="816" spans="1:9" ht="30">
       <c r="A816" s="28" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B816" s="29" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C816" s="30" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="D816" s="28"/>
       <c r="E816" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F816" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G816" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H816" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I816" s="30"/>
-    </row>
-    <row r="817" spans="1:9" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I816" s="18" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="817" spans="1:9" ht="90">
       <c r="A817" s="28" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B817" s="29" t="s">
         <v>1099</v>
       </c>
       <c r="C817" s="30" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="D817" s="28"/>
       <c r="E817" s="28" t="s">
@@ -29350,21 +29346,19 @@
         <v>15</v>
       </c>
       <c r="H817" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I817" s="18" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="818" spans="1:9" ht="90">
+        <v>21</v>
+      </c>
+      <c r="I817" s="30"/>
+    </row>
+    <row r="818" spans="1:9" ht="45">
       <c r="A818" s="28" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B818" s="29" t="s">
         <v>1099</v>
       </c>
       <c r="C818" s="30" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="D818" s="28"/>
       <c r="E818" s="28" t="s">
@@ -29381,65 +29375,65 @@
       </c>
       <c r="I818" s="30"/>
     </row>
-    <row r="819" spans="1:9" ht="45">
+    <row r="819" spans="1:9" ht="30">
       <c r="A819" s="28" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B819" s="29" t="s">
         <v>1099</v>
       </c>
       <c r="C819" s="30" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="D819" s="28"/>
       <c r="E819" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F819" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G819" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H819" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I819" s="30"/>
     </row>
     <row r="820" spans="1:9" ht="30">
       <c r="A820" s="28" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B820" s="29" t="s">
         <v>1099</v>
       </c>
       <c r="C820" s="30" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="D820" s="28"/>
       <c r="E820" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F820" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G820" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H820" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I820" s="30"/>
     </row>
     <row r="821" spans="1:9" ht="30">
-      <c r="A821" s="28" t="s">
-        <v>842</v>
+      <c r="A821" s="20" t="s">
+        <v>843</v>
       </c>
       <c r="B821" s="29" t="s">
         <v>1099</v>
       </c>
       <c r="C821" s="30" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="D821" s="28"/>
       <c r="E821" s="28" t="s">
@@ -29451,20 +29445,20 @@
       <c r="G821" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H821" s="28" t="s">
-        <v>20</v>
+      <c r="H821" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I821" s="30"/>
     </row>
     <row r="822" spans="1:9" ht="30">
-      <c r="A822" s="20" t="s">
-        <v>843</v>
+      <c r="A822" s="28" t="s">
+        <v>844</v>
       </c>
       <c r="B822" s="29" t="s">
         <v>1099</v>
       </c>
       <c r="C822" s="30" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D822" s="28"/>
       <c r="E822" s="28" t="s">
@@ -29476,20 +29470,20 @@
       <c r="G822" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H822" s="20" t="s">
-        <v>18</v>
+      <c r="H822" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="I822" s="30"/>
     </row>
     <row r="823" spans="1:9" ht="30">
       <c r="A823" s="28" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B823" s="29" t="s">
         <v>1099</v>
       </c>
       <c r="C823" s="30" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="D823" s="28"/>
       <c r="E823" s="28" t="s">
@@ -29502,19 +29496,19 @@
         <v>15</v>
       </c>
       <c r="H823" s="28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I823" s="30"/>
     </row>
-    <row r="824" spans="1:9" ht="30">
+    <row r="824" spans="1:9" ht="45">
       <c r="A824" s="28" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B824" s="29" t="s">
         <v>1099</v>
       </c>
       <c r="C824" s="30" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D824" s="28"/>
       <c r="E824" s="28" t="s">
@@ -29531,15 +29525,15 @@
       </c>
       <c r="I824" s="30"/>
     </row>
-    <row r="825" spans="1:9" ht="45">
+    <row r="825" spans="1:9" ht="30">
       <c r="A825" s="28" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B825" s="29" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C825" s="30" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D825" s="28"/>
       <c r="E825" s="28" t="s">
@@ -29549,32 +29543,32 @@
         <v>6</v>
       </c>
       <c r="G825" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H825" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I825" s="30"/>
     </row>
-    <row r="826" spans="1:9" ht="30">
+    <row r="826" spans="1:9" ht="45">
       <c r="A826" s="28" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B826" s="29" t="s">
         <v>1100</v>
       </c>
       <c r="C826" s="30" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="D826" s="28"/>
       <c r="E826" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F826" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G826" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H826" s="28" t="s">
         <v>18</v>
@@ -29583,63 +29577,63 @@
     </row>
     <row r="827" spans="1:9" ht="45">
       <c r="A827" s="28" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B827" s="29" t="s">
         <v>1100</v>
       </c>
       <c r="C827" s="30" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="D827" s="28"/>
       <c r="E827" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F827" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G827" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H827" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I827" s="30"/>
     </row>
-    <row r="828" spans="1:9" ht="45">
+    <row r="828" spans="1:9" ht="30">
       <c r="A828" s="28" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B828" s="29" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C828" s="30" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="D828" s="28"/>
       <c r="E828" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F828" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G828" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H828" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I828" s="30"/>
     </row>
     <row r="829" spans="1:9" ht="30">
       <c r="A829" s="28" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B829" s="29" t="s">
         <v>1101</v>
       </c>
       <c r="C829" s="30" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="D829" s="28"/>
       <c r="E829" s="28" t="s">
@@ -29658,38 +29652,38 @@
     </row>
     <row r="830" spans="1:9" ht="30">
       <c r="A830" s="28" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B830" s="29" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C830" s="30" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="D830" s="28"/>
       <c r="E830" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F830" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G830" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H830" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I830" s="30"/>
     </row>
     <row r="831" spans="1:9" ht="30">
       <c r="A831" s="28" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B831" s="29" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C831" s="30" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="D831" s="28"/>
       <c r="E831" s="28" t="s">
@@ -29699,97 +29693,97 @@
         <v>6</v>
       </c>
       <c r="G831" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H831" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I831" s="30"/>
     </row>
-    <row r="832" spans="1:9" ht="30">
+    <row r="832" spans="1:9" ht="45">
       <c r="A832" s="28" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B832" s="29" t="s">
         <v>1103</v>
       </c>
       <c r="C832" s="30" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="D832" s="28"/>
       <c r="E832" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F832" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G832" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H832" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I832" s="30"/>
     </row>
-    <row r="833" spans="1:9" ht="45">
+    <row r="833" spans="1:9" ht="30">
       <c r="A833" s="28" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B833" s="29" t="s">
         <v>1103</v>
       </c>
       <c r="C833" s="30" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="D833" s="28"/>
       <c r="E833" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F833" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G833" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H833" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I833" s="30"/>
     </row>
     <row r="834" spans="1:9" ht="30">
       <c r="A834" s="28" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B834" s="29" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C834" s="30" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="D834" s="28"/>
       <c r="E834" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F834" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G834" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H834" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I834" s="30"/>
     </row>
-    <row r="835" spans="1:9" ht="30">
+    <row r="835" spans="1:9" ht="225">
       <c r="A835" s="28" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B835" s="29" t="s">
         <v>1104</v>
       </c>
-      <c r="C835" s="30" t="s">
-        <v>1828</v>
+      <c r="C835" s="18" t="s">
+        <v>2116</v>
       </c>
       <c r="D835" s="28"/>
       <c r="E835" s="28" t="s">
@@ -29806,15 +29800,15 @@
       </c>
       <c r="I835" s="30"/>
     </row>
-    <row r="836" spans="1:9" ht="225">
+    <row r="836" spans="1:9" ht="30">
       <c r="A836" s="28" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B836" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="C836" s="18" t="s">
-        <v>2119</v>
+        <v>1829</v>
       </c>
       <c r="D836" s="28"/>
       <c r="E836" s="28" t="s">
@@ -29832,16 +29826,16 @@
       <c r="I836" s="30"/>
     </row>
     <row r="837" spans="1:9" ht="30">
-      <c r="A837" s="28" t="s">
-        <v>858</v>
+      <c r="A837" s="20" t="s">
+        <v>2118</v>
       </c>
       <c r="B837" s="29" t="s">
         <v>1104</v>
       </c>
-      <c r="C837" s="18" t="s">
-        <v>1829</v>
-      </c>
-      <c r="D837" s="28"/>
+      <c r="C837" s="33" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D837" s="32"/>
       <c r="E837" s="28" t="s">
         <v>19</v>
       </c>
@@ -29854,19 +29848,19 @@
       <c r="H837" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I837" s="30"/>
+      <c r="I837" s="33"/>
     </row>
     <row r="838" spans="1:9" ht="30">
-      <c r="A838" s="20" t="s">
-        <v>2121</v>
+      <c r="A838" s="28" t="s">
+        <v>859</v>
       </c>
       <c r="B838" s="29" t="s">
         <v>1104</v>
       </c>
-      <c r="C838" s="33" t="s">
-        <v>2120</v>
-      </c>
-      <c r="D838" s="32"/>
+      <c r="C838" s="30" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D838" s="28"/>
       <c r="E838" s="28" t="s">
         <v>19</v>
       </c>
@@ -29879,17 +29873,17 @@
       <c r="H838" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I838" s="33"/>
-    </row>
-    <row r="839" spans="1:9" ht="30">
+      <c r="I838" s="30"/>
+    </row>
+    <row r="839" spans="1:9">
       <c r="A839" s="28" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B839" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="C839" s="30" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="D839" s="28"/>
       <c r="E839" s="28" t="s">
@@ -29906,15 +29900,15 @@
       </c>
       <c r="I839" s="30"/>
     </row>
-    <row r="840" spans="1:9">
+    <row r="840" spans="1:9" ht="30">
       <c r="A840" s="28" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B840" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="C840" s="30" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="D840" s="28"/>
       <c r="E840" s="28" t="s">
@@ -29933,13 +29927,13 @@
     </row>
     <row r="841" spans="1:9" ht="30">
       <c r="A841" s="28" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B841" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="C841" s="30" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="D841" s="28"/>
       <c r="E841" s="28" t="s">
@@ -29949,7 +29943,7 @@
         <v>7</v>
       </c>
       <c r="G841" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H841" s="28" t="s">
         <v>18</v>
@@ -29958,13 +29952,13 @@
     </row>
     <row r="842" spans="1:9" ht="30">
       <c r="A842" s="28" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B842" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="C842" s="30" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="D842" s="28"/>
       <c r="E842" s="28" t="s">
@@ -29983,13 +29977,13 @@
     </row>
     <row r="843" spans="1:9" ht="30">
       <c r="A843" s="28" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B843" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="C843" s="30" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="D843" s="28"/>
       <c r="E843" s="28" t="s">
@@ -30008,13 +30002,13 @@
     </row>
     <row r="844" spans="1:9" ht="30">
       <c r="A844" s="28" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B844" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="C844" s="30" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="D844" s="28"/>
       <c r="E844" s="28" t="s">
@@ -30033,13 +30027,13 @@
     </row>
     <row r="845" spans="1:9" ht="30">
       <c r="A845" s="28" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B845" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="C845" s="30" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="D845" s="28"/>
       <c r="E845" s="28" t="s">
@@ -30058,13 +30052,13 @@
     </row>
     <row r="846" spans="1:9" ht="30">
       <c r="A846" s="28" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B846" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="C846" s="30" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="D846" s="28"/>
       <c r="E846" s="28" t="s">
@@ -30083,38 +30077,38 @@
     </row>
     <row r="847" spans="1:9" ht="30">
       <c r="A847" s="28" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B847" s="29" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C847" s="30" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="D847" s="28"/>
       <c r="E847" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F847" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G847" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H847" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I847" s="30"/>
     </row>
-    <row r="848" spans="1:9" ht="30">
+    <row r="848" spans="1:9" ht="240">
       <c r="A848" s="28" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B848" s="29" t="s">
         <v>1105</v>
       </c>
-      <c r="C848" s="30" t="s">
-        <v>1839</v>
+      <c r="C848" s="18" t="s">
+        <v>2119</v>
       </c>
       <c r="D848" s="28"/>
       <c r="E848" s="28" t="s">
@@ -30127,19 +30121,19 @@
         <v>15</v>
       </c>
       <c r="H848" s="28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I848" s="30"/>
     </row>
-    <row r="849" spans="1:9" ht="240">
+    <row r="849" spans="1:9" ht="30">
       <c r="A849" s="28" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B849" s="29" t="s">
         <v>1105</v>
       </c>
-      <c r="C849" s="18" t="s">
-        <v>2122</v>
+      <c r="C849" s="30" t="s">
+        <v>1840</v>
       </c>
       <c r="D849" s="28"/>
       <c r="E849" s="28" t="s">
@@ -30152,19 +30146,19 @@
         <v>15</v>
       </c>
       <c r="H849" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I849" s="30"/>
     </row>
-    <row r="850" spans="1:9" ht="30">
+    <row r="850" spans="1:9">
       <c r="A850" s="28" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B850" s="29" t="s">
         <v>1105</v>
       </c>
       <c r="C850" s="30" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="D850" s="28"/>
       <c r="E850" s="28" t="s">
@@ -30181,15 +30175,15 @@
       </c>
       <c r="I850" s="30"/>
     </row>
-    <row r="851" spans="1:9">
+    <row r="851" spans="1:9" ht="30">
       <c r="A851" s="28" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B851" s="29" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C851" s="30" t="s">
-        <v>1841</v>
+        <v>1106</v>
+      </c>
+      <c r="C851" s="18" t="s">
+        <v>2120</v>
       </c>
       <c r="D851" s="28"/>
       <c r="E851" s="28" t="s">
@@ -30202,19 +30196,19 @@
         <v>15</v>
       </c>
       <c r="H851" s="28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I851" s="30"/>
     </row>
-    <row r="852" spans="1:9" ht="30">
+    <row r="852" spans="1:9" ht="75">
       <c r="A852" s="28" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B852" s="29" t="s">
         <v>1106</v>
       </c>
-      <c r="C852" s="18" t="s">
-        <v>2123</v>
+      <c r="C852" s="30" t="s">
+        <v>1842</v>
       </c>
       <c r="D852" s="28"/>
       <c r="E852" s="28" t="s">
@@ -30227,26 +30221,26 @@
         <v>15</v>
       </c>
       <c r="H852" s="28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I852" s="30"/>
     </row>
-    <row r="853" spans="1:9" ht="75">
+    <row r="853" spans="1:9" ht="30">
       <c r="A853" s="28" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B853" s="29" t="s">
         <v>1106</v>
       </c>
       <c r="C853" s="30" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="D853" s="28"/>
       <c r="E853" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F853" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G853" s="28" t="s">
         <v>15</v>
@@ -30256,40 +30250,40 @@
       </c>
       <c r="I853" s="30"/>
     </row>
-    <row r="854" spans="1:9" ht="30">
+    <row r="854" spans="1:9">
       <c r="A854" s="28" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B854" s="29" t="s">
         <v>1106</v>
       </c>
       <c r="C854" s="30" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D854" s="28"/>
       <c r="E854" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F854" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G854" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H854" s="28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I854" s="30"/>
     </row>
-    <row r="855" spans="1:9">
+    <row r="855" spans="1:9" ht="30">
       <c r="A855" s="28" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B855" s="29" t="s">
         <v>1106</v>
       </c>
       <c r="C855" s="30" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="D855" s="28"/>
       <c r="E855" s="28" t="s">
@@ -30308,13 +30302,13 @@
     </row>
     <row r="856" spans="1:9" ht="30">
       <c r="A856" s="28" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B856" s="29" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C856" s="30" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="D856" s="28"/>
       <c r="E856" s="28" t="s">
@@ -30324,32 +30318,32 @@
         <v>6</v>
       </c>
       <c r="G856" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H856" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I856" s="30"/>
     </row>
     <row r="857" spans="1:9" ht="30">
       <c r="A857" s="28" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B857" s="29" t="s">
         <v>1107</v>
       </c>
-      <c r="C857" s="30" t="s">
-        <v>1846</v>
+      <c r="C857" s="18" t="s">
+        <v>2121</v>
       </c>
       <c r="D857" s="28"/>
       <c r="E857" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F857" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G857" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H857" s="28" t="s">
         <v>18</v>
@@ -30358,63 +30352,63 @@
     </row>
     <row r="858" spans="1:9" ht="30">
       <c r="A858" s="28" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B858" s="29" t="s">
         <v>1107</v>
       </c>
       <c r="C858" s="18" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="D858" s="28"/>
       <c r="E858" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F858" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G858" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H858" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I858" s="30"/>
     </row>
     <row r="859" spans="1:9" ht="30">
       <c r="A859" s="28" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B859" s="29" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C859" s="18" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="D859" s="28"/>
       <c r="E859" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F859" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G859" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H859" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I859" s="30"/>
     </row>
     <row r="860" spans="1:9" ht="30">
       <c r="A860" s="28" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B860" s="29" t="s">
         <v>1108</v>
       </c>
-      <c r="C860" s="18" t="s">
-        <v>2126</v>
+      <c r="C860" s="30" t="s">
+        <v>1847</v>
       </c>
       <c r="D860" s="28"/>
       <c r="E860" s="28" t="s">
@@ -30431,15 +30425,15 @@
       </c>
       <c r="I860" s="30"/>
     </row>
-    <row r="861" spans="1:9" ht="30">
+    <row r="861" spans="1:9">
       <c r="A861" s="28" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B861" s="29" t="s">
         <v>1108</v>
       </c>
       <c r="C861" s="30" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="D861" s="28"/>
       <c r="E861" s="28" t="s">
@@ -30456,40 +30450,40 @@
       </c>
       <c r="I861" s="30"/>
     </row>
-    <row r="862" spans="1:9">
+    <row r="862" spans="1:9" ht="30">
       <c r="A862" s="28" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B862" s="29" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C862" s="30" t="s">
-        <v>1848</v>
+        <v>1109</v>
+      </c>
+      <c r="C862" s="18" t="s">
+        <v>2124</v>
       </c>
       <c r="D862" s="28"/>
       <c r="E862" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F862" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G862" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H862" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I862" s="30"/>
     </row>
-    <row r="863" spans="1:9" ht="30">
+    <row r="863" spans="1:9">
       <c r="A863" s="28" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B863" s="29" t="s">
         <v>1109</v>
       </c>
-      <c r="C863" s="18" t="s">
-        <v>2127</v>
+      <c r="C863" s="30" t="s">
+        <v>1849</v>
       </c>
       <c r="D863" s="28"/>
       <c r="E863" s="28" t="s">
@@ -30499,22 +30493,22 @@
         <v>6</v>
       </c>
       <c r="G863" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H863" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I863" s="30"/>
     </row>
-    <row r="864" spans="1:9">
+    <row r="864" spans="1:9" ht="30">
       <c r="A864" s="28" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B864" s="29" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C864" s="30" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="D864" s="28"/>
       <c r="E864" s="28" t="s">
@@ -30524,32 +30518,32 @@
         <v>6</v>
       </c>
       <c r="G864" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H864" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I864" s="30"/>
     </row>
     <row r="865" spans="1:9" ht="30">
       <c r="A865" s="28" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B865" s="29" t="s">
         <v>1110</v>
       </c>
       <c r="C865" s="30" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="D865" s="28"/>
       <c r="E865" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F865" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G865" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H865" s="28" t="s">
         <v>18</v>
@@ -30558,63 +30552,63 @@
     </row>
     <row r="866" spans="1:9" ht="30">
       <c r="A866" s="28" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B866" s="29" t="s">
         <v>1110</v>
       </c>
       <c r="C866" s="30" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="D866" s="28"/>
       <c r="E866" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F866" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G866" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H866" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I866" s="30"/>
     </row>
     <row r="867" spans="1:9" ht="30">
       <c r="A867" s="28" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B867" s="29" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C867" s="30" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="D867" s="28"/>
       <c r="E867" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F867" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G867" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H867" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I867" s="30"/>
     </row>
-    <row r="868" spans="1:9" ht="30">
+    <row r="868" spans="1:9" ht="120">
       <c r="A868" s="28" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B868" s="29" t="s">
         <v>1111</v>
       </c>
-      <c r="C868" s="30" t="s">
-        <v>1853</v>
+      <c r="C868" s="18" t="s">
+        <v>2125</v>
       </c>
       <c r="D868" s="28"/>
       <c r="E868" s="28" t="s">
@@ -30631,15 +30625,15 @@
       </c>
       <c r="I868" s="30"/>
     </row>
-    <row r="869" spans="1:9" ht="120">
+    <row r="869" spans="1:9">
       <c r="A869" s="28" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B869" s="29" t="s">
         <v>1111</v>
       </c>
       <c r="C869" s="18" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="D869" s="28"/>
       <c r="E869" s="28" t="s">
@@ -30656,40 +30650,40 @@
       </c>
       <c r="I869" s="30"/>
     </row>
-    <row r="870" spans="1:9">
+    <row r="870" spans="1:9" ht="30">
       <c r="A870" s="28" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B870" s="29" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C870" s="18" t="s">
-        <v>2129</v>
+        <v>1112</v>
+      </c>
+      <c r="C870" s="30" t="s">
+        <v>1854</v>
       </c>
       <c r="D870" s="28"/>
       <c r="E870" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F870" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G870" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H870" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I870" s="30"/>
     </row>
-    <row r="871" spans="1:9" ht="30">
+    <row r="871" spans="1:9" ht="120">
       <c r="A871" s="28" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B871" s="29" t="s">
         <v>1112</v>
       </c>
-      <c r="C871" s="30" t="s">
-        <v>1854</v>
+      <c r="C871" s="18" t="s">
+        <v>2127</v>
       </c>
       <c r="D871" s="28"/>
       <c r="E871" s="28" t="s">
@@ -30699,22 +30693,22 @@
         <v>6</v>
       </c>
       <c r="G871" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H871" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I871" s="30"/>
     </row>
-    <row r="872" spans="1:9" ht="120">
+    <row r="872" spans="1:9">
       <c r="A872" s="28" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B872" s="29" t="s">
         <v>1112</v>
       </c>
       <c r="C872" s="18" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="D872" s="28"/>
       <c r="E872" s="28" t="s">
@@ -30727,44 +30721,44 @@
         <v>15</v>
       </c>
       <c r="H872" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I872" s="30"/>
     </row>
-    <row r="873" spans="1:9">
-      <c r="A873" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="B873" s="29" t="s">
-        <v>1112</v>
+    <row r="873" spans="1:9" ht="45">
+      <c r="A873" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="B873" s="34">
+        <v>7</v>
       </c>
       <c r="C873" s="18" t="s">
-        <v>2131</v>
+        <v>1996</v>
       </c>
       <c r="D873" s="28"/>
       <c r="E873" s="28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F873" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G873" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H873" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I873" s="30"/>
     </row>
-    <row r="874" spans="1:9" ht="45">
-      <c r="A874" s="20" t="s">
-        <v>894</v>
+    <row r="874" spans="1:9" ht="30">
+      <c r="A874" s="28" t="s">
+        <v>895</v>
       </c>
       <c r="B874" s="34">
         <v>7</v>
       </c>
       <c r="C874" s="18" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D874" s="28"/>
       <c r="E874" s="28" t="s">
@@ -30781,69 +30775,71 @@
       </c>
       <c r="I874" s="30"/>
     </row>
-    <row r="875" spans="1:9" ht="30">
-      <c r="A875" s="28" t="s">
-        <v>895</v>
+    <row r="875" spans="1:9" ht="45">
+      <c r="A875" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="B875" s="34">
         <v>7</v>
       </c>
       <c r="C875" s="18" t="s">
-        <v>1997</v>
-      </c>
-      <c r="D875" s="28"/>
-      <c r="E875" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D875" s="20" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E875" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F875" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G875" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H875" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I875" s="30"/>
+      <c r="F875" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G875" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H875" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I875" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="876" spans="1:9" ht="45">
-      <c r="A876" s="20" t="s">
-        <v>45</v>
+      <c r="A876" s="28" t="s">
+        <v>896</v>
       </c>
       <c r="B876" s="34">
         <v>7</v>
       </c>
       <c r="C876" s="18" t="s">
-        <v>1998</v>
+        <v>1855</v>
       </c>
       <c r="D876" s="20" t="s">
-        <v>1886</v>
-      </c>
-      <c r="E876" s="20" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E876" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F876" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G876" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H876" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I876" s="18" t="s">
-        <v>1986</v>
-      </c>
+      <c r="F876" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G876" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H876" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I876" s="30"/>
     </row>
     <row r="877" spans="1:9" ht="45">
-      <c r="A877" s="28" t="s">
-        <v>896</v>
+      <c r="A877" s="20" t="s">
+        <v>897</v>
       </c>
       <c r="B877" s="34">
         <v>7</v>
       </c>
       <c r="C877" s="18" t="s">
-        <v>1855</v>
+        <v>1928</v>
       </c>
       <c r="D877" s="20" t="s">
         <v>1908</v>
@@ -30858,22 +30854,24 @@
         <v>15</v>
       </c>
       <c r="H877" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I877" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="I877" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="878" spans="1:9" ht="45">
       <c r="A878" s="20" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B878" s="34">
         <v>7</v>
       </c>
-      <c r="C878" s="18" t="s">
-        <v>1928</v>
+      <c r="C878" s="30" t="s">
+        <v>1856</v>
       </c>
       <c r="D878" s="20" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="E878" s="28" t="s">
         <v>22</v>
@@ -30885,21 +30883,19 @@
         <v>15</v>
       </c>
       <c r="H878" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I878" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I878" s="30"/>
     </row>
     <row r="879" spans="1:9" ht="45">
       <c r="A879" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B879" s="34">
         <v>7</v>
       </c>
-      <c r="C879" s="30" t="s">
-        <v>1856</v>
+      <c r="C879" s="18" t="s">
+        <v>1951</v>
       </c>
       <c r="D879" s="20" t="s">
         <v>1909</v>
@@ -30914,22 +30910,24 @@
         <v>15</v>
       </c>
       <c r="H879" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I879" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="I879" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="880" spans="1:9" ht="45">
       <c r="A880" s="20" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B880" s="34">
         <v>7</v>
       </c>
       <c r="C880" s="18" t="s">
-        <v>1951</v>
+        <v>1857</v>
       </c>
       <c r="D880" s="20" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="E880" s="28" t="s">
         <v>22</v>
@@ -30941,21 +30939,19 @@
         <v>15</v>
       </c>
       <c r="H880" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I880" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I880" s="30"/>
     </row>
     <row r="881" spans="1:9" ht="45">
       <c r="A881" s="20" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B881" s="34">
         <v>7</v>
       </c>
-      <c r="C881" s="18" t="s">
-        <v>1857</v>
+      <c r="C881" s="30" t="s">
+        <v>1929</v>
       </c>
       <c r="D881" s="20" t="s">
         <v>1910</v>
@@ -30970,22 +30966,24 @@
         <v>15</v>
       </c>
       <c r="H881" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I881" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="I881" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="882" spans="1:9" ht="45">
       <c r="A882" s="20" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B882" s="34">
         <v>7</v>
       </c>
       <c r="C882" s="30" t="s">
-        <v>1929</v>
+        <v>1858</v>
       </c>
       <c r="D882" s="20" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="E882" s="28" t="s">
         <v>22</v>
@@ -30997,21 +30995,19 @@
         <v>15</v>
       </c>
       <c r="H882" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I882" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I882" s="30"/>
     </row>
     <row r="883" spans="1:9" ht="45">
       <c r="A883" s="20" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B883" s="34">
         <v>7</v>
       </c>
-      <c r="C883" s="30" t="s">
-        <v>1858</v>
+      <c r="C883" s="18" t="s">
+        <v>1930</v>
       </c>
       <c r="D883" s="20" t="s">
         <v>1911</v>
@@ -31026,22 +31022,24 @@
         <v>15</v>
       </c>
       <c r="H883" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I883" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="I883" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="884" spans="1:9" ht="45">
       <c r="A884" s="20" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B884" s="34">
         <v>7</v>
       </c>
-      <c r="C884" s="18" t="s">
-        <v>1930</v>
+      <c r="C884" s="30" t="s">
+        <v>1859</v>
       </c>
       <c r="D884" s="20" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="E884" s="28" t="s">
         <v>22</v>
@@ -31053,21 +31051,19 @@
         <v>15</v>
       </c>
       <c r="H884" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I884" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I884" s="30"/>
     </row>
     <row r="885" spans="1:9" ht="45">
       <c r="A885" s="20" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B885" s="34">
         <v>7</v>
       </c>
-      <c r="C885" s="30" t="s">
-        <v>1859</v>
+      <c r="C885" s="18" t="s">
+        <v>1931</v>
       </c>
       <c r="D885" s="20" t="s">
         <v>1912</v>
@@ -31082,22 +31078,24 @@
         <v>15</v>
       </c>
       <c r="H885" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I885" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="I885" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="886" spans="1:9" ht="45">
       <c r="A886" s="20" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B886" s="34">
         <v>7</v>
       </c>
       <c r="C886" s="18" t="s">
-        <v>1931</v>
+        <v>1860</v>
       </c>
       <c r="D886" s="20" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="E886" s="28" t="s">
         <v>22</v>
@@ -31109,21 +31107,19 @@
         <v>15</v>
       </c>
       <c r="H886" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I886" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I886" s="30"/>
     </row>
     <row r="887" spans="1:9" ht="45">
       <c r="A887" s="20" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B887" s="34">
         <v>7</v>
       </c>
       <c r="C887" s="18" t="s">
-        <v>1860</v>
+        <v>1932</v>
       </c>
       <c r="D887" s="20" t="s">
         <v>1913</v>
@@ -31138,22 +31134,24 @@
         <v>15</v>
       </c>
       <c r="H887" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I887" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="I887" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="888" spans="1:9" ht="45">
       <c r="A888" s="20" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B888" s="34">
         <v>7</v>
       </c>
-      <c r="C888" s="18" t="s">
-        <v>1932</v>
+      <c r="C888" s="30" t="s">
+        <v>1861</v>
       </c>
       <c r="D888" s="20" t="s">
-        <v>1913</v>
+        <v>1906</v>
       </c>
       <c r="E888" s="28" t="s">
         <v>22</v>
@@ -31165,21 +31163,19 @@
         <v>15</v>
       </c>
       <c r="H888" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I888" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I888" s="30"/>
     </row>
     <row r="889" spans="1:9" ht="45">
       <c r="A889" s="20" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B889" s="34">
         <v>7</v>
       </c>
-      <c r="C889" s="30" t="s">
-        <v>1861</v>
+      <c r="C889" s="18" t="s">
+        <v>1933</v>
       </c>
       <c r="D889" s="20" t="s">
         <v>1906</v>
@@ -31194,22 +31190,24 @@
         <v>15</v>
       </c>
       <c r="H889" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I889" s="30"/>
-    </row>
-    <row r="890" spans="1:9" ht="45">
+        <v>20</v>
+      </c>
+      <c r="I889" s="18" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="890" spans="1:9" ht="30">
       <c r="A890" s="20" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B890" s="34">
         <v>7</v>
       </c>
-      <c r="C890" s="18" t="s">
-        <v>1933</v>
+      <c r="C890" s="30" t="s">
+        <v>1862</v>
       </c>
       <c r="D890" s="20" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="E890" s="28" t="s">
         <v>22</v>
@@ -31221,25 +31219,21 @@
         <v>15</v>
       </c>
       <c r="H890" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I890" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I890" s="30"/>
     </row>
     <row r="891" spans="1:9" ht="30">
       <c r="A891" s="20" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B891" s="34">
         <v>7</v>
       </c>
-      <c r="C891" s="30" t="s">
-        <v>1862</v>
-      </c>
-      <c r="D891" s="20" t="s">
-        <v>1907</v>
-      </c>
+      <c r="C891" s="18" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D891" s="28"/>
       <c r="E891" s="28" t="s">
         <v>22</v>
       </c>
@@ -31247,7 +31241,7 @@
         <v>6</v>
       </c>
       <c r="G891" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H891" s="28" t="s">
         <v>18</v>
@@ -31256,63 +31250,63 @@
     </row>
     <row r="892" spans="1:9" ht="30">
       <c r="A892" s="20" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B892" s="34">
         <v>7</v>
       </c>
-      <c r="C892" s="18" t="s">
-        <v>2133</v>
+      <c r="C892" s="30" t="s">
+        <v>1863</v>
       </c>
       <c r="D892" s="28"/>
       <c r="E892" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F892" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G892" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H892" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I892" s="30"/>
     </row>
-    <row r="893" spans="1:9" ht="30">
+    <row r="893" spans="1:9" ht="60">
       <c r="A893" s="20" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B893" s="34">
         <v>7</v>
       </c>
       <c r="C893" s="30" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="D893" s="28"/>
       <c r="E893" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F893" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G893" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H893" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I893" s="30"/>
     </row>
-    <row r="894" spans="1:9" ht="60">
+    <row r="894" spans="1:9" ht="30">
       <c r="A894" s="20" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B894" s="34">
         <v>7</v>
       </c>
-      <c r="C894" s="30" t="s">
-        <v>1864</v>
+      <c r="C894" s="18" t="s">
+        <v>2131</v>
       </c>
       <c r="D894" s="28"/>
       <c r="E894" s="28" t="s">
@@ -31329,15 +31323,15 @@
       </c>
       <c r="I894" s="30"/>
     </row>
-    <row r="895" spans="1:9" ht="30">
+    <row r="895" spans="1:9" ht="45">
       <c r="A895" s="20" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B895" s="34">
         <v>7</v>
       </c>
-      <c r="C895" s="18" t="s">
-        <v>2134</v>
+      <c r="C895" s="30" t="s">
+        <v>1865</v>
       </c>
       <c r="D895" s="28"/>
       <c r="E895" s="28" t="s">
@@ -31354,15 +31348,15 @@
       </c>
       <c r="I895" s="30"/>
     </row>
-    <row r="896" spans="1:9" ht="45">
+    <row r="896" spans="1:9" ht="30">
       <c r="A896" s="20" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B896" s="34">
         <v>7</v>
       </c>
       <c r="C896" s="30" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="D896" s="28"/>
       <c r="E896" s="28" t="s">
@@ -31381,20 +31375,20 @@
     </row>
     <row r="897" spans="1:9" ht="30">
       <c r="A897" s="20" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B897" s="34">
         <v>7</v>
       </c>
       <c r="C897" s="30" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="D897" s="28"/>
       <c r="E897" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F897" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G897" s="28" t="s">
         <v>15</v>
@@ -31406,38 +31400,38 @@
     </row>
     <row r="898" spans="1:9" ht="30">
       <c r="A898" s="20" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B898" s="34">
         <v>7</v>
       </c>
       <c r="C898" s="30" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="D898" s="28"/>
       <c r="E898" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F898" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G898" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H898" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I898" s="30"/>
     </row>
     <row r="899" spans="1:9" ht="30">
       <c r="A899" s="20" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B899" s="34">
         <v>7</v>
       </c>
       <c r="C899" s="30" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="D899" s="28"/>
       <c r="E899" s="28" t="s">
@@ -31454,40 +31448,40 @@
       </c>
       <c r="I899" s="30"/>
     </row>
-    <row r="900" spans="1:9" ht="30">
+    <row r="900" spans="1:9" ht="225">
       <c r="A900" s="20" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B900" s="34">
         <v>7</v>
       </c>
-      <c r="C900" s="30" t="s">
-        <v>1869</v>
+      <c r="C900" s="18" t="s">
+        <v>2132</v>
       </c>
       <c r="D900" s="28"/>
       <c r="E900" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F900" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G900" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H900" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I900" s="30"/>
     </row>
-    <row r="901" spans="1:9" ht="225">
+    <row r="901" spans="1:9" ht="45">
       <c r="A901" s="20" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B901" s="34">
         <v>7</v>
       </c>
       <c r="C901" s="18" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="D901" s="28"/>
       <c r="E901" s="28" t="s">
@@ -31506,20 +31500,20 @@
     </row>
     <row r="902" spans="1:9" ht="45">
       <c r="A902" s="20" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B902" s="34">
         <v>7</v>
       </c>
-      <c r="C902" s="18" t="s">
-        <v>2136</v>
+      <c r="C902" s="30" t="s">
+        <v>1870</v>
       </c>
       <c r="D902" s="28"/>
       <c r="E902" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F902" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G902" s="28" t="s">
         <v>15</v>
@@ -31529,65 +31523,65 @@
       </c>
       <c r="I902" s="30"/>
     </row>
-    <row r="903" spans="1:9" ht="45">
-      <c r="A903" s="20" t="s">
-        <v>922</v>
+    <row r="903" spans="1:9" ht="30">
+      <c r="A903" s="28" t="s">
+        <v>923</v>
       </c>
       <c r="B903" s="34">
         <v>7</v>
       </c>
-      <c r="C903" s="30" t="s">
-        <v>1870</v>
+      <c r="C903" s="18" t="s">
+        <v>1871</v>
       </c>
       <c r="D903" s="28"/>
       <c r="E903" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F903" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G903" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H903" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I903" s="30"/>
     </row>
-    <row r="904" spans="1:9" ht="30">
-      <c r="A904" s="28" t="s">
-        <v>923</v>
-      </c>
-      <c r="B904" s="34">
-        <v>7</v>
-      </c>
-      <c r="C904" s="18" t="s">
-        <v>1871</v>
-      </c>
-      <c r="D904" s="28"/>
+    <row r="904" spans="1:9" ht="60">
+      <c r="A904" s="20" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B904" s="36" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C904" s="33" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D904" s="32"/>
       <c r="E904" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F904" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G904" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H904" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I904" s="30"/>
+      <c r="F904" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G904" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H904" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I904" s="33"/>
     </row>
     <row r="905" spans="1:9" ht="60">
       <c r="A905" s="20" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="B905" s="36" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
       <c r="C905" s="33" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="D905" s="32"/>
       <c r="E905" s="28" t="s">
@@ -31604,40 +31598,42 @@
       </c>
       <c r="I905" s="33"/>
     </row>
-    <row r="906" spans="1:9" ht="60">
+    <row r="906" spans="1:9" ht="30">
       <c r="A906" s="20" t="s">
-        <v>2141</v>
-      </c>
-      <c r="B906" s="36" t="s">
-        <v>2139</v>
-      </c>
-      <c r="C906" s="33" t="s">
-        <v>2138</v>
-      </c>
-      <c r="D906" s="32"/>
+        <v>924</v>
+      </c>
+      <c r="B906" s="34">
+        <v>7</v>
+      </c>
+      <c r="C906" s="30" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D906" s="20" t="s">
+        <v>1914</v>
+      </c>
       <c r="E906" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F906" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G906" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H906" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I906" s="33"/>
-    </row>
-    <row r="907" spans="1:9" ht="30">
+      <c r="F906" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G906" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H906" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I906" s="30"/>
+    </row>
+    <row r="907" spans="1:9" ht="45">
       <c r="A907" s="20" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B907" s="34">
         <v>7</v>
       </c>
-      <c r="C907" s="30" t="s">
-        <v>1872</v>
+      <c r="C907" s="18" t="s">
+        <v>1950</v>
       </c>
       <c r="D907" s="20" t="s">
         <v>1914</v>
@@ -31652,22 +31648,24 @@
         <v>15</v>
       </c>
       <c r="H907" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I907" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="I907" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="908" spans="1:9" ht="45">
       <c r="A908" s="20" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B908" s="34">
         <v>7</v>
       </c>
-      <c r="C908" s="18" t="s">
-        <v>1950</v>
+      <c r="C908" s="30" t="s">
+        <v>1873</v>
       </c>
       <c r="D908" s="20" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E908" s="28" t="s">
         <v>22</v>
@@ -31679,24 +31677,22 @@
         <v>15</v>
       </c>
       <c r="H908" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I908" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I908" s="30"/>
     </row>
     <row r="909" spans="1:9" ht="45">
       <c r="A909" s="20" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B909" s="34">
         <v>7</v>
       </c>
       <c r="C909" s="30" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="D909" s="20" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="E909" s="28" t="s">
         <v>22</v>
@@ -31713,16 +31709,16 @@
       <c r="I909" s="30"/>
     </row>
     <row r="910" spans="1:9" ht="45">
-      <c r="A910" s="20" t="s">
-        <v>927</v>
+      <c r="A910" s="28" t="s">
+        <v>928</v>
       </c>
       <c r="B910" s="34">
         <v>7</v>
       </c>
-      <c r="C910" s="30" t="s">
-        <v>1874</v>
-      </c>
-      <c r="D910" s="20" t="s">
+      <c r="C910" s="18" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D910" s="28" t="s">
         <v>1916</v>
       </c>
       <c r="E910" s="28" t="s">
@@ -31735,22 +31731,24 @@
         <v>15</v>
       </c>
       <c r="H910" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I910" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="I910" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="911" spans="1:9" ht="45">
       <c r="A911" s="28" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B911" s="34">
         <v>7</v>
       </c>
       <c r="C911" s="18" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="D911" s="28" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E911" s="28" t="s">
         <v>22</v>
@@ -31769,17 +31767,17 @@
       </c>
     </row>
     <row r="912" spans="1:9" ht="45">
-      <c r="A912" s="28" t="s">
-        <v>929</v>
+      <c r="A912" s="20" t="s">
+        <v>930</v>
       </c>
       <c r="B912" s="34">
         <v>7</v>
       </c>
-      <c r="C912" s="18" t="s">
-        <v>1935</v>
+      <c r="C912" s="30" t="s">
+        <v>1875</v>
       </c>
       <c r="D912" s="28" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="E912" s="28" t="s">
         <v>22</v>
@@ -31791,21 +31789,19 @@
         <v>15</v>
       </c>
       <c r="H912" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I912" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I912" s="30"/>
     </row>
     <row r="913" spans="1:9" ht="45">
-      <c r="A913" s="20" t="s">
-        <v>930</v>
+      <c r="A913" s="28" t="s">
+        <v>931</v>
       </c>
       <c r="B913" s="34">
         <v>7</v>
       </c>
-      <c r="C913" s="30" t="s">
-        <v>1875</v>
+      <c r="C913" s="18" t="s">
+        <v>1936</v>
       </c>
       <c r="D913" s="28" t="s">
         <v>1917</v>
@@ -31820,22 +31816,24 @@
         <v>15</v>
       </c>
       <c r="H913" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I913" s="30"/>
-    </row>
-    <row r="914" spans="1:9" ht="45">
+        <v>20</v>
+      </c>
+      <c r="I913" s="18" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="914" spans="1:9" ht="30">
       <c r="A914" s="28" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B914" s="34">
         <v>7</v>
       </c>
       <c r="C914" s="18" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="D914" s="28" t="s">
-        <v>1917</v>
+        <v>1907</v>
       </c>
       <c r="E914" s="28" t="s">
         <v>22</v>
@@ -31847,24 +31845,22 @@
         <v>15</v>
       </c>
       <c r="H914" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I914" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I914" s="18"/>
     </row>
     <row r="915" spans="1:9" ht="30">
-      <c r="A915" s="28" t="s">
-        <v>932</v>
+      <c r="A915" s="20" t="s">
+        <v>933</v>
       </c>
       <c r="B915" s="34">
         <v>7</v>
       </c>
-      <c r="C915" s="18" t="s">
-        <v>1937</v>
+      <c r="C915" s="30" t="s">
+        <v>1876</v>
       </c>
       <c r="D915" s="28" t="s">
-        <v>1907</v>
+        <v>1918</v>
       </c>
       <c r="E915" s="28" t="s">
         <v>22</v>
@@ -31878,17 +31874,17 @@
       <c r="H915" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I915" s="18"/>
-    </row>
-    <row r="916" spans="1:9" ht="30">
+      <c r="I915" s="30"/>
+    </row>
+    <row r="916" spans="1:9" ht="45">
       <c r="A916" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B916" s="34">
         <v>7</v>
       </c>
-      <c r="C916" s="30" t="s">
-        <v>1876</v>
+      <c r="C916" s="18" t="s">
+        <v>1938</v>
       </c>
       <c r="D916" s="28" t="s">
         <v>1918</v>
@@ -31903,22 +31899,24 @@
         <v>15</v>
       </c>
       <c r="H916" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I916" s="30"/>
-    </row>
-    <row r="917" spans="1:9" ht="45">
+        <v>20</v>
+      </c>
+      <c r="I916" s="18" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="917" spans="1:9" ht="30">
       <c r="A917" s="20" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B917" s="34">
         <v>7</v>
       </c>
-      <c r="C917" s="18" t="s">
-        <v>1938</v>
+      <c r="C917" s="30" t="s">
+        <v>1877</v>
       </c>
       <c r="D917" s="28" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="E917" s="28" t="s">
         <v>22</v>
@@ -31930,21 +31928,19 @@
         <v>15</v>
       </c>
       <c r="H917" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I917" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I917" s="30"/>
     </row>
     <row r="918" spans="1:9" ht="30">
-      <c r="A918" s="20" t="s">
-        <v>935</v>
+      <c r="A918" s="28" t="s">
+        <v>936</v>
       </c>
       <c r="B918" s="34">
         <v>7</v>
       </c>
       <c r="C918" s="30" t="s">
-        <v>1877</v>
+        <v>1939</v>
       </c>
       <c r="D918" s="28" t="s">
         <v>1919</v>
@@ -31961,20 +31957,20 @@
       <c r="H918" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I918" s="30"/>
+      <c r="I918" s="18"/>
     </row>
     <row r="919" spans="1:9" ht="30">
       <c r="A919" s="28" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B919" s="34">
         <v>7</v>
       </c>
       <c r="C919" s="30" t="s">
-        <v>1939</v>
+        <v>1878</v>
       </c>
       <c r="D919" s="28" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="E919" s="28" t="s">
         <v>22</v>
@@ -31988,17 +31984,17 @@
       <c r="H919" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I919" s="18"/>
+      <c r="I919" s="30"/>
     </row>
     <row r="920" spans="1:9" ht="30">
       <c r="A920" s="28" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B920" s="34">
         <v>7</v>
       </c>
       <c r="C920" s="30" t="s">
-        <v>1878</v>
+        <v>1940</v>
       </c>
       <c r="D920" s="28" t="s">
         <v>1920</v>
@@ -32019,16 +32015,16 @@
     </row>
     <row r="921" spans="1:9" ht="30">
       <c r="A921" s="28" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B921" s="34">
         <v>7</v>
       </c>
       <c r="C921" s="30" t="s">
-        <v>1940</v>
+        <v>1879</v>
       </c>
       <c r="D921" s="28" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="E921" s="28" t="s">
         <v>22</v>
@@ -32044,15 +32040,15 @@
       </c>
       <c r="I921" s="30"/>
     </row>
-    <row r="922" spans="1:9" ht="30">
+    <row r="922" spans="1:9" ht="45">
       <c r="A922" s="28" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B922" s="34">
         <v>7</v>
       </c>
-      <c r="C922" s="30" t="s">
-        <v>1879</v>
+      <c r="C922" s="18" t="s">
+        <v>1941</v>
       </c>
       <c r="D922" s="28" t="s">
         <v>1921</v>
@@ -32067,22 +32063,24 @@
         <v>15</v>
       </c>
       <c r="H922" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I922" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="I922" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="923" spans="1:9" ht="45">
       <c r="A923" s="28" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B923" s="34">
         <v>7</v>
       </c>
-      <c r="C923" s="18" t="s">
-        <v>1941</v>
+      <c r="C923" s="30" t="s">
+        <v>1880</v>
       </c>
       <c r="D923" s="28" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="E923" s="28" t="s">
         <v>22</v>
@@ -32094,21 +32092,19 @@
         <v>15</v>
       </c>
       <c r="H923" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I923" s="18" t="s">
-        <v>1986</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I923" s="30"/>
     </row>
     <row r="924" spans="1:9" ht="45">
       <c r="A924" s="28" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B924" s="34">
         <v>7</v>
       </c>
-      <c r="C924" s="30" t="s">
-        <v>1880</v>
+      <c r="C924" s="18" t="s">
+        <v>1942</v>
       </c>
       <c r="D924" s="28" t="s">
         <v>1922</v>
@@ -32123,22 +32119,24 @@
         <v>15</v>
       </c>
       <c r="H924" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I924" s="30"/>
-    </row>
-    <row r="925" spans="1:9" ht="45">
+        <v>20</v>
+      </c>
+      <c r="I924" s="18" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="925" spans="1:9" ht="30">
       <c r="A925" s="28" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B925" s="34">
         <v>7</v>
       </c>
-      <c r="C925" s="18" t="s">
-        <v>1942</v>
+      <c r="C925" s="30" t="s">
+        <v>1881</v>
       </c>
       <c r="D925" s="28" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="E925" s="28" t="s">
         <v>22</v>
@@ -32150,21 +32148,19 @@
         <v>15</v>
       </c>
       <c r="H925" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I925" s="18" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="926" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I925" s="30"/>
+    </row>
+    <row r="926" spans="1:9" ht="45">
       <c r="A926" s="28" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B926" s="34">
         <v>7</v>
       </c>
-      <c r="C926" s="30" t="s">
-        <v>1881</v>
+      <c r="C926" s="18" t="s">
+        <v>1943</v>
       </c>
       <c r="D926" s="28" t="s">
         <v>1923</v>
@@ -32179,22 +32175,24 @@
         <v>15</v>
       </c>
       <c r="H926" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I926" s="30"/>
-    </row>
-    <row r="927" spans="1:9" ht="45">
-      <c r="A927" s="28" t="s">
-        <v>944</v>
+        <v>20</v>
+      </c>
+      <c r="I926" s="18" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="927" spans="1:9" ht="30">
+      <c r="A927" s="20" t="s">
+        <v>945</v>
       </c>
       <c r="B927" s="34">
         <v>7</v>
       </c>
-      <c r="C927" s="18" t="s">
-        <v>1943</v>
+      <c r="C927" s="30" t="s">
+        <v>1882</v>
       </c>
       <c r="D927" s="28" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="E927" s="28" t="s">
         <v>22</v>
@@ -32206,21 +32204,19 @@
         <v>15</v>
       </c>
       <c r="H927" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I927" s="18" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="928" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I927" s="30"/>
+    </row>
+    <row r="928" spans="1:9" ht="45">
       <c r="A928" s="20" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B928" s="34">
         <v>7</v>
       </c>
-      <c r="C928" s="30" t="s">
-        <v>1882</v>
+      <c r="C928" s="18" t="s">
+        <v>1944</v>
       </c>
       <c r="D928" s="28" t="s">
         <v>1924</v>
@@ -32235,22 +32231,24 @@
         <v>15</v>
       </c>
       <c r="H928" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I928" s="30"/>
-    </row>
-    <row r="929" spans="1:9" ht="45">
-      <c r="A929" s="20" t="s">
-        <v>946</v>
+        <v>20</v>
+      </c>
+      <c r="I928" s="18" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="929" spans="1:9" ht="30">
+      <c r="A929" s="28" t="s">
+        <v>947</v>
       </c>
       <c r="B929" s="34">
         <v>7</v>
       </c>
-      <c r="C929" s="18" t="s">
-        <v>1944</v>
+      <c r="C929" s="30" t="s">
+        <v>1883</v>
       </c>
       <c r="D929" s="28" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="E929" s="28" t="s">
         <v>22</v>
@@ -32262,21 +32260,19 @@
         <v>15</v>
       </c>
       <c r="H929" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I929" s="18" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="930" spans="1:9" ht="30">
-      <c r="A930" s="28" t="s">
-        <v>947</v>
+        <v>18</v>
+      </c>
+      <c r="I929" s="30"/>
+    </row>
+    <row r="930" spans="1:9" ht="45">
+      <c r="A930" s="20" t="s">
+        <v>948</v>
       </c>
       <c r="B930" s="34">
         <v>7</v>
       </c>
-      <c r="C930" s="30" t="s">
-        <v>1883</v>
+      <c r="C930" s="18" t="s">
+        <v>1945</v>
       </c>
       <c r="D930" s="28" t="s">
         <v>1925</v>
@@ -32291,22 +32287,24 @@
         <v>15</v>
       </c>
       <c r="H930" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I930" s="30"/>
-    </row>
-    <row r="931" spans="1:9" ht="45">
+        <v>20</v>
+      </c>
+      <c r="I930" s="18" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9" ht="30">
       <c r="A931" s="20" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B931" s="34">
         <v>7</v>
       </c>
-      <c r="C931" s="18" t="s">
-        <v>1945</v>
+      <c r="C931" s="30" t="s">
+        <v>1884</v>
       </c>
       <c r="D931" s="28" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="E931" s="28" t="s">
         <v>22</v>
@@ -32318,21 +32316,19 @@
         <v>15</v>
       </c>
       <c r="H931" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I931" s="18" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="932" spans="1:9" ht="30">
-      <c r="A932" s="20" t="s">
-        <v>949</v>
+        <v>18</v>
+      </c>
+      <c r="I931" s="30"/>
+    </row>
+    <row r="932" spans="1:9" ht="45">
+      <c r="A932" s="28" t="s">
+        <v>950</v>
       </c>
       <c r="B932" s="34">
         <v>7</v>
       </c>
-      <c r="C932" s="30" t="s">
-        <v>1884</v>
+      <c r="C932" s="18" t="s">
+        <v>1946</v>
       </c>
       <c r="D932" s="28" t="s">
         <v>1926</v>
@@ -32347,22 +32343,24 @@
         <v>15</v>
       </c>
       <c r="H932" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I932" s="30"/>
-    </row>
-    <row r="933" spans="1:9" ht="45">
-      <c r="A933" s="28" t="s">
-        <v>950</v>
+        <v>20</v>
+      </c>
+      <c r="I932" s="18" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="933" spans="1:9" ht="30">
+      <c r="A933" s="20" t="s">
+        <v>951</v>
       </c>
       <c r="B933" s="34">
         <v>7</v>
       </c>
-      <c r="C933" s="18" t="s">
-        <v>1946</v>
+      <c r="C933" s="30" t="s">
+        <v>1885</v>
       </c>
       <c r="D933" s="28" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="E933" s="28" t="s">
         <v>22</v>
@@ -32374,21 +32372,19 @@
         <v>15</v>
       </c>
       <c r="H933" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I933" s="18" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="934" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I933" s="30"/>
+    </row>
+    <row r="934" spans="1:9" ht="45">
       <c r="A934" s="20" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B934" s="34">
         <v>7</v>
       </c>
-      <c r="C934" s="30" t="s">
-        <v>1885</v>
+      <c r="C934" s="18" t="s">
+        <v>1947</v>
       </c>
       <c r="D934" s="28" t="s">
         <v>1927</v>
@@ -32403,75 +32399,77 @@
         <v>15</v>
       </c>
       <c r="H934" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I934" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="I934" s="18" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="935" spans="1:9" ht="45">
-      <c r="A935" s="20" t="s">
-        <v>952</v>
-      </c>
-      <c r="B935" s="34">
+      <c r="A935" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B935" s="35">
         <v>7</v>
       </c>
-      <c r="C935" s="18" t="s">
-        <v>1947</v>
-      </c>
-      <c r="D935" s="28" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E935" s="28" t="s">
+      <c r="C935" s="33" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D935" s="32" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E935" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F935" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G935" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H935" s="28" t="s">
+      <c r="F935" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G935" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H935" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I935" s="18" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="936" spans="1:9" ht="45">
-      <c r="A936" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="B936" s="35">
+      <c r="I935" s="33"/>
+    </row>
+    <row r="936" spans="1:9" ht="75">
+      <c r="A936" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B936" s="34">
         <v>7</v>
       </c>
-      <c r="C936" s="33" t="s">
-        <v>1987</v>
-      </c>
-      <c r="D936" s="32" t="s">
-        <v>1888</v>
+      <c r="C936" s="18" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D936" s="20" t="s">
+        <v>1988</v>
       </c>
       <c r="E936" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F936" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G936" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H936" s="32" t="s">
+      <c r="F936" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G936" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H936" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I936" s="33"/>
-    </row>
-    <row r="937" spans="1:9" ht="75">
+      <c r="I936" s="18" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9" ht="60">
       <c r="A937" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B937" s="34">
         <v>7</v>
       </c>
       <c r="C937" s="18" t="s">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="D937" s="20" t="s">
         <v>1988</v>
@@ -32492,15 +32490,15 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="938" spans="1:9" ht="60">
+    <row r="938" spans="1:9" ht="75">
       <c r="A938" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B938" s="34">
         <v>7</v>
       </c>
       <c r="C938" s="18" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="D938" s="20" t="s">
         <v>1988</v>
@@ -32523,13 +32521,13 @@
     </row>
     <row r="939" spans="1:9" ht="75">
       <c r="A939" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B939" s="34">
         <v>7</v>
       </c>
       <c r="C939" s="18" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D939" s="20" t="s">
         <v>1988</v>
@@ -32550,47 +32548,47 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="940" spans="1:9" ht="75">
-      <c r="A940" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="B940" s="34">
+    <row r="940" spans="1:9" ht="150">
+      <c r="A940" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="B940" s="35">
         <v>7</v>
       </c>
-      <c r="C940" s="18" t="s">
-        <v>1995</v>
-      </c>
-      <c r="D940" s="20" t="s">
-        <v>1988</v>
+      <c r="C940" s="33" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D940" s="32" t="s">
+        <v>1889</v>
       </c>
       <c r="E940" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F940" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G940" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H940" s="20" t="s">
+      <c r="F940" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G940" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H940" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I940" s="18" t="s">
+      <c r="I940" s="33" t="s">
         <v>1986</v>
       </c>
     </row>
-    <row r="941" spans="1:9" ht="150">
+    <row r="941" spans="1:9" ht="120">
       <c r="A941" s="32" t="s">
-        <v>460</v>
+        <v>539</v>
       </c>
       <c r="B941" s="35">
         <v>7</v>
       </c>
       <c r="C941" s="33" t="s">
-        <v>1955</v>
+        <v>1534</v>
       </c>
       <c r="D941" s="32" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="E941" s="32" t="s">
         <v>22</v>
@@ -32602,24 +32600,22 @@
         <v>15</v>
       </c>
       <c r="H941" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I941" s="33" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="942" spans="1:9" ht="120">
+        <v>18</v>
+      </c>
+      <c r="I941" s="33"/>
+    </row>
+    <row r="942" spans="1:9" ht="135">
       <c r="A942" s="32" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="B942" s="35">
         <v>7</v>
       </c>
       <c r="C942" s="33" t="s">
-        <v>1534</v>
+        <v>1948</v>
       </c>
       <c r="D942" s="32" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="E942" s="32" t="s">
         <v>22</v>
@@ -32631,22 +32627,24 @@
         <v>15</v>
       </c>
       <c r="H942" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I942" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="I942" s="33" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="943" spans="1:9" ht="135">
       <c r="A943" s="32" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B943" s="35">
         <v>7</v>
       </c>
       <c r="C943" s="33" t="s">
-        <v>1948</v>
+        <v>1905</v>
       </c>
       <c r="D943" s="32" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="E943" s="32" t="s">
         <v>22</v>
@@ -32664,18 +32662,18 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="944" spans="1:9" ht="135">
+    <row r="944" spans="1:9" ht="150">
       <c r="A944" s="32" t="s">
-        <v>568</v>
+        <v>660</v>
       </c>
       <c r="B944" s="35">
         <v>7</v>
       </c>
       <c r="C944" s="33" t="s">
-        <v>1905</v>
+        <v>1644</v>
       </c>
       <c r="D944" s="32" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="E944" s="32" t="s">
         <v>22</v>
@@ -32693,18 +32691,18 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="945" spans="1:9" ht="150">
+    <row r="945" spans="1:9" ht="90">
       <c r="A945" s="32" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="B945" s="35">
         <v>7</v>
       </c>
       <c r="C945" s="33" t="s">
-        <v>1644</v>
+        <v>1669</v>
       </c>
       <c r="D945" s="32" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="E945" s="32" t="s">
         <v>22</v>
@@ -32718,22 +32716,20 @@
       <c r="H945" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I945" s="33" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="946" spans="1:9" ht="90">
+      <c r="I945" s="33"/>
+    </row>
+    <row r="946" spans="1:9" ht="60">
       <c r="A946" s="32" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B946" s="35">
         <v>7</v>
       </c>
       <c r="C946" s="33" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="D946" s="32" t="s">
-        <v>1896</v>
+        <v>1991</v>
       </c>
       <c r="E946" s="32" t="s">
         <v>22</v>
@@ -32747,17 +32743,19 @@
       <c r="H946" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I946" s="33"/>
+      <c r="I946" s="33" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="947" spans="1:9" ht="60">
       <c r="A947" s="32" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B947" s="35">
         <v>7</v>
       </c>
       <c r="C947" s="33" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="D947" s="32" t="s">
         <v>1991</v>
@@ -32780,13 +32778,13 @@
     </row>
     <row r="948" spans="1:9" ht="60">
       <c r="A948" s="32" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B948" s="35">
         <v>7</v>
       </c>
       <c r="C948" s="33" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="D948" s="32" t="s">
         <v>1991</v>
@@ -32807,18 +32805,18 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="949" spans="1:9" ht="60">
+    <row r="949" spans="1:9" ht="150">
       <c r="A949" s="32" t="s">
-        <v>691</v>
+        <v>766</v>
       </c>
       <c r="B949" s="35">
         <v>7</v>
       </c>
       <c r="C949" s="33" t="s">
-        <v>1672</v>
+        <v>1956</v>
       </c>
       <c r="D949" s="32" t="s">
-        <v>1991</v>
+        <v>1897</v>
       </c>
       <c r="E949" s="32" t="s">
         <v>22</v>
@@ -32838,13 +32836,13 @@
     </row>
     <row r="950" spans="1:9" ht="150">
       <c r="A950" s="32" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B950" s="35">
         <v>7</v>
       </c>
       <c r="C950" s="33" t="s">
-        <v>1956</v>
+        <v>1741</v>
       </c>
       <c r="D950" s="32" t="s">
         <v>1897</v>
@@ -32867,13 +32865,13 @@
     </row>
     <row r="951" spans="1:9" ht="150">
       <c r="A951" s="32" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B951" s="35">
         <v>7</v>
       </c>
       <c r="C951" s="33" t="s">
-        <v>1741</v>
+        <v>1949</v>
       </c>
       <c r="D951" s="32" t="s">
         <v>1897</v>
@@ -32894,15 +32892,15 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="952" spans="1:9" ht="150">
+    <row r="952" spans="1:9" ht="165">
       <c r="A952" s="32" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B952" s="35">
         <v>7</v>
       </c>
       <c r="C952" s="33" t="s">
-        <v>1949</v>
+        <v>1742</v>
       </c>
       <c r="D952" s="32" t="s">
         <v>1897</v>
@@ -32923,15 +32921,15 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="953" spans="1:9" ht="165">
+    <row r="953" spans="1:9" ht="150">
       <c r="A953" s="32" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B953" s="35">
         <v>7</v>
       </c>
       <c r="C953" s="33" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="D953" s="32" t="s">
         <v>1897</v>
@@ -32952,42 +32950,8 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="954" spans="1:9" ht="150">
-      <c r="A954" s="32" t="s">
-        <v>770</v>
-      </c>
-      <c r="B954" s="35">
-        <v>7</v>
-      </c>
-      <c r="C954" s="33" t="s">
-        <v>1743</v>
-      </c>
-      <c r="D954" s="32" t="s">
-        <v>1897</v>
-      </c>
-      <c r="E954" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F954" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G954" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H954" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I954" s="33" t="s">
-        <v>1986</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -32995,105 +32959,110 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A687:B687 E937:E940 D687:I687 A876:H876 A941:I954 A20:I686 I667:I876 A688:I875 A877:I936">
-    <cfRule type="expression" dxfId="40" priority="85">
+  <conditionalFormatting sqref="A687:B687 E936:E939 D687:I687 A875:H875 A940:I953 A20:I686 A876:I935 I667:I875 A688:I874">
+    <cfRule type="expression" dxfId="21" priority="85">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="86">
+    <cfRule type="expression" dxfId="20" priority="86">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="93">
+    <cfRule type="expression" dxfId="19" priority="93">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A687:B687 E937:E940 D687:I687 A876:H876 A941:I954 A20:I686 I667:I876 A688:I875 A877:I936">
-    <cfRule type="expression" dxfId="37" priority="39">
+  <conditionalFormatting sqref="A687:B687 E936:E939 D687:I687 A875:H875 A940:I953 A20:I686 A876:I935 I667:I875 A688:I874">
+    <cfRule type="expression" dxfId="18" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="40">
+    <cfRule type="expression" dxfId="17" priority="40">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="41">
+    <cfRule type="expression" dxfId="16" priority="41">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F941:F954 F20:F936">
-    <cfRule type="expression" dxfId="34" priority="45">
+  <conditionalFormatting sqref="F940:F953 F20:F935">
+    <cfRule type="expression" dxfId="15" priority="45">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="46">
+    <cfRule type="expression" dxfId="14" priority="46">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C687">
-    <cfRule type="expression" dxfId="32" priority="24">
+    <cfRule type="expression" dxfId="13" priority="24">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="12" priority="25">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="11" priority="26">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C687">
-    <cfRule type="expression" dxfId="29" priority="21">
+    <cfRule type="expression" dxfId="10" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="22">
+    <cfRule type="expression" dxfId="9" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="23">
+    <cfRule type="expression" dxfId="8" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A937:D940 F937:I940">
-    <cfRule type="expression" dxfId="26" priority="18">
+  <conditionalFormatting sqref="A936:D939 F936:I939">
+    <cfRule type="expression" dxfId="7" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="6" priority="19">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="5" priority="20">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A937:D940 F937:I940">
-    <cfRule type="expression" dxfId="23" priority="13">
+  <conditionalFormatting sqref="A936:D939 F936:I939">
+    <cfRule type="expression" dxfId="4" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F937:F940">
-    <cfRule type="expression" dxfId="20" priority="16">
-      <formula>NOT(VLOOKUP(F937,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F936:F939">
+    <cfRule type="expression" dxfId="1" priority="16">
+      <formula>NOT(VLOOKUP(F936,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="17">
-      <formula>(VLOOKUP(F937,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>(VLOOKUP(F936,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F954">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F953">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E954">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E953">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G954">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G953">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H954">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H953">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
   </dataValidations>
@@ -33103,7 +33072,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 B18:B27 C3 B10:B16 B28:B180 B182:B189 B191:B233 B235:B336 B338:B497 B499:B502 B506:B509 B513:B590 B592:B715 B721:B736 B738:B775 B777:B837 B907:B954 B839:B904" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 B18:B27 C3 B10:B16 B28:B180 B182:B189 B191:B233 B235:B336 B338:B497 B499:B502 B506:B509 B513:B590 B592:B715 B720:B735 B737:B774 B776:B836 B906:B953 B838:B903" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -33119,6 +33088,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -33167,15 +33145,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
@@ -33191,6 +33160,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33203,12 +33180,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-WEBSS/MS-WEBSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-WEBSS/MS-WEBSS_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source Depot\Repos\Interop-TestSuites-1\SharePoint\Docs\MS-WEBSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SHAREPOINT\SharePoint\Docs\MS-WEBSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7676,14 +7676,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="0.0.0"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7884,12 +7884,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7922,7 +7922,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8004,124 +8004,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8460,6 +8342,124 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8589,34 +8589,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I953" tableType="xml" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I953" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I953"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="38">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="37">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="36">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="35">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="34">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="33">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="32">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="31">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="30">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8625,12 +8625,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="24"/>
-    <tableColumn id="2" name="Test" dataDxfId="23"/>
-    <tableColumn id="3" name="Description" dataDxfId="22"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8962,9 +8962,9 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.25" style="9" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="9" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
     <col min="3" max="3" width="85" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.625" style="2" customWidth="1"/>
@@ -8977,7 +8977,7 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>1953</v>
       </c>
@@ -8987,7 +8987,7 @@
       <c r="F1" s="3"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1954</v>
       </c>
@@ -8998,7 +8998,7 @@
       <c r="F2" s="23"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
@@ -9013,7 +9013,7 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="21">
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>24</v>
       </c>
@@ -9025,7 +9025,7 @@
       <c r="G4" s="37"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
@@ -9041,7 +9041,7 @@
       <c r="I5" s="41"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
@@ -9057,7 +9057,7 @@
       <c r="I6" s="39"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
@@ -9073,7 +9073,7 @@
       <c r="I7" s="38"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -9089,7 +9089,7 @@
       <c r="I8" s="38"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
@@ -9105,7 +9105,7 @@
       <c r="I9" s="47"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -9121,7 +9121,7 @@
       <c r="I10" s="47"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -9137,7 +9137,7 @@
       <c r="I11" s="42"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
@@ -9155,7 +9155,7 @@
       <c r="I12" s="43"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>6</v>
       </c>
@@ -9173,7 +9173,7 @@
       <c r="I13" s="44"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>7</v>
       </c>
@@ -9191,7 +9191,7 @@
       <c r="I14" s="44"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>3</v>
       </c>
@@ -9209,7 +9209,7 @@
       <c r="I15" s="45"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -9225,7 +9225,7 @@
       <c r="I16" s="42"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
@@ -9241,7 +9241,7 @@
       <c r="I17" s="49"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
@@ -9258,7 +9258,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="30">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
@@ -9288,7 +9288,7 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:12" s="21" customFormat="1">
+    <row r="20" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
         <v>43</v>
       </c>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="21" spans="1:12" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
         <v>44</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="21" customFormat="1">
+    <row r="22" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="20" t="s">
         <v>46</v>
       </c>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="I22" s="22"/>
     </row>
-    <row r="23" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="23" spans="1:12" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A23" s="20" t="s">
         <v>47</v>
       </c>
@@ -9390,7 +9390,7 @@
       </c>
       <c r="I23" s="22"/>
     </row>
-    <row r="24" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="24" spans="1:12" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A24" s="20" t="s">
         <v>48</v>
       </c>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="25" spans="1:12" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="s">
         <v>49</v>
       </c>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="I25" s="22"/>
     </row>
-    <row r="26" spans="1:12" s="21" customFormat="1">
+    <row r="26" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="20" t="s">
         <v>50</v>
       </c>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="I26" s="22"/>
     </row>
-    <row r="27" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="27" spans="1:12" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
         <v>51</v>
       </c>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="I27" s="22"/>
     </row>
-    <row r="28" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="28" spans="1:12" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
         <v>52</v>
       </c>
@@ -9515,7 +9515,7 @@
       </c>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:12" s="21" customFormat="1" ht="45">
+    <row r="29" spans="1:12" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
         <v>53</v>
       </c>
@@ -9540,7 +9540,7 @@
       </c>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="30" spans="1:12" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A30" s="20" t="s">
         <v>54</v>
       </c>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:12" s="21" customFormat="1">
+    <row r="31" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
         <v>55</v>
       </c>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="32" spans="1:12" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
         <v>56</v>
       </c>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="I32" s="30"/>
     </row>
-    <row r="33" spans="1:9" ht="45">
+    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>57</v>
       </c>
@@ -9640,7 +9640,7 @@
       </c>
       <c r="I33" s="30"/>
     </row>
-    <row r="34" spans="1:9" ht="30">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>58</v>
       </c>
@@ -9665,7 +9665,7 @@
       </c>
       <c r="I34" s="30"/>
     </row>
-    <row r="35" spans="1:9" ht="30">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>59</v>
       </c>
@@ -9690,7 +9690,7 @@
       </c>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="1:9" ht="30">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>60</v>
       </c>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="I36" s="30"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>61</v>
       </c>
@@ -9740,7 +9740,7 @@
       </c>
       <c r="I37" s="30"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>62</v>
       </c>
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I38" s="30"/>
     </row>
-    <row r="39" spans="1:9" ht="30">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>63</v>
       </c>
@@ -9790,7 +9790,7 @@
       </c>
       <c r="I39" s="30"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>64</v>
       </c>
@@ -9815,7 +9815,7 @@
       </c>
       <c r="I40" s="30"/>
     </row>
-    <row r="41" spans="1:9" ht="30">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>65</v>
       </c>
@@ -9840,7 +9840,7 @@
       </c>
       <c r="I41" s="30"/>
     </row>
-    <row r="42" spans="1:9" ht="30">
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>66</v>
       </c>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I42" s="30"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>67</v>
       </c>
@@ -9890,7 +9890,7 @@
       </c>
       <c r="I43" s="30"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>68</v>
       </c>
@@ -9915,7 +9915,7 @@
       </c>
       <c r="I44" s="30"/>
     </row>
-    <row r="45" spans="1:9" ht="150">
+    <row r="45" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>69</v>
       </c>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="I45" s="30"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>70</v>
       </c>
@@ -9965,7 +9965,7 @@
       </c>
       <c r="I46" s="30"/>
     </row>
-    <row r="47" spans="1:9" ht="30">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>71</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>72</v>
       </c>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="I48" s="30"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>73</v>
       </c>
@@ -10042,7 +10042,7 @@
       </c>
       <c r="I49" s="30"/>
     </row>
-    <row r="50" spans="1:9" ht="195">
+    <row r="50" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>74</v>
       </c>
@@ -10067,7 +10067,7 @@
       </c>
       <c r="I50" s="30"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>75</v>
       </c>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="I51" s="30"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>76</v>
       </c>
@@ -10117,7 +10117,7 @@
       </c>
       <c r="I52" s="30"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>77</v>
       </c>
@@ -10142,7 +10142,7 @@
       </c>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
         <v>78</v>
       </c>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="I54" s="30"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>79</v>
       </c>
@@ -10192,7 +10192,7 @@
       </c>
       <c r="I55" s="18"/>
     </row>
-    <row r="56" spans="1:9" ht="30">
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>80</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="30">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
         <v>81</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
         <v>82</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="30">
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
         <v>83</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="30">
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
         <v>84</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="30">
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
         <v>85</v>
       </c>
@@ -10352,7 +10352,7 @@
       </c>
       <c r="I61" s="30"/>
     </row>
-    <row r="62" spans="1:9" ht="30">
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
         <v>86</v>
       </c>
@@ -10377,7 +10377,7 @@
       </c>
       <c r="I62" s="30"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
         <v>87</v>
       </c>
@@ -10402,7 +10402,7 @@
       </c>
       <c r="I63" s="30"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
         <v>88</v>
       </c>
@@ -10427,7 +10427,7 @@
       </c>
       <c r="I64" s="30"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
         <v>89</v>
       </c>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I65" s="30"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
         <v>90</v>
       </c>
@@ -10477,7 +10477,7 @@
       </c>
       <c r="I66" s="18"/>
     </row>
-    <row r="67" spans="1:9" ht="90">
+    <row r="67" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
         <v>91</v>
       </c>
@@ -10502,7 +10502,7 @@
       </c>
       <c r="I67" s="18"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
         <v>92</v>
       </c>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="I68" s="18"/>
     </row>
-    <row r="69" spans="1:9" ht="90">
+    <row r="69" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
         <v>93</v>
       </c>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="I69" s="18"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
         <v>94</v>
       </c>
@@ -10577,7 +10577,7 @@
       </c>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="1:9" ht="75">
+    <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
         <v>95</v>
       </c>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
         <v>96</v>
       </c>
@@ -10627,7 +10627,7 @@
       </c>
       <c r="I72" s="30"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
         <v>97</v>
       </c>
@@ -10652,7 +10652,7 @@
       </c>
       <c r="I73" s="30"/>
     </row>
-    <row r="74" spans="1:9" ht="30">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
         <v>98</v>
       </c>
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I74" s="30"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
         <v>99</v>
       </c>
@@ -10702,7 +10702,7 @@
       </c>
       <c r="I75" s="30"/>
     </row>
-    <row r="76" spans="1:9" ht="30">
+    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
         <v>100</v>
       </c>
@@ -10727,7 +10727,7 @@
       </c>
       <c r="I76" s="30"/>
     </row>
-    <row r="77" spans="1:9" ht="45">
+    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
         <v>101</v>
       </c>
@@ -10752,7 +10752,7 @@
       </c>
       <c r="I77" s="30"/>
     </row>
-    <row r="78" spans="1:9" ht="30">
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
         <v>102</v>
       </c>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I78" s="30"/>
     </row>
-    <row r="79" spans="1:9" ht="30">
+    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
         <v>103</v>
       </c>
@@ -10802,7 +10802,7 @@
       </c>
       <c r="I79" s="30"/>
     </row>
-    <row r="80" spans="1:9" ht="60">
+    <row r="80" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
         <v>104</v>
       </c>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="I80" s="30"/>
     </row>
-    <row r="81" spans="1:9" ht="30">
+    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
         <v>105</v>
       </c>
@@ -10852,7 +10852,7 @@
       </c>
       <c r="I81" s="30"/>
     </row>
-    <row r="82" spans="1:9" ht="45">
+    <row r="82" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
         <v>106</v>
       </c>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="I82" s="30"/>
     </row>
-    <row r="83" spans="1:9" ht="30">
+    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="28" t="s">
         <v>107</v>
       </c>
@@ -10902,7 +10902,7 @@
       </c>
       <c r="I83" s="30"/>
     </row>
-    <row r="84" spans="1:9" ht="30">
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
         <v>108</v>
       </c>
@@ -10927,7 +10927,7 @@
       </c>
       <c r="I84" s="30"/>
     </row>
-    <row r="85" spans="1:9" ht="30">
+    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
         <v>109</v>
       </c>
@@ -10952,7 +10952,7 @@
       </c>
       <c r="I85" s="30"/>
     </row>
-    <row r="86" spans="1:9" ht="30">
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
         <v>110</v>
       </c>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="I86" s="30"/>
     </row>
-    <row r="87" spans="1:9" ht="30">
+    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
         <v>111</v>
       </c>
@@ -11002,7 +11002,7 @@
       </c>
       <c r="I87" s="30"/>
     </row>
-    <row r="88" spans="1:9" ht="30">
+    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
         <v>112</v>
       </c>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="I88" s="30"/>
     </row>
-    <row r="89" spans="1:9" ht="30">
+    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
         <v>113</v>
       </c>
@@ -11052,7 +11052,7 @@
       </c>
       <c r="I89" s="30"/>
     </row>
-    <row r="90" spans="1:9" ht="30">
+    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
         <v>114</v>
       </c>
@@ -11077,7 +11077,7 @@
       </c>
       <c r="I90" s="30"/>
     </row>
-    <row r="91" spans="1:9" ht="30">
+    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
         <v>115</v>
       </c>
@@ -11102,7 +11102,7 @@
       </c>
       <c r="I91" s="30"/>
     </row>
-    <row r="92" spans="1:9" ht="45">
+    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
         <v>116</v>
       </c>
@@ -11127,7 +11127,7 @@
       </c>
       <c r="I92" s="18"/>
     </row>
-    <row r="93" spans="1:9" ht="30">
+    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="28" t="s">
         <v>117</v>
       </c>
@@ -11152,7 +11152,7 @@
       </c>
       <c r="I93" s="30"/>
     </row>
-    <row r="94" spans="1:9" ht="30">
+    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
         <v>118</v>
       </c>
@@ -11177,7 +11177,7 @@
       </c>
       <c r="I94" s="30"/>
     </row>
-    <row r="95" spans="1:9" ht="30">
+    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="28" t="s">
         <v>119</v>
       </c>
@@ -11202,7 +11202,7 @@
       </c>
       <c r="I95" s="30"/>
     </row>
-    <row r="96" spans="1:9" ht="30">
+    <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="28" t="s">
         <v>120</v>
       </c>
@@ -11227,7 +11227,7 @@
       </c>
       <c r="I96" s="30"/>
     </row>
-    <row r="97" spans="1:9" ht="45">
+    <row r="97" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
         <v>121</v>
       </c>
@@ -11252,7 +11252,7 @@
       </c>
       <c r="I97" s="30"/>
     </row>
-    <row r="98" spans="1:9" ht="30">
+    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
         <v>122</v>
       </c>
@@ -11277,7 +11277,7 @@
       </c>
       <c r="I98" s="30"/>
     </row>
-    <row r="99" spans="1:9" ht="30">
+    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
         <v>123</v>
       </c>
@@ -11302,7 +11302,7 @@
       </c>
       <c r="I99" s="30"/>
     </row>
-    <row r="100" spans="1:9" ht="30">
+    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="28" t="s">
         <v>124</v>
       </c>
@@ -11327,7 +11327,7 @@
       </c>
       <c r="I100" s="30"/>
     </row>
-    <row r="101" spans="1:9" ht="30">
+    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="28" t="s">
         <v>125</v>
       </c>
@@ -11352,7 +11352,7 @@
       </c>
       <c r="I101" s="30"/>
     </row>
-    <row r="102" spans="1:9" ht="30">
+    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="28" t="s">
         <v>126</v>
       </c>
@@ -11377,7 +11377,7 @@
       </c>
       <c r="I102" s="30"/>
     </row>
-    <row r="103" spans="1:9" ht="45">
+    <row r="103" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="28" t="s">
         <v>127</v>
       </c>
@@ -11402,7 +11402,7 @@
       </c>
       <c r="I103" s="30"/>
     </row>
-    <row r="104" spans="1:9" ht="30">
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="28" t="s">
         <v>128</v>
       </c>
@@ -11427,7 +11427,7 @@
       </c>
       <c r="I104" s="30"/>
     </row>
-    <row r="105" spans="1:9" ht="45">
+    <row r="105" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
         <v>129</v>
       </c>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="I105" s="30"/>
     </row>
-    <row r="106" spans="1:9" ht="45">
+    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="28" t="s">
         <v>130</v>
       </c>
@@ -11477,7 +11477,7 @@
       </c>
       <c r="I106" s="30"/>
     </row>
-    <row r="107" spans="1:9" ht="45">
+    <row r="107" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="28" t="s">
         <v>131</v>
       </c>
@@ -11502,7 +11502,7 @@
       </c>
       <c r="I107" s="30"/>
     </row>
-    <row r="108" spans="1:9" ht="45">
+    <row r="108" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="28" t="s">
         <v>132</v>
       </c>
@@ -11527,7 +11527,7 @@
       </c>
       <c r="I108" s="30"/>
     </row>
-    <row r="109" spans="1:9" ht="45">
+    <row r="109" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="28" t="s">
         <v>133</v>
       </c>
@@ -11552,7 +11552,7 @@
       </c>
       <c r="I109" s="30"/>
     </row>
-    <row r="110" spans="1:9" ht="45">
+    <row r="110" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="28" t="s">
         <v>134</v>
       </c>
@@ -11577,7 +11577,7 @@
       </c>
       <c r="I110" s="30"/>
     </row>
-    <row r="111" spans="1:9" ht="45">
+    <row r="111" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="28" t="s">
         <v>135</v>
       </c>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="I111" s="30"/>
     </row>
-    <row r="112" spans="1:9" ht="45">
+    <row r="112" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="28" t="s">
         <v>136</v>
       </c>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="I112" s="30"/>
     </row>
-    <row r="113" spans="1:9" ht="45">
+    <row r="113" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="28" t="s">
         <v>137</v>
       </c>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="I113" s="30"/>
     </row>
-    <row r="114" spans="1:9" ht="45">
+    <row r="114" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="28" t="s">
         <v>138</v>
       </c>
@@ -11677,7 +11677,7 @@
       </c>
       <c r="I114" s="30"/>
     </row>
-    <row r="115" spans="1:9" ht="45">
+    <row r="115" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
         <v>139</v>
       </c>
@@ -11702,7 +11702,7 @@
       </c>
       <c r="I115" s="30"/>
     </row>
-    <row r="116" spans="1:9" ht="45">
+    <row r="116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="28" t="s">
         <v>140</v>
       </c>
@@ -11727,7 +11727,7 @@
       </c>
       <c r="I116" s="30"/>
     </row>
-    <row r="117" spans="1:9" ht="45">
+    <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="28" t="s">
         <v>141</v>
       </c>
@@ -11752,7 +11752,7 @@
       </c>
       <c r="I117" s="30"/>
     </row>
-    <row r="118" spans="1:9" ht="45">
+    <row r="118" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="28" t="s">
         <v>142</v>
       </c>
@@ -11777,7 +11777,7 @@
       </c>
       <c r="I118" s="30"/>
     </row>
-    <row r="119" spans="1:9" ht="45">
+    <row r="119" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="28" t="s">
         <v>143</v>
       </c>
@@ -11802,7 +11802,7 @@
       </c>
       <c r="I119" s="30"/>
     </row>
-    <row r="120" spans="1:9" ht="45">
+    <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="28" t="s">
         <v>144</v>
       </c>
@@ -11827,7 +11827,7 @@
       </c>
       <c r="I120" s="30"/>
     </row>
-    <row r="121" spans="1:9" ht="45">
+    <row r="121" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="28" t="s">
         <v>145</v>
       </c>
@@ -11852,7 +11852,7 @@
       </c>
       <c r="I121" s="30"/>
     </row>
-    <row r="122" spans="1:9" ht="45">
+    <row r="122" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="28" t="s">
         <v>146</v>
       </c>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="I122" s="30"/>
     </row>
-    <row r="123" spans="1:9" ht="45">
+    <row r="123" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="28" t="s">
         <v>147</v>
       </c>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="I123" s="30"/>
     </row>
-    <row r="124" spans="1:9" ht="45">
+    <row r="124" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="28" t="s">
         <v>148</v>
       </c>
@@ -11927,7 +11927,7 @@
       </c>
       <c r="I124" s="30"/>
     </row>
-    <row r="125" spans="1:9" ht="45">
+    <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="28" t="s">
         <v>149</v>
       </c>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="I125" s="30"/>
     </row>
-    <row r="126" spans="1:9" ht="30">
+    <row r="126" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="28" t="s">
         <v>150</v>
       </c>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I126" s="30"/>
     </row>
-    <row r="127" spans="1:9" ht="30">
+    <row r="127" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="28" t="s">
         <v>151</v>
       </c>
@@ -12002,7 +12002,7 @@
       </c>
       <c r="I127" s="18"/>
     </row>
-    <row r="128" spans="1:9" ht="150">
+    <row r="128" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A128" s="28" t="s">
         <v>152</v>
       </c>
@@ -12027,7 +12027,7 @@
       </c>
       <c r="I128" s="30"/>
     </row>
-    <row r="129" spans="1:9" ht="30">
+    <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="28" t="s">
         <v>153</v>
       </c>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="I129" s="30"/>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="28" t="s">
         <v>154</v>
       </c>
@@ -12077,7 +12077,7 @@
       </c>
       <c r="I130" s="30"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="28" t="s">
         <v>155</v>
       </c>
@@ -12102,7 +12102,7 @@
       </c>
       <c r="I131" s="30"/>
     </row>
-    <row r="132" spans="1:9" ht="30">
+    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="28" t="s">
         <v>156</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="75">
+    <row r="133" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" s="28" t="s">
         <v>157</v>
       </c>
@@ -12154,7 +12154,7 @@
       </c>
       <c r="I133" s="30"/>
     </row>
-    <row r="134" spans="1:9" ht="30">
+    <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="28" t="s">
         <v>158</v>
       </c>
@@ -12179,7 +12179,7 @@
       </c>
       <c r="I134" s="30"/>
     </row>
-    <row r="135" spans="1:9" ht="30">
+    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
         <v>159</v>
       </c>
@@ -12204,7 +12204,7 @@
       </c>
       <c r="I135" s="30"/>
     </row>
-    <row r="136" spans="1:9" ht="30">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="28" t="s">
         <v>160</v>
       </c>
@@ -12229,7 +12229,7 @@
       </c>
       <c r="I136" s="30"/>
     </row>
-    <row r="137" spans="1:9" ht="45">
+    <row r="137" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="28" t="s">
         <v>161</v>
       </c>
@@ -12254,7 +12254,7 @@
       </c>
       <c r="I137" s="30"/>
     </row>
-    <row r="138" spans="1:9" ht="30">
+    <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="28" t="s">
         <v>162</v>
       </c>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="I138" s="18"/>
     </row>
-    <row r="139" spans="1:9" ht="30">
+    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="28" t="s">
         <v>163</v>
       </c>
@@ -12304,7 +12304,7 @@
       </c>
       <c r="I139" s="30"/>
     </row>
-    <row r="140" spans="1:9" ht="30">
+    <row r="140" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="28" t="s">
         <v>164</v>
       </c>
@@ -12329,7 +12329,7 @@
       </c>
       <c r="I140" s="30"/>
     </row>
-    <row r="141" spans="1:9" ht="30">
+    <row r="141" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="28" t="s">
         <v>165</v>
       </c>
@@ -12354,7 +12354,7 @@
       </c>
       <c r="I141" s="18"/>
     </row>
-    <row r="142" spans="1:9" ht="30">
+    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="28" t="s">
         <v>166</v>
       </c>
@@ -12379,7 +12379,7 @@
       </c>
       <c r="I142" s="30"/>
     </row>
-    <row r="143" spans="1:9" ht="30">
+    <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="28" t="s">
         <v>167</v>
       </c>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="I143" s="18"/>
     </row>
-    <row r="144" spans="1:9" ht="30">
+    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="28" t="s">
         <v>168</v>
       </c>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="I144" s="30"/>
     </row>
-    <row r="145" spans="1:9" ht="30">
+    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="28" t="s">
         <v>169</v>
       </c>
@@ -12454,7 +12454,7 @@
       </c>
       <c r="I145" s="30"/>
     </row>
-    <row r="146" spans="1:9" ht="30">
+    <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="28" t="s">
         <v>170</v>
       </c>
@@ -12479,7 +12479,7 @@
       </c>
       <c r="I146" s="30"/>
     </row>
-    <row r="147" spans="1:9" ht="30">
+    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="28" t="s">
         <v>171</v>
       </c>
@@ -12504,7 +12504,7 @@
       </c>
       <c r="I147" s="30"/>
     </row>
-    <row r="148" spans="1:9" ht="30">
+    <row r="148" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="28" t="s">
         <v>172</v>
       </c>
@@ -12529,7 +12529,7 @@
       </c>
       <c r="I148" s="30"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="28" t="s">
         <v>173</v>
       </c>
@@ -12554,7 +12554,7 @@
       </c>
       <c r="I149" s="30"/>
     </row>
-    <row r="150" spans="1:9" ht="30">
+    <row r="150" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="28" t="s">
         <v>174</v>
       </c>
@@ -12579,7 +12579,7 @@
       </c>
       <c r="I150" s="30"/>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
         <v>175</v>
       </c>
@@ -12604,7 +12604,7 @@
       </c>
       <c r="I151" s="30"/>
     </row>
-    <row r="152" spans="1:9" ht="30">
+    <row r="152" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="28" t="s">
         <v>176</v>
       </c>
@@ -12629,7 +12629,7 @@
       </c>
       <c r="I152" s="30"/>
     </row>
-    <row r="153" spans="1:9" ht="30">
+    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="28" t="s">
         <v>177</v>
       </c>
@@ -12654,7 +12654,7 @@
       </c>
       <c r="I153" s="30"/>
     </row>
-    <row r="154" spans="1:9" ht="30">
+    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="28" t="s">
         <v>178</v>
       </c>
@@ -12679,7 +12679,7 @@
       </c>
       <c r="I154" s="30"/>
     </row>
-    <row r="155" spans="1:9" ht="30">
+    <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="28" t="s">
         <v>179</v>
       </c>
@@ -12704,7 +12704,7 @@
       </c>
       <c r="I155" s="30"/>
     </row>
-    <row r="156" spans="1:9" ht="255">
+    <row r="156" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A156" s="28" t="s">
         <v>180</v>
       </c>
@@ -12729,7 +12729,7 @@
       </c>
       <c r="I156" s="30"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="28" t="s">
         <v>181</v>
       </c>
@@ -12754,7 +12754,7 @@
       </c>
       <c r="I157" s="30"/>
     </row>
-    <row r="158" spans="1:9" ht="45">
+    <row r="158" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="28" t="s">
         <v>182</v>
       </c>
@@ -12779,7 +12779,7 @@
       </c>
       <c r="I158" s="30"/>
     </row>
-    <row r="159" spans="1:9" ht="30">
+    <row r="159" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="28" t="s">
         <v>183</v>
       </c>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="I159" s="30"/>
     </row>
-    <row r="160" spans="1:9" ht="30">
+    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="28" t="s">
         <v>184</v>
       </c>
@@ -12829,7 +12829,7 @@
       </c>
       <c r="I160" s="30"/>
     </row>
-    <row r="161" spans="1:9" ht="30">
+    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="28" t="s">
         <v>185</v>
       </c>
@@ -12854,7 +12854,7 @@
       </c>
       <c r="I161" s="30"/>
     </row>
-    <row r="162" spans="1:9" ht="30">
+    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="28" t="s">
         <v>186</v>
       </c>
@@ -12879,7 +12879,7 @@
       </c>
       <c r="I162" s="30"/>
     </row>
-    <row r="163" spans="1:9" ht="180">
+    <row r="163" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A163" s="28" t="s">
         <v>187</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="28" t="s">
         <v>188</v>
       </c>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="I164" s="30"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="28" t="s">
         <v>189</v>
       </c>
@@ -12960,7 +12960,7 @@
       </c>
       <c r="I165" s="30"/>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="28" t="s">
         <v>190</v>
       </c>
@@ -12987,7 +12987,7 @@
       </c>
       <c r="I166" s="30"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="28" t="s">
         <v>191</v>
       </c>
@@ -13014,7 +13014,7 @@
       </c>
       <c r="I167" s="30"/>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="28" t="s">
         <v>192</v>
       </c>
@@ -13041,7 +13041,7 @@
       </c>
       <c r="I168" s="30"/>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="28" t="s">
         <v>193</v>
       </c>
@@ -13068,7 +13068,7 @@
       </c>
       <c r="I169" s="30"/>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="28" t="s">
         <v>194</v>
       </c>
@@ -13095,7 +13095,7 @@
       </c>
       <c r="I170" s="30"/>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="28" t="s">
         <v>195</v>
       </c>
@@ -13122,7 +13122,7 @@
       </c>
       <c r="I171" s="30"/>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="28" t="s">
         <v>196</v>
       </c>
@@ -13149,7 +13149,7 @@
       </c>
       <c r="I172" s="30"/>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="28" t="s">
         <v>197</v>
       </c>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="I173" s="30"/>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="28" t="s">
         <v>198</v>
       </c>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="I174" s="30"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="28" t="s">
         <v>199</v>
       </c>
@@ -13230,7 +13230,7 @@
       </c>
       <c r="I175" s="30"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="28" t="s">
         <v>200</v>
       </c>
@@ -13257,7 +13257,7 @@
       </c>
       <c r="I176" s="30"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="28" t="s">
         <v>201</v>
       </c>
@@ -13284,7 +13284,7 @@
       </c>
       <c r="I177" s="30"/>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="28" t="s">
         <v>202</v>
       </c>
@@ -13311,7 +13311,7 @@
       </c>
       <c r="I178" s="30"/>
     </row>
-    <row r="179" spans="1:9" ht="30">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="28" t="s">
         <v>203</v>
       </c>
@@ -13338,7 +13338,7 @@
       </c>
       <c r="I179" s="30"/>
     </row>
-    <row r="180" spans="1:9" ht="30">
+    <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="28" t="s">
         <v>204</v>
       </c>
@@ -13363,7 +13363,7 @@
       </c>
       <c r="I180" s="30"/>
     </row>
-    <row r="181" spans="1:9" ht="30">
+    <row r="181" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="20" t="s">
         <v>2018</v>
       </c>
@@ -13388,7 +13388,7 @@
       </c>
       <c r="I181" s="33"/>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="28" t="s">
         <v>205</v>
       </c>
@@ -13413,7 +13413,7 @@
       </c>
       <c r="I182" s="30"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="28" t="s">
         <v>206</v>
       </c>
@@ -13438,7 +13438,7 @@
       </c>
       <c r="I183" s="30"/>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="28" t="s">
         <v>207</v>
       </c>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="I184" s="30"/>
     </row>
-    <row r="185" spans="1:9" ht="30">
+    <row r="185" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="28" t="s">
         <v>208</v>
       </c>
@@ -13488,7 +13488,7 @@
       </c>
       <c r="I185" s="30"/>
     </row>
-    <row r="186" spans="1:9" ht="30">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="28" t="s">
         <v>209</v>
       </c>
@@ -13513,7 +13513,7 @@
       </c>
       <c r="I186" s="30"/>
     </row>
-    <row r="187" spans="1:9" ht="30">
+    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="28" t="s">
         <v>210</v>
       </c>
@@ -13538,7 +13538,7 @@
       </c>
       <c r="I187" s="30"/>
     </row>
-    <row r="188" spans="1:9" ht="120">
+    <row r="188" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A188" s="28" t="s">
         <v>211</v>
       </c>
@@ -13563,7 +13563,7 @@
       </c>
       <c r="I188" s="30"/>
     </row>
-    <row r="189" spans="1:9" ht="45">
+    <row r="189" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="28" t="s">
         <v>212</v>
       </c>
@@ -13588,7 +13588,7 @@
       </c>
       <c r="I189" s="30"/>
     </row>
-    <row r="190" spans="1:9" ht="30">
+    <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="20" t="s">
         <v>2021</v>
       </c>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="I190" s="33"/>
     </row>
-    <row r="191" spans="1:9" ht="30">
+    <row r="191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="28" t="s">
         <v>213</v>
       </c>
@@ -13638,7 +13638,7 @@
       </c>
       <c r="I191" s="18"/>
     </row>
-    <row r="192" spans="1:9" ht="75">
+    <row r="192" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A192" s="28" t="s">
         <v>214</v>
       </c>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="I192" s="18"/>
     </row>
-    <row r="193" spans="1:9" ht="45">
+    <row r="193" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="28" t="s">
         <v>215</v>
       </c>
@@ -13688,7 +13688,7 @@
       </c>
       <c r="I193" s="30"/>
     </row>
-    <row r="194" spans="1:9" ht="45">
+    <row r="194" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="28" t="s">
         <v>216</v>
       </c>
@@ -13713,7 +13713,7 @@
       </c>
       <c r="I194" s="30"/>
     </row>
-    <row r="195" spans="1:9" ht="30">
+    <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="28" t="s">
         <v>217</v>
       </c>
@@ -13738,7 +13738,7 @@
       </c>
       <c r="I195" s="30"/>
     </row>
-    <row r="196" spans="1:9" ht="30">
+    <row r="196" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="28" t="s">
         <v>218</v>
       </c>
@@ -13763,7 +13763,7 @@
       </c>
       <c r="I196" s="30"/>
     </row>
-    <row r="197" spans="1:9" ht="30">
+    <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="28" t="s">
         <v>219</v>
       </c>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="I197" s="30"/>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="28" t="s">
         <v>220</v>
       </c>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="I198" s="30"/>
     </row>
-    <row r="199" spans="1:9" ht="30">
+    <row r="199" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="28" t="s">
         <v>221</v>
       </c>
@@ -13838,7 +13838,7 @@
       </c>
       <c r="I199" s="30"/>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="28" t="s">
         <v>222</v>
       </c>
@@ -13863,7 +13863,7 @@
       </c>
       <c r="I200" s="30"/>
     </row>
-    <row r="201" spans="1:9" ht="30">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="28" t="s">
         <v>223</v>
       </c>
@@ -13888,7 +13888,7 @@
       </c>
       <c r="I201" s="30"/>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="20" t="s">
         <v>224</v>
       </c>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="I202" s="30"/>
     </row>
-    <row r="203" spans="1:9" ht="30">
+    <row r="203" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="28" t="s">
         <v>225</v>
       </c>
@@ -13938,7 +13938,7 @@
       </c>
       <c r="I203" s="30"/>
     </row>
-    <row r="204" spans="1:9" ht="30">
+    <row r="204" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="28" t="s">
         <v>226</v>
       </c>
@@ -13963,7 +13963,7 @@
       </c>
       <c r="I204" s="30"/>
     </row>
-    <row r="205" spans="1:9" ht="60">
+    <row r="205" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A205" s="28" t="s">
         <v>227</v>
       </c>
@@ -13988,7 +13988,7 @@
       </c>
       <c r="I205" s="30"/>
     </row>
-    <row r="206" spans="1:9" ht="120">
+    <row r="206" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A206" s="28" t="s">
         <v>228</v>
       </c>
@@ -14013,7 +14013,7 @@
       </c>
       <c r="I206" s="30"/>
     </row>
-    <row r="207" spans="1:9" ht="30">
+    <row r="207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="28" t="s">
         <v>229</v>
       </c>
@@ -14038,7 +14038,7 @@
       </c>
       <c r="I207" s="30"/>
     </row>
-    <row r="208" spans="1:9" ht="30">
+    <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="28" t="s">
         <v>230</v>
       </c>
@@ -14063,7 +14063,7 @@
       </c>
       <c r="I208" s="30"/>
     </row>
-    <row r="209" spans="1:9" ht="30">
+    <row r="209" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="28" t="s">
         <v>231</v>
       </c>
@@ -14088,7 +14088,7 @@
       </c>
       <c r="I209" s="30"/>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="28" t="s">
         <v>232</v>
       </c>
@@ -14113,7 +14113,7 @@
       </c>
       <c r="I210" s="30"/>
     </row>
-    <row r="211" spans="1:9" ht="30">
+    <row r="211" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="28" t="s">
         <v>233</v>
       </c>
@@ -14138,7 +14138,7 @@
       </c>
       <c r="I211" s="30"/>
     </row>
-    <row r="212" spans="1:9" ht="30">
+    <row r="212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="28" t="s">
         <v>234</v>
       </c>
@@ -14163,7 +14163,7 @@
       </c>
       <c r="I212" s="30"/>
     </row>
-    <row r="213" spans="1:9" ht="45">
+    <row r="213" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A213" s="28" t="s">
         <v>235</v>
       </c>
@@ -14188,7 +14188,7 @@
       </c>
       <c r="I213" s="30"/>
     </row>
-    <row r="214" spans="1:9" ht="45">
+    <row r="214" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="28" t="s">
         <v>236</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="30">
+    <row r="215" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="28" t="s">
         <v>242</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="75">
+    <row r="216" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A216" s="28" t="s">
         <v>243</v>
       </c>
@@ -14267,7 +14267,7 @@
       </c>
       <c r="I216" s="30"/>
     </row>
-    <row r="217" spans="1:9" ht="30">
+    <row r="217" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="28" t="s">
         <v>244</v>
       </c>
@@ -14292,7 +14292,7 @@
       </c>
       <c r="I217" s="30"/>
     </row>
-    <row r="218" spans="1:9" ht="30">
+    <row r="218" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="28" t="s">
         <v>245</v>
       </c>
@@ -14317,7 +14317,7 @@
       </c>
       <c r="I218" s="30"/>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="28" t="s">
         <v>246</v>
       </c>
@@ -14342,7 +14342,7 @@
       </c>
       <c r="I219" s="30"/>
     </row>
-    <row r="220" spans="1:9" ht="30">
+    <row r="220" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="28" t="s">
         <v>247</v>
       </c>
@@ -14367,7 +14367,7 @@
       </c>
       <c r="I220" s="30"/>
     </row>
-    <row r="221" spans="1:9" ht="30">
+    <row r="221" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="28" t="s">
         <v>248</v>
       </c>
@@ -14392,7 +14392,7 @@
       </c>
       <c r="I221" s="30"/>
     </row>
-    <row r="222" spans="1:9" ht="30">
+    <row r="222" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="28" t="s">
         <v>249</v>
       </c>
@@ -14417,7 +14417,7 @@
       </c>
       <c r="I222" s="30"/>
     </row>
-    <row r="223" spans="1:9" ht="30">
+    <row r="223" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="28" t="s">
         <v>250</v>
       </c>
@@ -14442,7 +14442,7 @@
       </c>
       <c r="I223" s="30"/>
     </row>
-    <row r="224" spans="1:9" ht="30">
+    <row r="224" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="28" t="s">
         <v>251</v>
       </c>
@@ -14467,7 +14467,7 @@
       </c>
       <c r="I224" s="30"/>
     </row>
-    <row r="225" spans="1:9" ht="30">
+    <row r="225" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="28" t="s">
         <v>252</v>
       </c>
@@ -14492,7 +14492,7 @@
       </c>
       <c r="I225" s="30"/>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="28" t="s">
         <v>253</v>
       </c>
@@ -14517,7 +14517,7 @@
       </c>
       <c r="I226" s="30"/>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="28" t="s">
         <v>254</v>
       </c>
@@ -14542,7 +14542,7 @@
       </c>
       <c r="I227" s="30"/>
     </row>
-    <row r="228" spans="1:9" ht="30">
+    <row r="228" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="28" t="s">
         <v>255</v>
       </c>
@@ -14567,7 +14567,7 @@
       </c>
       <c r="I228" s="30"/>
     </row>
-    <row r="229" spans="1:9" ht="30">
+    <row r="229" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="28" t="s">
         <v>256</v>
       </c>
@@ -14592,7 +14592,7 @@
       </c>
       <c r="I229" s="30"/>
     </row>
-    <row r="230" spans="1:9" ht="60">
+    <row r="230" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="28" t="s">
         <v>257</v>
       </c>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I230" s="30"/>
     </row>
-    <row r="231" spans="1:9" ht="30">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="28" t="s">
         <v>258</v>
       </c>
@@ -14642,7 +14642,7 @@
       </c>
       <c r="I231" s="30"/>
     </row>
-    <row r="232" spans="1:9" ht="120">
+    <row r="232" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A232" s="28" t="s">
         <v>259</v>
       </c>
@@ -14667,7 +14667,7 @@
       </c>
       <c r="I232" s="30"/>
     </row>
-    <row r="233" spans="1:9" ht="30">
+    <row r="233" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="28" t="s">
         <v>260</v>
       </c>
@@ -14692,7 +14692,7 @@
       </c>
       <c r="I233" s="30"/>
     </row>
-    <row r="234" spans="1:9" ht="30">
+    <row r="234" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="20" t="s">
         <v>2031</v>
       </c>
@@ -14717,7 +14717,7 @@
       </c>
       <c r="I234" s="33"/>
     </row>
-    <row r="235" spans="1:9" ht="30">
+    <row r="235" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="28" t="s">
         <v>261</v>
       </c>
@@ -14742,7 +14742,7 @@
       </c>
       <c r="I235" s="30"/>
     </row>
-    <row r="236" spans="1:9" ht="240">
+    <row r="236" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A236" s="28" t="s">
         <v>262</v>
       </c>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="I236" s="30"/>
     </row>
-    <row r="237" spans="1:9" ht="30">
+    <row r="237" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="28" t="s">
         <v>263</v>
       </c>
@@ -14792,7 +14792,7 @@
       </c>
       <c r="I237" s="30"/>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="28" t="s">
         <v>264</v>
       </c>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="I238" s="30"/>
     </row>
-    <row r="239" spans="1:9" ht="30">
+    <row r="239" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="28" t="s">
         <v>265</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="75">
+    <row r="240" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A240" s="28" t="s">
         <v>266</v>
       </c>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="I240" s="30"/>
     </row>
-    <row r="241" spans="1:9" ht="30">
+    <row r="241" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="28" t="s">
         <v>267</v>
       </c>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="I241" s="30"/>
     </row>
-    <row r="242" spans="1:9" ht="30">
+    <row r="242" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="28" t="s">
         <v>268</v>
       </c>
@@ -14919,7 +14919,7 @@
       </c>
       <c r="I242" s="30"/>
     </row>
-    <row r="243" spans="1:9" ht="30">
+    <row r="243" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="28" t="s">
         <v>269</v>
       </c>
@@ -14944,7 +14944,7 @@
       </c>
       <c r="I243" s="30"/>
     </row>
-    <row r="244" spans="1:9" ht="30">
+    <row r="244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="20" t="s">
         <v>1898</v>
       </c>
@@ -14969,7 +14969,7 @@
       </c>
       <c r="I244" s="30"/>
     </row>
-    <row r="245" spans="1:9" ht="150">
+    <row r="245" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A245" s="28" t="s">
         <v>270</v>
       </c>
@@ -14994,7 +14994,7 @@
       </c>
       <c r="I245" s="30"/>
     </row>
-    <row r="246" spans="1:9" ht="45">
+    <row r="246" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="28" t="s">
         <v>271</v>
       </c>
@@ -15019,7 +15019,7 @@
       </c>
       <c r="I246" s="30"/>
     </row>
-    <row r="247" spans="1:9" ht="30">
+    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="28" t="s">
         <v>272</v>
       </c>
@@ -15044,7 +15044,7 @@
       </c>
       <c r="I247" s="30"/>
     </row>
-    <row r="248" spans="1:9" ht="45">
+    <row r="248" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="28" t="s">
         <v>273</v>
       </c>
@@ -15069,7 +15069,7 @@
       </c>
       <c r="I248" s="30"/>
     </row>
-    <row r="249" spans="1:9" ht="60">
+    <row r="249" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="28" t="s">
         <v>274</v>
       </c>
@@ -15094,7 +15094,7 @@
       </c>
       <c r="I249" s="30"/>
     </row>
-    <row r="250" spans="1:9" ht="30">
+    <row r="250" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="28" t="s">
         <v>275</v>
       </c>
@@ -15119,7 +15119,7 @@
       </c>
       <c r="I250" s="30"/>
     </row>
-    <row r="251" spans="1:9" ht="30">
+    <row r="251" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="28" t="s">
         <v>276</v>
       </c>
@@ -15144,7 +15144,7 @@
       </c>
       <c r="I251" s="30"/>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="28" t="s">
         <v>277</v>
       </c>
@@ -15169,7 +15169,7 @@
       </c>
       <c r="I252" s="30"/>
     </row>
-    <row r="253" spans="1:9" ht="30">
+    <row r="253" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="28" t="s">
         <v>278</v>
       </c>
@@ -15194,7 +15194,7 @@
       </c>
       <c r="I253" s="30"/>
     </row>
-    <row r="254" spans="1:9" ht="45">
+    <row r="254" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="28" t="s">
         <v>279</v>
       </c>
@@ -15219,7 +15219,7 @@
       </c>
       <c r="I254" s="30"/>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="28" t="s">
         <v>280</v>
       </c>
@@ -15244,7 +15244,7 @@
       </c>
       <c r="I255" s="30"/>
     </row>
-    <row r="256" spans="1:9" ht="30">
+    <row r="256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="28" t="s">
         <v>281</v>
       </c>
@@ -15269,7 +15269,7 @@
       </c>
       <c r="I256" s="30"/>
     </row>
-    <row r="257" spans="1:9" ht="45">
+    <row r="257" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="28" t="s">
         <v>282</v>
       </c>
@@ -15294,7 +15294,7 @@
       </c>
       <c r="I257" s="30"/>
     </row>
-    <row r="258" spans="1:9" ht="45">
+    <row r="258" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A258" s="28" t="s">
         <v>283</v>
       </c>
@@ -15319,7 +15319,7 @@
       </c>
       <c r="I258" s="30"/>
     </row>
-    <row r="259" spans="1:9" ht="75">
+    <row r="259" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A259" s="28" t="s">
         <v>284</v>
       </c>
@@ -15344,7 +15344,7 @@
       </c>
       <c r="I259" s="30"/>
     </row>
-    <row r="260" spans="1:9" ht="135">
+    <row r="260" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A260" s="28" t="s">
         <v>285</v>
       </c>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="I260" s="30"/>
     </row>
-    <row r="261" spans="1:9" ht="30">
+    <row r="261" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="28" t="s">
         <v>286</v>
       </c>
@@ -15394,7 +15394,7 @@
       </c>
       <c r="I261" s="30"/>
     </row>
-    <row r="262" spans="1:9" ht="30">
+    <row r="262" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="28" t="s">
         <v>287</v>
       </c>
@@ -15419,7 +15419,7 @@
       </c>
       <c r="I262" s="30"/>
     </row>
-    <row r="263" spans="1:9" ht="45">
+    <row r="263" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="28" t="s">
         <v>288</v>
       </c>
@@ -15444,7 +15444,7 @@
       </c>
       <c r="I263" s="18"/>
     </row>
-    <row r="264" spans="1:9" ht="30">
+    <row r="264" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="28" t="s">
         <v>289</v>
       </c>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="I264" s="30"/>
     </row>
-    <row r="265" spans="1:9" ht="30">
+    <row r="265" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="28" t="s">
         <v>290</v>
       </c>
@@ -15494,7 +15494,7 @@
       </c>
       <c r="I265" s="30"/>
     </row>
-    <row r="266" spans="1:9" ht="75">
+    <row r="266" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A266" s="28" t="s">
         <v>291</v>
       </c>
@@ -15519,7 +15519,7 @@
       </c>
       <c r="I266" s="30"/>
     </row>
-    <row r="267" spans="1:9" ht="30">
+    <row r="267" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="28" t="s">
         <v>292</v>
       </c>
@@ -15544,7 +15544,7 @@
       </c>
       <c r="I267" s="30"/>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="28" t="s">
         <v>293</v>
       </c>
@@ -15569,7 +15569,7 @@
       </c>
       <c r="I268" s="30"/>
     </row>
-    <row r="269" spans="1:9" ht="30">
+    <row r="269" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="28" t="s">
         <v>294</v>
       </c>
@@ -15594,7 +15594,7 @@
       </c>
       <c r="I269" s="18"/>
     </row>
-    <row r="270" spans="1:9" ht="30">
+    <row r="270" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="28" t="s">
         <v>295</v>
       </c>
@@ -15619,7 +15619,7 @@
       </c>
       <c r="I270" s="30"/>
     </row>
-    <row r="271" spans="1:9" ht="30">
+    <row r="271" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="28" t="s">
         <v>296</v>
       </c>
@@ -15644,7 +15644,7 @@
       </c>
       <c r="I271" s="30"/>
     </row>
-    <row r="272" spans="1:9" ht="30">
+    <row r="272" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="28" t="s">
         <v>297</v>
       </c>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I272" s="30"/>
     </row>
-    <row r="273" spans="1:9" ht="30">
+    <row r="273" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="28" t="s">
         <v>298</v>
       </c>
@@ -15694,7 +15694,7 @@
       </c>
       <c r="I273" s="30"/>
     </row>
-    <row r="274" spans="1:9" ht="30">
+    <row r="274" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="28" t="s">
         <v>299</v>
       </c>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="I274" s="30"/>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="28" t="s">
         <v>300</v>
       </c>
@@ -15744,7 +15744,7 @@
       </c>
       <c r="I275" s="30"/>
     </row>
-    <row r="276" spans="1:9" ht="30">
+    <row r="276" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="28" t="s">
         <v>301</v>
       </c>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I276" s="30"/>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="28" t="s">
         <v>302</v>
       </c>
@@ -15794,7 +15794,7 @@
       </c>
       <c r="I277" s="30"/>
     </row>
-    <row r="278" spans="1:9" ht="30">
+    <row r="278" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="28" t="s">
         <v>303</v>
       </c>
@@ -15819,7 +15819,7 @@
       </c>
       <c r="I278" s="30"/>
     </row>
-    <row r="279" spans="1:9" ht="45">
+    <row r="279" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="28" t="s">
         <v>304</v>
       </c>
@@ -15844,7 +15844,7 @@
       </c>
       <c r="I279" s="30"/>
     </row>
-    <row r="280" spans="1:9" ht="45">
+    <row r="280" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A280" s="28" t="s">
         <v>305</v>
       </c>
@@ -15869,7 +15869,7 @@
       </c>
       <c r="I280" s="30"/>
     </row>
-    <row r="281" spans="1:9" ht="75">
+    <row r="281" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A281" s="28" t="s">
         <v>306</v>
       </c>
@@ -15894,7 +15894,7 @@
       </c>
       <c r="I281" s="30"/>
     </row>
-    <row r="282" spans="1:9" ht="315">
+    <row r="282" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A282" s="28" t="s">
         <v>307</v>
       </c>
@@ -15919,7 +15919,7 @@
       </c>
       <c r="I282" s="30"/>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="28" t="s">
         <v>308</v>
       </c>
@@ -15944,7 +15944,7 @@
       </c>
       <c r="I283" s="30"/>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="28" t="s">
         <v>309</v>
       </c>
@@ -15969,7 +15969,7 @@
       </c>
       <c r="I284" s="30"/>
     </row>
-    <row r="285" spans="1:9" ht="30">
+    <row r="285" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="28" t="s">
         <v>310</v>
       </c>
@@ -15994,7 +15994,7 @@
       </c>
       <c r="I285" s="30"/>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="28" t="s">
         <v>311</v>
       </c>
@@ -16019,7 +16019,7 @@
       </c>
       <c r="I286" s="30"/>
     </row>
-    <row r="287" spans="1:9" ht="165">
+    <row r="287" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A287" s="28" t="s">
         <v>312</v>
       </c>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="I287" s="30"/>
     </row>
-    <row r="288" spans="1:9" ht="45">
+    <row r="288" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A288" s="28" t="s">
         <v>313</v>
       </c>
@@ -16069,7 +16069,7 @@
       </c>
       <c r="I288" s="30"/>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="28" t="s">
         <v>314</v>
       </c>
@@ -16094,7 +16094,7 @@
       </c>
       <c r="I289" s="30"/>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="28" t="s">
         <v>315</v>
       </c>
@@ -16119,7 +16119,7 @@
       </c>
       <c r="I290" s="30"/>
     </row>
-    <row r="291" spans="1:9" ht="30">
+    <row r="291" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="28" t="s">
         <v>316</v>
       </c>
@@ -16144,7 +16144,7 @@
       </c>
       <c r="I291" s="30"/>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="28" t="s">
         <v>317</v>
       </c>
@@ -16169,7 +16169,7 @@
       </c>
       <c r="I292" s="18"/>
     </row>
-    <row r="293" spans="1:9" ht="75">
+    <row r="293" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A293" s="28" t="s">
         <v>318</v>
       </c>
@@ -16194,7 +16194,7 @@
       </c>
       <c r="I293" s="18"/>
     </row>
-    <row r="294" spans="1:9" ht="30">
+    <row r="294" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="28" t="s">
         <v>319</v>
       </c>
@@ -16219,7 +16219,7 @@
       </c>
       <c r="I294" s="18"/>
     </row>
-    <row r="295" spans="1:9" ht="30">
+    <row r="295" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="28" t="s">
         <v>320</v>
       </c>
@@ -16244,7 +16244,7 @@
       </c>
       <c r="I295" s="18"/>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="28" t="s">
         <v>321</v>
       </c>
@@ -16269,7 +16269,7 @@
       </c>
       <c r="I296" s="30"/>
     </row>
-    <row r="297" spans="1:9" ht="30">
+    <row r="297" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="28" t="s">
         <v>322</v>
       </c>
@@ -16294,7 +16294,7 @@
       </c>
       <c r="I297" s="30"/>
     </row>
-    <row r="298" spans="1:9" ht="30">
+    <row r="298" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="28" t="s">
         <v>323</v>
       </c>
@@ -16319,7 +16319,7 @@
       </c>
       <c r="I298" s="18"/>
     </row>
-    <row r="299" spans="1:9" ht="30">
+    <row r="299" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="28" t="s">
         <v>324</v>
       </c>
@@ -16344,7 +16344,7 @@
       </c>
       <c r="I299" s="30"/>
     </row>
-    <row r="300" spans="1:9" ht="45">
+    <row r="300" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="28" t="s">
         <v>325</v>
       </c>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="I300" s="30"/>
     </row>
-    <row r="301" spans="1:9" ht="45">
+    <row r="301" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="28" t="s">
         <v>326</v>
       </c>
@@ -16394,7 +16394,7 @@
       </c>
       <c r="I301" s="30"/>
     </row>
-    <row r="302" spans="1:9" ht="30">
+    <row r="302" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="28" t="s">
         <v>327</v>
       </c>
@@ -16419,7 +16419,7 @@
       </c>
       <c r="I302" s="30"/>
     </row>
-    <row r="303" spans="1:9" ht="30">
+    <row r="303" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="28" t="s">
         <v>328</v>
       </c>
@@ -16444,7 +16444,7 @@
       </c>
       <c r="I303" s="30"/>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="28" t="s">
         <v>329</v>
       </c>
@@ -16469,7 +16469,7 @@
       </c>
       <c r="I304" s="30"/>
     </row>
-    <row r="305" spans="1:9" ht="30">
+    <row r="305" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="28" t="s">
         <v>330</v>
       </c>
@@ -16494,7 +16494,7 @@
       </c>
       <c r="I305" s="30"/>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="28" t="s">
         <v>331</v>
       </c>
@@ -16519,7 +16519,7 @@
       </c>
       <c r="I306" s="18"/>
     </row>
-    <row r="307" spans="1:9" ht="30">
+    <row r="307" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="28" t="s">
         <v>332</v>
       </c>
@@ -16544,7 +16544,7 @@
       </c>
       <c r="I307" s="18"/>
     </row>
-    <row r="308" spans="1:9" ht="75">
+    <row r="308" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A308" s="28" t="s">
         <v>333</v>
       </c>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="I308" s="30"/>
     </row>
-    <row r="309" spans="1:9" ht="45">
+    <row r="309" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A309" s="28" t="s">
         <v>334</v>
       </c>
@@ -16594,7 +16594,7 @@
       </c>
       <c r="I309" s="30"/>
     </row>
-    <row r="310" spans="1:9" ht="60">
+    <row r="310" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A310" s="28" t="s">
         <v>335</v>
       </c>
@@ -16619,7 +16619,7 @@
       </c>
       <c r="I310" s="30"/>
     </row>
-    <row r="311" spans="1:9" ht="330">
+    <row r="311" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A311" s="28" t="s">
         <v>336</v>
       </c>
@@ -16644,7 +16644,7 @@
       </c>
       <c r="I311" s="30"/>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="28" t="s">
         <v>337</v>
       </c>
@@ -16669,7 +16669,7 @@
       </c>
       <c r="I312" s="30"/>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="28" t="s">
         <v>338</v>
       </c>
@@ -16694,7 +16694,7 @@
       </c>
       <c r="I313" s="30"/>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="28" t="s">
         <v>339</v>
       </c>
@@ -16719,7 +16719,7 @@
       </c>
       <c r="I314" s="30"/>
     </row>
-    <row r="315" spans="1:9" ht="30">
+    <row r="315" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="28" t="s">
         <v>340</v>
       </c>
@@ -16744,7 +16744,7 @@
       </c>
       <c r="I315" s="30"/>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="28" t="s">
         <v>341</v>
       </c>
@@ -16769,7 +16769,7 @@
       </c>
       <c r="I316" s="30"/>
     </row>
-    <row r="317" spans="1:9" ht="30">
+    <row r="317" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="28" t="s">
         <v>342</v>
       </c>
@@ -16794,7 +16794,7 @@
       </c>
       <c r="I317" s="30"/>
     </row>
-    <row r="318" spans="1:9" ht="75">
+    <row r="318" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A318" s="28" t="s">
         <v>343</v>
       </c>
@@ -16819,7 +16819,7 @@
       </c>
       <c r="I318" s="30"/>
     </row>
-    <row r="319" spans="1:9" ht="30">
+    <row r="319" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="28" t="s">
         <v>344</v>
       </c>
@@ -16844,7 +16844,7 @@
       </c>
       <c r="I319" s="30"/>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="28" t="s">
         <v>345</v>
       </c>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I320" s="30"/>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="28" t="s">
         <v>346</v>
       </c>
@@ -16894,7 +16894,7 @@
       </c>
       <c r="I321" s="30"/>
     </row>
-    <row r="322" spans="1:9" ht="30">
+    <row r="322" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="28" t="s">
         <v>347</v>
       </c>
@@ -16919,7 +16919,7 @@
       </c>
       <c r="I322" s="30"/>
     </row>
-    <row r="323" spans="1:9" ht="30">
+    <row r="323" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="28" t="s">
         <v>348</v>
       </c>
@@ -16944,7 +16944,7 @@
       </c>
       <c r="I323" s="30"/>
     </row>
-    <row r="324" spans="1:9" ht="30">
+    <row r="324" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="28" t="s">
         <v>349</v>
       </c>
@@ -16969,7 +16969,7 @@
       </c>
       <c r="I324" s="30"/>
     </row>
-    <row r="325" spans="1:9" ht="30">
+    <row r="325" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="28" t="s">
         <v>350</v>
       </c>
@@ -16994,7 +16994,7 @@
       </c>
       <c r="I325" s="30"/>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="28" t="s">
         <v>351</v>
       </c>
@@ -17019,7 +17019,7 @@
       </c>
       <c r="I326" s="30"/>
     </row>
-    <row r="327" spans="1:9" ht="30">
+    <row r="327" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="28" t="s">
         <v>352</v>
       </c>
@@ -17044,7 +17044,7 @@
       </c>
       <c r="I327" s="30"/>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="28" t="s">
         <v>353</v>
       </c>
@@ -17069,7 +17069,7 @@
       </c>
       <c r="I328" s="30"/>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="28" t="s">
         <v>354</v>
       </c>
@@ -17094,7 +17094,7 @@
       </c>
       <c r="I329" s="30"/>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="28" t="s">
         <v>355</v>
       </c>
@@ -17119,7 +17119,7 @@
       </c>
       <c r="I330" s="30"/>
     </row>
-    <row r="331" spans="1:9" ht="30">
+    <row r="331" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="28" t="s">
         <v>356</v>
       </c>
@@ -17144,7 +17144,7 @@
       </c>
       <c r="I331" s="30"/>
     </row>
-    <row r="332" spans="1:9" ht="30">
+    <row r="332" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="28" t="s">
         <v>357</v>
       </c>
@@ -17169,7 +17169,7 @@
       </c>
       <c r="I332" s="30"/>
     </row>
-    <row r="333" spans="1:9" ht="30">
+    <row r="333" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="28" t="s">
         <v>358</v>
       </c>
@@ -17194,7 +17194,7 @@
       </c>
       <c r="I333" s="30"/>
     </row>
-    <row r="334" spans="1:9" ht="120">
+    <row r="334" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A334" s="28" t="s">
         <v>359</v>
       </c>
@@ -17219,7 +17219,7 @@
       </c>
       <c r="I334" s="30"/>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="28" t="s">
         <v>360</v>
       </c>
@@ -17244,7 +17244,7 @@
       </c>
       <c r="I335" s="30"/>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="28" t="s">
         <v>361</v>
       </c>
@@ -17269,7 +17269,7 @@
       </c>
       <c r="I336" s="30"/>
     </row>
-    <row r="337" spans="1:9" ht="30">
+    <row r="337" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="20" t="s">
         <v>2049</v>
       </c>
@@ -17294,7 +17294,7 @@
       </c>
       <c r="I337" s="33"/>
     </row>
-    <row r="338" spans="1:9" ht="30">
+    <row r="338" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="28" t="s">
         <v>362</v>
       </c>
@@ -17319,7 +17319,7 @@
       </c>
       <c r="I338" s="30"/>
     </row>
-    <row r="339" spans="1:9" ht="409.5">
+    <row r="339" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A339" s="28" t="s">
         <v>363</v>
       </c>
@@ -17344,7 +17344,7 @@
       </c>
       <c r="I339" s="30"/>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="28" t="s">
         <v>364</v>
       </c>
@@ -17369,7 +17369,7 @@
       </c>
       <c r="I340" s="30"/>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="28" t="s">
         <v>365</v>
       </c>
@@ -17394,7 +17394,7 @@
       </c>
       <c r="I341" s="30"/>
     </row>
-    <row r="342" spans="1:9" ht="30">
+    <row r="342" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="28" t="s">
         <v>366</v>
       </c>
@@ -17419,7 +17419,7 @@
       </c>
       <c r="I342" s="30"/>
     </row>
-    <row r="343" spans="1:9" ht="30">
+    <row r="343" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="28" t="s">
         <v>367</v>
       </c>
@@ -17444,7 +17444,7 @@
       </c>
       <c r="I343" s="30"/>
     </row>
-    <row r="344" spans="1:9" ht="30">
+    <row r="344" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" s="28" t="s">
         <v>368</v>
       </c>
@@ -17469,7 +17469,7 @@
       </c>
       <c r="I344" s="30"/>
     </row>
-    <row r="345" spans="1:9" ht="30">
+    <row r="345" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="28" t="s">
         <v>369</v>
       </c>
@@ -17494,7 +17494,7 @@
       </c>
       <c r="I345" s="30"/>
     </row>
-    <row r="346" spans="1:9" ht="30">
+    <row r="346" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="28" t="s">
         <v>370</v>
       </c>
@@ -17519,7 +17519,7 @@
       </c>
       <c r="I346" s="30"/>
     </row>
-    <row r="347" spans="1:9" ht="30">
+    <row r="347" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="28" t="s">
         <v>371</v>
       </c>
@@ -17544,7 +17544,7 @@
       </c>
       <c r="I347" s="30"/>
     </row>
-    <row r="348" spans="1:9" ht="30">
+    <row r="348" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="28" t="s">
         <v>372</v>
       </c>
@@ -17569,7 +17569,7 @@
       </c>
       <c r="I348" s="30"/>
     </row>
-    <row r="349" spans="1:9" ht="30">
+    <row r="349" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="28" t="s">
         <v>373</v>
       </c>
@@ -17594,7 +17594,7 @@
       </c>
       <c r="I349" s="30"/>
     </row>
-    <row r="350" spans="1:9" ht="30">
+    <row r="350" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="28" t="s">
         <v>374</v>
       </c>
@@ -17619,7 +17619,7 @@
       </c>
       <c r="I350" s="30"/>
     </row>
-    <row r="351" spans="1:9" ht="30">
+    <row r="351" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="28" t="s">
         <v>375</v>
       </c>
@@ -17644,7 +17644,7 @@
       </c>
       <c r="I351" s="30"/>
     </row>
-    <row r="352" spans="1:9" ht="45">
+    <row r="352" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A352" s="28" t="s">
         <v>376</v>
       </c>
@@ -17669,7 +17669,7 @@
       </c>
       <c r="I352" s="30"/>
     </row>
-    <row r="353" spans="1:9" ht="45">
+    <row r="353" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A353" s="28" t="s">
         <v>377</v>
       </c>
@@ -17694,7 +17694,7 @@
       </c>
       <c r="I353" s="30"/>
     </row>
-    <row r="354" spans="1:9" ht="30">
+    <row r="354" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A354" s="28" t="s">
         <v>378</v>
       </c>
@@ -17719,7 +17719,7 @@
       </c>
       <c r="I354" s="30"/>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="28" t="s">
         <v>379</v>
       </c>
@@ -17744,7 +17744,7 @@
       </c>
       <c r="I355" s="30"/>
     </row>
-    <row r="356" spans="1:9" ht="30">
+    <row r="356" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="28" t="s">
         <v>380</v>
       </c>
@@ -17769,7 +17769,7 @@
       </c>
       <c r="I356" s="30"/>
     </row>
-    <row r="357" spans="1:9" ht="30">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="28" t="s">
         <v>381</v>
       </c>
@@ -17794,7 +17794,7 @@
       </c>
       <c r="I357" s="30"/>
     </row>
-    <row r="358" spans="1:9" ht="30">
+    <row r="358" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" s="28" t="s">
         <v>382</v>
       </c>
@@ -17819,7 +17819,7 @@
       </c>
       <c r="I358" s="30"/>
     </row>
-    <row r="359" spans="1:9" ht="30">
+    <row r="359" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="28" t="s">
         <v>383</v>
       </c>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="I359" s="30"/>
     </row>
-    <row r="360" spans="1:9" ht="30">
+    <row r="360" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="28" t="s">
         <v>384</v>
       </c>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="I360" s="30"/>
     </row>
-    <row r="361" spans="1:9" ht="30">
+    <row r="361" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="28" t="s">
         <v>385</v>
       </c>
@@ -17894,7 +17894,7 @@
       </c>
       <c r="I361" s="30"/>
     </row>
-    <row r="362" spans="1:9" ht="30">
+    <row r="362" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="28" t="s">
         <v>386</v>
       </c>
@@ -17919,7 +17919,7 @@
       </c>
       <c r="I362" s="30"/>
     </row>
-    <row r="363" spans="1:9" ht="30">
+    <row r="363" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" s="28" t="s">
         <v>387</v>
       </c>
@@ -17944,7 +17944,7 @@
       </c>
       <c r="I363" s="30"/>
     </row>
-    <row r="364" spans="1:9" ht="30">
+    <row r="364" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" s="28" t="s">
         <v>388</v>
       </c>
@@ -17969,7 +17969,7 @@
       </c>
       <c r="I364" s="30"/>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="28" t="s">
         <v>389</v>
       </c>
@@ -17994,7 +17994,7 @@
       </c>
       <c r="I365" s="30"/>
     </row>
-    <row r="366" spans="1:9" ht="30">
+    <row r="366" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" s="28" t="s">
         <v>390</v>
       </c>
@@ -18019,7 +18019,7 @@
       </c>
       <c r="I366" s="30"/>
     </row>
-    <row r="367" spans="1:9" ht="30">
+    <row r="367" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="28" t="s">
         <v>391</v>
       </c>
@@ -18044,7 +18044,7 @@
       </c>
       <c r="I367" s="30"/>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="28" t="s">
         <v>392</v>
       </c>
@@ -18069,7 +18069,7 @@
       </c>
       <c r="I368" s="30"/>
     </row>
-    <row r="369" spans="1:9" ht="30">
+    <row r="369" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" s="28" t="s">
         <v>393</v>
       </c>
@@ -18094,7 +18094,7 @@
       </c>
       <c r="I369" s="30"/>
     </row>
-    <row r="370" spans="1:9" ht="30">
+    <row r="370" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A370" s="28" t="s">
         <v>394</v>
       </c>
@@ -18119,7 +18119,7 @@
       </c>
       <c r="I370" s="30"/>
     </row>
-    <row r="371" spans="1:9" ht="30">
+    <row r="371" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="28" t="s">
         <v>395</v>
       </c>
@@ -18144,7 +18144,7 @@
       </c>
       <c r="I371" s="30"/>
     </row>
-    <row r="372" spans="1:9" ht="90">
+    <row r="372" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A372" s="28" t="s">
         <v>396</v>
       </c>
@@ -18169,7 +18169,7 @@
       </c>
       <c r="I372" s="30"/>
     </row>
-    <row r="373" spans="1:9" ht="30">
+    <row r="373" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="28" t="s">
         <v>397</v>
       </c>
@@ -18196,7 +18196,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="30">
+    <row r="374" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A374" s="28" t="s">
         <v>398</v>
       </c>
@@ -18221,7 +18221,7 @@
       </c>
       <c r="I374" s="30"/>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="28" t="s">
         <v>399</v>
       </c>
@@ -18246,7 +18246,7 @@
       </c>
       <c r="I375" s="30"/>
     </row>
-    <row r="376" spans="1:9" ht="30">
+    <row r="376" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="28" t="s">
         <v>400</v>
       </c>
@@ -18271,7 +18271,7 @@
       </c>
       <c r="I376" s="30"/>
     </row>
-    <row r="377" spans="1:9" ht="30">
+    <row r="377" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="28" t="s">
         <v>401</v>
       </c>
@@ -18296,7 +18296,7 @@
       </c>
       <c r="I377" s="30"/>
     </row>
-    <row r="378" spans="1:9" ht="30">
+    <row r="378" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="28" t="s">
         <v>402</v>
       </c>
@@ -18321,7 +18321,7 @@
       </c>
       <c r="I378" s="30"/>
     </row>
-    <row r="379" spans="1:9" ht="30">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="28" t="s">
         <v>403</v>
       </c>
@@ -18346,7 +18346,7 @@
       </c>
       <c r="I379" s="30"/>
     </row>
-    <row r="380" spans="1:9" ht="45">
+    <row r="380" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A380" s="28" t="s">
         <v>404</v>
       </c>
@@ -18371,7 +18371,7 @@
       </c>
       <c r="I380" s="30"/>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="28" t="s">
         <v>405</v>
       </c>
@@ -18396,7 +18396,7 @@
       </c>
       <c r="I381" s="30"/>
     </row>
-    <row r="382" spans="1:9" ht="30">
+    <row r="382" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="28" t="s">
         <v>406</v>
       </c>
@@ -18421,7 +18421,7 @@
       </c>
       <c r="I382" s="30"/>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="28" t="s">
         <v>407</v>
       </c>
@@ -18446,7 +18446,7 @@
       </c>
       <c r="I383" s="30"/>
     </row>
-    <row r="384" spans="1:9" ht="30">
+    <row r="384" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="28" t="s">
         <v>408</v>
       </c>
@@ -18471,7 +18471,7 @@
       </c>
       <c r="I384" s="30"/>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="28" t="s">
         <v>409</v>
       </c>
@@ -18496,7 +18496,7 @@
       </c>
       <c r="I385" s="30"/>
     </row>
-    <row r="386" spans="1:9" ht="30">
+    <row r="386" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A386" s="28" t="s">
         <v>410</v>
       </c>
@@ -18521,7 +18521,7 @@
       </c>
       <c r="I386" s="30"/>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="28" t="s">
         <v>411</v>
       </c>
@@ -18546,7 +18546,7 @@
       </c>
       <c r="I387" s="30"/>
     </row>
-    <row r="388" spans="1:9" ht="60">
+    <row r="388" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A388" s="28" t="s">
         <v>412</v>
       </c>
@@ -18571,7 +18571,7 @@
       </c>
       <c r="I388" s="30"/>
     </row>
-    <row r="389" spans="1:9" ht="30">
+    <row r="389" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A389" s="28" t="s">
         <v>413</v>
       </c>
@@ -18596,7 +18596,7 @@
       </c>
       <c r="I389" s="30"/>
     </row>
-    <row r="390" spans="1:9" ht="409.5">
+    <row r="390" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A390" s="28" t="s">
         <v>414</v>
       </c>
@@ -18621,7 +18621,7 @@
       </c>
       <c r="I390" s="30"/>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="28" t="s">
         <v>415</v>
       </c>
@@ -18646,7 +18646,7 @@
       </c>
       <c r="I391" s="30"/>
     </row>
-    <row r="392" spans="1:9" ht="30">
+    <row r="392" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="28" t="s">
         <v>416</v>
       </c>
@@ -18671,7 +18671,7 @@
       </c>
       <c r="I392" s="30"/>
     </row>
-    <row r="393" spans="1:9" ht="30">
+    <row r="393" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="28" t="s">
         <v>417</v>
       </c>
@@ -18696,7 +18696,7 @@
       </c>
       <c r="I393" s="30"/>
     </row>
-    <row r="394" spans="1:9" ht="30">
+    <row r="394" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="28" t="s">
         <v>418</v>
       </c>
@@ -18721,7 +18721,7 @@
       </c>
       <c r="I394" s="30"/>
     </row>
-    <row r="395" spans="1:9" ht="30">
+    <row r="395" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="28" t="s">
         <v>419</v>
       </c>
@@ -18746,7 +18746,7 @@
       </c>
       <c r="I395" s="30"/>
     </row>
-    <row r="396" spans="1:9" ht="30">
+    <row r="396" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="28" t="s">
         <v>420</v>
       </c>
@@ -18771,7 +18771,7 @@
       </c>
       <c r="I396" s="30"/>
     </row>
-    <row r="397" spans="1:9" ht="45">
+    <row r="397" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="28" t="s">
         <v>421</v>
       </c>
@@ -18796,7 +18796,7 @@
       </c>
       <c r="I397" s="30"/>
     </row>
-    <row r="398" spans="1:9" ht="30">
+    <row r="398" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="28" t="s">
         <v>422</v>
       </c>
@@ -18821,7 +18821,7 @@
       </c>
       <c r="I398" s="18"/>
     </row>
-    <row r="399" spans="1:9" ht="30">
+    <row r="399" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A399" s="28" t="s">
         <v>423</v>
       </c>
@@ -18846,7 +18846,7 @@
       </c>
       <c r="I399" s="18"/>
     </row>
-    <row r="400" spans="1:9" ht="30">
+    <row r="400" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="28" t="s">
         <v>424</v>
       </c>
@@ -18871,7 +18871,7 @@
       </c>
       <c r="I400" s="30"/>
     </row>
-    <row r="401" spans="1:9" ht="30">
+    <row r="401" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A401" s="28" t="s">
         <v>425</v>
       </c>
@@ -18896,7 +18896,7 @@
       </c>
       <c r="I401" s="30"/>
     </row>
-    <row r="402" spans="1:9" ht="30">
+    <row r="402" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A402" s="28" t="s">
         <v>426</v>
       </c>
@@ -18921,7 +18921,7 @@
       </c>
       <c r="I402" s="30"/>
     </row>
-    <row r="403" spans="1:9" ht="30">
+    <row r="403" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="28" t="s">
         <v>427</v>
       </c>
@@ -18946,7 +18946,7 @@
       </c>
       <c r="I403" s="30"/>
     </row>
-    <row r="404" spans="1:9" ht="45">
+    <row r="404" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A404" s="28" t="s">
         <v>428</v>
       </c>
@@ -18971,7 +18971,7 @@
       </c>
       <c r="I404" s="18"/>
     </row>
-    <row r="405" spans="1:9" ht="30">
+    <row r="405" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="28" t="s">
         <v>429</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="75">
+    <row r="406" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A406" s="28" t="s">
         <v>430</v>
       </c>
@@ -19023,7 +19023,7 @@
       </c>
       <c r="I406" s="30"/>
     </row>
-    <row r="407" spans="1:9" ht="30">
+    <row r="407" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="28" t="s">
         <v>431</v>
       </c>
@@ -19048,7 +19048,7 @@
       </c>
       <c r="I407" s="30"/>
     </row>
-    <row r="408" spans="1:9" ht="30">
+    <row r="408" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="28" t="s">
         <v>432</v>
       </c>
@@ -19073,7 +19073,7 @@
       </c>
       <c r="I408" s="30"/>
     </row>
-    <row r="409" spans="1:9" ht="30">
+    <row r="409" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A409" s="28" t="s">
         <v>433</v>
       </c>
@@ -19098,7 +19098,7 @@
       </c>
       <c r="I409" s="30"/>
     </row>
-    <row r="410" spans="1:9" ht="30">
+    <row r="410" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A410" s="28" t="s">
         <v>434</v>
       </c>
@@ -19123,7 +19123,7 @@
       </c>
       <c r="I410" s="30"/>
     </row>
-    <row r="411" spans="1:9" ht="30">
+    <row r="411" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="28" t="s">
         <v>435</v>
       </c>
@@ -19148,7 +19148,7 @@
       </c>
       <c r="I411" s="30"/>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="28" t="s">
         <v>436</v>
       </c>
@@ -19173,7 +19173,7 @@
       </c>
       <c r="I412" s="30"/>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="28" t="s">
         <v>437</v>
       </c>
@@ -19198,7 +19198,7 @@
       </c>
       <c r="I413" s="30"/>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="28" t="s">
         <v>438</v>
       </c>
@@ -19223,7 +19223,7 @@
       </c>
       <c r="I414" s="30"/>
     </row>
-    <row r="415" spans="1:9" ht="45">
+    <row r="415" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A415" s="28" t="s">
         <v>439</v>
       </c>
@@ -19248,7 +19248,7 @@
       </c>
       <c r="I415" s="30"/>
     </row>
-    <row r="416" spans="1:9" ht="30">
+    <row r="416" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A416" s="28" t="s">
         <v>440</v>
       </c>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="I416" s="30"/>
     </row>
-    <row r="417" spans="1:9" ht="30">
+    <row r="417" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="28" t="s">
         <v>441</v>
       </c>
@@ -19298,7 +19298,7 @@
       </c>
       <c r="I417" s="30"/>
     </row>
-    <row r="418" spans="1:9" ht="30">
+    <row r="418" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="28" t="s">
         <v>442</v>
       </c>
@@ -19323,7 +19323,7 @@
       </c>
       <c r="I418" s="30"/>
     </row>
-    <row r="419" spans="1:9" ht="30">
+    <row r="419" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="28" t="s">
         <v>443</v>
       </c>
@@ -19348,7 +19348,7 @@
       </c>
       <c r="I419" s="30"/>
     </row>
-    <row r="420" spans="1:9" ht="30">
+    <row r="420" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A420" s="28" t="s">
         <v>444</v>
       </c>
@@ -19373,7 +19373,7 @@
       </c>
       <c r="I420" s="30"/>
     </row>
-    <row r="421" spans="1:9" ht="30">
+    <row r="421" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="28" t="s">
         <v>445</v>
       </c>
@@ -19398,7 +19398,7 @@
       </c>
       <c r="I421" s="30"/>
     </row>
-    <row r="422" spans="1:9" ht="30">
+    <row r="422" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A422" s="28" t="s">
         <v>446</v>
       </c>
@@ -19423,7 +19423,7 @@
       </c>
       <c r="I422" s="30"/>
     </row>
-    <row r="423" spans="1:9" ht="30">
+    <row r="423" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="28" t="s">
         <v>447</v>
       </c>
@@ -19448,7 +19448,7 @@
       </c>
       <c r="I423" s="30"/>
     </row>
-    <row r="424" spans="1:9" ht="30">
+    <row r="424" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="28" t="s">
         <v>448</v>
       </c>
@@ -19473,7 +19473,7 @@
       </c>
       <c r="I424" s="30"/>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="28" t="s">
         <v>449</v>
       </c>
@@ -19498,7 +19498,7 @@
       </c>
       <c r="I425" s="30"/>
     </row>
-    <row r="426" spans="1:9" ht="30">
+    <row r="426" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="28" t="s">
         <v>450</v>
       </c>
@@ -19523,7 +19523,7 @@
       </c>
       <c r="I426" s="30"/>
     </row>
-    <row r="427" spans="1:9" ht="30">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="28" t="s">
         <v>451</v>
       </c>
@@ -19548,7 +19548,7 @@
       </c>
       <c r="I427" s="30"/>
     </row>
-    <row r="428" spans="1:9" ht="30">
+    <row r="428" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" s="28" t="s">
         <v>452</v>
       </c>
@@ -19573,7 +19573,7 @@
       </c>
       <c r="I428" s="30"/>
     </row>
-    <row r="429" spans="1:9" ht="30">
+    <row r="429" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="28" t="s">
         <v>453</v>
       </c>
@@ -19598,7 +19598,7 @@
       </c>
       <c r="I429" s="30"/>
     </row>
-    <row r="430" spans="1:9" ht="45">
+    <row r="430" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A430" s="28" t="s">
         <v>454</v>
       </c>
@@ -19623,7 +19623,7 @@
       </c>
       <c r="I430" s="30"/>
     </row>
-    <row r="431" spans="1:9" ht="120">
+    <row r="431" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A431" s="28" t="s">
         <v>455</v>
       </c>
@@ -19648,7 +19648,7 @@
       </c>
       <c r="I431" s="30"/>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="28" t="s">
         <v>456</v>
       </c>
@@ -19673,7 +19673,7 @@
       </c>
       <c r="I432" s="30"/>
     </row>
-    <row r="433" spans="1:9" ht="135">
+    <row r="433" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A433" s="28" t="s">
         <v>457</v>
       </c>
@@ -19698,7 +19698,7 @@
       </c>
       <c r="I433" s="30"/>
     </row>
-    <row r="434" spans="1:9" ht="30">
+    <row r="434" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A434" s="28" t="s">
         <v>458</v>
       </c>
@@ -19723,7 +19723,7 @@
       </c>
       <c r="I434" s="30"/>
     </row>
-    <row r="435" spans="1:9" ht="60">
+    <row r="435" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A435" s="28" t="s">
         <v>459</v>
       </c>
@@ -19750,7 +19750,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="30">
+    <row r="436" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="28" t="s">
         <v>461</v>
       </c>
@@ -19775,7 +19775,7 @@
       </c>
       <c r="I436" s="30"/>
     </row>
-    <row r="437" spans="1:9" ht="30">
+    <row r="437" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A437" s="28" t="s">
         <v>462</v>
       </c>
@@ -19800,7 +19800,7 @@
       </c>
       <c r="I437" s="30"/>
     </row>
-    <row r="438" spans="1:9" ht="45">
+    <row r="438" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A438" s="28" t="s">
         <v>463</v>
       </c>
@@ -19825,7 +19825,7 @@
       </c>
       <c r="I438" s="30"/>
     </row>
-    <row r="439" spans="1:9" ht="30">
+    <row r="439" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A439" s="28" t="s">
         <v>464</v>
       </c>
@@ -19850,7 +19850,7 @@
       </c>
       <c r="I439" s="30"/>
     </row>
-    <row r="440" spans="1:9" ht="30">
+    <row r="440" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="28" t="s">
         <v>465</v>
       </c>
@@ -19875,7 +19875,7 @@
       </c>
       <c r="I440" s="30"/>
     </row>
-    <row r="441" spans="1:9" ht="30">
+    <row r="441" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A441" s="28" t="s">
         <v>466</v>
       </c>
@@ -19900,7 +19900,7 @@
       </c>
       <c r="I441" s="30"/>
     </row>
-    <row r="442" spans="1:9" ht="135">
+    <row r="442" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A442" s="28" t="s">
         <v>467</v>
       </c>
@@ -19925,7 +19925,7 @@
       </c>
       <c r="I442" s="30"/>
     </row>
-    <row r="443" spans="1:9">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="28" t="s">
         <v>468</v>
       </c>
@@ -19950,7 +19950,7 @@
       </c>
       <c r="I443" s="30"/>
     </row>
-    <row r="444" spans="1:9" ht="30">
+    <row r="444" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A444" s="28" t="s">
         <v>469</v>
       </c>
@@ -19975,7 +19975,7 @@
       </c>
       <c r="I444" s="30"/>
     </row>
-    <row r="445" spans="1:9" ht="30">
+    <row r="445" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A445" s="28" t="s">
         <v>470</v>
       </c>
@@ -20000,7 +20000,7 @@
       </c>
       <c r="I445" s="30"/>
     </row>
-    <row r="446" spans="1:9" ht="30">
+    <row r="446" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A446" s="28" t="s">
         <v>471</v>
       </c>
@@ -20025,7 +20025,7 @@
       </c>
       <c r="I446" s="30"/>
     </row>
-    <row r="447" spans="1:9" ht="30">
+    <row r="447" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="28" t="s">
         <v>472</v>
       </c>
@@ -20050,7 +20050,7 @@
       </c>
       <c r="I447" s="30"/>
     </row>
-    <row r="448" spans="1:9" ht="30">
+    <row r="448" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A448" s="28" t="s">
         <v>473</v>
       </c>
@@ -20075,7 +20075,7 @@
       </c>
       <c r="I448" s="30"/>
     </row>
-    <row r="449" spans="1:9" ht="45">
+    <row r="449" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A449" s="28" t="s">
         <v>474</v>
       </c>
@@ -20100,7 +20100,7 @@
       </c>
       <c r="I449" s="30"/>
     </row>
-    <row r="450" spans="1:9" ht="30">
+    <row r="450" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A450" s="28" t="s">
         <v>475</v>
       </c>
@@ -20125,7 +20125,7 @@
       </c>
       <c r="I450" s="30"/>
     </row>
-    <row r="451" spans="1:9" ht="30">
+    <row r="451" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A451" s="28" t="s">
         <v>476</v>
       </c>
@@ -20150,7 +20150,7 @@
       </c>
       <c r="I451" s="30"/>
     </row>
-    <row r="452" spans="1:9" ht="30">
+    <row r="452" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A452" s="28" t="s">
         <v>477</v>
       </c>
@@ -20175,7 +20175,7 @@
       </c>
       <c r="I452" s="30"/>
     </row>
-    <row r="453" spans="1:9" ht="30">
+    <row r="453" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A453" s="28" t="s">
         <v>478</v>
       </c>
@@ -20200,7 +20200,7 @@
       </c>
       <c r="I453" s="30"/>
     </row>
-    <row r="454" spans="1:9" ht="30">
+    <row r="454" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A454" s="28" t="s">
         <v>479</v>
       </c>
@@ -20225,7 +20225,7 @@
       </c>
       <c r="I454" s="30"/>
     </row>
-    <row r="455" spans="1:9" ht="75">
+    <row r="455" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A455" s="28" t="s">
         <v>480</v>
       </c>
@@ -20250,7 +20250,7 @@
       </c>
       <c r="I455" s="30"/>
     </row>
-    <row r="456" spans="1:9" ht="30">
+    <row r="456" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A456" s="28" t="s">
         <v>481</v>
       </c>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="I456" s="30"/>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="28" t="s">
         <v>482</v>
       </c>
@@ -20300,7 +20300,7 @@
       </c>
       <c r="I457" s="30"/>
     </row>
-    <row r="458" spans="1:9" ht="30">
+    <row r="458" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A458" s="28" t="s">
         <v>483</v>
       </c>
@@ -20325,7 +20325,7 @@
       </c>
       <c r="I458" s="30"/>
     </row>
-    <row r="459" spans="1:9" ht="30">
+    <row r="459" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A459" s="28" t="s">
         <v>484</v>
       </c>
@@ -20350,7 +20350,7 @@
       </c>
       <c r="I459" s="30"/>
     </row>
-    <row r="460" spans="1:9" ht="30">
+    <row r="460" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A460" s="28" t="s">
         <v>485</v>
       </c>
@@ -20375,7 +20375,7 @@
       </c>
       <c r="I460" s="30"/>
     </row>
-    <row r="461" spans="1:9" ht="30">
+    <row r="461" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A461" s="28" t="s">
         <v>486</v>
       </c>
@@ -20400,7 +20400,7 @@
       </c>
       <c r="I461" s="30"/>
     </row>
-    <row r="462" spans="1:9" ht="30">
+    <row r="462" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A462" s="28" t="s">
         <v>487</v>
       </c>
@@ -20425,7 +20425,7 @@
       </c>
       <c r="I462" s="30"/>
     </row>
-    <row r="463" spans="1:9">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="28" t="s">
         <v>488</v>
       </c>
@@ -20450,7 +20450,7 @@
       </c>
       <c r="I463" s="30"/>
     </row>
-    <row r="464" spans="1:9" ht="30">
+    <row r="464" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A464" s="28" t="s">
         <v>489</v>
       </c>
@@ -20475,7 +20475,7 @@
       </c>
       <c r="I464" s="30"/>
     </row>
-    <row r="465" spans="1:9" ht="30">
+    <row r="465" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A465" s="28" t="s">
         <v>490</v>
       </c>
@@ -20500,7 +20500,7 @@
       </c>
       <c r="I465" s="30"/>
     </row>
-    <row r="466" spans="1:9" ht="30">
+    <row r="466" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A466" s="28" t="s">
         <v>491</v>
       </c>
@@ -20525,7 +20525,7 @@
       </c>
       <c r="I466" s="30"/>
     </row>
-    <row r="467" spans="1:9" ht="30">
+    <row r="467" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A467" s="28" t="s">
         <v>492</v>
       </c>
@@ -20550,7 +20550,7 @@
       </c>
       <c r="I467" s="30"/>
     </row>
-    <row r="468" spans="1:9" ht="60">
+    <row r="468" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A468" s="28" t="s">
         <v>493</v>
       </c>
@@ -20575,7 +20575,7 @@
       </c>
       <c r="I468" s="30"/>
     </row>
-    <row r="469" spans="1:9" ht="75">
+    <row r="469" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A469" s="28" t="s">
         <v>494</v>
       </c>
@@ -20600,7 +20600,7 @@
       </c>
       <c r="I469" s="30"/>
     </row>
-    <row r="470" spans="1:9" ht="240">
+    <row r="470" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A470" s="28" t="s">
         <v>495</v>
       </c>
@@ -20625,7 +20625,7 @@
       </c>
       <c r="I470" s="30"/>
     </row>
-    <row r="471" spans="1:9">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" s="28" t="s">
         <v>496</v>
       </c>
@@ -20650,7 +20650,7 @@
       </c>
       <c r="I471" s="30"/>
     </row>
-    <row r="472" spans="1:9" ht="105">
+    <row r="472" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A472" s="28" t="s">
         <v>497</v>
       </c>
@@ -20675,7 +20675,7 @@
       </c>
       <c r="I472" s="30"/>
     </row>
-    <row r="473" spans="1:9" ht="30">
+    <row r="473" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A473" s="28" t="s">
         <v>498</v>
       </c>
@@ -20702,7 +20702,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="75">
+    <row r="474" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A474" s="28" t="s">
         <v>499</v>
       </c>
@@ -20727,7 +20727,7 @@
       </c>
       <c r="I474" s="30"/>
     </row>
-    <row r="475" spans="1:9" ht="30">
+    <row r="475" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A475" s="28" t="s">
         <v>500</v>
       </c>
@@ -20752,7 +20752,7 @@
       </c>
       <c r="I475" s="30"/>
     </row>
-    <row r="476" spans="1:9">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" s="28" t="s">
         <v>501</v>
       </c>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="I476" s="30"/>
     </row>
-    <row r="477" spans="1:9">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" s="28" t="s">
         <v>502</v>
       </c>
@@ -20802,7 +20802,7 @@
       </c>
       <c r="I477" s="30"/>
     </row>
-    <row r="478" spans="1:9" ht="30">
+    <row r="478" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A478" s="28" t="s">
         <v>503</v>
       </c>
@@ -20827,7 +20827,7 @@
       </c>
       <c r="I478" s="30"/>
     </row>
-    <row r="479" spans="1:9" ht="30">
+    <row r="479" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A479" s="28" t="s">
         <v>504</v>
       </c>
@@ -20852,7 +20852,7 @@
       </c>
       <c r="I479" s="30"/>
     </row>
-    <row r="480" spans="1:9" ht="30">
+    <row r="480" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A480" s="28" t="s">
         <v>505</v>
       </c>
@@ -20877,7 +20877,7 @@
       </c>
       <c r="I480" s="30"/>
     </row>
-    <row r="481" spans="1:9" ht="45">
+    <row r="481" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A481" s="28" t="s">
         <v>506</v>
       </c>
@@ -20902,7 +20902,7 @@
       </c>
       <c r="I481" s="30"/>
     </row>
-    <row r="482" spans="1:9" ht="30">
+    <row r="482" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A482" s="28" t="s">
         <v>507</v>
       </c>
@@ -20927,7 +20927,7 @@
       </c>
       <c r="I482" s="30"/>
     </row>
-    <row r="483" spans="1:9" ht="30">
+    <row r="483" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A483" s="28" t="s">
         <v>508</v>
       </c>
@@ -20952,7 +20952,7 @@
       </c>
       <c r="I483" s="30"/>
     </row>
-    <row r="484" spans="1:9">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" s="28" t="s">
         <v>509</v>
       </c>
@@ -20977,7 +20977,7 @@
       </c>
       <c r="I484" s="30"/>
     </row>
-    <row r="485" spans="1:9" ht="30">
+    <row r="485" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A485" s="28" t="s">
         <v>510</v>
       </c>
@@ -21002,7 +21002,7 @@
       </c>
       <c r="I485" s="30"/>
     </row>
-    <row r="486" spans="1:9">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" s="28" t="s">
         <v>511</v>
       </c>
@@ -21027,7 +21027,7 @@
       </c>
       <c r="I486" s="30"/>
     </row>
-    <row r="487" spans="1:9" ht="30">
+    <row r="487" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="28" t="s">
         <v>512</v>
       </c>
@@ -21052,7 +21052,7 @@
       </c>
       <c r="I487" s="30"/>
     </row>
-    <row r="488" spans="1:9" ht="30">
+    <row r="488" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A488" s="28" t="s">
         <v>513</v>
       </c>
@@ -21077,7 +21077,7 @@
       </c>
       <c r="I488" s="30"/>
     </row>
-    <row r="489" spans="1:9" ht="60">
+    <row r="489" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A489" s="28" t="s">
         <v>514</v>
       </c>
@@ -21102,7 +21102,7 @@
       </c>
       <c r="I489" s="30"/>
     </row>
-    <row r="490" spans="1:9" ht="30">
+    <row r="490" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A490" s="28" t="s">
         <v>515</v>
       </c>
@@ -21127,7 +21127,7 @@
       </c>
       <c r="I490" s="30"/>
     </row>
-    <row r="491" spans="1:9" ht="120">
+    <row r="491" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A491" s="28" t="s">
         <v>516</v>
       </c>
@@ -21152,7 +21152,7 @@
       </c>
       <c r="I491" s="30"/>
     </row>
-    <row r="492" spans="1:9">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" s="28" t="s">
         <v>517</v>
       </c>
@@ -21177,7 +21177,7 @@
       </c>
       <c r="I492" s="30"/>
     </row>
-    <row r="493" spans="1:9" ht="30">
+    <row r="493" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A493" s="28" t="s">
         <v>518</v>
       </c>
@@ -21202,7 +21202,7 @@
       </c>
       <c r="I493" s="30"/>
     </row>
-    <row r="494" spans="1:9" ht="409.5">
+    <row r="494" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A494" s="28" t="s">
         <v>519</v>
       </c>
@@ -21227,7 +21227,7 @@
       </c>
       <c r="I494" s="30"/>
     </row>
-    <row r="495" spans="1:9" ht="30">
+    <row r="495" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A495" s="28" t="s">
         <v>520</v>
       </c>
@@ -21252,7 +21252,7 @@
       </c>
       <c r="I495" s="30"/>
     </row>
-    <row r="496" spans="1:9">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="28" t="s">
         <v>521</v>
       </c>
@@ -21277,7 +21277,7 @@
       </c>
       <c r="I496" s="30"/>
     </row>
-    <row r="497" spans="1:9" ht="30">
+    <row r="497" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A497" s="20" t="s">
         <v>522</v>
       </c>
@@ -21302,7 +21302,7 @@
       </c>
       <c r="I497" s="30"/>
     </row>
-    <row r="498" spans="1:9" ht="30">
+    <row r="498" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="20" t="s">
         <v>2067</v>
       </c>
@@ -21327,7 +21327,7 @@
       </c>
       <c r="I498" s="33"/>
     </row>
-    <row r="499" spans="1:9" ht="30">
+    <row r="499" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="20" t="s">
         <v>523</v>
       </c>
@@ -21352,7 +21352,7 @@
       </c>
       <c r="I499" s="30"/>
     </row>
-    <row r="500" spans="1:9" ht="90">
+    <row r="500" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A500" s="28" t="s">
         <v>524</v>
       </c>
@@ -21379,7 +21379,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="45">
+    <row r="501" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A501" s="28" t="s">
         <v>525</v>
       </c>
@@ -21406,7 +21406,7 @@
       </c>
       <c r="I501" s="30"/>
     </row>
-    <row r="502" spans="1:9" ht="90">
+    <row r="502" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A502" s="28" t="s">
         <v>526</v>
       </c>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="I502" s="30"/>
     </row>
-    <row r="503" spans="1:9" ht="90">
+    <row r="503" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A503" s="20" t="s">
         <v>2072</v>
       </c>
@@ -21460,7 +21460,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="45">
+    <row r="504" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A504" s="20" t="s">
         <v>2074</v>
       </c>
@@ -21487,7 +21487,7 @@
       </c>
       <c r="I504" s="33"/>
     </row>
-    <row r="505" spans="1:9" ht="90">
+    <row r="505" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A505" s="20" t="s">
         <v>2075</v>
       </c>
@@ -21514,7 +21514,7 @@
       </c>
       <c r="I505" s="33"/>
     </row>
-    <row r="506" spans="1:9" ht="90">
+    <row r="506" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A506" s="28" t="s">
         <v>527</v>
       </c>
@@ -21539,7 +21539,7 @@
       </c>
       <c r="I506" s="30"/>
     </row>
-    <row r="507" spans="1:9" ht="45">
+    <row r="507" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A507" s="28" t="s">
         <v>528</v>
       </c>
@@ -21566,7 +21566,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="45">
+    <row r="508" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A508" s="28" t="s">
         <v>529</v>
       </c>
@@ -21593,7 +21593,7 @@
       </c>
       <c r="I508" s="30"/>
     </row>
-    <row r="509" spans="1:9" ht="45">
+    <row r="509" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A509" s="28" t="s">
         <v>530</v>
       </c>
@@ -21620,7 +21620,7 @@
       </c>
       <c r="I509" s="30"/>
     </row>
-    <row r="510" spans="1:9" ht="60">
+    <row r="510" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A510" s="20" t="s">
         <v>2081</v>
       </c>
@@ -21647,7 +21647,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="511" spans="1:9" ht="45">
+    <row r="511" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A511" s="32" t="s">
         <v>2082</v>
       </c>
@@ -21674,7 +21674,7 @@
       </c>
       <c r="I511" s="33"/>
     </row>
-    <row r="512" spans="1:9" ht="45">
+    <row r="512" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A512" s="32" t="s">
         <v>2083</v>
       </c>
@@ -21701,7 +21701,7 @@
       </c>
       <c r="I512" s="33"/>
     </row>
-    <row r="513" spans="1:9" ht="30">
+    <row r="513" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A513" s="28" t="s">
         <v>531</v>
       </c>
@@ -21726,7 +21726,7 @@
       </c>
       <c r="I513" s="30"/>
     </row>
-    <row r="514" spans="1:9">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514" s="28" t="s">
         <v>532</v>
       </c>
@@ -21751,7 +21751,7 @@
       </c>
       <c r="I514" s="30"/>
     </row>
-    <row r="515" spans="1:9" ht="30">
+    <row r="515" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A515" s="28" t="s">
         <v>533</v>
       </c>
@@ -21776,7 +21776,7 @@
       </c>
       <c r="I515" s="30"/>
     </row>
-    <row r="516" spans="1:9" ht="30">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" s="28" t="s">
         <v>534</v>
       </c>
@@ -21801,7 +21801,7 @@
       </c>
       <c r="I516" s="30"/>
     </row>
-    <row r="517" spans="1:9">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" s="28" t="s">
         <v>535</v>
       </c>
@@ -21826,7 +21826,7 @@
       </c>
       <c r="I517" s="30"/>
     </row>
-    <row r="518" spans="1:9">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" s="28" t="s">
         <v>536</v>
       </c>
@@ -21851,7 +21851,7 @@
       </c>
       <c r="I518" s="30"/>
     </row>
-    <row r="519" spans="1:9" ht="30">
+    <row r="519" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A519" s="28" t="s">
         <v>537</v>
       </c>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="I519" s="30"/>
     </row>
-    <row r="520" spans="1:9" ht="30">
+    <row r="520" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A520" s="28" t="s">
         <v>538</v>
       </c>
@@ -21901,7 +21901,7 @@
       </c>
       <c r="I520" s="30"/>
     </row>
-    <row r="521" spans="1:9">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521" s="28" t="s">
         <v>540</v>
       </c>
@@ -21926,7 +21926,7 @@
       </c>
       <c r="I521" s="30"/>
     </row>
-    <row r="522" spans="1:9" ht="75">
+    <row r="522" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A522" s="28" t="s">
         <v>541</v>
       </c>
@@ -21951,7 +21951,7 @@
       </c>
       <c r="I522" s="30"/>
     </row>
-    <row r="523" spans="1:9" ht="30">
+    <row r="523" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A523" s="28" t="s">
         <v>542</v>
       </c>
@@ -21976,7 +21976,7 @@
       </c>
       <c r="I523" s="30"/>
     </row>
-    <row r="524" spans="1:9">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" s="28" t="s">
         <v>543</v>
       </c>
@@ -22001,7 +22001,7 @@
       </c>
       <c r="I524" s="30"/>
     </row>
-    <row r="525" spans="1:9" ht="30">
+    <row r="525" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A525" s="28" t="s">
         <v>544</v>
       </c>
@@ -22026,7 +22026,7 @@
       </c>
       <c r="I525" s="30"/>
     </row>
-    <row r="526" spans="1:9">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526" s="28" t="s">
         <v>545</v>
       </c>
@@ -22051,7 +22051,7 @@
       </c>
       <c r="I526" s="30"/>
     </row>
-    <row r="527" spans="1:9" ht="30">
+    <row r="527" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A527" s="28" t="s">
         <v>546</v>
       </c>
@@ -22076,7 +22076,7 @@
       </c>
       <c r="I527" s="30"/>
     </row>
-    <row r="528" spans="1:9">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" s="28" t="s">
         <v>547</v>
       </c>
@@ -22101,7 +22101,7 @@
       </c>
       <c r="I528" s="30"/>
     </row>
-    <row r="529" spans="1:9" ht="30">
+    <row r="529" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A529" s="28" t="s">
         <v>548</v>
       </c>
@@ -22126,7 +22126,7 @@
       </c>
       <c r="I529" s="30"/>
     </row>
-    <row r="530" spans="1:9" ht="30">
+    <row r="530" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A530" s="28" t="s">
         <v>549</v>
       </c>
@@ -22151,7 +22151,7 @@
       </c>
       <c r="I530" s="30"/>
     </row>
-    <row r="531" spans="1:9" ht="30">
+    <row r="531" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A531" s="28" t="s">
         <v>550</v>
       </c>
@@ -22176,7 +22176,7 @@
       </c>
       <c r="I531" s="30"/>
     </row>
-    <row r="532" spans="1:9" ht="30">
+    <row r="532" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A532" s="28" t="s">
         <v>551</v>
       </c>
@@ -22201,7 +22201,7 @@
       </c>
       <c r="I532" s="30"/>
     </row>
-    <row r="533" spans="1:9" ht="60">
+    <row r="533" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A533" s="28" t="s">
         <v>552</v>
       </c>
@@ -22226,7 +22226,7 @@
       </c>
       <c r="I533" s="30"/>
     </row>
-    <row r="534" spans="1:9" ht="30">
+    <row r="534" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A534" s="28" t="s">
         <v>553</v>
       </c>
@@ -22251,7 +22251,7 @@
       </c>
       <c r="I534" s="30"/>
     </row>
-    <row r="535" spans="1:9">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535" s="28" t="s">
         <v>554</v>
       </c>
@@ -22276,7 +22276,7 @@
       </c>
       <c r="I535" s="30"/>
     </row>
-    <row r="536" spans="1:9" ht="30">
+    <row r="536" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A536" s="28" t="s">
         <v>555</v>
       </c>
@@ -22301,7 +22301,7 @@
       </c>
       <c r="I536" s="30"/>
     </row>
-    <row r="537" spans="1:9" ht="45">
+    <row r="537" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A537" s="28" t="s">
         <v>556</v>
       </c>
@@ -22326,7 +22326,7 @@
       </c>
       <c r="I537" s="30"/>
     </row>
-    <row r="538" spans="1:9" ht="45">
+    <row r="538" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A538" s="28" t="s">
         <v>557</v>
       </c>
@@ -22351,7 +22351,7 @@
       </c>
       <c r="I538" s="30"/>
     </row>
-    <row r="539" spans="1:9" ht="120">
+    <row r="539" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A539" s="28" t="s">
         <v>558</v>
       </c>
@@ -22376,7 +22376,7 @@
       </c>
       <c r="I539" s="30"/>
     </row>
-    <row r="540" spans="1:9">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" s="28" t="s">
         <v>559</v>
       </c>
@@ -22401,7 +22401,7 @@
       </c>
       <c r="I540" s="30"/>
     </row>
-    <row r="541" spans="1:9">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541" s="28" t="s">
         <v>560</v>
       </c>
@@ -22426,7 +22426,7 @@
       </c>
       <c r="I541" s="30"/>
     </row>
-    <row r="542" spans="1:9" ht="30">
+    <row r="542" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A542" s="28" t="s">
         <v>561</v>
       </c>
@@ -22451,7 +22451,7 @@
       </c>
       <c r="I542" s="30"/>
     </row>
-    <row r="543" spans="1:9" ht="225">
+    <row r="543" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A543" s="28" t="s">
         <v>562</v>
       </c>
@@ -22476,7 +22476,7 @@
       </c>
       <c r="I543" s="30"/>
     </row>
-    <row r="544" spans="1:9">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" s="20" t="s">
         <v>563</v>
       </c>
@@ -22501,7 +22501,7 @@
       </c>
       <c r="I544" s="30"/>
     </row>
-    <row r="545" spans="1:9">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" s="28" t="s">
         <v>564</v>
       </c>
@@ -22526,7 +22526,7 @@
       </c>
       <c r="I545" s="30"/>
     </row>
-    <row r="546" spans="1:9" ht="45">
+    <row r="546" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A546" s="28" t="s">
         <v>565</v>
       </c>
@@ -22553,7 +22553,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="547" spans="1:9" ht="45">
+    <row r="547" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A547" s="28" t="s">
         <v>566</v>
       </c>
@@ -22580,7 +22580,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="548" spans="1:9" ht="30">
+    <row r="548" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A548" s="28" t="s">
         <v>569</v>
       </c>
@@ -22605,7 +22605,7 @@
       </c>
       <c r="I548" s="30"/>
     </row>
-    <row r="549" spans="1:9" ht="75">
+    <row r="549" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A549" s="28" t="s">
         <v>570</v>
       </c>
@@ -22630,7 +22630,7 @@
       </c>
       <c r="I549" s="30"/>
     </row>
-    <row r="550" spans="1:9" ht="30">
+    <row r="550" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A550" s="28" t="s">
         <v>571</v>
       </c>
@@ -22655,7 +22655,7 @@
       </c>
       <c r="I550" s="30"/>
     </row>
-    <row r="551" spans="1:9">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551" s="28" t="s">
         <v>572</v>
       </c>
@@ -22680,7 +22680,7 @@
       </c>
       <c r="I551" s="30"/>
     </row>
-    <row r="552" spans="1:9" ht="30">
+    <row r="552" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A552" s="28" t="s">
         <v>573</v>
       </c>
@@ -22705,7 +22705,7 @@
       </c>
       <c r="I552" s="30"/>
     </row>
-    <row r="553" spans="1:9">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" s="28" t="s">
         <v>574</v>
       </c>
@@ -22730,7 +22730,7 @@
       </c>
       <c r="I553" s="30"/>
     </row>
-    <row r="554" spans="1:9" ht="30">
+    <row r="554" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A554" s="28" t="s">
         <v>575</v>
       </c>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="I554" s="30"/>
     </row>
-    <row r="555" spans="1:9" ht="30">
+    <row r="555" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A555" s="28" t="s">
         <v>576</v>
       </c>
@@ -22780,7 +22780,7 @@
       </c>
       <c r="I555" s="30"/>
     </row>
-    <row r="556" spans="1:9" ht="30">
+    <row r="556" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A556" s="28" t="s">
         <v>577</v>
       </c>
@@ -22805,7 +22805,7 @@
       </c>
       <c r="I556" s="30"/>
     </row>
-    <row r="557" spans="1:9" ht="30">
+    <row r="557" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A557" s="28" t="s">
         <v>578</v>
       </c>
@@ -22830,7 +22830,7 @@
       </c>
       <c r="I557" s="30"/>
     </row>
-    <row r="558" spans="1:9" ht="30">
+    <row r="558" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A558" s="28" t="s">
         <v>579</v>
       </c>
@@ -22855,7 +22855,7 @@
       </c>
       <c r="I558" s="30"/>
     </row>
-    <row r="559" spans="1:9">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" s="28" t="s">
         <v>580</v>
       </c>
@@ -22880,7 +22880,7 @@
       </c>
       <c r="I559" s="30"/>
     </row>
-    <row r="560" spans="1:9" ht="30">
+    <row r="560" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A560" s="28" t="s">
         <v>581</v>
       </c>
@@ -22905,7 +22905,7 @@
       </c>
       <c r="I560" s="30"/>
     </row>
-    <row r="561" spans="1:9">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561" s="28" t="s">
         <v>582</v>
       </c>
@@ -22930,7 +22930,7 @@
       </c>
       <c r="I561" s="30"/>
     </row>
-    <row r="562" spans="1:9" ht="30">
+    <row r="562" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A562" s="28" t="s">
         <v>583</v>
       </c>
@@ -22955,7 +22955,7 @@
       </c>
       <c r="I562" s="30"/>
     </row>
-    <row r="563" spans="1:9" ht="30">
+    <row r="563" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A563" s="28" t="s">
         <v>584</v>
       </c>
@@ -22980,7 +22980,7 @@
       </c>
       <c r="I563" s="30"/>
     </row>
-    <row r="564" spans="1:9" ht="45">
+    <row r="564" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A564" s="28" t="s">
         <v>585</v>
       </c>
@@ -23005,7 +23005,7 @@
       </c>
       <c r="I564" s="30"/>
     </row>
-    <row r="565" spans="1:9" ht="75">
+    <row r="565" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A565" s="28" t="s">
         <v>586</v>
       </c>
@@ -23030,7 +23030,7 @@
       </c>
       <c r="I565" s="30"/>
     </row>
-    <row r="566" spans="1:9" ht="330">
+    <row r="566" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A566" s="28" t="s">
         <v>587</v>
       </c>
@@ -23055,7 +23055,7 @@
       </c>
       <c r="I566" s="30"/>
     </row>
-    <row r="567" spans="1:9">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567" s="28" t="s">
         <v>588</v>
       </c>
@@ -23080,7 +23080,7 @@
       </c>
       <c r="I567" s="30"/>
     </row>
-    <row r="568" spans="1:9">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" s="28" t="s">
         <v>589</v>
       </c>
@@ -23105,7 +23105,7 @@
       </c>
       <c r="I568" s="30"/>
     </row>
-    <row r="569" spans="1:9" ht="30">
+    <row r="569" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A569" s="28" t="s">
         <v>590</v>
       </c>
@@ -23130,7 +23130,7 @@
       </c>
       <c r="I569" s="30"/>
     </row>
-    <row r="570" spans="1:9">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" s="28" t="s">
         <v>591</v>
       </c>
@@ -23155,7 +23155,7 @@
       </c>
       <c r="I570" s="30"/>
     </row>
-    <row r="571" spans="1:9" ht="30">
+    <row r="571" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A571" s="28" t="s">
         <v>592</v>
       </c>
@@ -23180,7 +23180,7 @@
       </c>
       <c r="I571" s="30"/>
     </row>
-    <row r="572" spans="1:9" ht="30">
+    <row r="572" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A572" s="28" t="s">
         <v>593</v>
       </c>
@@ -23207,7 +23207,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="573" spans="1:9" ht="90">
+    <row r="573" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A573" s="28" t="s">
         <v>594</v>
       </c>
@@ -23232,7 +23232,7 @@
       </c>
       <c r="I573" s="30"/>
     </row>
-    <row r="574" spans="1:9" ht="45">
+    <row r="574" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A574" s="28" t="s">
         <v>595</v>
       </c>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I574" s="30"/>
     </row>
-    <row r="575" spans="1:9" ht="30">
+    <row r="575" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A575" s="28" t="s">
         <v>596</v>
       </c>
@@ -23282,7 +23282,7 @@
       </c>
       <c r="I575" s="30"/>
     </row>
-    <row r="576" spans="1:9" ht="30">
+    <row r="576" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A576" s="28" t="s">
         <v>597</v>
       </c>
@@ -23307,7 +23307,7 @@
       </c>
       <c r="I576" s="30"/>
     </row>
-    <row r="577" spans="1:9" ht="30">
+    <row r="577" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A577" s="28" t="s">
         <v>598</v>
       </c>
@@ -23332,7 +23332,7 @@
       </c>
       <c r="I577" s="30"/>
     </row>
-    <row r="578" spans="1:9" ht="30">
+    <row r="578" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A578" s="28" t="s">
         <v>599</v>
       </c>
@@ -23357,7 +23357,7 @@
       </c>
       <c r="I578" s="30"/>
     </row>
-    <row r="579" spans="1:9" ht="30">
+    <row r="579" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A579" s="28" t="s">
         <v>600</v>
       </c>
@@ -23382,7 +23382,7 @@
       </c>
       <c r="I579" s="30"/>
     </row>
-    <row r="580" spans="1:9" ht="45">
+    <row r="580" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A580" s="28" t="s">
         <v>601</v>
       </c>
@@ -23407,7 +23407,7 @@
       </c>
       <c r="I580" s="30"/>
     </row>
-    <row r="581" spans="1:9" ht="45">
+    <row r="581" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A581" s="28" t="s">
         <v>602</v>
       </c>
@@ -23432,7 +23432,7 @@
       </c>
       <c r="I581" s="30"/>
     </row>
-    <row r="582" spans="1:9" ht="30">
+    <row r="582" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A582" s="28" t="s">
         <v>603</v>
       </c>
@@ -23457,7 +23457,7 @@
       </c>
       <c r="I582" s="30"/>
     </row>
-    <row r="583" spans="1:9" ht="30">
+    <row r="583" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A583" s="28" t="s">
         <v>604</v>
       </c>
@@ -23482,7 +23482,7 @@
       </c>
       <c r="I583" s="30"/>
     </row>
-    <row r="584" spans="1:9" ht="30">
+    <row r="584" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A584" s="28" t="s">
         <v>605</v>
       </c>
@@ -23507,7 +23507,7 @@
       </c>
       <c r="I584" s="30"/>
     </row>
-    <row r="585" spans="1:9" ht="30">
+    <row r="585" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A585" s="28" t="s">
         <v>606</v>
       </c>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="I585" s="30"/>
     </row>
-    <row r="586" spans="1:9" ht="30">
+    <row r="586" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A586" s="28" t="s">
         <v>607</v>
       </c>
@@ -23557,7 +23557,7 @@
       </c>
       <c r="I586" s="30"/>
     </row>
-    <row r="587" spans="1:9" ht="45">
+    <row r="587" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A587" s="28" t="s">
         <v>608</v>
       </c>
@@ -23582,7 +23582,7 @@
       </c>
       <c r="I587" s="30"/>
     </row>
-    <row r="588" spans="1:9" ht="30">
+    <row r="588" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A588" s="28" t="s">
         <v>609</v>
       </c>
@@ -23607,7 +23607,7 @@
       </c>
       <c r="I588" s="30"/>
     </row>
-    <row r="589" spans="1:9" ht="150">
+    <row r="589" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A589" s="28" t="s">
         <v>610</v>
       </c>
@@ -23632,7 +23632,7 @@
       </c>
       <c r="I589" s="30"/>
     </row>
-    <row r="590" spans="1:9" ht="30">
+    <row r="590" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A590" s="20" t="s">
         <v>611</v>
       </c>
@@ -23657,7 +23657,7 @@
       </c>
       <c r="I590" s="30"/>
     </row>
-    <row r="591" spans="1:9" ht="30">
+    <row r="591" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A591" s="32" t="s">
         <v>2095</v>
       </c>
@@ -23682,7 +23682,7 @@
       </c>
       <c r="I591" s="33"/>
     </row>
-    <row r="592" spans="1:9" ht="30">
+    <row r="592" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A592" s="28" t="s">
         <v>612</v>
       </c>
@@ -23707,7 +23707,7 @@
       </c>
       <c r="I592" s="30"/>
     </row>
-    <row r="593" spans="1:9" ht="30">
+    <row r="593" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A593" s="28" t="s">
         <v>613</v>
       </c>
@@ -23732,7 +23732,7 @@
       </c>
       <c r="I593" s="30"/>
     </row>
-    <row r="594" spans="1:9" ht="255">
+    <row r="594" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A594" s="28" t="s">
         <v>614</v>
       </c>
@@ -23757,7 +23757,7 @@
       </c>
       <c r="I594" s="30"/>
     </row>
-    <row r="595" spans="1:9" ht="30">
+    <row r="595" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A595" s="28" t="s">
         <v>615</v>
       </c>
@@ -23782,7 +23782,7 @@
       </c>
       <c r="I595" s="30"/>
     </row>
-    <row r="596" spans="1:9">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596" s="28" t="s">
         <v>616</v>
       </c>
@@ -23807,7 +23807,7 @@
       </c>
       <c r="I596" s="30"/>
     </row>
-    <row r="597" spans="1:9" ht="30">
+    <row r="597" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A597" s="28" t="s">
         <v>617</v>
       </c>
@@ -23834,7 +23834,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="598" spans="1:9" ht="75">
+    <row r="598" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A598" s="28" t="s">
         <v>618</v>
       </c>
@@ -23859,7 +23859,7 @@
       </c>
       <c r="I598" s="30"/>
     </row>
-    <row r="599" spans="1:9" ht="30">
+    <row r="599" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A599" s="28" t="s">
         <v>619</v>
       </c>
@@ -23884,7 +23884,7 @@
       </c>
       <c r="I599" s="30"/>
     </row>
-    <row r="600" spans="1:9" ht="30">
+    <row r="600" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A600" s="28" t="s">
         <v>620</v>
       </c>
@@ -23909,7 +23909,7 @@
       </c>
       <c r="I600" s="30"/>
     </row>
-    <row r="601" spans="1:9" ht="30">
+    <row r="601" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A601" s="28" t="s">
         <v>621</v>
       </c>
@@ -23934,7 +23934,7 @@
       </c>
       <c r="I601" s="30"/>
     </row>
-    <row r="602" spans="1:9">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602" s="28" t="s">
         <v>622</v>
       </c>
@@ -23959,7 +23959,7 @@
       </c>
       <c r="I602" s="30"/>
     </row>
-    <row r="603" spans="1:9" ht="30">
+    <row r="603" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A603" s="28" t="s">
         <v>623</v>
       </c>
@@ -23984,7 +23984,7 @@
       </c>
       <c r="I603" s="30"/>
     </row>
-    <row r="604" spans="1:9" ht="30">
+    <row r="604" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A604" s="28" t="s">
         <v>624</v>
       </c>
@@ -24009,7 +24009,7 @@
       </c>
       <c r="I604" s="30"/>
     </row>
-    <row r="605" spans="1:9" ht="30">
+    <row r="605" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A605" s="28" t="s">
         <v>625</v>
       </c>
@@ -24034,7 +24034,7 @@
       </c>
       <c r="I605" s="30"/>
     </row>
-    <row r="606" spans="1:9" ht="30">
+    <row r="606" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A606" s="28" t="s">
         <v>626</v>
       </c>
@@ -24059,7 +24059,7 @@
       </c>
       <c r="I606" s="30"/>
     </row>
-    <row r="607" spans="1:9" ht="30">
+    <row r="607" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A607" s="28" t="s">
         <v>627</v>
       </c>
@@ -24084,7 +24084,7 @@
       </c>
       <c r="I607" s="30"/>
     </row>
-    <row r="608" spans="1:9" ht="30">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608" s="28" t="s">
         <v>628</v>
       </c>
@@ -24109,7 +24109,7 @@
       </c>
       <c r="I608" s="30"/>
     </row>
-    <row r="609" spans="1:9" ht="30">
+    <row r="609" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A609" s="28" t="s">
         <v>629</v>
       </c>
@@ -24134,7 +24134,7 @@
       </c>
       <c r="I609" s="30"/>
     </row>
-    <row r="610" spans="1:9" ht="30">
+    <row r="610" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A610" s="28" t="s">
         <v>630</v>
       </c>
@@ -24159,7 +24159,7 @@
       </c>
       <c r="I610" s="30"/>
     </row>
-    <row r="611" spans="1:9" ht="30">
+    <row r="611" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A611" s="28" t="s">
         <v>631</v>
       </c>
@@ -24184,7 +24184,7 @@
       </c>
       <c r="I611" s="30"/>
     </row>
-    <row r="612" spans="1:9" ht="30">
+    <row r="612" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A612" s="28" t="s">
         <v>632</v>
       </c>
@@ -24209,7 +24209,7 @@
       </c>
       <c r="I612" s="30"/>
     </row>
-    <row r="613" spans="1:9" ht="30">
+    <row r="613" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A613" s="28" t="s">
         <v>633</v>
       </c>
@@ -24234,7 +24234,7 @@
       </c>
       <c r="I613" s="30"/>
     </row>
-    <row r="614" spans="1:9" ht="75">
+    <row r="614" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A614" s="28" t="s">
         <v>634</v>
       </c>
@@ -24259,7 +24259,7 @@
       </c>
       <c r="I614" s="30"/>
     </row>
-    <row r="615" spans="1:9" ht="75">
+    <row r="615" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A615" s="28" t="s">
         <v>635</v>
       </c>
@@ -24284,7 +24284,7 @@
       </c>
       <c r="I615" s="30"/>
     </row>
-    <row r="616" spans="1:9" ht="30">
+    <row r="616" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A616" s="28" t="s">
         <v>636</v>
       </c>
@@ -24311,7 +24311,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="617" spans="1:9" ht="75">
+    <row r="617" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A617" s="28" t="s">
         <v>637</v>
       </c>
@@ -24336,7 +24336,7 @@
       </c>
       <c r="I617" s="30"/>
     </row>
-    <row r="618" spans="1:9" ht="30">
+    <row r="618" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A618" s="28" t="s">
         <v>638</v>
       </c>
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I618" s="30"/>
     </row>
-    <row r="619" spans="1:9" ht="30">
+    <row r="619" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A619" s="28" t="s">
         <v>639</v>
       </c>
@@ -24386,7 +24386,7 @@
       </c>
       <c r="I619" s="30"/>
     </row>
-    <row r="620" spans="1:9" ht="30">
+    <row r="620" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A620" s="28" t="s">
         <v>640</v>
       </c>
@@ -24411,7 +24411,7 @@
       </c>
       <c r="I620" s="30"/>
     </row>
-    <row r="621" spans="1:9" ht="30">
+    <row r="621" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A621" s="28" t="s">
         <v>641</v>
       </c>
@@ -24436,7 +24436,7 @@
       </c>
       <c r="I621" s="30"/>
     </row>
-    <row r="622" spans="1:9" ht="30">
+    <row r="622" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A622" s="28" t="s">
         <v>642</v>
       </c>
@@ -24461,7 +24461,7 @@
       </c>
       <c r="I622" s="30"/>
     </row>
-    <row r="623" spans="1:9" ht="30">
+    <row r="623" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A623" s="28" t="s">
         <v>643</v>
       </c>
@@ -24486,7 +24486,7 @@
       </c>
       <c r="I623" s="30"/>
     </row>
-    <row r="624" spans="1:9" ht="30">
+    <row r="624" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A624" s="28" t="s">
         <v>644</v>
       </c>
@@ -24511,7 +24511,7 @@
       </c>
       <c r="I624" s="30"/>
     </row>
-    <row r="625" spans="1:9">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625" s="28" t="s">
         <v>645</v>
       </c>
@@ -24536,7 +24536,7 @@
       </c>
       <c r="I625" s="30"/>
     </row>
-    <row r="626" spans="1:9" ht="30">
+    <row r="626" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A626" s="28" t="s">
         <v>646</v>
       </c>
@@ -24561,7 +24561,7 @@
       </c>
       <c r="I626" s="30"/>
     </row>
-    <row r="627" spans="1:9">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A627" s="28" t="s">
         <v>647</v>
       </c>
@@ -24586,7 +24586,7 @@
       </c>
       <c r="I627" s="30"/>
     </row>
-    <row r="628" spans="1:9" ht="30">
+    <row r="628" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A628" s="28" t="s">
         <v>648</v>
       </c>
@@ -24611,7 +24611,7 @@
       </c>
       <c r="I628" s="30"/>
     </row>
-    <row r="629" spans="1:9" ht="45">
+    <row r="629" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A629" s="28" t="s">
         <v>649</v>
       </c>
@@ -24636,7 +24636,7 @@
       </c>
       <c r="I629" s="30"/>
     </row>
-    <row r="630" spans="1:9" ht="60">
+    <row r="630" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A630" s="28" t="s">
         <v>650</v>
       </c>
@@ -24661,7 +24661,7 @@
       </c>
       <c r="I630" s="30"/>
     </row>
-    <row r="631" spans="1:9" ht="120">
+    <row r="631" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A631" s="28" t="s">
         <v>651</v>
       </c>
@@ -24686,7 +24686,7 @@
       </c>
       <c r="I631" s="30"/>
     </row>
-    <row r="632" spans="1:9" ht="30">
+    <row r="632" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A632" s="28" t="s">
         <v>652</v>
       </c>
@@ -24711,7 +24711,7 @@
       </c>
       <c r="I632" s="30"/>
     </row>
-    <row r="633" spans="1:9">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A633" s="28" t="s">
         <v>653</v>
       </c>
@@ -24736,7 +24736,7 @@
       </c>
       <c r="I633" s="30"/>
     </row>
-    <row r="634" spans="1:9" ht="30">
+    <row r="634" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A634" s="28" t="s">
         <v>654</v>
       </c>
@@ -24761,7 +24761,7 @@
       </c>
       <c r="I634" s="30"/>
     </row>
-    <row r="635" spans="1:9" ht="30">
+    <row r="635" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A635" s="28" t="s">
         <v>655</v>
       </c>
@@ -24786,7 +24786,7 @@
       </c>
       <c r="I635" s="30"/>
     </row>
-    <row r="636" spans="1:9" ht="60">
+    <row r="636" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A636" s="28" t="s">
         <v>656</v>
       </c>
@@ -24811,7 +24811,7 @@
       </c>
       <c r="I636" s="30"/>
     </row>
-    <row r="637" spans="1:9" ht="45">
+    <row r="637" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A637" s="28" t="s">
         <v>657</v>
       </c>
@@ -24836,7 +24836,7 @@
       </c>
       <c r="I637" s="30"/>
     </row>
-    <row r="638" spans="1:9" ht="45">
+    <row r="638" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A638" s="28" t="s">
         <v>658</v>
       </c>
@@ -24861,7 +24861,7 @@
       </c>
       <c r="I638" s="30"/>
     </row>
-    <row r="639" spans="1:9" ht="60">
+    <row r="639" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A639" s="28" t="s">
         <v>659</v>
       </c>
@@ -24888,7 +24888,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="640" spans="1:9" ht="30">
+    <row r="640" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A640" s="28" t="s">
         <v>661</v>
       </c>
@@ -24915,7 +24915,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="641" spans="1:9" ht="75">
+    <row r="641" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A641" s="28" t="s">
         <v>662</v>
       </c>
@@ -24940,7 +24940,7 @@
       </c>
       <c r="I641" s="30"/>
     </row>
-    <row r="642" spans="1:9" ht="30">
+    <row r="642" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A642" s="28" t="s">
         <v>663</v>
       </c>
@@ -24965,7 +24965,7 @@
       </c>
       <c r="I642" s="30"/>
     </row>
-    <row r="643" spans="1:9">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643" s="28" t="s">
         <v>664</v>
       </c>
@@ -24990,7 +24990,7 @@
       </c>
       <c r="I643" s="30"/>
     </row>
-    <row r="644" spans="1:9" ht="30">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644" s="28" t="s">
         <v>665</v>
       </c>
@@ -25015,7 +25015,7 @@
       </c>
       <c r="I644" s="30"/>
     </row>
-    <row r="645" spans="1:9" ht="30">
+    <row r="645" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A645" s="28" t="s">
         <v>666</v>
       </c>
@@ -25040,7 +25040,7 @@
       </c>
       <c r="I645" s="30"/>
     </row>
-    <row r="646" spans="1:9" ht="30">
+    <row r="646" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A646" s="28" t="s">
         <v>667</v>
       </c>
@@ -25065,7 +25065,7 @@
       </c>
       <c r="I646" s="30"/>
     </row>
-    <row r="647" spans="1:9" ht="30">
+    <row r="647" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A647" s="28" t="s">
         <v>668</v>
       </c>
@@ -25090,7 +25090,7 @@
       </c>
       <c r="I647" s="30"/>
     </row>
-    <row r="648" spans="1:9" ht="30">
+    <row r="648" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A648" s="28" t="s">
         <v>669</v>
       </c>
@@ -25115,7 +25115,7 @@
       </c>
       <c r="I648" s="30"/>
     </row>
-    <row r="649" spans="1:9" ht="30">
+    <row r="649" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A649" s="28" t="s">
         <v>670</v>
       </c>
@@ -25140,7 +25140,7 @@
       </c>
       <c r="I649" s="30"/>
     </row>
-    <row r="650" spans="1:9" ht="30">
+    <row r="650" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A650" s="28" t="s">
         <v>671</v>
       </c>
@@ -25165,7 +25165,7 @@
       </c>
       <c r="I650" s="30"/>
     </row>
-    <row r="651" spans="1:9" ht="30">
+    <row r="651" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A651" s="28" t="s">
         <v>672</v>
       </c>
@@ -25190,7 +25190,7 @@
       </c>
       <c r="I651" s="30"/>
     </row>
-    <row r="652" spans="1:9" ht="30">
+    <row r="652" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A652" s="28" t="s">
         <v>673</v>
       </c>
@@ -25215,7 +25215,7 @@
       </c>
       <c r="I652" s="30"/>
     </row>
-    <row r="653" spans="1:9">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A653" s="28" t="s">
         <v>674</v>
       </c>
@@ -25240,7 +25240,7 @@
       </c>
       <c r="I653" s="30"/>
     </row>
-    <row r="654" spans="1:9" ht="30">
+    <row r="654" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A654" s="28" t="s">
         <v>675</v>
       </c>
@@ -25265,7 +25265,7 @@
       </c>
       <c r="I654" s="30"/>
     </row>
-    <row r="655" spans="1:9" ht="30">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A655" s="28" t="s">
         <v>676</v>
       </c>
@@ -25290,7 +25290,7 @@
       </c>
       <c r="I655" s="30"/>
     </row>
-    <row r="656" spans="1:9" ht="30">
+    <row r="656" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A656" s="28" t="s">
         <v>677</v>
       </c>
@@ -25315,7 +25315,7 @@
       </c>
       <c r="I656" s="30"/>
     </row>
-    <row r="657" spans="1:9" ht="60">
+    <row r="657" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A657" s="28" t="s">
         <v>678</v>
       </c>
@@ -25340,7 +25340,7 @@
       </c>
       <c r="I657" s="30"/>
     </row>
-    <row r="658" spans="1:9" ht="75">
+    <row r="658" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A658" s="28" t="s">
         <v>679</v>
       </c>
@@ -25365,7 +25365,7 @@
       </c>
       <c r="I658" s="30"/>
     </row>
-    <row r="659" spans="1:9" ht="135">
+    <row r="659" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A659" s="28" t="s">
         <v>680</v>
       </c>
@@ -25390,7 +25390,7 @@
       </c>
       <c r="I659" s="30"/>
     </row>
-    <row r="660" spans="1:9">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A660" s="28" t="s">
         <v>681</v>
       </c>
@@ -25415,7 +25415,7 @@
       </c>
       <c r="I660" s="30"/>
     </row>
-    <row r="661" spans="1:9" ht="30">
+    <row r="661" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A661" s="28" t="s">
         <v>682</v>
       </c>
@@ -25440,7 +25440,7 @@
       </c>
       <c r="I661" s="30"/>
     </row>
-    <row r="662" spans="1:9" ht="75">
+    <row r="662" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A662" s="28" t="s">
         <v>683</v>
       </c>
@@ -25465,7 +25465,7 @@
       </c>
       <c r="I662" s="30"/>
     </row>
-    <row r="663" spans="1:9" ht="45">
+    <row r="663" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A663" s="28" t="s">
         <v>684</v>
       </c>
@@ -25490,7 +25490,7 @@
       </c>
       <c r="I663" s="30"/>
     </row>
-    <row r="664" spans="1:9" ht="45">
+    <row r="664" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A664" s="28" t="s">
         <v>685</v>
       </c>
@@ -25515,7 +25515,7 @@
       </c>
       <c r="I664" s="30"/>
     </row>
-    <row r="665" spans="1:9" ht="45">
+    <row r="665" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A665" s="28" t="s">
         <v>686</v>
       </c>
@@ -25540,7 +25540,7 @@
       </c>
       <c r="I665" s="30"/>
     </row>
-    <row r="666" spans="1:9" ht="90">
+    <row r="666" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A666" s="28" t="s">
         <v>687</v>
       </c>
@@ -25567,7 +25567,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="667" spans="1:9" ht="45">
+    <row r="667" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A667" s="28" t="s">
         <v>692</v>
       </c>
@@ -25594,7 +25594,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="668" spans="1:9" ht="30">
+    <row r="668" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A668" s="28" t="s">
         <v>693</v>
       </c>
@@ -25619,7 +25619,7 @@
       </c>
       <c r="I668" s="30"/>
     </row>
-    <row r="669" spans="1:9" ht="30">
+    <row r="669" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A669" s="28" t="s">
         <v>694</v>
       </c>
@@ -25644,7 +25644,7 @@
       </c>
       <c r="I669" s="30"/>
     </row>
-    <row r="670" spans="1:9" ht="75">
+    <row r="670" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A670" s="28" t="s">
         <v>695</v>
       </c>
@@ -25669,7 +25669,7 @@
       </c>
       <c r="I670" s="30"/>
     </row>
-    <row r="671" spans="1:9" ht="30">
+    <row r="671" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A671" s="28" t="s">
         <v>696</v>
       </c>
@@ -25694,7 +25694,7 @@
       </c>
       <c r="I671" s="30"/>
     </row>
-    <row r="672" spans="1:9">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A672" s="28" t="s">
         <v>697</v>
       </c>
@@ -25719,7 +25719,7 @@
       </c>
       <c r="I672" s="30"/>
     </row>
-    <row r="673" spans="1:9">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A673" s="28" t="s">
         <v>698</v>
       </c>
@@ -25744,7 +25744,7 @@
       </c>
       <c r="I673" s="30"/>
     </row>
-    <row r="674" spans="1:9">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A674" s="28" t="s">
         <v>699</v>
       </c>
@@ -25769,7 +25769,7 @@
       </c>
       <c r="I674" s="30"/>
     </row>
-    <row r="675" spans="1:9" ht="30">
+    <row r="675" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A675" s="28" t="s">
         <v>700</v>
       </c>
@@ -25794,7 +25794,7 @@
       </c>
       <c r="I675" s="30"/>
     </row>
-    <row r="676" spans="1:9" ht="30">
+    <row r="676" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A676" s="28" t="s">
         <v>701</v>
       </c>
@@ -25819,7 +25819,7 @@
       </c>
       <c r="I676" s="30"/>
     </row>
-    <row r="677" spans="1:9" ht="30">
+    <row r="677" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A677" s="28" t="s">
         <v>702</v>
       </c>
@@ -25844,7 +25844,7 @@
       </c>
       <c r="I677" s="30"/>
     </row>
-    <row r="678" spans="1:9" ht="30">
+    <row r="678" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A678" s="28" t="s">
         <v>703</v>
       </c>
@@ -25869,7 +25869,7 @@
       </c>
       <c r="I678" s="30"/>
     </row>
-    <row r="679" spans="1:9" ht="45">
+    <row r="679" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A679" s="28" t="s">
         <v>704</v>
       </c>
@@ -25894,7 +25894,7 @@
       </c>
       <c r="I679" s="30"/>
     </row>
-    <row r="680" spans="1:9" ht="45">
+    <row r="680" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A680" s="28" t="s">
         <v>705</v>
       </c>
@@ -25919,7 +25919,7 @@
       </c>
       <c r="I680" s="30"/>
     </row>
-    <row r="681" spans="1:9" ht="30">
+    <row r="681" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A681" s="28" t="s">
         <v>706</v>
       </c>
@@ -25944,7 +25944,7 @@
       </c>
       <c r="I681" s="30"/>
     </row>
-    <row r="682" spans="1:9" ht="45">
+    <row r="682" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A682" s="28" t="s">
         <v>707</v>
       </c>
@@ -25969,7 +25969,7 @@
       </c>
       <c r="I682" s="30"/>
     </row>
-    <row r="683" spans="1:9">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A683" s="28" t="s">
         <v>708</v>
       </c>
@@ -25994,7 +25994,7 @@
       </c>
       <c r="I683" s="30"/>
     </row>
-    <row r="684" spans="1:9">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A684" s="28" t="s">
         <v>709</v>
       </c>
@@ -26019,7 +26019,7 @@
       </c>
       <c r="I684" s="30"/>
     </row>
-    <row r="685" spans="1:9" ht="30">
+    <row r="685" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A685" s="28" t="s">
         <v>710</v>
       </c>
@@ -26044,7 +26044,7 @@
       </c>
       <c r="I685" s="30"/>
     </row>
-    <row r="686" spans="1:9">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A686" s="28" t="s">
         <v>711</v>
       </c>
@@ -26069,7 +26069,7 @@
       </c>
       <c r="I686" s="30"/>
     </row>
-    <row r="687" spans="1:9" ht="45">
+    <row r="687" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A687" s="28" t="s">
         <v>712</v>
       </c>
@@ -26094,7 +26094,7 @@
       </c>
       <c r="I687" s="30"/>
     </row>
-    <row r="688" spans="1:9">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A688" s="28" t="s">
         <v>713</v>
       </c>
@@ -26119,7 +26119,7 @@
       </c>
       <c r="I688" s="30"/>
     </row>
-    <row r="689" spans="1:9">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A689" s="28" t="s">
         <v>714</v>
       </c>
@@ -26144,7 +26144,7 @@
       </c>
       <c r="I689" s="30"/>
     </row>
-    <row r="690" spans="1:9">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A690" s="28" t="s">
         <v>715</v>
       </c>
@@ -26169,7 +26169,7 @@
       </c>
       <c r="I690" s="30"/>
     </row>
-    <row r="691" spans="1:9" ht="30">
+    <row r="691" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A691" s="28" t="s">
         <v>716</v>
       </c>
@@ -26194,7 +26194,7 @@
       </c>
       <c r="I691" s="30"/>
     </row>
-    <row r="692" spans="1:9" ht="30">
+    <row r="692" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A692" s="28" t="s">
         <v>717</v>
       </c>
@@ -26219,7 +26219,7 @@
       </c>
       <c r="I692" s="30"/>
     </row>
-    <row r="693" spans="1:9" ht="30">
+    <row r="693" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A693" s="28" t="s">
         <v>718</v>
       </c>
@@ -26244,7 +26244,7 @@
       </c>
       <c r="I693" s="30"/>
     </row>
-    <row r="694" spans="1:9" ht="30">
+    <row r="694" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A694" s="28" t="s">
         <v>719</v>
       </c>
@@ -26269,7 +26269,7 @@
       </c>
       <c r="I694" s="30"/>
     </row>
-    <row r="695" spans="1:9" ht="30">
+    <row r="695" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A695" s="28" t="s">
         <v>720</v>
       </c>
@@ -26294,7 +26294,7 @@
       </c>
       <c r="I695" s="30"/>
     </row>
-    <row r="696" spans="1:9" ht="409.5">
+    <row r="696" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A696" s="28" t="s">
         <v>721</v>
       </c>
@@ -26319,7 +26319,7 @@
       </c>
       <c r="I696" s="30"/>
     </row>
-    <row r="697" spans="1:9" ht="30">
+    <row r="697" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A697" s="28" t="s">
         <v>722</v>
       </c>
@@ -26344,7 +26344,7 @@
       </c>
       <c r="I697" s="30"/>
     </row>
-    <row r="698" spans="1:9">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A698" s="28" t="s">
         <v>723</v>
       </c>
@@ -26369,7 +26369,7 @@
       </c>
       <c r="I698" s="30"/>
     </row>
-    <row r="699" spans="1:9">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A699" s="28" t="s">
         <v>724</v>
       </c>
@@ -26394,7 +26394,7 @@
       </c>
       <c r="I699" s="30"/>
     </row>
-    <row r="700" spans="1:9" ht="45">
+    <row r="700" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A700" s="28" t="s">
         <v>725</v>
       </c>
@@ -26419,7 +26419,7 @@
       </c>
       <c r="I700" s="30"/>
     </row>
-    <row r="701" spans="1:9" ht="30">
+    <row r="701" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A701" s="28" t="s">
         <v>726</v>
       </c>
@@ -26444,7 +26444,7 @@
       </c>
       <c r="I701" s="30"/>
     </row>
-    <row r="702" spans="1:9" ht="30">
+    <row r="702" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A702" s="28" t="s">
         <v>727</v>
       </c>
@@ -26469,7 +26469,7 @@
       </c>
       <c r="I702" s="30"/>
     </row>
-    <row r="703" spans="1:9">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A703" s="28" t="s">
         <v>728</v>
       </c>
@@ -26494,7 +26494,7 @@
       </c>
       <c r="I703" s="30"/>
     </row>
-    <row r="704" spans="1:9">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A704" s="20" t="s">
         <v>1900</v>
       </c>
@@ -26519,7 +26519,7 @@
       </c>
       <c r="I704" s="30"/>
     </row>
-    <row r="705" spans="1:9" ht="45">
+    <row r="705" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A705" s="28" t="s">
         <v>729</v>
       </c>
@@ -26544,7 +26544,7 @@
       </c>
       <c r="I705" s="30"/>
     </row>
-    <row r="706" spans="1:9" ht="30">
+    <row r="706" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A706" s="28" t="s">
         <v>730</v>
       </c>
@@ -26569,7 +26569,7 @@
       </c>
       <c r="I706" s="30"/>
     </row>
-    <row r="707" spans="1:9" ht="30">
+    <row r="707" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A707" s="28" t="s">
         <v>731</v>
       </c>
@@ -26594,7 +26594,7 @@
       </c>
       <c r="I707" s="30"/>
     </row>
-    <row r="708" spans="1:9" ht="30">
+    <row r="708" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A708" s="28" t="s">
         <v>732</v>
       </c>
@@ -26619,7 +26619,7 @@
       </c>
       <c r="I708" s="30"/>
     </row>
-    <row r="709" spans="1:9">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A709" s="28" t="s">
         <v>733</v>
       </c>
@@ -26644,7 +26644,7 @@
       </c>
       <c r="I709" s="30"/>
     </row>
-    <row r="710" spans="1:9">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A710" s="28" t="s">
         <v>734</v>
       </c>
@@ -26669,7 +26669,7 @@
       </c>
       <c r="I710" s="30"/>
     </row>
-    <row r="711" spans="1:9" ht="45">
+    <row r="711" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A711" s="28" t="s">
         <v>735</v>
       </c>
@@ -26694,7 +26694,7 @@
       </c>
       <c r="I711" s="30"/>
     </row>
-    <row r="712" spans="1:9" ht="45">
+    <row r="712" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A712" s="28" t="s">
         <v>736</v>
       </c>
@@ -26719,7 +26719,7 @@
       </c>
       <c r="I712" s="30"/>
     </row>
-    <row r="713" spans="1:9" ht="30">
+    <row r="713" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A713" s="28" t="s">
         <v>737</v>
       </c>
@@ -26744,7 +26744,7 @@
       </c>
       <c r="I713" s="30"/>
     </row>
-    <row r="714" spans="1:9" ht="30">
+    <row r="714" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A714" s="20" t="s">
         <v>738</v>
       </c>
@@ -26769,7 +26769,7 @@
       </c>
       <c r="I714" s="30"/>
     </row>
-    <row r="715" spans="1:9" ht="30">
+    <row r="715" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A715" s="28" t="s">
         <v>739</v>
       </c>
@@ -26794,7 +26794,7 @@
       </c>
       <c r="I715" s="30"/>
     </row>
-    <row r="716" spans="1:9" ht="30">
+    <row r="716" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A716" s="20" t="s">
         <v>2105</v>
       </c>
@@ -26819,7 +26819,7 @@
       </c>
       <c r="I716" s="33"/>
     </row>
-    <row r="717" spans="1:9" ht="30">
+    <row r="717" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A717" s="20" t="s">
         <v>2106</v>
       </c>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="I717" s="33"/>
     </row>
-    <row r="718" spans="1:9" ht="30">
+    <row r="718" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A718" s="20" t="s">
         <v>2107</v>
       </c>
@@ -26869,7 +26869,7 @@
       </c>
       <c r="I718" s="33"/>
     </row>
-    <row r="719" spans="1:9" ht="30">
+    <row r="719" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A719" s="20" t="s">
         <v>2108</v>
       </c>
@@ -26894,7 +26894,7 @@
       </c>
       <c r="I719" s="33"/>
     </row>
-    <row r="720" spans="1:9" ht="409.5">
+    <row r="720" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A720" s="28" t="s">
         <v>740</v>
       </c>
@@ -26919,7 +26919,7 @@
       </c>
       <c r="I720" s="30"/>
     </row>
-    <row r="721" spans="1:9">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A721" s="28" t="s">
         <v>741</v>
       </c>
@@ -26944,7 +26944,7 @@
       </c>
       <c r="I721" s="30"/>
     </row>
-    <row r="722" spans="1:9" ht="30">
+    <row r="722" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A722" s="28" t="s">
         <v>742</v>
       </c>
@@ -26969,7 +26969,7 @@
       </c>
       <c r="I722" s="30"/>
     </row>
-    <row r="723" spans="1:9" ht="30">
+    <row r="723" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A723" s="28" t="s">
         <v>743</v>
       </c>
@@ -26994,7 +26994,7 @@
       </c>
       <c r="I723" s="30"/>
     </row>
-    <row r="724" spans="1:9" ht="30">
+    <row r="724" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A724" s="28" t="s">
         <v>744</v>
       </c>
@@ -27019,7 +27019,7 @@
       </c>
       <c r="I724" s="30"/>
     </row>
-    <row r="725" spans="1:9" ht="30">
+    <row r="725" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A725" s="28" t="s">
         <v>745</v>
       </c>
@@ -27044,7 +27044,7 @@
       </c>
       <c r="I725" s="30"/>
     </row>
-    <row r="726" spans="1:9" ht="30">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A726" s="28" t="s">
         <v>746</v>
       </c>
@@ -27069,7 +27069,7 @@
       </c>
       <c r="I726" s="30"/>
     </row>
-    <row r="727" spans="1:9" ht="45">
+    <row r="727" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A727" s="28" t="s">
         <v>747</v>
       </c>
@@ -27094,7 +27094,7 @@
       </c>
       <c r="I727" s="30"/>
     </row>
-    <row r="728" spans="1:9" ht="45">
+    <row r="728" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A728" s="28" t="s">
         <v>748</v>
       </c>
@@ -27119,7 +27119,7 @@
       </c>
       <c r="I728" s="30"/>
     </row>
-    <row r="729" spans="1:9" ht="45">
+    <row r="729" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A729" s="28" t="s">
         <v>749</v>
       </c>
@@ -27144,7 +27144,7 @@
       </c>
       <c r="I729" s="30"/>
     </row>
-    <row r="730" spans="1:9" ht="30">
+    <row r="730" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A730" s="28" t="s">
         <v>750</v>
       </c>
@@ -27169,7 +27169,7 @@
       </c>
       <c r="I730" s="30"/>
     </row>
-    <row r="731" spans="1:9" ht="30">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A731" s="28" t="s">
         <v>751</v>
       </c>
@@ -27194,7 +27194,7 @@
       </c>
       <c r="I731" s="30"/>
     </row>
-    <row r="732" spans="1:9">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A732" s="28" t="s">
         <v>752</v>
       </c>
@@ -27219,7 +27219,7 @@
       </c>
       <c r="I732" s="30"/>
     </row>
-    <row r="733" spans="1:9">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A733" s="28" t="s">
         <v>753</v>
       </c>
@@ -27244,7 +27244,7 @@
       </c>
       <c r="I733" s="30"/>
     </row>
-    <row r="734" spans="1:9" ht="30">
+    <row r="734" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A734" s="20" t="s">
         <v>754</v>
       </c>
@@ -27269,7 +27269,7 @@
       </c>
       <c r="I734" s="30"/>
     </row>
-    <row r="735" spans="1:9" ht="30">
+    <row r="735" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A735" s="28" t="s">
         <v>755</v>
       </c>
@@ -27294,7 +27294,7 @@
       </c>
       <c r="I735" s="30"/>
     </row>
-    <row r="736" spans="1:9" ht="30">
+    <row r="736" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A736" s="20" t="s">
         <v>2112</v>
       </c>
@@ -27319,7 +27319,7 @@
       </c>
       <c r="I736" s="33"/>
     </row>
-    <row r="737" spans="1:9" ht="60">
+    <row r="737" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A737" s="28" t="s">
         <v>756</v>
       </c>
@@ -27344,7 +27344,7 @@
       </c>
       <c r="I737" s="30"/>
     </row>
-    <row r="738" spans="1:9" ht="60">
+    <row r="738" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A738" s="28" t="s">
         <v>757</v>
       </c>
@@ -27369,7 +27369,7 @@
       </c>
       <c r="I738" s="30"/>
     </row>
-    <row r="739" spans="1:9" ht="60">
+    <row r="739" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A739" s="28" t="s">
         <v>758</v>
       </c>
@@ -27394,7 +27394,7 @@
       </c>
       <c r="I739" s="30"/>
     </row>
-    <row r="740" spans="1:9" ht="60">
+    <row r="740" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A740" s="28" t="s">
         <v>759</v>
       </c>
@@ -27419,7 +27419,7 @@
       </c>
       <c r="I740" s="30"/>
     </row>
-    <row r="741" spans="1:9" ht="60">
+    <row r="741" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A741" s="28" t="s">
         <v>760</v>
       </c>
@@ -27444,7 +27444,7 @@
       </c>
       <c r="I741" s="30"/>
     </row>
-    <row r="742" spans="1:9" ht="75">
+    <row r="742" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A742" s="28" t="s">
         <v>761</v>
       </c>
@@ -27471,7 +27471,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="743" spans="1:9" ht="60">
+    <row r="743" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A743" s="28" t="s">
         <v>762</v>
       </c>
@@ -27496,7 +27496,7 @@
       </c>
       <c r="I743" s="30"/>
     </row>
-    <row r="744" spans="1:9" ht="60">
+    <row r="744" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A744" s="28" t="s">
         <v>763</v>
       </c>
@@ -27521,7 +27521,7 @@
       </c>
       <c r="I744" s="30"/>
     </row>
-    <row r="745" spans="1:9" ht="60">
+    <row r="745" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A745" s="28" t="s">
         <v>764</v>
       </c>
@@ -27546,7 +27546,7 @@
       </c>
       <c r="I745" s="30"/>
     </row>
-    <row r="746" spans="1:9" ht="60">
+    <row r="746" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A746" s="28" t="s">
         <v>765</v>
       </c>
@@ -27571,7 +27571,7 @@
       </c>
       <c r="I746" s="30"/>
     </row>
-    <row r="747" spans="1:9" ht="30">
+    <row r="747" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A747" s="28" t="s">
         <v>771</v>
       </c>
@@ -27598,7 +27598,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="748" spans="1:9" ht="75">
+    <row r="748" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A748" s="28" t="s">
         <v>772</v>
       </c>
@@ -27623,7 +27623,7 @@
       </c>
       <c r="I748" s="30"/>
     </row>
-    <row r="749" spans="1:9" ht="30">
+    <row r="749" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A749" s="28" t="s">
         <v>773</v>
       </c>
@@ -27648,7 +27648,7 @@
       </c>
       <c r="I749" s="30"/>
     </row>
-    <row r="750" spans="1:9">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A750" s="28" t="s">
         <v>774</v>
       </c>
@@ -27673,7 +27673,7 @@
       </c>
       <c r="I750" s="30"/>
     </row>
-    <row r="751" spans="1:9" ht="30">
+    <row r="751" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A751" s="28" t="s">
         <v>775</v>
       </c>
@@ -27698,7 +27698,7 @@
       </c>
       <c r="I751" s="30"/>
     </row>
-    <row r="752" spans="1:9" ht="30">
+    <row r="752" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A752" s="28" t="s">
         <v>776</v>
       </c>
@@ -27723,7 +27723,7 @@
       </c>
       <c r="I752" s="30"/>
     </row>
-    <row r="753" spans="1:9" ht="30">
+    <row r="753" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A753" s="28" t="s">
         <v>777</v>
       </c>
@@ -27748,7 +27748,7 @@
       </c>
       <c r="I753" s="18"/>
     </row>
-    <row r="754" spans="1:9">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A754" s="28" t="s">
         <v>778</v>
       </c>
@@ -27773,7 +27773,7 @@
       </c>
       <c r="I754" s="18"/>
     </row>
-    <row r="755" spans="1:9">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A755" s="28" t="s">
         <v>779</v>
       </c>
@@ -27798,7 +27798,7 @@
       </c>
       <c r="I755" s="30"/>
     </row>
-    <row r="756" spans="1:9">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A756" s="28" t="s">
         <v>780</v>
       </c>
@@ -27823,7 +27823,7 @@
       </c>
       <c r="I756" s="30"/>
     </row>
-    <row r="757" spans="1:9">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A757" s="28" t="s">
         <v>781</v>
       </c>
@@ -27848,7 +27848,7 @@
       </c>
       <c r="I757" s="30"/>
     </row>
-    <row r="758" spans="1:9">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A758" s="28" t="s">
         <v>782</v>
       </c>
@@ -27873,7 +27873,7 @@
       </c>
       <c r="I758" s="30"/>
     </row>
-    <row r="759" spans="1:9" ht="45">
+    <row r="759" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A759" s="28" t="s">
         <v>783</v>
       </c>
@@ -27898,7 +27898,7 @@
       </c>
       <c r="I759" s="30"/>
     </row>
-    <row r="760" spans="1:9" ht="30">
+    <row r="760" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A760" s="28" t="s">
         <v>784</v>
       </c>
@@ -27923,7 +27923,7 @@
       </c>
       <c r="I760" s="30"/>
     </row>
-    <row r="761" spans="1:9" ht="30">
+    <row r="761" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A761" s="28" t="s">
         <v>785</v>
       </c>
@@ -27948,7 +27948,7 @@
       </c>
       <c r="I761" s="30"/>
     </row>
-    <row r="762" spans="1:9" ht="30">
+    <row r="762" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A762" s="28" t="s">
         <v>786</v>
       </c>
@@ -27973,7 +27973,7 @@
       </c>
       <c r="I762" s="30"/>
     </row>
-    <row r="763" spans="1:9" ht="30">
+    <row r="763" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A763" s="28" t="s">
         <v>787</v>
       </c>
@@ -27998,7 +27998,7 @@
       </c>
       <c r="I763" s="30"/>
     </row>
-    <row r="764" spans="1:9" ht="30">
+    <row r="764" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A764" s="28" t="s">
         <v>788</v>
       </c>
@@ -28023,7 +28023,7 @@
       </c>
       <c r="I764" s="30"/>
     </row>
-    <row r="765" spans="1:9" ht="30">
+    <row r="765" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A765" s="28" t="s">
         <v>789</v>
       </c>
@@ -28048,7 +28048,7 @@
       </c>
       <c r="I765" s="30"/>
     </row>
-    <row r="766" spans="1:9">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A766" s="28" t="s">
         <v>790</v>
       </c>
@@ -28073,7 +28073,7 @@
       </c>
       <c r="I766" s="30"/>
     </row>
-    <row r="767" spans="1:9">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A767" s="28" t="s">
         <v>791</v>
       </c>
@@ -28098,7 +28098,7 @@
       </c>
       <c r="I767" s="30"/>
     </row>
-    <row r="768" spans="1:9">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A768" s="28" t="s">
         <v>792</v>
       </c>
@@ -28123,7 +28123,7 @@
       </c>
       <c r="I768" s="30"/>
     </row>
-    <row r="769" spans="1:9" ht="30">
+    <row r="769" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A769" s="28" t="s">
         <v>793</v>
       </c>
@@ -28148,7 +28148,7 @@
       </c>
       <c r="I769" s="30"/>
     </row>
-    <row r="770" spans="1:9" ht="30">
+    <row r="770" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A770" s="28" t="s">
         <v>794</v>
       </c>
@@ -28173,7 +28173,7 @@
       </c>
       <c r="I770" s="30"/>
     </row>
-    <row r="771" spans="1:9" ht="30">
+    <row r="771" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A771" s="28" t="s">
         <v>795</v>
       </c>
@@ -28198,7 +28198,7 @@
       </c>
       <c r="I771" s="30"/>
     </row>
-    <row r="772" spans="1:9" ht="30">
+    <row r="772" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A772" s="28" t="s">
         <v>796</v>
       </c>
@@ -28223,7 +28223,7 @@
       </c>
       <c r="I772" s="30"/>
     </row>
-    <row r="773" spans="1:9" ht="270">
+    <row r="773" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A773" s="28" t="s">
         <v>797</v>
       </c>
@@ -28248,7 +28248,7 @@
       </c>
       <c r="I773" s="30"/>
     </row>
-    <row r="774" spans="1:9">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A774" s="28" t="s">
         <v>798</v>
       </c>
@@ -28273,7 +28273,7 @@
       </c>
       <c r="I774" s="30"/>
     </row>
-    <row r="775" spans="1:9" ht="30">
+    <row r="775" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A775" s="20" t="s">
         <v>2115</v>
       </c>
@@ -28298,7 +28298,7 @@
       </c>
       <c r="I775" s="33"/>
     </row>
-    <row r="776" spans="1:9">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A776" s="28" t="s">
         <v>799</v>
       </c>
@@ -28323,7 +28323,7 @@
       </c>
       <c r="I776" s="30"/>
     </row>
-    <row r="777" spans="1:9" ht="30">
+    <row r="777" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A777" s="28" t="s">
         <v>800</v>
       </c>
@@ -28348,7 +28348,7 @@
       </c>
       <c r="I777" s="30"/>
     </row>
-    <row r="778" spans="1:9" ht="30">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A778" s="28" t="s">
         <v>801</v>
       </c>
@@ -28373,7 +28373,7 @@
       </c>
       <c r="I778" s="30"/>
     </row>
-    <row r="779" spans="1:9">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A779" s="28" t="s">
         <v>802</v>
       </c>
@@ -28398,7 +28398,7 @@
       </c>
       <c r="I779" s="30"/>
     </row>
-    <row r="780" spans="1:9">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A780" s="28" t="s">
         <v>803</v>
       </c>
@@ -28423,7 +28423,7 @@
       </c>
       <c r="I780" s="30"/>
     </row>
-    <row r="781" spans="1:9">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A781" s="28" t="s">
         <v>804</v>
       </c>
@@ -28448,7 +28448,7 @@
       </c>
       <c r="I781" s="30"/>
     </row>
-    <row r="782" spans="1:9">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A782" s="28" t="s">
         <v>805</v>
       </c>
@@ -28473,7 +28473,7 @@
       </c>
       <c r="I782" s="30"/>
     </row>
-    <row r="783" spans="1:9">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A783" s="28" t="s">
         <v>806</v>
       </c>
@@ -28498,7 +28498,7 @@
       </c>
       <c r="I783" s="30"/>
     </row>
-    <row r="784" spans="1:9">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A784" s="28" t="s">
         <v>807</v>
       </c>
@@ -28523,7 +28523,7 @@
       </c>
       <c r="I784" s="30"/>
     </row>
-    <row r="785" spans="1:9" ht="30">
+    <row r="785" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A785" s="28" t="s">
         <v>808</v>
       </c>
@@ -28548,7 +28548,7 @@
       </c>
       <c r="I785" s="30"/>
     </row>
-    <row r="786" spans="1:9" ht="409.5">
+    <row r="786" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A786" s="28" t="s">
         <v>809</v>
       </c>
@@ -28573,7 +28573,7 @@
       </c>
       <c r="I786" s="30"/>
     </row>
-    <row r="787" spans="1:9" ht="30">
+    <row r="787" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A787" s="28" t="s">
         <v>810</v>
       </c>
@@ -28598,7 +28598,7 @@
       </c>
       <c r="I787" s="30"/>
     </row>
-    <row r="788" spans="1:9">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A788" s="28" t="s">
         <v>811</v>
       </c>
@@ -28623,7 +28623,7 @@
       </c>
       <c r="I788" s="30"/>
     </row>
-    <row r="789" spans="1:9">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A789" s="28" t="s">
         <v>812</v>
       </c>
@@ -28648,7 +28648,7 @@
       </c>
       <c r="I789" s="30"/>
     </row>
-    <row r="790" spans="1:9">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A790" s="28" t="s">
         <v>813</v>
       </c>
@@ -28673,7 +28673,7 @@
       </c>
       <c r="I790" s="30"/>
     </row>
-    <row r="791" spans="1:9" ht="30">
+    <row r="791" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A791" s="28" t="s">
         <v>814</v>
       </c>
@@ -28698,7 +28698,7 @@
       </c>
       <c r="I791" s="18"/>
     </row>
-    <row r="792" spans="1:9" ht="30">
+    <row r="792" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A792" s="28" t="s">
         <v>815</v>
       </c>
@@ -28723,7 +28723,7 @@
       </c>
       <c r="I792" s="18"/>
     </row>
-    <row r="793" spans="1:9" ht="30">
+    <row r="793" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A793" s="28" t="s">
         <v>816</v>
       </c>
@@ -28748,7 +28748,7 @@
       </c>
       <c r="I793" s="18"/>
     </row>
-    <row r="794" spans="1:9" ht="30">
+    <row r="794" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A794" s="28" t="s">
         <v>817</v>
       </c>
@@ -28773,7 +28773,7 @@
       </c>
       <c r="I794" s="18"/>
     </row>
-    <row r="795" spans="1:9" ht="30">
+    <row r="795" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A795" s="28" t="s">
         <v>818</v>
       </c>
@@ -28798,7 +28798,7 @@
       </c>
       <c r="I795" s="18"/>
     </row>
-    <row r="796" spans="1:9" ht="30">
+    <row r="796" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A796" s="28" t="s">
         <v>819</v>
       </c>
@@ -28823,7 +28823,7 @@
       </c>
       <c r="I796" s="30"/>
     </row>
-    <row r="797" spans="1:9">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A797" s="28" t="s">
         <v>820</v>
       </c>
@@ -28848,7 +28848,7 @@
       </c>
       <c r="I797" s="30"/>
     </row>
-    <row r="798" spans="1:9">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A798" s="28" t="s">
         <v>821</v>
       </c>
@@ -28873,7 +28873,7 @@
       </c>
       <c r="I798" s="30"/>
     </row>
-    <row r="799" spans="1:9">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A799" s="28" t="s">
         <v>822</v>
       </c>
@@ -28898,7 +28898,7 @@
       </c>
       <c r="I799" s="30"/>
     </row>
-    <row r="800" spans="1:9" ht="30">
+    <row r="800" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A800" s="28" t="s">
         <v>823</v>
       </c>
@@ -28923,7 +28923,7 @@
       </c>
       <c r="I800" s="30"/>
     </row>
-    <row r="801" spans="1:9" ht="30">
+    <row r="801" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A801" s="28" t="s">
         <v>824</v>
       </c>
@@ -28948,7 +28948,7 @@
       </c>
       <c r="I801" s="30"/>
     </row>
-    <row r="802" spans="1:9" ht="30">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A802" s="28" t="s">
         <v>825</v>
       </c>
@@ -28973,7 +28973,7 @@
       </c>
       <c r="I802" s="30"/>
     </row>
-    <row r="803" spans="1:9" ht="30">
+    <row r="803" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A803" s="28" t="s">
         <v>826</v>
       </c>
@@ -28998,7 +28998,7 @@
       </c>
       <c r="I803" s="30"/>
     </row>
-    <row r="804" spans="1:9">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A804" s="28" t="s">
         <v>827</v>
       </c>
@@ -29023,7 +29023,7 @@
       </c>
       <c r="I804" s="30"/>
     </row>
-    <row r="805" spans="1:9" ht="30">
+    <row r="805" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A805" s="28" t="s">
         <v>828</v>
       </c>
@@ -29048,7 +29048,7 @@
       </c>
       <c r="I805" s="30"/>
     </row>
-    <row r="806" spans="1:9">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A806" s="28" t="s">
         <v>829</v>
       </c>
@@ -29073,7 +29073,7 @@
       </c>
       <c r="I806" s="30"/>
     </row>
-    <row r="807" spans="1:9" ht="30">
+    <row r="807" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A807" s="28" t="s">
         <v>830</v>
       </c>
@@ -29098,7 +29098,7 @@
       </c>
       <c r="I807" s="30"/>
     </row>
-    <row r="808" spans="1:9">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A808" s="28" t="s">
         <v>831</v>
       </c>
@@ -29123,7 +29123,7 @@
       </c>
       <c r="I808" s="18"/>
     </row>
-    <row r="809" spans="1:9" ht="30">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A809" s="28" t="s">
         <v>832</v>
       </c>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="I809" s="30"/>
     </row>
-    <row r="810" spans="1:9" ht="30">
+    <row r="810" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A810" s="20" t="s">
         <v>1904</v>
       </c>
@@ -29173,7 +29173,7 @@
       </c>
       <c r="I810" s="30"/>
     </row>
-    <row r="811" spans="1:9" ht="30">
+    <row r="811" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A811" s="28" t="s">
         <v>833</v>
       </c>
@@ -29198,7 +29198,7 @@
       </c>
       <c r="I811" s="30"/>
     </row>
-    <row r="812" spans="1:9" ht="30">
+    <row r="812" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A812" s="28" t="s">
         <v>834</v>
       </c>
@@ -29223,7 +29223,7 @@
       </c>
       <c r="I812" s="30"/>
     </row>
-    <row r="813" spans="1:9">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A813" s="28" t="s">
         <v>835</v>
       </c>
@@ -29248,7 +29248,7 @@
       </c>
       <c r="I813" s="30"/>
     </row>
-    <row r="814" spans="1:9" ht="30">
+    <row r="814" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A814" s="28" t="s">
         <v>836</v>
       </c>
@@ -29273,7 +29273,7 @@
       </c>
       <c r="I814" s="18"/>
     </row>
-    <row r="815" spans="1:9">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A815" s="28" t="s">
         <v>837</v>
       </c>
@@ -29298,7 +29298,7 @@
       </c>
       <c r="I815" s="30"/>
     </row>
-    <row r="816" spans="1:9" ht="30">
+    <row r="816" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A816" s="28" t="s">
         <v>838</v>
       </c>
@@ -29325,7 +29325,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="817" spans="1:9" ht="90">
+    <row r="817" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A817" s="28" t="s">
         <v>839</v>
       </c>
@@ -29350,7 +29350,7 @@
       </c>
       <c r="I817" s="30"/>
     </row>
-    <row r="818" spans="1:9" ht="45">
+    <row r="818" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A818" s="28" t="s">
         <v>840</v>
       </c>
@@ -29375,7 +29375,7 @@
       </c>
       <c r="I818" s="30"/>
     </row>
-    <row r="819" spans="1:9" ht="30">
+    <row r="819" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A819" s="28" t="s">
         <v>841</v>
       </c>
@@ -29400,7 +29400,7 @@
       </c>
       <c r="I819" s="30"/>
     </row>
-    <row r="820" spans="1:9" ht="30">
+    <row r="820" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A820" s="28" t="s">
         <v>842</v>
       </c>
@@ -29425,7 +29425,7 @@
       </c>
       <c r="I820" s="30"/>
     </row>
-    <row r="821" spans="1:9" ht="30">
+    <row r="821" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A821" s="20" t="s">
         <v>843</v>
       </c>
@@ -29450,7 +29450,7 @@
       </c>
       <c r="I821" s="30"/>
     </row>
-    <row r="822" spans="1:9" ht="30">
+    <row r="822" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A822" s="28" t="s">
         <v>844</v>
       </c>
@@ -29475,7 +29475,7 @@
       </c>
       <c r="I822" s="30"/>
     </row>
-    <row r="823" spans="1:9" ht="30">
+    <row r="823" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A823" s="28" t="s">
         <v>845</v>
       </c>
@@ -29500,7 +29500,7 @@
       </c>
       <c r="I823" s="30"/>
     </row>
-    <row r="824" spans="1:9" ht="45">
+    <row r="824" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A824" s="28" t="s">
         <v>846</v>
       </c>
@@ -29525,7 +29525,7 @@
       </c>
       <c r="I824" s="30"/>
     </row>
-    <row r="825" spans="1:9" ht="30">
+    <row r="825" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A825" s="28" t="s">
         <v>847</v>
       </c>
@@ -29550,7 +29550,7 @@
       </c>
       <c r="I825" s="30"/>
     </row>
-    <row r="826" spans="1:9" ht="45">
+    <row r="826" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A826" s="28" t="s">
         <v>848</v>
       </c>
@@ -29575,7 +29575,7 @@
       </c>
       <c r="I826" s="30"/>
     </row>
-    <row r="827" spans="1:9" ht="45">
+    <row r="827" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A827" s="28" t="s">
         <v>849</v>
       </c>
@@ -29600,7 +29600,7 @@
       </c>
       <c r="I827" s="30"/>
     </row>
-    <row r="828" spans="1:9" ht="30">
+    <row r="828" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A828" s="28" t="s">
         <v>850</v>
       </c>
@@ -29625,7 +29625,7 @@
       </c>
       <c r="I828" s="30"/>
     </row>
-    <row r="829" spans="1:9" ht="30">
+    <row r="829" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A829" s="28" t="s">
         <v>851</v>
       </c>
@@ -29650,7 +29650,7 @@
       </c>
       <c r="I829" s="30"/>
     </row>
-    <row r="830" spans="1:9" ht="30">
+    <row r="830" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A830" s="28" t="s">
         <v>852</v>
       </c>
@@ -29675,7 +29675,7 @@
       </c>
       <c r="I830" s="30"/>
     </row>
-    <row r="831" spans="1:9" ht="30">
+    <row r="831" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A831" s="28" t="s">
         <v>853</v>
       </c>
@@ -29700,7 +29700,7 @@
       </c>
       <c r="I831" s="30"/>
     </row>
-    <row r="832" spans="1:9" ht="45">
+    <row r="832" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A832" s="28" t="s">
         <v>854</v>
       </c>
@@ -29725,7 +29725,7 @@
       </c>
       <c r="I832" s="30"/>
     </row>
-    <row r="833" spans="1:9" ht="30">
+    <row r="833" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A833" s="28" t="s">
         <v>855</v>
       </c>
@@ -29750,7 +29750,7 @@
       </c>
       <c r="I833" s="30"/>
     </row>
-    <row r="834" spans="1:9" ht="30">
+    <row r="834" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A834" s="28" t="s">
         <v>856</v>
       </c>
@@ -29775,7 +29775,7 @@
       </c>
       <c r="I834" s="30"/>
     </row>
-    <row r="835" spans="1:9" ht="225">
+    <row r="835" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A835" s="28" t="s">
         <v>857</v>
       </c>
@@ -29800,7 +29800,7 @@
       </c>
       <c r="I835" s="30"/>
     </row>
-    <row r="836" spans="1:9" ht="30">
+    <row r="836" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A836" s="28" t="s">
         <v>858</v>
       </c>
@@ -29825,7 +29825,7 @@
       </c>
       <c r="I836" s="30"/>
     </row>
-    <row r="837" spans="1:9" ht="30">
+    <row r="837" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A837" s="20" t="s">
         <v>2118</v>
       </c>
@@ -29850,7 +29850,7 @@
       </c>
       <c r="I837" s="33"/>
     </row>
-    <row r="838" spans="1:9" ht="30">
+    <row r="838" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A838" s="28" t="s">
         <v>859</v>
       </c>
@@ -29875,7 +29875,7 @@
       </c>
       <c r="I838" s="30"/>
     </row>
-    <row r="839" spans="1:9">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A839" s="28" t="s">
         <v>860</v>
       </c>
@@ -29900,7 +29900,7 @@
       </c>
       <c r="I839" s="30"/>
     </row>
-    <row r="840" spans="1:9" ht="30">
+    <row r="840" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A840" s="28" t="s">
         <v>861</v>
       </c>
@@ -29925,7 +29925,7 @@
       </c>
       <c r="I840" s="30"/>
     </row>
-    <row r="841" spans="1:9" ht="30">
+    <row r="841" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A841" s="28" t="s">
         <v>862</v>
       </c>
@@ -29950,7 +29950,7 @@
       </c>
       <c r="I841" s="30"/>
     </row>
-    <row r="842" spans="1:9" ht="30">
+    <row r="842" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A842" s="28" t="s">
         <v>863</v>
       </c>
@@ -29975,7 +29975,7 @@
       </c>
       <c r="I842" s="30"/>
     </row>
-    <row r="843" spans="1:9" ht="30">
+    <row r="843" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A843" s="28" t="s">
         <v>864</v>
       </c>
@@ -30000,7 +30000,7 @@
       </c>
       <c r="I843" s="30"/>
     </row>
-    <row r="844" spans="1:9" ht="30">
+    <row r="844" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A844" s="28" t="s">
         <v>865</v>
       </c>
@@ -30025,7 +30025,7 @@
       </c>
       <c r="I844" s="30"/>
     </row>
-    <row r="845" spans="1:9" ht="30">
+    <row r="845" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A845" s="28" t="s">
         <v>866</v>
       </c>
@@ -30050,7 +30050,7 @@
       </c>
       <c r="I845" s="30"/>
     </row>
-    <row r="846" spans="1:9" ht="30">
+    <row r="846" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A846" s="28" t="s">
         <v>867</v>
       </c>
@@ -30075,7 +30075,7 @@
       </c>
       <c r="I846" s="30"/>
     </row>
-    <row r="847" spans="1:9" ht="30">
+    <row r="847" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A847" s="28" t="s">
         <v>868</v>
       </c>
@@ -30100,7 +30100,7 @@
       </c>
       <c r="I847" s="30"/>
     </row>
-    <row r="848" spans="1:9" ht="240">
+    <row r="848" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A848" s="28" t="s">
         <v>869</v>
       </c>
@@ -30125,7 +30125,7 @@
       </c>
       <c r="I848" s="30"/>
     </row>
-    <row r="849" spans="1:9" ht="30">
+    <row r="849" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A849" s="28" t="s">
         <v>870</v>
       </c>
@@ -30150,7 +30150,7 @@
       </c>
       <c r="I849" s="30"/>
     </row>
-    <row r="850" spans="1:9">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A850" s="28" t="s">
         <v>871</v>
       </c>
@@ -30175,7 +30175,7 @@
       </c>
       <c r="I850" s="30"/>
     </row>
-    <row r="851" spans="1:9" ht="30">
+    <row r="851" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A851" s="28" t="s">
         <v>872</v>
       </c>
@@ -30200,7 +30200,7 @@
       </c>
       <c r="I851" s="30"/>
     </row>
-    <row r="852" spans="1:9" ht="75">
+    <row r="852" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A852" s="28" t="s">
         <v>873</v>
       </c>
@@ -30225,7 +30225,7 @@
       </c>
       <c r="I852" s="30"/>
     </row>
-    <row r="853" spans="1:9" ht="30">
+    <row r="853" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A853" s="28" t="s">
         <v>874</v>
       </c>
@@ -30250,7 +30250,7 @@
       </c>
       <c r="I853" s="30"/>
     </row>
-    <row r="854" spans="1:9">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A854" s="28" t="s">
         <v>875</v>
       </c>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="I854" s="30"/>
     </row>
-    <row r="855" spans="1:9" ht="30">
+    <row r="855" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A855" s="28" t="s">
         <v>876</v>
       </c>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="I855" s="30"/>
     </row>
-    <row r="856" spans="1:9" ht="30">
+    <row r="856" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A856" s="28" t="s">
         <v>877</v>
       </c>
@@ -30325,7 +30325,7 @@
       </c>
       <c r="I856" s="30"/>
     </row>
-    <row r="857" spans="1:9" ht="30">
+    <row r="857" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A857" s="28" t="s">
         <v>878</v>
       </c>
@@ -30350,7 +30350,7 @@
       </c>
       <c r="I857" s="30"/>
     </row>
-    <row r="858" spans="1:9" ht="30">
+    <row r="858" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A858" s="28" t="s">
         <v>879</v>
       </c>
@@ -30375,7 +30375,7 @@
       </c>
       <c r="I858" s="30"/>
     </row>
-    <row r="859" spans="1:9" ht="30">
+    <row r="859" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A859" s="28" t="s">
         <v>880</v>
       </c>
@@ -30400,7 +30400,7 @@
       </c>
       <c r="I859" s="30"/>
     </row>
-    <row r="860" spans="1:9" ht="30">
+    <row r="860" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A860" s="28" t="s">
         <v>881</v>
       </c>
@@ -30425,7 +30425,7 @@
       </c>
       <c r="I860" s="30"/>
     </row>
-    <row r="861" spans="1:9">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A861" s="28" t="s">
         <v>882</v>
       </c>
@@ -30450,7 +30450,7 @@
       </c>
       <c r="I861" s="30"/>
     </row>
-    <row r="862" spans="1:9" ht="30">
+    <row r="862" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A862" s="28" t="s">
         <v>883</v>
       </c>
@@ -30475,7 +30475,7 @@
       </c>
       <c r="I862" s="30"/>
     </row>
-    <row r="863" spans="1:9">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A863" s="28" t="s">
         <v>884</v>
       </c>
@@ -30500,7 +30500,7 @@
       </c>
       <c r="I863" s="30"/>
     </row>
-    <row r="864" spans="1:9" ht="30">
+    <row r="864" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A864" s="28" t="s">
         <v>885</v>
       </c>
@@ -30525,7 +30525,7 @@
       </c>
       <c r="I864" s="30"/>
     </row>
-    <row r="865" spans="1:9" ht="30">
+    <row r="865" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A865" s="28" t="s">
         <v>886</v>
       </c>
@@ -30550,7 +30550,7 @@
       </c>
       <c r="I865" s="30"/>
     </row>
-    <row r="866" spans="1:9" ht="30">
+    <row r="866" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A866" s="28" t="s">
         <v>887</v>
       </c>
@@ -30575,7 +30575,7 @@
       </c>
       <c r="I866" s="30"/>
     </row>
-    <row r="867" spans="1:9" ht="30">
+    <row r="867" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A867" s="28" t="s">
         <v>888</v>
       </c>
@@ -30600,7 +30600,7 @@
       </c>
       <c r="I867" s="30"/>
     </row>
-    <row r="868" spans="1:9" ht="120">
+    <row r="868" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A868" s="28" t="s">
         <v>889</v>
       </c>
@@ -30625,7 +30625,7 @@
       </c>
       <c r="I868" s="30"/>
     </row>
-    <row r="869" spans="1:9">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A869" s="28" t="s">
         <v>890</v>
       </c>
@@ -30650,7 +30650,7 @@
       </c>
       <c r="I869" s="30"/>
     </row>
-    <row r="870" spans="1:9" ht="30">
+    <row r="870" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A870" s="28" t="s">
         <v>891</v>
       </c>
@@ -30675,7 +30675,7 @@
       </c>
       <c r="I870" s="30"/>
     </row>
-    <row r="871" spans="1:9" ht="120">
+    <row r="871" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A871" s="28" t="s">
         <v>892</v>
       </c>
@@ -30700,7 +30700,7 @@
       </c>
       <c r="I871" s="30"/>
     </row>
-    <row r="872" spans="1:9">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A872" s="28" t="s">
         <v>893</v>
       </c>
@@ -30725,7 +30725,7 @@
       </c>
       <c r="I872" s="30"/>
     </row>
-    <row r="873" spans="1:9" ht="45">
+    <row r="873" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A873" s="20" t="s">
         <v>894</v>
       </c>
@@ -30750,7 +30750,7 @@
       </c>
       <c r="I873" s="30"/>
     </row>
-    <row r="874" spans="1:9" ht="30">
+    <row r="874" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A874" s="28" t="s">
         <v>895</v>
       </c>
@@ -30775,7 +30775,7 @@
       </c>
       <c r="I874" s="30"/>
     </row>
-    <row r="875" spans="1:9" ht="45">
+    <row r="875" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A875" s="20" t="s">
         <v>45</v>
       </c>
@@ -30804,7 +30804,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="876" spans="1:9" ht="45">
+    <row r="876" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A876" s="28" t="s">
         <v>896</v>
       </c>
@@ -30831,7 +30831,7 @@
       </c>
       <c r="I876" s="30"/>
     </row>
-    <row r="877" spans="1:9" ht="45">
+    <row r="877" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A877" s="20" t="s">
         <v>897</v>
       </c>
@@ -30860,7 +30860,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="878" spans="1:9" ht="45">
+    <row r="878" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A878" s="20" t="s">
         <v>898</v>
       </c>
@@ -30887,7 +30887,7 @@
       </c>
       <c r="I878" s="30"/>
     </row>
-    <row r="879" spans="1:9" ht="45">
+    <row r="879" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A879" s="20" t="s">
         <v>899</v>
       </c>
@@ -30916,7 +30916,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="880" spans="1:9" ht="45">
+    <row r="880" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A880" s="20" t="s">
         <v>900</v>
       </c>
@@ -30943,7 +30943,7 @@
       </c>
       <c r="I880" s="30"/>
     </row>
-    <row r="881" spans="1:9" ht="45">
+    <row r="881" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A881" s="20" t="s">
         <v>901</v>
       </c>
@@ -30972,7 +30972,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="882" spans="1:9" ht="45">
+    <row r="882" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A882" s="20" t="s">
         <v>902</v>
       </c>
@@ -30999,7 +30999,7 @@
       </c>
       <c r="I882" s="30"/>
     </row>
-    <row r="883" spans="1:9" ht="45">
+    <row r="883" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A883" s="20" t="s">
         <v>903</v>
       </c>
@@ -31028,7 +31028,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="884" spans="1:9" ht="45">
+    <row r="884" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A884" s="20" t="s">
         <v>904</v>
       </c>
@@ -31055,7 +31055,7 @@
       </c>
       <c r="I884" s="30"/>
     </row>
-    <row r="885" spans="1:9" ht="45">
+    <row r="885" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A885" s="20" t="s">
         <v>905</v>
       </c>
@@ -31084,7 +31084,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="886" spans="1:9" ht="45">
+    <row r="886" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A886" s="20" t="s">
         <v>906</v>
       </c>
@@ -31111,7 +31111,7 @@
       </c>
       <c r="I886" s="30"/>
     </row>
-    <row r="887" spans="1:9" ht="45">
+    <row r="887" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A887" s="20" t="s">
         <v>907</v>
       </c>
@@ -31140,7 +31140,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="888" spans="1:9" ht="45">
+    <row r="888" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A888" s="20" t="s">
         <v>908</v>
       </c>
@@ -31167,7 +31167,7 @@
       </c>
       <c r="I888" s="30"/>
     </row>
-    <row r="889" spans="1:9" ht="45">
+    <row r="889" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A889" s="20" t="s">
         <v>909</v>
       </c>
@@ -31196,7 +31196,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="890" spans="1:9" ht="30">
+    <row r="890" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A890" s="20" t="s">
         <v>910</v>
       </c>
@@ -31223,7 +31223,7 @@
       </c>
       <c r="I890" s="30"/>
     </row>
-    <row r="891" spans="1:9" ht="30">
+    <row r="891" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A891" s="20" t="s">
         <v>911</v>
       </c>
@@ -31248,7 +31248,7 @@
       </c>
       <c r="I891" s="30"/>
     </row>
-    <row r="892" spans="1:9" ht="30">
+    <row r="892" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A892" s="20" t="s">
         <v>912</v>
       </c>
@@ -31273,7 +31273,7 @@
       </c>
       <c r="I892" s="30"/>
     </row>
-    <row r="893" spans="1:9" ht="60">
+    <row r="893" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A893" s="20" t="s">
         <v>913</v>
       </c>
@@ -31298,7 +31298,7 @@
       </c>
       <c r="I893" s="30"/>
     </row>
-    <row r="894" spans="1:9" ht="30">
+    <row r="894" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A894" s="20" t="s">
         <v>914</v>
       </c>
@@ -31323,7 +31323,7 @@
       </c>
       <c r="I894" s="30"/>
     </row>
-    <row r="895" spans="1:9" ht="45">
+    <row r="895" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A895" s="20" t="s">
         <v>915</v>
       </c>
@@ -31348,7 +31348,7 @@
       </c>
       <c r="I895" s="30"/>
     </row>
-    <row r="896" spans="1:9" ht="30">
+    <row r="896" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A896" s="20" t="s">
         <v>916</v>
       </c>
@@ -31373,7 +31373,7 @@
       </c>
       <c r="I896" s="30"/>
     </row>
-    <row r="897" spans="1:9" ht="30">
+    <row r="897" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A897" s="20" t="s">
         <v>917</v>
       </c>
@@ -31398,7 +31398,7 @@
       </c>
       <c r="I897" s="30"/>
     </row>
-    <row r="898" spans="1:9" ht="30">
+    <row r="898" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A898" s="20" t="s">
         <v>918</v>
       </c>
@@ -31423,7 +31423,7 @@
       </c>
       <c r="I898" s="30"/>
     </row>
-    <row r="899" spans="1:9" ht="30">
+    <row r="899" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A899" s="20" t="s">
         <v>919</v>
       </c>
@@ -31448,7 +31448,7 @@
       </c>
       <c r="I899" s="30"/>
     </row>
-    <row r="900" spans="1:9" ht="225">
+    <row r="900" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A900" s="20" t="s">
         <v>920</v>
       </c>
@@ -31473,7 +31473,7 @@
       </c>
       <c r="I900" s="30"/>
     </row>
-    <row r="901" spans="1:9" ht="45">
+    <row r="901" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A901" s="20" t="s">
         <v>921</v>
       </c>
@@ -31498,7 +31498,7 @@
       </c>
       <c r="I901" s="30"/>
     </row>
-    <row r="902" spans="1:9" ht="45">
+    <row r="902" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A902" s="20" t="s">
         <v>922</v>
       </c>
@@ -31523,7 +31523,7 @@
       </c>
       <c r="I902" s="30"/>
     </row>
-    <row r="903" spans="1:9" ht="30">
+    <row r="903" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A903" s="28" t="s">
         <v>923</v>
       </c>
@@ -31548,7 +31548,7 @@
       </c>
       <c r="I903" s="30"/>
     </row>
-    <row r="904" spans="1:9" ht="60">
+    <row r="904" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A904" s="20" t="s">
         <v>2137</v>
       </c>
@@ -31573,7 +31573,7 @@
       </c>
       <c r="I904" s="33"/>
     </row>
-    <row r="905" spans="1:9" ht="60">
+    <row r="905" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A905" s="20" t="s">
         <v>2138</v>
       </c>
@@ -31598,7 +31598,7 @@
       </c>
       <c r="I905" s="33"/>
     </row>
-    <row r="906" spans="1:9" ht="30">
+    <row r="906" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A906" s="20" t="s">
         <v>924</v>
       </c>
@@ -31625,7 +31625,7 @@
       </c>
       <c r="I906" s="30"/>
     </row>
-    <row r="907" spans="1:9" ht="45">
+    <row r="907" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A907" s="20" t="s">
         <v>925</v>
       </c>
@@ -31654,7 +31654,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="908" spans="1:9" ht="45">
+    <row r="908" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A908" s="20" t="s">
         <v>926</v>
       </c>
@@ -31681,7 +31681,7 @@
       </c>
       <c r="I908" s="30"/>
     </row>
-    <row r="909" spans="1:9" ht="45">
+    <row r="909" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A909" s="20" t="s">
         <v>927</v>
       </c>
@@ -31708,7 +31708,7 @@
       </c>
       <c r="I909" s="30"/>
     </row>
-    <row r="910" spans="1:9" ht="45">
+    <row r="910" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A910" s="28" t="s">
         <v>928</v>
       </c>
@@ -31737,7 +31737,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="911" spans="1:9" ht="45">
+    <row r="911" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A911" s="28" t="s">
         <v>929</v>
       </c>
@@ -31766,7 +31766,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="912" spans="1:9" ht="45">
+    <row r="912" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A912" s="20" t="s">
         <v>930</v>
       </c>
@@ -31793,7 +31793,7 @@
       </c>
       <c r="I912" s="30"/>
     </row>
-    <row r="913" spans="1:9" ht="45">
+    <row r="913" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A913" s="28" t="s">
         <v>931</v>
       </c>
@@ -31822,7 +31822,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="914" spans="1:9" ht="30">
+    <row r="914" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A914" s="28" t="s">
         <v>932</v>
       </c>
@@ -31849,7 +31849,7 @@
       </c>
       <c r="I914" s="18"/>
     </row>
-    <row r="915" spans="1:9" ht="30">
+    <row r="915" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A915" s="20" t="s">
         <v>933</v>
       </c>
@@ -31876,7 +31876,7 @@
       </c>
       <c r="I915" s="30"/>
     </row>
-    <row r="916" spans="1:9" ht="45">
+    <row r="916" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A916" s="20" t="s">
         <v>934</v>
       </c>
@@ -31905,7 +31905,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="917" spans="1:9" ht="30">
+    <row r="917" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A917" s="20" t="s">
         <v>935</v>
       </c>
@@ -31932,7 +31932,7 @@
       </c>
       <c r="I917" s="30"/>
     </row>
-    <row r="918" spans="1:9" ht="30">
+    <row r="918" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A918" s="28" t="s">
         <v>936</v>
       </c>
@@ -31959,7 +31959,7 @@
       </c>
       <c r="I918" s="18"/>
     </row>
-    <row r="919" spans="1:9" ht="30">
+    <row r="919" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A919" s="28" t="s">
         <v>937</v>
       </c>
@@ -31986,7 +31986,7 @@
       </c>
       <c r="I919" s="30"/>
     </row>
-    <row r="920" spans="1:9" ht="30">
+    <row r="920" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A920" s="28" t="s">
         <v>938</v>
       </c>
@@ -32013,7 +32013,7 @@
       </c>
       <c r="I920" s="30"/>
     </row>
-    <row r="921" spans="1:9" ht="30">
+    <row r="921" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A921" s="28" t="s">
         <v>939</v>
       </c>
@@ -32040,7 +32040,7 @@
       </c>
       <c r="I921" s="30"/>
     </row>
-    <row r="922" spans="1:9" ht="45">
+    <row r="922" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A922" s="28" t="s">
         <v>940</v>
       </c>
@@ -32069,7 +32069,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="923" spans="1:9" ht="45">
+    <row r="923" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A923" s="28" t="s">
         <v>941</v>
       </c>
@@ -32096,7 +32096,7 @@
       </c>
       <c r="I923" s="30"/>
     </row>
-    <row r="924" spans="1:9" ht="45">
+    <row r="924" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A924" s="28" t="s">
         <v>942</v>
       </c>
@@ -32125,7 +32125,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="925" spans="1:9" ht="30">
+    <row r="925" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A925" s="28" t="s">
         <v>943</v>
       </c>
@@ -32152,7 +32152,7 @@
       </c>
       <c r="I925" s="30"/>
     </row>
-    <row r="926" spans="1:9" ht="45">
+    <row r="926" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A926" s="28" t="s">
         <v>944</v>
       </c>
@@ -32181,7 +32181,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="927" spans="1:9" ht="30">
+    <row r="927" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A927" s="20" t="s">
         <v>945</v>
       </c>
@@ -32208,7 +32208,7 @@
       </c>
       <c r="I927" s="30"/>
     </row>
-    <row r="928" spans="1:9" ht="45">
+    <row r="928" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A928" s="20" t="s">
         <v>946</v>
       </c>
@@ -32237,7 +32237,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="929" spans="1:9" ht="30">
+    <row r="929" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A929" s="28" t="s">
         <v>947</v>
       </c>
@@ -32264,7 +32264,7 @@
       </c>
       <c r="I929" s="30"/>
     </row>
-    <row r="930" spans="1:9" ht="45">
+    <row r="930" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A930" s="20" t="s">
         <v>948</v>
       </c>
@@ -32293,7 +32293,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="931" spans="1:9" ht="30">
+    <row r="931" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A931" s="20" t="s">
         <v>949</v>
       </c>
@@ -32320,7 +32320,7 @@
       </c>
       <c r="I931" s="30"/>
     </row>
-    <row r="932" spans="1:9" ht="45">
+    <row r="932" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A932" s="28" t="s">
         <v>950</v>
       </c>
@@ -32349,7 +32349,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="933" spans="1:9" ht="30">
+    <row r="933" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A933" s="20" t="s">
         <v>951</v>
       </c>
@@ -32376,7 +32376,7 @@
       </c>
       <c r="I933" s="30"/>
     </row>
-    <row r="934" spans="1:9" ht="45">
+    <row r="934" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A934" s="20" t="s">
         <v>952</v>
       </c>
@@ -32405,7 +32405,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="935" spans="1:9" ht="45">
+    <row r="935" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A935" s="32" t="s">
         <v>237</v>
       </c>
@@ -32432,7 +32432,7 @@
       </c>
       <c r="I935" s="33"/>
     </row>
-    <row r="936" spans="1:9" ht="75">
+    <row r="936" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A936" s="20" t="s">
         <v>238</v>
       </c>
@@ -32461,7 +32461,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="937" spans="1:9" ht="60">
+    <row r="937" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A937" s="20" t="s">
         <v>239</v>
       </c>
@@ -32490,7 +32490,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="938" spans="1:9" ht="75">
+    <row r="938" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A938" s="20" t="s">
         <v>240</v>
       </c>
@@ -32519,7 +32519,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="939" spans="1:9" ht="75">
+    <row r="939" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A939" s="20" t="s">
         <v>241</v>
       </c>
@@ -32548,7 +32548,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="940" spans="1:9" ht="150">
+    <row r="940" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A940" s="32" t="s">
         <v>460</v>
       </c>
@@ -32577,7 +32577,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="941" spans="1:9" ht="120">
+    <row r="941" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A941" s="32" t="s">
         <v>539</v>
       </c>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="I941" s="33"/>
     </row>
-    <row r="942" spans="1:9" ht="135">
+    <row r="942" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A942" s="32" t="s">
         <v>567</v>
       </c>
@@ -32633,7 +32633,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="943" spans="1:9" ht="135">
+    <row r="943" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A943" s="32" t="s">
         <v>568</v>
       </c>
@@ -32662,7 +32662,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="944" spans="1:9" ht="150">
+    <row r="944" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A944" s="32" t="s">
         <v>660</v>
       </c>
@@ -32691,7 +32691,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="945" spans="1:9" ht="90">
+    <row r="945" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A945" s="32" t="s">
         <v>688</v>
       </c>
@@ -32718,7 +32718,7 @@
       </c>
       <c r="I945" s="33"/>
     </row>
-    <row r="946" spans="1:9" ht="60">
+    <row r="946" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A946" s="32" t="s">
         <v>689</v>
       </c>
@@ -32747,7 +32747,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="947" spans="1:9" ht="60">
+    <row r="947" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A947" s="32" t="s">
         <v>690</v>
       </c>
@@ -32776,7 +32776,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="948" spans="1:9" ht="60">
+    <row r="948" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A948" s="32" t="s">
         <v>691</v>
       </c>
@@ -32805,7 +32805,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="949" spans="1:9" ht="150">
+    <row r="949" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A949" s="32" t="s">
         <v>766</v>
       </c>
@@ -32834,7 +32834,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="950" spans="1:9" ht="150">
+    <row r="950" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A950" s="32" t="s">
         <v>767</v>
       </c>
@@ -32863,7 +32863,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="951" spans="1:9" ht="150">
+    <row r="951" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A951" s="32" t="s">
         <v>768</v>
       </c>
@@ -32892,7 +32892,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="952" spans="1:9" ht="165">
+    <row r="952" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A952" s="32" t="s">
         <v>769</v>
       </c>
@@ -32921,7 +32921,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="953" spans="1:9" ht="150">
+    <row r="953" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A953" s="32" t="s">
         <v>770</v>
       </c>
@@ -32967,84 +32967,84 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A687:B687 E936:E939 D687:I687 A875:H875 A940:I953 A20:I686 A876:I935 I667:I875 A688:I874">
-    <cfRule type="expression" dxfId="21" priority="85">
+    <cfRule type="expression" dxfId="40" priority="85">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="86">
+    <cfRule type="expression" dxfId="39" priority="86">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="93">
+    <cfRule type="expression" dxfId="38" priority="93">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A687:B687 E936:E939 D687:I687 A875:H875 A940:I953 A20:I686 A876:I935 I667:I875 A688:I874">
-    <cfRule type="expression" dxfId="18" priority="39">
+    <cfRule type="expression" dxfId="37" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="40">
+    <cfRule type="expression" dxfId="36" priority="40">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="41">
+    <cfRule type="expression" dxfId="35" priority="41">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F940:F953 F20:F935">
-    <cfRule type="expression" dxfId="15" priority="45">
+    <cfRule type="expression" dxfId="34" priority="45">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="46">
+    <cfRule type="expression" dxfId="33" priority="46">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C687">
-    <cfRule type="expression" dxfId="13" priority="24">
+    <cfRule type="expression" dxfId="32" priority="24">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="25">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="26">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C687">
-    <cfRule type="expression" dxfId="10" priority="21">
+    <cfRule type="expression" dxfId="29" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="22">
+    <cfRule type="expression" dxfId="28" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="23">
+    <cfRule type="expression" dxfId="27" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A936:D939 F936:I939">
-    <cfRule type="expression" dxfId="7" priority="18">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="19">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="20">
+    <cfRule type="expression" dxfId="24" priority="20">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A936:D939 F936:I939">
-    <cfRule type="expression" dxfId="4" priority="13">
+    <cfRule type="expression" dxfId="23" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="22" priority="14">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F936:F939">
-    <cfRule type="expression" dxfId="1" priority="16">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>NOT(VLOOKUP(F936,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>(VLOOKUP(F936,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33072,7 +33072,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 B18:B27 C3 B10:B16 B28:B180 B182:B189 B191:B233 B235:B336 B338:B497 B499:B502 B506:B509 B513:B590 B592:B715 B720:B735 B737:B774 B776:B836 B906:B953 B838:B903" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 B18:B27 C3 B10:B16 B28:B837 B905:B953 B838:B904" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/SharePoint/Docs/MS-WEBSS/MS-WEBSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-WEBSS/MS-WEBSS_RequirementSpecification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SharePoint-TestSuite\Docs\MS-WEBSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCA9A84-1605-4713-83D7-AA9A0B2D2266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFBAD54-8A85-45AC-B848-2C9459CEEB46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6693" uniqueCount="2158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6697" uniqueCount="2159">
   <si>
     <t>Req ID</t>
   </si>
@@ -7620,14 +7620,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does not support this method[IsSPO]. (&lt;3&gt; Section 2.2.4.2: This attribute[FarmId] is not returned in Windows SharePoint Services 2.0, Windows SharePoint Services 3.0 and SharePoint Foundation 2010.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does not support this method[SiteId]. (&lt;3&gt; Section 2.2.4.2: This attribute[FarmId] is not returned in Windows SharePoint Services 2.0, Windows SharePoint Services 3.0 , SharePoint Foundation 2010 and SharePoint Foundation 2013.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior]Implementation does support this method [IsSPO]. (&lt;3&gt; Section 2.2.4.2: This attribute is returned in Microsoft SharePoint Server 2016 and above follow this behavior.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7816,6 +7808,18 @@
   </si>
   <si>
     <t>[In Appendix B: Product Behavior] Implementation does support this[UpdateContentTypeXmlDocument] operation.(&lt;25&gt;Windows SharePoint Services 3.0 and above follow this behavior.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not support this method[SiteId]. (&lt;3&gt; Section 2.2.4.2:  This attribute is not returned in Windows SharePoint Services 2.0, Windows SharePoint Services 3.0 and SharePoint Foundation 2010.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not support this method[IsSPO]. (&lt;4&gt; Section 2.2.4.2:  This attribute is not returned in Windows SharePoint Services 2.0, Windows SharePoint Services 3.0, SharePoint Foundation 2010 and SharePoint Foundation 2013.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7877,6 +7881,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -8105,6 +8110,24 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8129,147 +8152,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8608,6 +8495,124 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8737,34 +8742,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I959" tableType="xml" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I959" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I959" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="38">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="37">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="36">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="35">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="34">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="33">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="32">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="31">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="30">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8773,12 +8778,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9150,7 +9155,7 @@
       <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="36" t="s">
         <v>2066</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -9162,127 +9167,127 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -9295,12 +9300,12 @@
       <c r="C12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -9313,12 +9318,12 @@
       <c r="C13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -9331,12 +9336,12 @@
       <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -9349,60 +9354,60 @@
       <c r="C15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="48" t="s">
         <v>1889</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="4"/>
       <c r="L18" s="3"/>
     </row>
@@ -31120,14 +31125,16 @@
     </row>
     <row r="882" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A882" s="20" t="s">
-        <v>2114</v>
-      </c>
-      <c r="B882" s="22"/>
+        <v>2112</v>
+      </c>
+      <c r="B882" s="22" t="s">
+        <v>2158</v>
+      </c>
       <c r="C882" s="18" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D882" s="20" t="s">
         <v>2109</v>
-      </c>
-      <c r="D882" s="20" t="s">
-        <v>2111</v>
       </c>
       <c r="E882" s="27" t="s">
         <v>22</v>
@@ -31145,14 +31152,16 @@
     </row>
     <row r="883" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A883" s="20" t="s">
-        <v>2113</v>
-      </c>
-      <c r="B883" s="22"/>
+        <v>2111</v>
+      </c>
+      <c r="B883" s="22" t="s">
+        <v>2158</v>
+      </c>
       <c r="C883" s="18" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="D883" s="20" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="E883" s="27" t="s">
         <v>22</v>
@@ -31172,14 +31181,16 @@
     </row>
     <row r="884" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A884" s="20" t="s">
-        <v>2115</v>
-      </c>
-      <c r="B884" s="22"/>
+        <v>2113</v>
+      </c>
+      <c r="B884" s="22" t="s">
+        <v>2158</v>
+      </c>
       <c r="C884" s="18" t="s">
-        <v>2108</v>
+        <v>2157</v>
       </c>
       <c r="D884" s="20" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="E884" s="27" t="s">
         <v>22</v>
@@ -31197,14 +31208,16 @@
     </row>
     <row r="885" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A885" s="20" t="s">
-        <v>2116</v>
-      </c>
-      <c r="B885" s="22"/>
+        <v>2114</v>
+      </c>
+      <c r="B885" s="22" t="s">
+        <v>2158</v>
+      </c>
       <c r="C885" s="18" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="D885" s="20" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="E885" s="27" t="s">
         <v>22</v>
@@ -31230,7 +31243,7 @@
         <v>7</v>
       </c>
       <c r="C886" s="18" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="D886" s="20" t="s">
         <v>1863</v>
@@ -31257,7 +31270,7 @@
         <v>7</v>
       </c>
       <c r="C887" s="18" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="D887" s="20" t="s">
         <v>1863</v>
@@ -31286,7 +31299,7 @@
         <v>7</v>
       </c>
       <c r="C888" s="18" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="D888" s="20" t="s">
         <v>1864</v>
@@ -31313,7 +31326,7 @@
         <v>7</v>
       </c>
       <c r="C889" s="18" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="D889" s="20" t="s">
         <v>1864</v>
@@ -31342,7 +31355,7 @@
         <v>7</v>
       </c>
       <c r="C890" s="18" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="D890" s="20" t="s">
         <v>1865</v>
@@ -31369,7 +31382,7 @@
         <v>7</v>
       </c>
       <c r="C891" s="18" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="D891" s="20" t="s">
         <v>1865</v>
@@ -31398,7 +31411,7 @@
         <v>7</v>
       </c>
       <c r="C892" s="18" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="D892" s="20" t="s">
         <v>1866</v>
@@ -31425,7 +31438,7 @@
         <v>7</v>
       </c>
       <c r="C893" s="18" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="D893" s="20" t="s">
         <v>1866</v>
@@ -31454,7 +31467,7 @@
         <v>7</v>
       </c>
       <c r="C894" s="18" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="D894" s="20" t="s">
         <v>1859</v>
@@ -31481,7 +31494,7 @@
         <v>7</v>
       </c>
       <c r="C895" s="18" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="D895" s="20" t="s">
         <v>1859</v>
@@ -31510,7 +31523,7 @@
         <v>7</v>
       </c>
       <c r="C896" s="18" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D896" s="20" t="s">
         <v>1860</v>
@@ -31537,7 +31550,7 @@
         <v>7</v>
       </c>
       <c r="C897" s="18" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="D897" s="27"/>
       <c r="E897" s="27" t="s">
@@ -31912,7 +31925,7 @@
         <v>7</v>
       </c>
       <c r="C912" s="18" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D912" s="20" t="s">
         <v>1867</v>
@@ -31939,7 +31952,7 @@
         <v>7</v>
       </c>
       <c r="C913" s="18" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="D913" s="20" t="s">
         <v>1867</v>
@@ -31968,7 +31981,7 @@
         <v>7</v>
       </c>
       <c r="C914" s="18" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="D914" s="20" t="s">
         <v>1868</v>
@@ -31995,7 +32008,7 @@
         <v>7</v>
       </c>
       <c r="C915" s="18" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="D915" s="20" t="s">
         <v>1869</v>
@@ -32022,7 +32035,7 @@
         <v>7</v>
       </c>
       <c r="C916" s="18" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="D916" s="27" t="s">
         <v>1869</v>
@@ -32051,7 +32064,7 @@
         <v>7</v>
       </c>
       <c r="C917" s="18" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="D917" s="27" t="s">
         <v>1868</v>
@@ -32080,7 +32093,7 @@
         <v>7</v>
       </c>
       <c r="C918" s="18" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="D918" s="27" t="s">
         <v>1870</v>
@@ -32107,7 +32120,7 @@
         <v>7</v>
       </c>
       <c r="C919" s="18" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="D919" s="27" t="s">
         <v>1870</v>
@@ -32136,7 +32149,7 @@
         <v>7</v>
       </c>
       <c r="C920" s="18" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="D920" s="27" t="s">
         <v>1860</v>
@@ -32163,7 +32176,7 @@
         <v>7</v>
       </c>
       <c r="C921" s="18" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="D921" s="27" t="s">
         <v>1871</v>
@@ -32190,7 +32203,7 @@
         <v>7</v>
       </c>
       <c r="C922" s="18" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D922" s="27" t="s">
         <v>1871</v>
@@ -32219,7 +32232,7 @@
         <v>7</v>
       </c>
       <c r="C923" s="18" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="D923" s="27" t="s">
         <v>1872</v>
@@ -32246,7 +32259,7 @@
         <v>7</v>
       </c>
       <c r="C924" s="18" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="D924" s="27" t="s">
         <v>1872</v>
@@ -32273,7 +32286,7 @@
         <v>7</v>
       </c>
       <c r="C925" s="18" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="D925" s="27" t="s">
         <v>1873</v>
@@ -32300,7 +32313,7 @@
         <v>7</v>
       </c>
       <c r="C926" s="18" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="D926" s="27" t="s">
         <v>1873</v>
@@ -32327,7 +32340,7 @@
         <v>7</v>
       </c>
       <c r="C927" s="18" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="D927" s="27" t="s">
         <v>1874</v>
@@ -32354,7 +32367,7 @@
         <v>7</v>
       </c>
       <c r="C928" s="18" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="D928" s="27" t="s">
         <v>1874</v>
@@ -32383,7 +32396,7 @@
         <v>7</v>
       </c>
       <c r="C929" s="18" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="D929" s="27" t="s">
         <v>1875</v>
@@ -32410,7 +32423,7 @@
         <v>7</v>
       </c>
       <c r="C930" s="18" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="D930" s="27" t="s">
         <v>1875</v>
@@ -32439,7 +32452,7 @@
         <v>7</v>
       </c>
       <c r="C931" s="18" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="D931" s="27" t="s">
         <v>1876</v>
@@ -32466,7 +32479,7 @@
         <v>7</v>
       </c>
       <c r="C932" s="18" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D932" s="27" t="s">
         <v>1876</v>
@@ -32495,7 +32508,7 @@
         <v>7</v>
       </c>
       <c r="C933" s="18" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="D933" s="27" t="s">
         <v>1877</v>
@@ -32522,7 +32535,7 @@
         <v>7</v>
       </c>
       <c r="C934" s="18" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="D934" s="27" t="s">
         <v>1877</v>
@@ -32551,7 +32564,7 @@
         <v>7</v>
       </c>
       <c r="C935" s="18" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="D935" s="27" t="s">
         <v>1878</v>
@@ -32578,7 +32591,7 @@
         <v>7</v>
       </c>
       <c r="C936" s="18" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D936" s="27" t="s">
         <v>1878</v>
@@ -32607,7 +32620,7 @@
         <v>7</v>
       </c>
       <c r="C937" s="18" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="D937" s="27" t="s">
         <v>1879</v>
@@ -32634,7 +32647,7 @@
         <v>7</v>
       </c>
       <c r="C938" s="18" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="D938" s="27" t="s">
         <v>1879</v>
@@ -32663,7 +32676,7 @@
         <v>7</v>
       </c>
       <c r="C939" s="18" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="D939" s="27" t="s">
         <v>1880</v>
@@ -32690,7 +32703,7 @@
         <v>7</v>
       </c>
       <c r="C940" s="18" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="D940" s="27" t="s">
         <v>1880</v>
@@ -33258,11 +33271,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -33270,87 +33278,92 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A689:B689 E942:E945 D689:I689 A877:H877 A946:I959 I669:I877 A690:I876 A20:I688 A878:I941">
-    <cfRule type="expression" dxfId="21" priority="85">
+    <cfRule type="expression" dxfId="40" priority="85">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="86">
+    <cfRule type="expression" dxfId="39" priority="86">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="93">
+    <cfRule type="expression" dxfId="38" priority="93">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A689:B689 E942:E945 D689:I689 A877:H877 A946:I959 I669:I877 A690:I876 A20:I688 A878:I941">
-    <cfRule type="expression" dxfId="18" priority="39">
+    <cfRule type="expression" dxfId="37" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="40">
+    <cfRule type="expression" dxfId="36" priority="40">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="41">
+    <cfRule type="expression" dxfId="35" priority="41">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F946:F959 F20:F941">
-    <cfRule type="expression" dxfId="15" priority="45">
+    <cfRule type="expression" dxfId="34" priority="45">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="46">
+    <cfRule type="expression" dxfId="33" priority="46">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C689">
-    <cfRule type="expression" dxfId="13" priority="24">
+    <cfRule type="expression" dxfId="32" priority="24">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="25">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="26">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C689">
-    <cfRule type="expression" dxfId="10" priority="21">
+    <cfRule type="expression" dxfId="29" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="22">
+    <cfRule type="expression" dxfId="28" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="23">
+    <cfRule type="expression" dxfId="27" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A942:D945 F942:I945">
-    <cfRule type="expression" dxfId="7" priority="18">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="19">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="20">
+    <cfRule type="expression" dxfId="24" priority="20">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A942:D945 F942:I945">
-    <cfRule type="expression" dxfId="4" priority="13">
+    <cfRule type="expression" dxfId="23" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="22" priority="14">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F942:F945">
-    <cfRule type="expression" dxfId="1" priority="16">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>NOT(VLOOKUP(F942,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>(VLOOKUP(F942,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33388,12 +33401,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -33442,6 +33449,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -33452,20 +33465,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33480,6 +33479,20 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>

--- a/SharePoint/Docs/MS-WEBSS/MS-WEBSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-WEBSS/MS-WEBSS_RequirementSpecification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Interop-TestSuites\SharePoint\Docs\MS-WEBSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Interop\TestSuite1\SharePoint\Docs\MS-WEBSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C36393-E3DB-437E-BE0F-C2DA601D0C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994E913C-011B-40E0-83A7-2CA654B2ACEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6650,25 +6650,6 @@
     <t>[In Message Processing Events and Sequencing Rules] [WSDL operation description]  RemoveContentTypeXmlDocument: Removes an XML document in the XML document collection of a site content type.</t>
   </si>
   <si>
-    <t>[In CreateContentType]  This element [CreateContentType] is defined as follows:
- &lt;s:element name="CreateContentType"&gt;
-  &lt;s:complexType&gt;
-    &lt;s:sequence&gt;
-      &lt;s:element name="displayName" type="s:string" minOccurs="1"/&gt;
-      &lt;s:element name="parentType" type="s:string" minOccurs="1"/&gt;
-      &lt;s:element name="newFields" type="AddOrUpdateFieldsDefinition" minOccurs="0"/&gt;
-      &lt;s:element name="contentTypeProperties" minOccurs="1"&gt;
-        &lt;s:complexType&gt;
-          &lt;s:sequence&gt;
-            &lt;s:element name="ContentType" type="ContentTypePropertyDefinition" minOccurs="0" /&gt;
-          &lt;/s:sequence&gt;
-        &lt;/s:complexType&gt;
-      &lt;/s:element&gt;
-    &lt;/s:sequence&gt;
-  &lt;/s:complexType&gt;
-&lt;/s:element&gt;</t>
-  </si>
-  <si>
     <t>[In CreateContentType] parentType: It MUST conform to the ContentTypeId type, as specified in [MS-WSSCAML] section 2.3.1.4.</t>
   </si>
   <si>
@@ -7205,26 +7186,6 @@
     <t>MS-WEBSS_R822001</t>
   </si>
   <si>
-    <t>[In UpdateContentType] This element[UpdateContentType] is defined as follows:
-&lt;s:element name="UpdateContentType"&gt;
-  &lt;s:complexType&gt;
-    &lt;s:sequence&gt;
-      &lt;s:element name="contentTypeId" type="s:string" minOccurs="0"/&gt;
-      &lt;s:element name="contentTypeProperties" minOccurs="1"&gt;
-        &lt;s:complexType&gt;
-          &lt;s:sequence&gt;
-            &lt;s:element name="ContentType" type="ContentTypePropertyDefinition" minOccurs="0" /&gt;
-          &lt;/s:sequence&gt;
-        &lt;/s:complexType&gt;
-      &lt;/s:element&gt;
-      &lt;s:element name="newFields" type="AddOrUpdateFieldsDefinition" minOccurs="0"/&gt;
-      &lt;s:element name="updateFields" type="AddOrUpdateFieldsDefinition" minOccurs="0"/&gt;
-      &lt;s:element name="deleteFields" type="DeleteFieldsDefinition" minOccurs="0"/&gt;
-    &lt;/s:sequence&gt;
-  &lt;/s:complexType&gt;
-&lt;/s:element&gt;</t>
-  </si>
-  <si>
     <t>[In UpdateContentType] contentTypeId: It MUST conform to the ContentTypeId type, as specified in [MS-WSSCAML] section 2.3.1.4.</t>
   </si>
   <si>
@@ -7357,10 +7318,6 @@
     <t>[In UpdateColumns] Method: If the Method element does not contain an ID attribute, the server [does not add, update, or delete columns and]does not return an ErrorCode.</t>
   </si>
   <si>
-    <t>10.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[In Transport] Protocol messages MUST be formatted as specified in [SOAP1.2-1/2007] section 5, SOAP Message Construct.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7826,6 +7783,48 @@
   <si>
     <t>[In Messages] [Message] GetAllSubWebCollectionSoapOut
  [Description] The response to a request for the title and URL of all sites in the site collection.</t>
+  </si>
+  <si>
+    <t>[In CreateContentType]  This element [CreateContentType] is defined as follows:
+ &lt;s:element name="CreateContentType"&gt;
+  &lt;s:complexType&gt;
+    &lt;s:sequence&gt;
+      &lt;s:element name="displayName" type="s:string" minOccurs="1"/&gt;
+      &lt;s:element name="parentType" type="s:string" minOccurs="1"/&gt;
+      &lt;s:element name="newFields" type="AddOrUpdateFieldsDefinition" minOccurs="0"/&gt;
+      &lt;s:element name="contentTypeProperties" minOccurs="0" maxOccurs="1"&gt;
+        &lt;s:complexType&gt;
+          &lt;s:sequence&gt;
+            &lt;s:element name="ContentType" type="ContentTypePropertyDefinition" minOccurs="0" /&gt;
+          &lt;/s:sequence&gt;
+        &lt;/s:complexType&gt;
+      &lt;/s:element&gt;
+    &lt;/s:sequence&gt;
+  &lt;/s:complexType&gt;
+&lt;/s:element&gt;</t>
+  </si>
+  <si>
+    <t>[In UpdateContentType] This element[UpdateContentType] is defined as follows:
+&lt;s:element name="UpdateContentType"&gt;
+  &lt;s:complexType&gt;
+    &lt;s:sequence&gt;
+      &lt;s:element name="contentTypeId" type="s:string" minOccurs="0"/&gt;
+      &lt;s:element name="contentTypeProperties" minOccurs="0" maxOccurs="1"&gt;
+        &lt;s:complexType&gt;
+          &lt;s:sequence&gt;
+            &lt;s:element name="ContentType" type="ContentTypePropertyDefinition" minOccurs="0" /&gt;
+          &lt;/s:sequence&gt;
+        &lt;/s:complexType&gt;
+      &lt;/s:element&gt;
+      &lt;s:element name="newFields" type="AddOrUpdateFieldsDefinition" minOccurs="0"/&gt;
+      &lt;s:element name="updateFields" type="AddOrUpdateFieldsDefinition" minOccurs="0"/&gt;
+      &lt;s:element name="deleteFields" type="DeleteFieldsDefinition" minOccurs="0"/&gt;
+    &lt;/s:sequence&gt;
+  &lt;/s:complexType&gt;
+&lt;/s:element&gt;</t>
+  </si>
+  <si>
+    <t>14.1</t>
   </si>
 </sst>
 </file>
@@ -8118,21 +8117,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8156,6 +8140,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9118,8 +9117,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L959"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L273" sqref="L273"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9163,138 +9162,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>2044</v>
+        <v>2159</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>1909</v>
       </c>
       <c r="F3" s="10">
-        <v>43634</v>
+        <v>44474</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
@@ -9307,12 +9306,12 @@
       <c r="C12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
@@ -9325,12 +9324,12 @@
       <c r="C13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
@@ -9343,12 +9342,12 @@
       <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
@@ -9361,60 +9360,60 @@
       <c r="C15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="43" t="s">
         <v>1867</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="30">
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="4"/>
       <c r="L18" s="3"/>
     </row>
@@ -9533,7 +9532,7 @@
         <v>2.1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20" t="s">
@@ -9583,7 +9582,7 @@
         <v>2.1</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20" t="s">
@@ -9633,7 +9632,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20" t="s">
@@ -9783,7 +9782,7 @@
         <v>950</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="27" t="s">
@@ -10210,7 +10209,7 @@
         <v>954</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="27" t="s">
@@ -10354,10 +10353,10 @@
     </row>
     <row r="56" spans="1:9" ht="45">
       <c r="A56" s="20" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="C56" s="29" t="s">
         <v>1132</v>
@@ -10381,13 +10380,13 @@
     </row>
     <row r="57" spans="1:9" ht="45">
       <c r="A57" s="20" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="27" t="s">
@@ -10403,18 +10402,18 @@
         <v>17</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="45">
       <c r="A58" s="20" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="27" t="s">
@@ -10430,18 +10429,18 @@
         <v>17</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="45">
       <c r="A59" s="20" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="B59" s="28" t="s">
         <v>954</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="D59" s="27"/>
       <c r="E59" s="27" t="s">
@@ -10468,7 +10467,7 @@
         <v>954</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="D60" s="27"/>
       <c r="E60" s="27" t="s">
@@ -10495,7 +10494,7 @@
         <v>954</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="27" t="s">
@@ -10522,7 +10521,7 @@
         <v>954</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="D62" s="27"/>
       <c r="E62" s="27" t="s">
@@ -11024,7 +11023,7 @@
         <v>3</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="D82" s="27"/>
       <c r="E82" s="27" t="s">
@@ -11174,7 +11173,7 @@
         <v>962</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
       <c r="D88" s="27"/>
       <c r="E88" s="27" t="s">
@@ -12324,7 +12323,7 @@
         <v>33</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="D134" s="27"/>
       <c r="E134" s="27" t="s">
@@ -12926,7 +12925,7 @@
         <v>967</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>1923</v>
+        <v>2157</v>
       </c>
       <c r="D158" s="27"/>
       <c r="E158" s="27" t="s">
@@ -13579,13 +13578,13 @@
     </row>
     <row r="183" spans="1:9" ht="30">
       <c r="A183" s="20" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B183" s="22" t="s">
         <v>967</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="D183" s="31"/>
       <c r="E183" s="27" t="s">
@@ -13760,7 +13759,7 @@
         <v>968</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D190" s="27"/>
       <c r="E190" s="27" t="s">
@@ -13804,13 +13803,13 @@
     </row>
     <row r="192" spans="1:9" ht="30">
       <c r="A192" s="20" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B192" s="28" t="s">
         <v>968</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D192" s="31"/>
       <c r="E192" s="31" t="s">
@@ -13835,7 +13834,7 @@
         <v>34</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="D193" s="27"/>
       <c r="E193" s="27" t="s">
@@ -14210,7 +14209,7 @@
         <v>973</v>
       </c>
       <c r="C208" s="18" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D208" s="27"/>
       <c r="E208" s="27" t="s">
@@ -14260,7 +14259,7 @@
         <v>973</v>
       </c>
       <c r="C210" s="18" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="D210" s="27"/>
       <c r="E210" s="27" t="s">
@@ -14437,7 +14436,7 @@
         <v>975</v>
       </c>
       <c r="C217" s="18" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="D217" s="27"/>
       <c r="E217" s="27" t="s">
@@ -14589,7 +14588,7 @@
         <v>975</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="D223" s="27"/>
       <c r="E223" s="27" t="s">
@@ -14639,7 +14638,7 @@
         <v>976</v>
       </c>
       <c r="C225" s="18" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D225" s="27"/>
       <c r="E225" s="27" t="s">
@@ -14664,7 +14663,7 @@
         <v>976</v>
       </c>
       <c r="C226" s="18" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="D226" s="27"/>
       <c r="E226" s="27" t="s">
@@ -14789,7 +14788,7 @@
         <v>979</v>
       </c>
       <c r="C231" s="18" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D231" s="27"/>
       <c r="E231" s="27" t="s">
@@ -14814,7 +14813,7 @@
         <v>979</v>
       </c>
       <c r="C232" s="18" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="D232" s="27"/>
       <c r="E232" s="27" t="s">
@@ -14839,7 +14838,7 @@
         <v>980</v>
       </c>
       <c r="C233" s="18" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D233" s="27"/>
       <c r="E233" s="27" t="s">
@@ -14864,7 +14863,7 @@
         <v>980</v>
       </c>
       <c r="C234" s="18" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D234" s="27"/>
       <c r="E234" s="27" t="s">
@@ -14889,7 +14888,7 @@
         <v>980</v>
       </c>
       <c r="C235" s="18" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D235" s="27"/>
       <c r="E235" s="27" t="s">
@@ -14908,13 +14907,13 @@
     </row>
     <row r="236" spans="1:9" ht="30">
       <c r="A236" s="20" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B236" s="28" t="s">
         <v>980</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D236" s="31"/>
       <c r="E236" s="31" t="s">
@@ -14939,7 +14938,7 @@
         <v>981</v>
       </c>
       <c r="C237" s="18" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D237" s="27"/>
       <c r="E237" s="27" t="s">
@@ -14964,7 +14963,7 @@
         <v>981</v>
       </c>
       <c r="C238" s="18" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D238" s="27"/>
       <c r="E238" s="27" t="s">
@@ -15039,7 +15038,7 @@
         <v>982</v>
       </c>
       <c r="C241" s="18" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="D241" s="27"/>
       <c r="E241" s="27" t="s">
@@ -15141,7 +15140,7 @@
         <v>982</v>
       </c>
       <c r="C245" s="18" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="D245" s="27"/>
       <c r="E245" s="27" t="s">
@@ -15216,7 +15215,7 @@
         <v>982</v>
       </c>
       <c r="C248" s="18" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="D248" s="27"/>
       <c r="E248" s="27" t="s">
@@ -15266,7 +15265,7 @@
         <v>983</v>
       </c>
       <c r="C250" s="18" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D250" s="27"/>
       <c r="E250" s="27" t="s">
@@ -15291,7 +15290,7 @@
         <v>983</v>
       </c>
       <c r="C251" s="18" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D251" s="27"/>
       <c r="E251" s="27" t="s">
@@ -15316,7 +15315,7 @@
         <v>984</v>
       </c>
       <c r="C252" s="18" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="D252" s="27"/>
       <c r="E252" s="27" t="s">
@@ -15391,7 +15390,7 @@
         <v>985</v>
       </c>
       <c r="C255" s="18" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D255" s="27"/>
       <c r="E255" s="27" t="s">
@@ -15416,7 +15415,7 @@
         <v>985</v>
       </c>
       <c r="C256" s="18" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="D256" s="27"/>
       <c r="E256" s="27" t="s">
@@ -15491,7 +15490,7 @@
         <v>986</v>
       </c>
       <c r="C259" s="18" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D259" s="27"/>
       <c r="E259" s="27" t="s">
@@ -15516,7 +15515,7 @@
         <v>986</v>
       </c>
       <c r="C260" s="18" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="D260" s="27"/>
       <c r="E260" s="27" t="s">
@@ -15566,7 +15565,7 @@
         <v>988</v>
       </c>
       <c r="C262" s="18" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D262" s="27"/>
       <c r="E262" s="27" t="s">
@@ -15616,7 +15615,7 @@
         <v>988</v>
       </c>
       <c r="C264" s="18" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D264" s="27"/>
       <c r="E264" s="27" t="s">
@@ -15635,7 +15634,7 @@
     </row>
     <row r="265" spans="1:9" ht="45">
       <c r="A265" s="20" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
       <c r="B265" s="28" t="s">
         <v>988</v>
@@ -15654,7 +15653,7 @@
         <v>15</v>
       </c>
       <c r="H265" s="20" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
       <c r="I265" s="18"/>
     </row>
@@ -15666,7 +15665,7 @@
         <v>989</v>
       </c>
       <c r="C266" s="18" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D266" s="27"/>
       <c r="E266" s="27" t="s">
@@ -15841,7 +15840,7 @@
         <v>990</v>
       </c>
       <c r="C273" s="18" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D273" s="27"/>
       <c r="E273" s="27" t="s">
@@ -15866,7 +15865,7 @@
         <v>990</v>
       </c>
       <c r="C274" s="18" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="D274" s="27"/>
       <c r="E274" s="27" t="s">
@@ -15966,7 +15965,7 @@
         <v>992</v>
       </c>
       <c r="C278" s="18" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D278" s="27"/>
       <c r="E278" s="27" t="s">
@@ -16041,7 +16040,7 @@
         <v>993</v>
       </c>
       <c r="C281" s="18" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D281" s="27"/>
       <c r="E281" s="27" t="s">
@@ -16066,7 +16065,7 @@
         <v>993</v>
       </c>
       <c r="C282" s="18" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="D282" s="27"/>
       <c r="E282" s="27" t="s">
@@ -16116,7 +16115,7 @@
         <v>995</v>
       </c>
       <c r="C284" s="18" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D284" s="27"/>
       <c r="E284" s="27" t="s">
@@ -16216,7 +16215,7 @@
         <v>995</v>
       </c>
       <c r="C288" s="18" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D288" s="27"/>
       <c r="E288" s="27" t="s">
@@ -16341,7 +16340,7 @@
         <v>996</v>
       </c>
       <c r="C293" s="18" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="D293" s="27"/>
       <c r="E293" s="27" t="s">
@@ -16841,7 +16840,7 @@
         <v>1002</v>
       </c>
       <c r="C313" s="18" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D313" s="27"/>
       <c r="E313" s="27" t="s">
@@ -16991,7 +16990,7 @@
         <v>1003</v>
       </c>
       <c r="C319" s="18" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="D319" s="27"/>
       <c r="E319" s="27" t="s">
@@ -17116,7 +17115,7 @@
         <v>1003</v>
       </c>
       <c r="C324" s="18" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="D324" s="27"/>
       <c r="E324" s="27" t="s">
@@ -17416,7 +17415,7 @@
         <v>1008</v>
       </c>
       <c r="C336" s="18" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D336" s="27"/>
       <c r="E336" s="27" t="s">
@@ -17485,13 +17484,13 @@
     </row>
     <row r="339" spans="1:9" ht="30">
       <c r="A339" s="20" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B339" s="28" t="s">
         <v>1008</v>
       </c>
       <c r="C339" s="32" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D339" s="31"/>
       <c r="E339" s="31" t="s">
@@ -17666,7 +17665,7 @@
         <v>1009</v>
       </c>
       <c r="C346" s="18" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D346" s="27"/>
       <c r="E346" s="27" t="s">
@@ -17716,7 +17715,7 @@
         <v>1009</v>
       </c>
       <c r="C348" s="18" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D348" s="27"/>
       <c r="E348" s="27" t="s">
@@ -17791,7 +17790,7 @@
         <v>1009</v>
       </c>
       <c r="C351" s="18" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D351" s="27"/>
       <c r="E351" s="27" t="s">
@@ -17816,7 +17815,7 @@
         <v>1009</v>
       </c>
       <c r="C352" s="18" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D352" s="27"/>
       <c r="E352" s="27" t="s">
@@ -18366,7 +18365,7 @@
         <v>1010</v>
       </c>
       <c r="C374" s="18" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="D374" s="27"/>
       <c r="E374" s="27" t="s">
@@ -18391,7 +18390,7 @@
         <v>1010</v>
       </c>
       <c r="C375" s="18" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="D375" s="27"/>
       <c r="E375" s="27" t="s">
@@ -18493,7 +18492,7 @@
         <v>1011</v>
       </c>
       <c r="C379" s="18" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D379" s="27"/>
       <c r="E379" s="27" t="s">
@@ -18518,7 +18517,7 @@
         <v>1011</v>
       </c>
       <c r="C380" s="18" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="D380" s="27"/>
       <c r="E380" s="27" t="s">
@@ -18543,7 +18542,7 @@
         <v>1012</v>
       </c>
       <c r="C381" s="18" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D381" s="27"/>
       <c r="E381" s="27" t="s">
@@ -18618,7 +18617,7 @@
         <v>1013</v>
       </c>
       <c r="C384" s="18" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D384" s="27"/>
       <c r="E384" s="27" t="s">
@@ -18693,7 +18692,7 @@
         <v>1014</v>
       </c>
       <c r="C387" s="18" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D387" s="27"/>
       <c r="E387" s="27" t="s">
@@ -18718,7 +18717,7 @@
         <v>1014</v>
       </c>
       <c r="C388" s="18" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="D388" s="27"/>
       <c r="E388" s="27" t="s">
@@ -18743,7 +18742,7 @@
         <v>1015</v>
       </c>
       <c r="C389" s="18" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D389" s="27"/>
       <c r="E389" s="27" t="s">
@@ -18793,7 +18792,7 @@
         <v>1016</v>
       </c>
       <c r="C391" s="18" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D391" s="27"/>
       <c r="E391" s="27" t="s">
@@ -19193,7 +19192,7 @@
         <v>1017</v>
       </c>
       <c r="C407" s="18" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="D407" s="27"/>
       <c r="E407" s="27" t="s">
@@ -19320,7 +19319,7 @@
         <v>1017</v>
       </c>
       <c r="C412" s="18" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D412" s="27"/>
       <c r="E412" s="27" t="s">
@@ -19845,7 +19844,7 @@
         <v>1022</v>
       </c>
       <c r="C433" s="18" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D433" s="27"/>
       <c r="E433" s="27" t="s">
@@ -20172,7 +20171,7 @@
         <v>1025</v>
       </c>
       <c r="C446" s="18" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D446" s="27"/>
       <c r="E446" s="27" t="s">
@@ -20247,7 +20246,7 @@
         <v>1025</v>
       </c>
       <c r="C449" s="18" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D449" s="27"/>
       <c r="E449" s="27" t="s">
@@ -20822,7 +20821,7 @@
         <v>1032</v>
       </c>
       <c r="C472" s="18" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D472" s="27"/>
       <c r="E472" s="27" t="s">
@@ -20897,7 +20896,7 @@
         <v>1033</v>
       </c>
       <c r="C475" s="18" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="D475" s="27"/>
       <c r="E475" s="27" t="s">
@@ -20999,7 +20998,7 @@
         <v>1033</v>
       </c>
       <c r="C479" s="18" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D479" s="27"/>
       <c r="E479" s="27" t="s">
@@ -21024,7 +21023,7 @@
         <v>1033</v>
       </c>
       <c r="C480" s="18" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="D480" s="27"/>
       <c r="E480" s="27" t="s">
@@ -21499,7 +21498,7 @@
         <v>1039</v>
       </c>
       <c r="C499" s="18" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D499" s="27"/>
       <c r="E499" s="27" t="s">
@@ -21518,13 +21517,13 @@
     </row>
     <row r="500" spans="1:9" ht="30">
       <c r="A500" s="20" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B500" s="28" t="s">
         <v>1039</v>
       </c>
       <c r="C500" s="18" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D500" s="31"/>
       <c r="E500" s="31" t="s">
@@ -21549,7 +21548,7 @@
         <v>1039</v>
       </c>
       <c r="C501" s="18" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D501" s="27"/>
       <c r="E501" s="27" t="s">
@@ -21649,13 +21648,13 @@
     </row>
     <row r="505" spans="1:9" ht="90">
       <c r="A505" s="20" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B505" s="28" t="s">
         <v>1039</v>
       </c>
       <c r="C505" s="18" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D505" s="31"/>
       <c r="E505" s="31" t="s">
@@ -21671,21 +21670,21 @@
         <v>17</v>
       </c>
       <c r="I505" s="32" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="506" spans="1:9" ht="45">
       <c r="A506" s="20" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B506" s="28" t="s">
         <v>1039</v>
       </c>
       <c r="C506" s="18" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D506" s="31" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E506" s="31" t="s">
         <v>19</v>
@@ -21703,16 +21702,16 @@
     </row>
     <row r="507" spans="1:9" ht="90">
       <c r="A507" s="20" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B507" s="28" t="s">
         <v>1039</v>
       </c>
       <c r="C507" s="18" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D507" s="31" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E507" s="31" t="s">
         <v>19</v>
@@ -21736,7 +21735,7 @@
         <v>1039</v>
       </c>
       <c r="C508" s="18" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D508" s="27"/>
       <c r="E508" s="27" t="s">
@@ -21836,13 +21835,13 @@
     </row>
     <row r="512" spans="1:9" ht="60">
       <c r="A512" s="20" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B512" s="28" t="s">
         <v>1039</v>
       </c>
       <c r="C512" s="18" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D512" s="31"/>
       <c r="E512" s="27" t="s">
@@ -21858,21 +21857,21 @@
         <v>17</v>
       </c>
       <c r="I512" s="32" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="513" spans="1:9" ht="45">
       <c r="A513" s="31" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B513" s="28" t="s">
         <v>1039</v>
       </c>
       <c r="C513" s="18" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D513" s="31" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E513" s="27" t="s">
         <v>19</v>
@@ -21890,16 +21889,16 @@
     </row>
     <row r="514" spans="1:9" ht="45">
       <c r="A514" s="31" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B514" s="28" t="s">
         <v>1039</v>
       </c>
       <c r="C514" s="18" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D514" s="31" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E514" s="27" t="s">
         <v>19</v>
@@ -21923,7 +21922,7 @@
         <v>1039</v>
       </c>
       <c r="C515" s="18" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D515" s="27"/>
       <c r="E515" s="27" t="s">
@@ -22348,7 +22347,7 @@
         <v>1041</v>
       </c>
       <c r="C532" s="18" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D532" s="27"/>
       <c r="E532" s="27" t="s">
@@ -22373,7 +22372,7 @@
         <v>1041</v>
       </c>
       <c r="C533" s="18" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="D533" s="27"/>
       <c r="E533" s="27" t="s">
@@ -22398,7 +22397,7 @@
         <v>1042</v>
       </c>
       <c r="C534" s="18" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="D534" s="27"/>
       <c r="E534" s="27" t="s">
@@ -22448,7 +22447,7 @@
         <v>1043</v>
       </c>
       <c r="C536" s="18" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D536" s="27"/>
       <c r="E536" s="27" t="s">
@@ -22523,7 +22522,7 @@
         <v>1044</v>
       </c>
       <c r="C539" s="18" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D539" s="27"/>
       <c r="E539" s="27" t="s">
@@ -22548,7 +22547,7 @@
         <v>1044</v>
       </c>
       <c r="C540" s="18" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="D540" s="27"/>
       <c r="E540" s="27" t="s">
@@ -22573,7 +22572,7 @@
         <v>1045</v>
       </c>
       <c r="C541" s="18" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D541" s="27"/>
       <c r="E541" s="27" t="s">
@@ -22598,7 +22597,7 @@
         <v>1045</v>
       </c>
       <c r="C542" s="18" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D542" s="27"/>
       <c r="E542" s="27" t="s">
@@ -22673,7 +22672,7 @@
         <v>1046</v>
       </c>
       <c r="C545" s="18" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D545" s="27"/>
       <c r="E545" s="27" t="s">
@@ -23252,7 +23251,7 @@
         <v>1053</v>
       </c>
       <c r="C568" s="18" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D568" s="27"/>
       <c r="E568" s="27" t="s">
@@ -23402,7 +23401,7 @@
         <v>1054</v>
       </c>
       <c r="C574" s="18" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="D574" s="27"/>
       <c r="E574" s="27" t="s">
@@ -23829,7 +23828,7 @@
         <v>1059</v>
       </c>
       <c r="C591" s="18" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D591" s="27"/>
       <c r="E591" s="27" t="s">
@@ -23873,13 +23872,13 @@
     </row>
     <row r="593" spans="1:9" ht="30">
       <c r="A593" s="31" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B593" s="28" t="s">
         <v>1059</v>
       </c>
       <c r="C593" s="32" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D593" s="31"/>
       <c r="E593" s="31" t="s">
@@ -24029,7 +24028,7 @@
         <v>1061</v>
       </c>
       <c r="C599" s="18" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="D599" s="27"/>
       <c r="E599" s="27" t="s">
@@ -24131,7 +24130,7 @@
         <v>1061</v>
       </c>
       <c r="C603" s="18" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="D603" s="27"/>
       <c r="E603" s="27" t="s">
@@ -24506,7 +24505,7 @@
         <v>1068</v>
       </c>
       <c r="C618" s="18" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="D618" s="27"/>
       <c r="E618" s="27" t="s">
@@ -24883,7 +24882,7 @@
         <v>1073</v>
       </c>
       <c r="C633" s="18" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D633" s="27"/>
       <c r="E633" s="27" t="s">
@@ -25110,7 +25109,7 @@
         <v>1075</v>
       </c>
       <c r="C642" s="18" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="D642" s="27"/>
       <c r="E642" s="27" t="s">
@@ -25587,7 +25586,7 @@
         <v>1080</v>
       </c>
       <c r="C661" s="18" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D661" s="27"/>
       <c r="E661" s="27" t="s">
@@ -25712,7 +25711,7 @@
         <v>1081</v>
       </c>
       <c r="C666" s="18" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D666" s="27"/>
       <c r="E666" s="27" t="s">
@@ -25737,7 +25736,7 @@
         <v>1081</v>
       </c>
       <c r="C667" s="18" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D667" s="27"/>
       <c r="E667" s="27" t="s">
@@ -25789,7 +25788,7 @@
         <v>1082</v>
       </c>
       <c r="C669" s="18" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="D669" s="27"/>
       <c r="E669" s="27" t="s">
@@ -25816,7 +25815,7 @@
         <v>1082</v>
       </c>
       <c r="C670" s="18" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="D670" s="27"/>
       <c r="E670" s="27" t="s">
@@ -25841,7 +25840,7 @@
         <v>1082</v>
       </c>
       <c r="C671" s="18" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="D671" s="27"/>
       <c r="E671" s="27" t="s">
@@ -26991,7 +26990,7 @@
         <v>1087</v>
       </c>
       <c r="C717" s="18" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D717" s="27"/>
       <c r="E717" s="27" t="s">
@@ -27010,13 +27009,13 @@
     </row>
     <row r="718" spans="1:9" ht="30">
       <c r="A718" s="20" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B718" s="22" t="s">
         <v>1087</v>
       </c>
       <c r="C718" s="32" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D718" s="31"/>
       <c r="E718" s="27" t="s">
@@ -27035,13 +27034,13 @@
     </row>
     <row r="719" spans="1:9" ht="30">
       <c r="A719" s="20" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B719" s="22" t="s">
         <v>1087</v>
       </c>
       <c r="C719" s="32" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D719" s="31"/>
       <c r="E719" s="27" t="s">
@@ -27060,13 +27059,13 @@
     </row>
     <row r="720" spans="1:9" ht="30">
       <c r="A720" s="20" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B720" s="22" t="s">
         <v>1087</v>
       </c>
       <c r="C720" s="32" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D720" s="31"/>
       <c r="E720" s="27" t="s">
@@ -27085,13 +27084,13 @@
     </row>
     <row r="721" spans="1:9" ht="30">
       <c r="A721" s="20" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B721" s="22" t="s">
         <v>1087</v>
       </c>
       <c r="C721" s="18" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="D721" s="31"/>
       <c r="E721" s="27" t="s">
@@ -27116,7 +27115,7 @@
         <v>1088</v>
       </c>
       <c r="C722" s="18" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D722" s="27"/>
       <c r="E722" s="27" t="s">
@@ -27466,7 +27465,7 @@
         <v>1088</v>
       </c>
       <c r="C736" s="18" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D736" s="27"/>
       <c r="E736" s="27" t="s">
@@ -27491,7 +27490,7 @@
         <v>1088</v>
       </c>
       <c r="C737" s="18" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D737" s="27"/>
       <c r="E737" s="27" t="s">
@@ -27510,13 +27509,13 @@
     </row>
     <row r="738" spans="1:9" ht="30">
       <c r="A738" s="20" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B738" s="28" t="s">
         <v>1088</v>
       </c>
       <c r="C738" s="32" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D738" s="31"/>
       <c r="E738" s="31" t="s">
@@ -27793,7 +27792,7 @@
         <v>1089</v>
       </c>
       <c r="C749" s="18" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="D749" s="27"/>
       <c r="E749" s="27" t="s">
@@ -28445,7 +28444,7 @@
         <v>1094</v>
       </c>
       <c r="C775" s="18" t="s">
-        <v>2019</v>
+        <v>2158</v>
       </c>
       <c r="D775" s="27"/>
       <c r="E775" s="27" t="s">
@@ -28489,13 +28488,13 @@
     </row>
     <row r="777" spans="1:9" ht="30">
       <c r="A777" s="20" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B777" s="28" t="s">
         <v>1094</v>
       </c>
       <c r="C777" s="32" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D777" s="31"/>
       <c r="E777" s="31" t="s">
@@ -29520,7 +29519,7 @@
         <v>1096</v>
       </c>
       <c r="C818" s="18" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="D818" s="27"/>
       <c r="E818" s="27" t="s">
@@ -29997,7 +29996,7 @@
         <v>1101</v>
       </c>
       <c r="C837" s="18" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D837" s="27"/>
       <c r="E837" s="27" t="s">
@@ -30041,13 +30040,13 @@
     </row>
     <row r="839" spans="1:9" ht="30">
       <c r="A839" s="20" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B839" s="28" t="s">
         <v>1101</v>
       </c>
       <c r="C839" s="32" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D839" s="31"/>
       <c r="E839" s="27" t="s">
@@ -30322,7 +30321,7 @@
         <v>1102</v>
       </c>
       <c r="C850" s="18" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D850" s="27"/>
       <c r="E850" s="27" t="s">
@@ -30397,7 +30396,7 @@
         <v>1103</v>
       </c>
       <c r="C853" s="18" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="D853" s="27"/>
       <c r="E853" s="27" t="s">
@@ -30472,7 +30471,7 @@
         <v>1103</v>
       </c>
       <c r="C856" s="18" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="D856" s="27"/>
       <c r="E856" s="27" t="s">
@@ -30497,7 +30496,7 @@
         <v>1103</v>
       </c>
       <c r="C857" s="18" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="D857" s="27"/>
       <c r="E857" s="27" t="s">
@@ -30547,7 +30546,7 @@
         <v>1104</v>
       </c>
       <c r="C859" s="18" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="D859" s="27"/>
       <c r="E859" s="27" t="s">
@@ -30572,7 +30571,7 @@
         <v>1104</v>
       </c>
       <c r="C860" s="18" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="D860" s="27"/>
       <c r="E860" s="27" t="s">
@@ -30597,7 +30596,7 @@
         <v>1105</v>
       </c>
       <c r="C861" s="18" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="D861" s="27"/>
       <c r="E861" s="27" t="s">
@@ -30672,7 +30671,7 @@
         <v>1106</v>
       </c>
       <c r="C864" s="18" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="D864" s="27"/>
       <c r="E864" s="27" t="s">
@@ -30822,7 +30821,7 @@
         <v>1108</v>
       </c>
       <c r="C870" s="18" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="D870" s="27"/>
       <c r="E870" s="27" t="s">
@@ -30847,7 +30846,7 @@
         <v>1108</v>
       </c>
       <c r="C871" s="18" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="D871" s="27"/>
       <c r="E871" s="27" t="s">
@@ -30897,7 +30896,7 @@
         <v>1109</v>
       </c>
       <c r="C873" s="18" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="D873" s="27"/>
       <c r="E873" s="27" t="s">
@@ -30922,7 +30921,7 @@
         <v>1109</v>
       </c>
       <c r="C874" s="18" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="D874" s="27"/>
       <c r="E874" s="27" t="s">
@@ -31109,7 +31108,7 @@
         <v>7</v>
       </c>
       <c r="C881" s="18" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="D881" s="20" t="s">
         <v>1840</v>
@@ -31132,16 +31131,16 @@
     </row>
     <row r="882" spans="1:9" ht="45">
       <c r="A882" s="20" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="B882" s="22" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="C882" s="18" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="D882" s="20" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="E882" s="27" t="s">
         <v>22</v>
@@ -31159,16 +31158,16 @@
     </row>
     <row r="883" spans="1:9" ht="45">
       <c r="A883" s="20" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="B883" s="22" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="C883" s="18" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="D883" s="20" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="E883" s="27" t="s">
         <v>22</v>
@@ -31188,16 +31187,16 @@
     </row>
     <row r="884" spans="1:9" ht="60">
       <c r="A884" s="20" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="B884" s="22" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="C884" s="18" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
       <c r="D884" s="20" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="E884" s="27" t="s">
         <v>22</v>
@@ -31215,16 +31214,16 @@
     </row>
     <row r="885" spans="1:9" ht="45">
       <c r="A885" s="20" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="B885" s="22" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="C885" s="18" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="D885" s="20" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="E885" s="27" t="s">
         <v>22</v>
@@ -31250,7 +31249,7 @@
         <v>7</v>
       </c>
       <c r="C886" s="18" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="D886" s="20" t="s">
         <v>1841</v>
@@ -31277,7 +31276,7 @@
         <v>7</v>
       </c>
       <c r="C887" s="18" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="D887" s="20" t="s">
         <v>1841</v>
@@ -31306,7 +31305,7 @@
         <v>7</v>
       </c>
       <c r="C888" s="18" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="D888" s="20" t="s">
         <v>1842</v>
@@ -31333,7 +31332,7 @@
         <v>7</v>
       </c>
       <c r="C889" s="18" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="D889" s="20" t="s">
         <v>1842</v>
@@ -31362,7 +31361,7 @@
         <v>7</v>
       </c>
       <c r="C890" s="18" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="D890" s="20" t="s">
         <v>1843</v>
@@ -31389,7 +31388,7 @@
         <v>7</v>
       </c>
       <c r="C891" s="18" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="D891" s="20" t="s">
         <v>1843</v>
@@ -31418,7 +31417,7 @@
         <v>7</v>
       </c>
       <c r="C892" s="18" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="D892" s="20" t="s">
         <v>1844</v>
@@ -31445,7 +31444,7 @@
         <v>7</v>
       </c>
       <c r="C893" s="18" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="D893" s="20" t="s">
         <v>1844</v>
@@ -31474,7 +31473,7 @@
         <v>7</v>
       </c>
       <c r="C894" s="18" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="D894" s="20" t="s">
         <v>1837</v>
@@ -31501,7 +31500,7 @@
         <v>7</v>
       </c>
       <c r="C895" s="18" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="D895" s="20" t="s">
         <v>1837</v>
@@ -31530,7 +31529,7 @@
         <v>7</v>
       </c>
       <c r="C896" s="18" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="D896" s="20" t="s">
         <v>1838</v>
@@ -31557,7 +31556,7 @@
         <v>7</v>
       </c>
       <c r="C897" s="18" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="D897" s="27"/>
       <c r="E897" s="27" t="s">
@@ -31582,7 +31581,7 @@
         <v>7</v>
       </c>
       <c r="C898" s="18" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="D898" s="27"/>
       <c r="E898" s="27" t="s">
@@ -31632,7 +31631,7 @@
         <v>7</v>
       </c>
       <c r="C900" s="18" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="D900" s="27"/>
       <c r="E900" s="27" t="s">
@@ -31782,7 +31781,7 @@
         <v>7</v>
       </c>
       <c r="C906" s="18" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="D906" s="27"/>
       <c r="E906" s="27" t="s">
@@ -31807,7 +31806,7 @@
         <v>7</v>
       </c>
       <c r="C907" s="18" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="D907" s="27"/>
       <c r="E907" s="27" t="s">
@@ -31876,13 +31875,13 @@
     </row>
     <row r="910" spans="1:9" ht="75">
       <c r="A910" s="20" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B910" s="35" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="C910" s="32" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="D910" s="31"/>
       <c r="E910" s="27" t="s">
@@ -31901,13 +31900,13 @@
     </row>
     <row r="911" spans="1:9" ht="75">
       <c r="A911" s="20" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="B911" s="35" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="C911" s="32" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="D911" s="31"/>
       <c r="E911" s="27" t="s">
@@ -31932,7 +31931,7 @@
         <v>7</v>
       </c>
       <c r="C912" s="18" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="D912" s="20" t="s">
         <v>1845</v>
@@ -31959,7 +31958,7 @@
         <v>7</v>
       </c>
       <c r="C913" s="18" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="D913" s="20" t="s">
         <v>1845</v>
@@ -31988,7 +31987,7 @@
         <v>7</v>
       </c>
       <c r="C914" s="18" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="D914" s="20" t="s">
         <v>1846</v>
@@ -32015,7 +32014,7 @@
         <v>7</v>
       </c>
       <c r="C915" s="18" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="D915" s="20" t="s">
         <v>1847</v>
@@ -32042,7 +32041,7 @@
         <v>7</v>
       </c>
       <c r="C916" s="18" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="D916" s="27" t="s">
         <v>1847</v>
@@ -32071,7 +32070,7 @@
         <v>7</v>
       </c>
       <c r="C917" s="18" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="D917" s="27" t="s">
         <v>1846</v>
@@ -32100,7 +32099,7 @@
         <v>7</v>
       </c>
       <c r="C918" s="18" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="D918" s="27" t="s">
         <v>1848</v>
@@ -32127,7 +32126,7 @@
         <v>7</v>
       </c>
       <c r="C919" s="18" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="D919" s="27" t="s">
         <v>1848</v>
@@ -32156,7 +32155,7 @@
         <v>7</v>
       </c>
       <c r="C920" s="18" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="D920" s="27" t="s">
         <v>1838</v>
@@ -32183,7 +32182,7 @@
         <v>7</v>
       </c>
       <c r="C921" s="18" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="D921" s="27" t="s">
         <v>1849</v>
@@ -32210,7 +32209,7 @@
         <v>7</v>
       </c>
       <c r="C922" s="18" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="D922" s="27" t="s">
         <v>1849</v>
@@ -32239,7 +32238,7 @@
         <v>7</v>
       </c>
       <c r="C923" s="18" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="D923" s="27" t="s">
         <v>1850</v>
@@ -32266,7 +32265,7 @@
         <v>7</v>
       </c>
       <c r="C924" s="18" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="D924" s="27" t="s">
         <v>1850</v>
@@ -32293,7 +32292,7 @@
         <v>7</v>
       </c>
       <c r="C925" s="18" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="D925" s="27" t="s">
         <v>1851</v>
@@ -32320,7 +32319,7 @@
         <v>7</v>
       </c>
       <c r="C926" s="18" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="D926" s="27" t="s">
         <v>1851</v>
@@ -32347,7 +32346,7 @@
         <v>7</v>
       </c>
       <c r="C927" s="18" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="D927" s="27" t="s">
         <v>1852</v>
@@ -32374,7 +32373,7 @@
         <v>7</v>
       </c>
       <c r="C928" s="18" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="D928" s="27" t="s">
         <v>1852</v>
@@ -32403,7 +32402,7 @@
         <v>7</v>
       </c>
       <c r="C929" s="18" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="D929" s="27" t="s">
         <v>1853</v>
@@ -32430,7 +32429,7 @@
         <v>7</v>
       </c>
       <c r="C930" s="18" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="D930" s="27" t="s">
         <v>1853</v>
@@ -32459,7 +32458,7 @@
         <v>7</v>
       </c>
       <c r="C931" s="18" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="D931" s="27" t="s">
         <v>1854</v>
@@ -32486,7 +32485,7 @@
         <v>7</v>
       </c>
       <c r="C932" s="18" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="D932" s="27" t="s">
         <v>1854</v>
@@ -32515,7 +32514,7 @@
         <v>7</v>
       </c>
       <c r="C933" s="18" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="D933" s="27" t="s">
         <v>1855</v>
@@ -32542,7 +32541,7 @@
         <v>7</v>
       </c>
       <c r="C934" s="18" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="D934" s="27" t="s">
         <v>1855</v>
@@ -32571,7 +32570,7 @@
         <v>7</v>
       </c>
       <c r="C935" s="18" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="D935" s="27" t="s">
         <v>1856</v>
@@ -32598,7 +32597,7 @@
         <v>7</v>
       </c>
       <c r="C936" s="18" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="D936" s="27" t="s">
         <v>1856</v>
@@ -32627,7 +32626,7 @@
         <v>7</v>
       </c>
       <c r="C937" s="18" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="D937" s="27" t="s">
         <v>1857</v>
@@ -32654,7 +32653,7 @@
         <v>7</v>
       </c>
       <c r="C938" s="18" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="D938" s="27" t="s">
         <v>1857</v>
@@ -32683,7 +32682,7 @@
         <v>7</v>
       </c>
       <c r="C939" s="18" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="D939" s="27" t="s">
         <v>1858</v>
@@ -32710,7 +32709,7 @@
         <v>7</v>
       </c>
       <c r="C940" s="18" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="D940" s="27" t="s">
         <v>1858</v>
@@ -33278,6 +33277,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -33285,11 +33289,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A689:B689 E942:E945 D689:I689 A877:H877 A946:I959 I669:I877 A690:I876 A20:I688 A878:I941">
@@ -33398,7 +33397,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 B18:B27 B10:B16 B886:B959 C3 B28:B55 B59:B881" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 B18:B27 B10:B16 B886:B959 B28:B55 B59:B881" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -33414,15 +33413,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -33471,6 +33461,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
@@ -33486,14 +33485,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33506,4 +33497,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>